--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lohith.gowdra/Arcline/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\ARCLINEEE\New folder (2)\BILLS\DEALERS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D299B3A-21FA-1348-AFC1-7A065BEFA9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="760" windowWidth="25620" windowHeight="18040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$63</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="162913" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -416,7 +415,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -833,20 +832,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -857,7 +856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -868,7 +867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -879,7 +878,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -890,7 +889,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -901,7 +900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -912,7 +911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -923,7 +922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -934,7 +933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -945,7 +944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -956,7 +955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -967,7 +966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -978,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -989,7 +988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1000,7 +999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1011,7 +1010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1022,7 +1021,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1033,7 +1032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1044,7 +1043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1055,7 +1054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1066,7 +1065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1077,7 +1076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1088,7 +1087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1099,7 +1098,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1116,20 +1115,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70ADC46-4F1B-1145-BBBF-030BD5B59A89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1140,7 +1139,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1151,7 +1150,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1162,7 +1161,7 @@
         <v>1209.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1173,7 +1172,7 @@
         <v>1209.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1184,7 +1183,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1195,7 +1194,7 @@
         <v>1931.424</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1206,7 +1205,7 @@
         <v>1931.42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1217,7 +1216,7 @@
         <v>1880.44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1228,7 +1227,7 @@
         <v>1835.136</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1239,7 +1238,7 @@
         <v>1852.6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1250,7 +1249,7 @@
         <v>1880.44</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1261,7 +1260,7 @@
         <v>1852.6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>7</v>
       </c>
@@ -1272,7 +1271,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1283,7 +1282,7 @@
         <v>2684.5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1294,7 +1293,7 @@
         <v>2684.5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1305,7 +1304,7 @@
         <v>1834.9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1316,7 +1315,7 @@
         <v>1609.52</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1327,7 +1326,7 @@
         <v>1886.82</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1338,7 +1337,7 @@
         <v>1421.9</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1349,7 +1348,7 @@
         <v>2289.1999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1360,7 +1359,7 @@
         <v>911.9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1371,7 +1370,7 @@
         <v>1014.98</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1382,7 +1381,7 @@
         <v>843.7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1399,14 +1398,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CA5D1B-F45B-F94C-9B5B-E13A5A0F0D4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1420,7 +1419,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45121</v>
       </c>
@@ -1434,7 +1433,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45097</v>
       </c>
@@ -1448,7 +1447,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45121</v>
       </c>
@@ -1462,7 +1461,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45132</v>
       </c>
@@ -1476,7 +1475,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45136</v>
       </c>
@@ -1490,7 +1489,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45138</v>
       </c>
@@ -1504,7 +1503,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45177</v>
       </c>
@@ -1518,7 +1517,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45177</v>
       </c>
@@ -1532,7 +1531,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45178</v>
       </c>
@@ -1546,7 +1545,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45204</v>
       </c>
@@ -1560,7 +1559,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45204</v>
       </c>
@@ -1574,7 +1573,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45198</v>
       </c>
@@ -1588,7 +1587,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45204</v>
       </c>
@@ -1608,25 +1607,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514AAFE6-B187-C648-916F-C2E6A5745BD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.83203125" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>80</v>
       </c>
@@ -1655,7 +1654,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>49</v>
       </c>
@@ -1681,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>50</v>
       </c>
@@ -1707,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>50</v>
       </c>
@@ -1733,7 +1732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>50</v>
       </c>
@@ -1759,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>50</v>
       </c>
@@ -1785,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>51</v>
       </c>
@@ -1811,7 +1810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>51</v>
       </c>
@@ -1837,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>51</v>
       </c>
@@ -1863,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>52</v>
       </c>
@@ -1889,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>53</v>
       </c>
@@ -1915,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>54</v>
       </c>
@@ -1941,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>55</v>
       </c>
@@ -1967,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>56</v>
       </c>
@@ -1993,7 +1992,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>57</v>
       </c>
@@ -2019,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>57</v>
       </c>
@@ -2045,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>58</v>
       </c>
@@ -2071,7 +2070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>59</v>
       </c>
@@ -2097,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>59</v>
       </c>
@@ -2114,7 +2113,7 @@
         <v>7700</v>
       </c>
       <c r="F19" s="10">
-        <v>7700</v>
+        <v>0</v>
       </c>
       <c r="G19" s="10">
         <v>0</v>
@@ -2123,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>60</v>
       </c>
@@ -2149,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>60</v>
       </c>
@@ -2175,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>60</v>
       </c>
@@ -2204,7 +2203,7 @@
         <v>45257</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>60</v>
       </c>
@@ -2233,7 +2232,7 @@
         <v>45257</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>61</v>
       </c>
@@ -2244,7 +2243,7 @@
         <v>61</v>
       </c>
       <c r="D24" s="11">
-        <v>45195</v>
+        <v>45164</v>
       </c>
       <c r="E24" s="7">
         <v>5000</v>
@@ -2262,7 +2261,7 @@
         <v>45257</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>62</v>
       </c>
@@ -2288,7 +2287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>63</v>
       </c>
@@ -2314,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>63</v>
       </c>
@@ -2340,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>63</v>
       </c>
@@ -2366,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>64</v>
       </c>
@@ -2392,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>65</v>
       </c>
@@ -2421,7 +2420,7 @@
         <v>45255</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>65</v>
       </c>
@@ -2450,7 +2449,7 @@
         <v>45255</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>66</v>
       </c>
@@ -2476,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>66</v>
       </c>
@@ -2502,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>67</v>
       </c>
@@ -2528,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>68</v>
       </c>
@@ -2557,7 +2556,7 @@
         <v>45258</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>69</v>
       </c>
@@ -2583,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>70</v>
       </c>
@@ -2612,7 +2611,7 @@
         <v>45257</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>71</v>
       </c>
@@ -2641,7 +2640,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>72</v>
       </c>
@@ -2667,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>72</v>
       </c>
@@ -2693,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>72</v>
       </c>
@@ -2719,7 +2718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>72</v>
       </c>
@@ -2745,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>72</v>
       </c>
@@ -2771,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>72</v>
       </c>
@@ -2797,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>72</v>
       </c>
@@ -2823,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
         <v>73</v>
       </c>
@@ -2849,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
         <v>73</v>
       </c>
@@ -2875,7 +2874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
         <v>74</v>
       </c>
@@ -2901,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>74</v>
       </c>
@@ -2927,7 +2926,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
         <v>75</v>
       </c>
@@ -2953,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>75</v>
       </c>
@@ -2979,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
         <v>75</v>
       </c>
@@ -2990,13 +2989,13 @@
         <v>16</v>
       </c>
       <c r="D52" s="11">
-        <v>45219</v>
+        <v>45097</v>
       </c>
       <c r="E52" s="7">
-        <v>9308</v>
+        <v>9398</v>
       </c>
       <c r="F52" s="10">
-        <v>9308</v>
+        <v>9398</v>
       </c>
       <c r="G52" s="10">
         <v>0</v>
@@ -3005,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
         <v>75</v>
       </c>
@@ -3031,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
         <v>75</v>
       </c>
@@ -3057,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
         <v>75</v>
       </c>
@@ -3083,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
         <v>76</v>
       </c>
@@ -3109,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
         <v>77</v>
       </c>
@@ -3135,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
         <v>78</v>
       </c>
@@ -3161,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
         <v>79</v>
       </c>
@@ -3187,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
         <v>120</v>
       </c>
@@ -3213,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="16" t="s">
         <v>114</v>
       </c>
@@ -3239,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="16" t="s">
         <v>115</v>
       </c>
@@ -3265,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
         <v>117</v>
       </c>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="137">
   <si>
     <t>Model</t>
   </si>
@@ -410,6 +410,48 @@
   </si>
   <si>
     <t>Committed_date</t>
+  </si>
+  <si>
+    <t>SI-CH-133</t>
+  </si>
+  <si>
+    <t>SI-KA-62</t>
+  </si>
+  <si>
+    <t>SI-KA-63</t>
+  </si>
+  <si>
+    <t>SI-KA-72</t>
+  </si>
+  <si>
+    <t>SI-KA-73</t>
+  </si>
+  <si>
+    <t>NOT_PAID</t>
+  </si>
+  <si>
+    <t>900 mm celino brown</t>
+  </si>
+  <si>
+    <t>225mm green air metal exhaust fan high speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trend brown </t>
+  </si>
+  <si>
+    <t xml:space="preserve">trend bianco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">trend majestic blue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">trend smoky brown </t>
+  </si>
+  <si>
+    <t>600mm celino brown</t>
+  </si>
+  <si>
+    <t>600mm celino white</t>
   </si>
 </sst>
 </file>
@@ -833,16 +875,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -875,7 +917,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -886,7 +928,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1095,7 +1137,7 @@
         <v>27</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1106,7 +1148,95 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1116,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1392,6 +1522,70 @@
         <v>815.61</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32">
+        <v>1180</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1399,9 +1593,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1599,6 +1795,76 @@
       </c>
       <c r="D14" s="2" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>45250</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="3">
+        <v>256720.8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>45229</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3540</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>45230</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="3">
+        <v>79743.22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>45250</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="3">
+        <v>166899.20000000001</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>45250</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1840.8</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1610,8 +1876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="B16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="137">
   <si>
     <t>Model</t>
   </si>
@@ -878,7 +878,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="A25" sqref="A25:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1248,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1523,6 +1523,9 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
       <c r="B25" t="s">
         <v>130</v>
       </c>
@@ -1531,6 +1534,9 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
       <c r="B26" t="s">
         <v>129</v>
       </c>
@@ -1539,6 +1545,9 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
       <c r="B27" t="s">
         <v>131</v>
       </c>
@@ -1547,6 +1556,9 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
       <c r="B28" t="s">
         <v>132</v>
       </c>
@@ -1555,6 +1567,9 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
       <c r="B29" t="s">
         <v>133</v>
       </c>
@@ -1563,6 +1578,9 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
       <c r="B30" t="s">
         <v>134</v>
       </c>
@@ -1571,6 +1589,9 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
       <c r="B31" t="s">
         <v>135</v>
       </c>
@@ -1579,6 +1600,9 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
       <c r="B32" t="s">
         <v>136</v>
       </c>
@@ -1595,7 +1619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sales" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$64</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="137">
   <si>
     <t>Model</t>
   </si>
@@ -877,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A32"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1248,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1530,7 +1530,7 @@
         <v>130</v>
       </c>
       <c r="C25">
-        <v>1050</v>
+        <v>1050.2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1620,7 +1620,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1822,7 +1822,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="1">
         <v>45250</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1836,7 +1836,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16" s="1">
         <v>45229</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1898,10 +1898,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2013,7 +2013,7 @@
         <v>9600</v>
       </c>
       <c r="F4" s="10">
-        <v>0</v>
+        <v>9600</v>
       </c>
       <c r="G4" s="10">
         <v>6000</v>
@@ -2523,20 +2523,20 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>61</v>
+      <c r="A24" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C24" s="7">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="D24" s="11">
-        <v>45164</v>
+        <v>45259</v>
       </c>
       <c r="E24" s="7">
-        <v>5000</v>
+        <v>13990</v>
       </c>
       <c r="F24" s="10">
         <v>0</v>
@@ -2547,25 +2547,23 @@
       <c r="H24" s="10">
         <v>0</v>
       </c>
-      <c r="I24" s="4">
-        <v>45257</v>
-      </c>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" s="7">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D25" s="11">
-        <v>45181</v>
+        <v>45164</v>
       </c>
       <c r="E25" s="7">
-        <v>12899</v>
+        <v>5000</v>
       </c>
       <c r="F25" s="10">
         <v>0</v>
@@ -2575,26 +2573,29 @@
       </c>
       <c r="H25" s="10">
         <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>45257</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D26" s="11">
-        <v>45177</v>
+        <v>45181</v>
       </c>
       <c r="E26" s="7">
-        <v>14300</v>
+        <v>12899</v>
       </c>
       <c r="F26" s="10">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G26" s="10">
         <v>0</v>
@@ -2611,16 +2612,16 @@
         <v>100</v>
       </c>
       <c r="C27" s="7">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D27" s="11">
-        <v>45202</v>
+        <v>45177</v>
       </c>
       <c r="E27" s="7">
-        <v>8700</v>
+        <v>14300</v>
       </c>
       <c r="F27" s="10">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="G27" s="10">
         <v>0</v>
@@ -2637,13 +2638,13 @@
         <v>100</v>
       </c>
       <c r="C28" s="7">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D28" s="11">
-        <v>45225</v>
+        <v>45202</v>
       </c>
       <c r="E28" s="7">
-        <v>13478</v>
+        <v>8700</v>
       </c>
       <c r="F28" s="10">
         <v>0</v>
@@ -2657,22 +2658,22 @@
     </row>
     <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C29" s="7">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D29" s="11">
-        <v>45155</v>
+        <v>45225</v>
       </c>
       <c r="E29" s="7">
-        <v>5000</v>
+        <v>13478</v>
       </c>
       <c r="F29" s="10">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G29" s="10">
         <v>0</v>
@@ -2683,31 +2684,28 @@
     </row>
     <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="12">
-        <v>72</v>
+        <v>91</v>
+      </c>
+      <c r="C30" s="7">
+        <v>56</v>
       </c>
       <c r="D30" s="11">
-        <v>45181</v>
+        <v>45155</v>
       </c>
       <c r="E30" s="7">
-        <v>17900</v>
+        <v>5000</v>
       </c>
       <c r="F30" s="10">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G30" s="10">
         <v>0</v>
       </c>
       <c r="H30" s="10">
         <v>0</v>
-      </c>
-      <c r="I30" s="4">
-        <v>45255</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -2717,14 +2715,14 @@
       <c r="B31" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="7">
-        <v>73</v>
+      <c r="C31" s="12">
+        <v>72</v>
       </c>
       <c r="D31" s="11">
-        <v>45182</v>
+        <v>45181</v>
       </c>
       <c r="E31" s="7">
-        <v>12440</v>
+        <v>17900</v>
       </c>
       <c r="F31" s="10">
         <v>0</v>
@@ -2741,28 +2739,31 @@
     </row>
     <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C32" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D32" s="11">
         <v>45182</v>
       </c>
       <c r="E32" s="7">
-        <v>6500</v>
+        <v>12440</v>
       </c>
       <c r="F32" s="10">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G32" s="10">
         <v>0</v>
       </c>
       <c r="H32" s="10">
         <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <v>45255</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -2773,149 +2774,146 @@
         <v>102</v>
       </c>
       <c r="C33" s="7">
+        <v>74</v>
+      </c>
+      <c r="D33" s="11">
+        <v>45182</v>
+      </c>
+      <c r="E33" s="7">
+        <v>6500</v>
+      </c>
+      <c r="F33" s="10">
+        <v>6500</v>
+      </c>
+      <c r="G33" s="10">
+        <v>0</v>
+      </c>
+      <c r="H33" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="7">
         <v>78</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D34" s="11">
         <v>45188</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E34" s="7">
         <v>9000</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F34" s="10">
         <v>9000</v>
       </c>
-      <c r="G33" s="10">
-        <v>0</v>
-      </c>
-      <c r="H33" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+      <c r="G34" s="10">
+        <v>0</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B35" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C35" s="7">
         <v>76</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="11">
         <v>45183</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E35" s="7">
         <v>10200</v>
       </c>
-      <c r="F34" s="10">
-        <v>0</v>
-      </c>
-      <c r="G34" s="10">
-        <v>0</v>
-      </c>
-      <c r="H34" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="7">
-        <v>77</v>
-      </c>
-      <c r="D35" s="11">
-        <v>45184</v>
-      </c>
-      <c r="E35" s="7">
-        <v>15950</v>
-      </c>
       <c r="F35" s="10">
-        <v>2000</v>
-      </c>
-      <c r="G35" s="12">
+        <v>0</v>
+      </c>
+      <c r="G35" s="10">
         <v>0</v>
       </c>
       <c r="H35" s="10">
         <v>0</v>
-      </c>
-      <c r="I35" s="4">
-        <v>45258</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C36" s="7">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D36" s="11">
-        <v>45191</v>
+        <v>45184</v>
       </c>
       <c r="E36" s="7">
-        <v>9398</v>
+        <v>15950</v>
       </c>
       <c r="F36" s="10">
-        <v>1000</v>
-      </c>
-      <c r="G36" s="10">
+        <v>2000</v>
+      </c>
+      <c r="G36" s="12">
         <v>0</v>
       </c>
       <c r="H36" s="10">
         <v>0</v>
+      </c>
+      <c r="I36" s="4">
+        <v>45258</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C37" s="7">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D37" s="11">
-        <v>45201</v>
+        <v>45191</v>
       </c>
       <c r="E37" s="7">
-        <v>9740</v>
+        <v>9398</v>
       </c>
       <c r="F37" s="10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G37" s="10">
         <v>0</v>
       </c>
       <c r="H37" s="10">
         <v>0</v>
-      </c>
-      <c r="I37" s="4">
-        <v>45257</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C38" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D38" s="11">
         <v>45201</v>
       </c>
       <c r="E38" s="7">
-        <v>14100</v>
+        <v>9740</v>
       </c>
       <c r="F38" s="10">
         <v>0</v>
@@ -2927,33 +2925,36 @@
         <v>0</v>
       </c>
       <c r="I38" s="4">
-        <v>45259</v>
+        <v>45257</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C39" s="7">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D39" s="11">
-        <v>45203</v>
+        <v>45201</v>
       </c>
       <c r="E39" s="7">
-        <v>14800</v>
-      </c>
-      <c r="F39" s="12">
-        <v>10000</v>
+        <v>14100</v>
+      </c>
+      <c r="F39" s="10">
+        <v>0</v>
       </c>
       <c r="G39" s="10">
         <v>0</v>
       </c>
       <c r="H39" s="10">
         <v>0</v>
+      </c>
+      <c r="I39" s="4">
+        <v>45259</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -2964,16 +2965,16 @@
         <v>107</v>
       </c>
       <c r="C40" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D40" s="11">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="E40" s="7">
-        <v>9630</v>
-      </c>
-      <c r="F40" s="10">
-        <v>9630</v>
+        <v>14800</v>
+      </c>
+      <c r="F40" s="12">
+        <v>10000</v>
       </c>
       <c r="G40" s="10">
         <v>0</v>
@@ -2990,16 +2991,16 @@
         <v>107</v>
       </c>
       <c r="C41" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D41" s="11">
-        <v>45205</v>
+        <v>45204</v>
       </c>
       <c r="E41" s="7">
-        <v>13800</v>
+        <v>9630</v>
       </c>
       <c r="F41" s="10">
-        <v>13800</v>
+        <v>9630</v>
       </c>
       <c r="G41" s="10">
         <v>0</v>
@@ -3016,16 +3017,16 @@
         <v>107</v>
       </c>
       <c r="C42" s="7">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D42" s="11">
-        <v>45226</v>
+        <v>45205</v>
       </c>
       <c r="E42" s="7">
-        <v>13596</v>
+        <v>13800</v>
       </c>
       <c r="F42" s="10">
-        <v>0</v>
+        <v>13800</v>
       </c>
       <c r="G42" s="10">
         <v>0</v>
@@ -3042,13 +3043,13 @@
         <v>107</v>
       </c>
       <c r="C43" s="7">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D43" s="11">
-        <v>45240</v>
+        <v>45226</v>
       </c>
       <c r="E43" s="7">
-        <v>28900</v>
+        <v>13596</v>
       </c>
       <c r="F43" s="10">
         <v>0</v>
@@ -3068,13 +3069,13 @@
         <v>107</v>
       </c>
       <c r="C44" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D44" s="11">
-        <v>45241</v>
+        <v>45240</v>
       </c>
       <c r="E44" s="7">
-        <v>186301</v>
+        <v>28900</v>
       </c>
       <c r="F44" s="10">
         <v>0</v>
@@ -3094,42 +3095,42 @@
         <v>107</v>
       </c>
       <c r="C45" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D45" s="11">
         <v>45241</v>
       </c>
       <c r="E45" s="7">
+        <v>186301</v>
+      </c>
+      <c r="F45" s="10">
+        <v>0</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0</v>
+      </c>
+      <c r="H45" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="7">
+        <v>109</v>
+      </c>
+      <c r="D46" s="11">
+        <v>45241</v>
+      </c>
+      <c r="E46" s="7">
         <v>22000</v>
       </c>
-      <c r="F45" s="10">
-        <v>0</v>
-      </c>
-      <c r="G45" s="10">
-        <v>0</v>
-      </c>
-      <c r="H45" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C46" s="7">
-        <v>90</v>
-      </c>
-      <c r="D46" s="11">
-        <v>45205</v>
-      </c>
-      <c r="E46" s="7">
-        <v>10000</v>
-      </c>
       <c r="F46" s="10">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G46" s="10">
         <v>0</v>
@@ -3146,16 +3147,16 @@
         <v>108</v>
       </c>
       <c r="C47" s="7">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D47" s="11">
-        <v>45238</v>
+        <v>45205</v>
       </c>
       <c r="E47" s="7">
-        <v>15001</v>
+        <v>10000</v>
       </c>
       <c r="F47" s="10">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G47" s="10">
         <v>0</v>
@@ -3166,19 +3167,19 @@
     </row>
     <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C48" s="7">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D48" s="11">
-        <v>45216</v>
+        <v>45238</v>
       </c>
       <c r="E48" s="7">
-        <v>10200</v>
+        <v>15001</v>
       </c>
       <c r="F48" s="10">
         <v>0</v>
@@ -3198,48 +3199,48 @@
         <v>109</v>
       </c>
       <c r="C49" s="7">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D49" s="11">
-        <v>45234</v>
+        <v>45216</v>
       </c>
       <c r="E49" s="7">
-        <v>20801</v>
+        <v>10200</v>
       </c>
       <c r="F49" s="10">
-        <v>20385</v>
+        <v>0</v>
       </c>
       <c r="G49" s="10">
         <v>0</v>
       </c>
       <c r="H49" s="10">
-        <v>416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C50" s="7">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D50" s="11">
-        <v>45216</v>
+        <v>45234</v>
       </c>
       <c r="E50" s="7">
-        <v>3600</v>
-      </c>
-      <c r="F50" s="8">
-        <v>0</v>
+        <v>20801</v>
+      </c>
+      <c r="F50" s="10">
+        <v>20385</v>
       </c>
       <c r="G50" s="10">
         <v>0</v>
       </c>
       <c r="H50" s="10">
-        <v>0</v>
+        <v>416</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3250,13 +3251,13 @@
         <v>86</v>
       </c>
       <c r="C51" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D51" s="11">
-        <v>45217</v>
+        <v>45216</v>
       </c>
       <c r="E51" s="7">
-        <v>22500</v>
+        <v>3600</v>
       </c>
       <c r="F51" s="8">
         <v>0</v>
@@ -3276,16 +3277,16 @@
         <v>86</v>
       </c>
       <c r="C52" s="7">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="D52" s="11">
-        <v>45097</v>
+        <v>45217</v>
       </c>
       <c r="E52" s="7">
-        <v>9398</v>
-      </c>
-      <c r="F52" s="10">
-        <v>9398</v>
+        <v>22500</v>
+      </c>
+      <c r="F52" s="8">
+        <v>0</v>
       </c>
       <c r="G52" s="10">
         <v>0</v>
@@ -3302,16 +3303,16 @@
         <v>86</v>
       </c>
       <c r="C53" s="7">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D53" s="11">
-        <v>45108</v>
+        <v>45097</v>
       </c>
       <c r="E53" s="7">
-        <v>11250</v>
+        <v>9398</v>
       </c>
       <c r="F53" s="10">
-        <v>11250</v>
+        <v>9398</v>
       </c>
       <c r="G53" s="10">
         <v>0</v>
@@ -3328,16 +3329,16 @@
         <v>86</v>
       </c>
       <c r="C54" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D54" s="11">
-        <v>45111</v>
+        <v>45108</v>
       </c>
       <c r="E54" s="7">
-        <v>28340</v>
+        <v>11250</v>
       </c>
       <c r="F54" s="10">
-        <v>28340</v>
+        <v>11250</v>
       </c>
       <c r="G54" s="10">
         <v>0</v>
@@ -3354,16 +3355,16 @@
         <v>86</v>
       </c>
       <c r="C55" s="7">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="D55" s="11">
-        <v>45251</v>
+        <v>45111</v>
       </c>
       <c r="E55" s="7">
-        <v>8620</v>
+        <v>28340</v>
       </c>
       <c r="F55" s="10">
-        <v>0</v>
+        <v>28340</v>
       </c>
       <c r="G55" s="10">
         <v>0</v>
@@ -3374,19 +3375,19 @@
     </row>
     <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C56" s="7">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D56" s="11">
-        <v>45226</v>
+        <v>45251</v>
       </c>
       <c r="E56" s="7">
-        <v>11000</v>
+        <v>8620</v>
       </c>
       <c r="F56" s="10">
         <v>0</v>
@@ -3400,19 +3401,19 @@
     </row>
     <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C57" s="7">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D57" s="11">
-        <v>45233</v>
+        <v>45226</v>
       </c>
       <c r="E57" s="7">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="F57" s="10">
         <v>0</v>
@@ -3426,19 +3427,19 @@
     </row>
     <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C58" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D58" s="11">
         <v>45233</v>
       </c>
       <c r="E58" s="7">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F58" s="10">
         <v>0</v>
@@ -3452,74 +3453,74 @@
     </row>
     <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="7">
+        <v>103</v>
+      </c>
+      <c r="D59" s="11">
+        <v>45233</v>
+      </c>
+      <c r="E59" s="7">
+        <v>10000</v>
+      </c>
+      <c r="F59" s="10">
+        <v>0</v>
+      </c>
+      <c r="G59" s="10">
+        <v>0</v>
+      </c>
+      <c r="H59" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B60" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C60" s="7">
         <v>105</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D60" s="11">
         <v>45237</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E60" s="7">
         <v>10400</v>
       </c>
-      <c r="F59" s="10">
-        <v>0</v>
-      </c>
-      <c r="G59" s="10">
-        <v>0</v>
-      </c>
-      <c r="H59" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="15" t="s">
+      <c r="F60" s="10">
+        <v>0</v>
+      </c>
+      <c r="G60" s="10">
+        <v>0</v>
+      </c>
+      <c r="H60" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B61" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C61" s="7">
         <v>114</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D61" s="11">
         <v>45247</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E61" s="7">
         <v>23751</v>
       </c>
-      <c r="F60" s="10">
-        <v>0</v>
-      </c>
-      <c r="G60" s="10">
-        <v>0</v>
-      </c>
-      <c r="H60" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" s="17">
-        <v>51</v>
-      </c>
-      <c r="D61" s="11">
-        <v>45142</v>
-      </c>
-      <c r="E61" s="17">
-        <v>23250</v>
-      </c>
       <c r="F61" s="10">
-        <v>23250</v>
+        <v>0</v>
       </c>
       <c r="G61" s="10">
         <v>0</v>
@@ -3530,22 +3531,22 @@
     </row>
     <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="C62" s="17">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D62" s="11">
-        <v>45145</v>
+        <v>45142</v>
       </c>
       <c r="E62" s="17">
-        <v>9200</v>
+        <v>23250</v>
       </c>
       <c r="F62" s="10">
-        <v>9200</v>
+        <v>23250</v>
       </c>
       <c r="G62" s="10">
         <v>0</v>
@@ -3556,27 +3557,53 @@
     </row>
     <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="17">
+        <v>53</v>
+      </c>
+      <c r="D63" s="11">
+        <v>45145</v>
+      </c>
+      <c r="E63" s="17">
+        <v>9200</v>
+      </c>
+      <c r="F63" s="10">
+        <v>9200</v>
+      </c>
+      <c r="G63" s="10">
+        <v>0</v>
+      </c>
+      <c r="H63" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B64" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C63" s="17">
+      <c r="C64" s="17">
         <v>81</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D64" s="11">
         <v>45191</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E64" s="17">
         <v>25996</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F64" s="10">
         <v>25996</v>
       </c>
-      <c r="G63" s="10">
-        <v>0</v>
-      </c>
-      <c r="H63" s="10">
+      <c r="G64" s="10">
+        <v>0</v>
+      </c>
+      <c r="H64" s="10">
         <v>0</v>
       </c>
     </row>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -1900,8 +1900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2481,7 +2481,7 @@
         <v>14900</v>
       </c>
       <c r="F22" s="10">
-        <v>0</v>
+        <v>14900</v>
       </c>
       <c r="G22" s="10">
         <v>0</v>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="139">
   <si>
     <t>Model</t>
   </si>
@@ -452,6 +452,12 @@
   </si>
   <si>
     <t>600mm celino white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225mm green air metal exhaust fan </t>
+  </si>
+  <si>
+    <t>225mm green air metal exhaust fan</t>
   </si>
 </sst>
 </file>
@@ -875,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1148,7 +1154,7 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1156,7 +1162,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1164,13 +1170,13 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1178,10 +1184,10 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C27">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1189,10 +1195,10 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C28">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1200,10 +1206,10 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1211,10 +1217,10 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C30">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1222,10 +1228,10 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1233,9 +1239,20 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
         <v>136</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>12</v>
       </c>
     </row>
@@ -1246,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1519,7 +1536,7 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>815.61</v>
+        <v>676</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1527,21 +1544,21 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C25">
-        <v>1050.2</v>
+        <v>805</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C26">
-        <v>1298</v>
+        <v>1050.2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1549,10 +1566,10 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C27">
-        <v>1121</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1560,7 +1577,7 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C28">
         <v>1121</v>
@@ -1571,7 +1588,7 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C29">
         <v>1121</v>
@@ -1582,7 +1599,7 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C30">
         <v>1121</v>
@@ -1593,10 +1610,10 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C31">
-        <v>1180</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1604,9 +1621,20 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
         <v>136</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>1180</v>
       </c>
     </row>
@@ -1900,8 +1928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A43" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3062,7 +3090,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B44" s="8" t="s">

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -1266,7 +1266,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1536,7 +1536,7 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>676</v>
+        <v>797.68</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="C25">
-        <v>805</v>
+        <v>949.9</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -1265,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="139">
   <si>
     <t>Model</t>
   </si>
@@ -457,7 +457,7 @@
     <t xml:space="preserve">225mm green air metal exhaust fan </t>
   </si>
   <si>
-    <t>225mm green air metal exhaust fan</t>
+    <t>SI-CO-346</t>
   </si>
 </sst>
 </file>
@@ -883,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1265,7 +1265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -1544,7 +1544,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C25">
         <v>949.9</v>
@@ -1645,10 +1645,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1916,6 +1916,20 @@
         <v>1840.8</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>45250</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="3">
+        <v>45132.639999999999</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>128</v>
       </c>
     </row>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -883,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -923,7 +923,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -934,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -956,7 +956,7 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -989,7 +989,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1000,7 +1000,7 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1022,7 +1022,7 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1066,7 +1066,7 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1110,7 +1110,7 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1242,7 +1242,7 @@
         <v>135</v>
       </c>
       <c r="C32">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1648,7 +1648,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1888,7 +1888,7 @@
         <v>79743.22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -883,7 +883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -1942,8 +1942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2419,7 +2419,7 @@
         <v>5350</v>
       </c>
       <c r="F18" s="10">
-        <v>0</v>
+        <v>5350</v>
       </c>
       <c r="G18" s="10">
         <v>0</v>
@@ -2637,7 +2637,7 @@
         <v>12899</v>
       </c>
       <c r="F26" s="10">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G26" s="10">
         <v>0</v>
@@ -2903,7 +2903,7 @@
         <v>15950</v>
       </c>
       <c r="F36" s="10">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G36" s="12">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>9740</v>
       </c>
       <c r="F38" s="10">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G38" s="10">
         <v>0</v>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -464,7 +464,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,6 +488,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -552,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -601,6 +608,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -883,381 +891,382 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C3" s="20">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C4" s="20">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C9" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C10" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="20">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C12" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="20">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="20">
         <v>17</v>
       </c>
-      <c r="C15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17">
+    </row>
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="20">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="20">
         <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>129</v>
-      </c>
-      <c r="C27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" t="s">
-        <v>134</v>
-      </c>
-      <c r="C31">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" t="s">
-        <v>136</v>
-      </c>
-      <c r="C33">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1265,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1942,7 +1951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A62" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sales" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$65</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="141">
   <si>
     <t>Model</t>
   </si>
@@ -458,6 +458,12 @@
   </si>
   <si>
     <t>SI-CO-346</t>
+  </si>
+  <si>
+    <t>PARAS ELECTRICALS &amp; HARDWARE</t>
+  </si>
+  <si>
+    <t>hesaraghatta</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -1949,10 +1955,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3581,23 +3587,23 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="16" t="s">
-        <v>114</v>
+      <c r="A62" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" s="17">
-        <v>51</v>
+        <v>140</v>
+      </c>
+      <c r="C62" s="7">
+        <v>119</v>
       </c>
       <c r="D62" s="11">
-        <v>45142</v>
-      </c>
-      <c r="E62" s="17">
-        <v>23250</v>
+        <v>45262</v>
+      </c>
+      <c r="E62" s="7">
+        <v>16760</v>
       </c>
       <c r="F62" s="10">
-        <v>23250</v>
+        <v>0</v>
       </c>
       <c r="G62" s="10">
         <v>0</v>
@@ -3608,22 +3614,22 @@
     </row>
     <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="C63" s="17">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D63" s="11">
-        <v>45145</v>
+        <v>45142</v>
       </c>
       <c r="E63" s="17">
-        <v>9200</v>
+        <v>23250</v>
       </c>
       <c r="F63" s="10">
-        <v>9200</v>
+        <v>23250</v>
       </c>
       <c r="G63" s="10">
         <v>0</v>
@@ -3634,27 +3640,53 @@
     </row>
     <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" s="17">
+        <v>53</v>
+      </c>
+      <c r="D64" s="11">
+        <v>45145</v>
+      </c>
+      <c r="E64" s="17">
+        <v>9200</v>
+      </c>
+      <c r="F64" s="10">
+        <v>9200</v>
+      </c>
+      <c r="G64" s="10">
+        <v>0</v>
+      </c>
+      <c r="H64" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B65" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C64" s="17">
+      <c r="C65" s="17">
         <v>81</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="11">
         <v>45191</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E65" s="17">
         <v>25996</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F65" s="10">
         <v>25996</v>
       </c>
-      <c r="G64" s="10">
-        <v>0</v>
-      </c>
-      <c r="H64" s="10">
+      <c r="G65" s="10">
+        <v>0</v>
+      </c>
+      <c r="H65" s="10">
         <v>0</v>
       </c>
     </row>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1080,7 +1080,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="20">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1091,7 +1091,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="20">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1113,7 +1113,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="20">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1957,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView topLeftCell="A52" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sales" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$66</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="143">
   <si>
     <t>Model</t>
   </si>
@@ -464,6 +464,12 @@
   </si>
   <si>
     <t>hesaraghatta</t>
+  </si>
+  <si>
+    <t>MATHAJI  ELECTRICAL &amp; HARDWARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasanapura hobli </t>
   </si>
 </sst>
 </file>
@@ -897,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1278,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1290,7 +1296,7 @@
     <col min="2" max="2" width="37.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1301,7 +1307,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1311,8 +1317,9 @@
       <c r="C2">
         <v>1121</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1322,8 +1329,9 @@
       <c r="C3">
         <v>1209.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1333,8 +1341,9 @@
       <c r="C4">
         <v>1209.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1344,8 +1353,9 @@
       <c r="C5">
         <v>1121</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1355,8 +1365,9 @@
       <c r="C6">
         <v>1931.424</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1366,8 +1377,9 @@
       <c r="C7">
         <v>1931.42</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1377,8 +1389,9 @@
       <c r="C8">
         <v>1880.44</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1388,8 +1401,9 @@
       <c r="C9">
         <v>1835.136</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1399,8 +1413,9 @@
       <c r="C10">
         <v>1852.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1410,8 +1425,9 @@
       <c r="C11">
         <v>1880.44</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1421,8 +1437,9 @@
       <c r="C12">
         <v>1852.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="20"/>
+    </row>
+    <row r="13" spans="1:5" s="19" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="19" t="s">
         <v>7</v>
       </c>
@@ -1432,8 +1449,10 @@
       <c r="C13" s="19">
         <v>1239</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="20"/>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1443,8 +1462,9 @@
       <c r="C14">
         <v>2684.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1454,8 +1474,9 @@
       <c r="C15">
         <v>2684.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1465,8 +1486,9 @@
       <c r="C16">
         <v>1834.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1476,8 +1498,9 @@
       <c r="C17">
         <v>1609.52</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1487,8 +1510,9 @@
       <c r="C18">
         <v>1886.82</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="20"/>
+    </row>
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1498,8 +1522,9 @@
       <c r="C19">
         <v>1421.9</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="20"/>
+    </row>
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1509,8 +1534,9 @@
       <c r="C20">
         <v>2289.1999999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="20"/>
+    </row>
+    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1520,8 +1546,9 @@
       <c r="C21">
         <v>911.9</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="20"/>
+    </row>
+    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1531,8 +1558,9 @@
       <c r="C22">
         <v>1014.98</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="20"/>
+    </row>
+    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1542,8 +1570,9 @@
       <c r="C23">
         <v>843.7</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="20"/>
+    </row>
+    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1553,8 +1582,9 @@
       <c r="C24">
         <v>797.68</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="20"/>
+    </row>
+    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1564,8 +1594,9 @@
       <c r="C25">
         <v>949.9</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="20"/>
+    </row>
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1606,9 @@
       <c r="C26">
         <v>1050.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="20"/>
+    </row>
+    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1586,8 +1618,9 @@
       <c r="C27">
         <v>1298</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="20"/>
+    </row>
+    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1597,8 +1630,9 @@
       <c r="C28">
         <v>1121</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" s="20"/>
+    </row>
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1608,8 +1642,9 @@
       <c r="C29">
         <v>1121</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" s="20"/>
+    </row>
+    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1619,8 +1654,9 @@
       <c r="C30">
         <v>1121</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="20"/>
+    </row>
+    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1630,8 +1666,9 @@
       <c r="C31">
         <v>1121</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="20"/>
+    </row>
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1641,8 +1678,9 @@
       <c r="C32">
         <v>1180</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="20"/>
+    </row>
+    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1652,6 +1690,7 @@
       <c r="C33">
         <v>1180</v>
       </c>
+      <c r="D33" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1955,10 +1994,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3613,23 +3652,23 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="16" t="s">
-        <v>114</v>
+      <c r="A63" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" s="17">
-        <v>51</v>
+        <v>142</v>
+      </c>
+      <c r="C63" s="7">
+        <v>120</v>
       </c>
       <c r="D63" s="11">
-        <v>45142</v>
-      </c>
-      <c r="E63" s="17">
-        <v>23250</v>
+        <v>45266</v>
+      </c>
+      <c r="E63" s="7">
+        <v>15250</v>
       </c>
       <c r="F63" s="10">
-        <v>23250</v>
+        <v>0</v>
       </c>
       <c r="G63" s="10">
         <v>0</v>
@@ -3640,22 +3679,22 @@
     </row>
     <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="C64" s="17">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D64" s="11">
-        <v>45145</v>
+        <v>45142</v>
       </c>
       <c r="E64" s="17">
-        <v>9200</v>
+        <v>23250</v>
       </c>
       <c r="F64" s="10">
-        <v>9200</v>
+        <v>23250</v>
       </c>
       <c r="G64" s="10">
         <v>0</v>
@@ -3666,27 +3705,53 @@
     </row>
     <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" s="17">
+        <v>53</v>
+      </c>
+      <c r="D65" s="11">
+        <v>45145</v>
+      </c>
+      <c r="E65" s="17">
+        <v>9200</v>
+      </c>
+      <c r="F65" s="10">
+        <v>9200</v>
+      </c>
+      <c r="G65" s="10">
+        <v>0</v>
+      </c>
+      <c r="H65" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B66" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C65" s="17">
+      <c r="C66" s="17">
         <v>81</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D66" s="11">
         <v>45191</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E66" s="17">
         <v>25996</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F66" s="10">
         <v>25996</v>
       </c>
-      <c r="G65" s="10">
-        <v>0</v>
-      </c>
-      <c r="H65" s="10">
+      <c r="G66" s="10">
+        <v>0</v>
+      </c>
+      <c r="H66" s="10">
         <v>0</v>
       </c>
     </row>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -903,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -943,7 +943,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="20">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -954,7 +954,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="20">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1996,8 +1996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:E63"/>
+    <sheetView topLeftCell="A37" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -1702,7 +1702,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1994,10 +1994,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView topLeftCell="B53" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3755,6 +3755,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <f>SUM(E2:E66)</f>
+        <v>1132965</v>
+      </c>
+      <c r="F67">
+        <f>SUM(F2:F66)</f>
+        <v>484276</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -903,7 +903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1994,10 +1994,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="B53" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F67"/>
+    <sheetView tabSelected="1" topLeftCell="B53" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3755,16 +3755,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E67">
-        <f>SUM(E2:E66)</f>
-        <v>1132965</v>
-      </c>
-      <c r="F67">
-        <f>SUM(F2:F66)</f>
-        <v>484276</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -903,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -943,7 +943,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="20">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -954,7 +954,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="20">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1996,7 +1996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B53" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="B53" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sales" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$67</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="143">
   <si>
     <t>Model</t>
   </si>
@@ -903,7 +903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1994,10 +1994,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="B53" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2941,7 +2941,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B36" s="8" t="s">
@@ -2970,78 +2970,76 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>69</v>
+      <c r="A37" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" s="7">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="D37" s="11">
-        <v>45191</v>
+        <v>45267</v>
       </c>
       <c r="E37" s="7">
-        <v>9398</v>
+        <v>18600</v>
       </c>
       <c r="F37" s="10">
-        <v>1000</v>
-      </c>
-      <c r="G37" s="10">
+        <v>0</v>
+      </c>
+      <c r="G37" s="12">
         <v>0</v>
       </c>
       <c r="H37" s="10">
         <v>0</v>
       </c>
+      <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C38" s="7">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D38" s="11">
-        <v>45201</v>
+        <v>45191</v>
       </c>
       <c r="E38" s="7">
-        <v>9740</v>
+        <v>9398</v>
       </c>
       <c r="F38" s="10">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G38" s="10">
         <v>0</v>
       </c>
       <c r="H38" s="10">
         <v>0</v>
-      </c>
-      <c r="I38" s="4">
-        <v>45257</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C39" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D39" s="11">
         <v>45201</v>
       </c>
       <c r="E39" s="7">
-        <v>14100</v>
+        <v>9740</v>
       </c>
       <c r="F39" s="10">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G39" s="10">
         <v>0</v>
@@ -3050,33 +3048,36 @@
         <v>0</v>
       </c>
       <c r="I39" s="4">
-        <v>45259</v>
+        <v>45257</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C40" s="7">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D40" s="11">
-        <v>45203</v>
+        <v>45201</v>
       </c>
       <c r="E40" s="7">
-        <v>14800</v>
-      </c>
-      <c r="F40" s="12">
-        <v>10000</v>
+        <v>14100</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0</v>
       </c>
       <c r="G40" s="10">
         <v>0</v>
       </c>
       <c r="H40" s="10">
         <v>0</v>
+      </c>
+      <c r="I40" s="4">
+        <v>45259</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -3087,16 +3088,16 @@
         <v>107</v>
       </c>
       <c r="C41" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D41" s="11">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="E41" s="7">
-        <v>9630</v>
-      </c>
-      <c r="F41" s="10">
-        <v>9630</v>
+        <v>14800</v>
+      </c>
+      <c r="F41" s="12">
+        <v>10000</v>
       </c>
       <c r="G41" s="10">
         <v>0</v>
@@ -3113,16 +3114,16 @@
         <v>107</v>
       </c>
       <c r="C42" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D42" s="11">
-        <v>45205</v>
+        <v>45204</v>
       </c>
       <c r="E42" s="7">
-        <v>13800</v>
+        <v>9630</v>
       </c>
       <c r="F42" s="10">
-        <v>13800</v>
+        <v>9630</v>
       </c>
       <c r="G42" s="10">
         <v>0</v>
@@ -3139,16 +3140,16 @@
         <v>107</v>
       </c>
       <c r="C43" s="7">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D43" s="11">
-        <v>45226</v>
+        <v>45205</v>
       </c>
       <c r="E43" s="7">
-        <v>13596</v>
+        <v>13800</v>
       </c>
       <c r="F43" s="10">
-        <v>0</v>
+        <v>13800</v>
       </c>
       <c r="G43" s="10">
         <v>0</v>
@@ -3158,20 +3159,20 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C44" s="7">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D44" s="11">
-        <v>45240</v>
+        <v>45226</v>
       </c>
       <c r="E44" s="7">
-        <v>28900</v>
+        <v>13596</v>
       </c>
       <c r="F44" s="10">
         <v>0</v>
@@ -3184,20 +3185,20 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C45" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D45" s="11">
-        <v>45241</v>
+        <v>45240</v>
       </c>
       <c r="E45" s="7">
-        <v>186301</v>
+        <v>28900</v>
       </c>
       <c r="F45" s="10">
         <v>0</v>
@@ -3217,42 +3218,42 @@
         <v>107</v>
       </c>
       <c r="C46" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D46" s="11">
         <v>45241</v>
       </c>
       <c r="E46" s="7">
+        <v>186301</v>
+      </c>
+      <c r="F46" s="10">
+        <v>0</v>
+      </c>
+      <c r="G46" s="10">
+        <v>0</v>
+      </c>
+      <c r="H46" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="7">
+        <v>109</v>
+      </c>
+      <c r="D47" s="11">
+        <v>45241</v>
+      </c>
+      <c r="E47" s="7">
         <v>22000</v>
       </c>
-      <c r="F46" s="10">
-        <v>0</v>
-      </c>
-      <c r="G46" s="10">
-        <v>0</v>
-      </c>
-      <c r="H46" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C47" s="7">
-        <v>90</v>
-      </c>
-      <c r="D47" s="11">
-        <v>45205</v>
-      </c>
-      <c r="E47" s="7">
-        <v>10000</v>
-      </c>
       <c r="F47" s="10">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G47" s="10">
         <v>0</v>
@@ -3269,16 +3270,16 @@
         <v>108</v>
       </c>
       <c r="C48" s="7">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D48" s="11">
-        <v>45238</v>
+        <v>45205</v>
       </c>
       <c r="E48" s="7">
-        <v>15001</v>
+        <v>10000</v>
       </c>
       <c r="F48" s="10">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G48" s="10">
         <v>0</v>
@@ -3289,19 +3290,19 @@
     </row>
     <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C49" s="7">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D49" s="11">
-        <v>45216</v>
+        <v>45238</v>
       </c>
       <c r="E49" s="7">
-        <v>10200</v>
+        <v>15001</v>
       </c>
       <c r="F49" s="10">
         <v>0</v>
@@ -3321,48 +3322,48 @@
         <v>109</v>
       </c>
       <c r="C50" s="7">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D50" s="11">
-        <v>45234</v>
+        <v>45216</v>
       </c>
       <c r="E50" s="7">
-        <v>20801</v>
+        <v>10200</v>
       </c>
       <c r="F50" s="10">
-        <v>20385</v>
+        <v>0</v>
       </c>
       <c r="G50" s="10">
         <v>0</v>
       </c>
       <c r="H50" s="10">
-        <v>416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C51" s="7">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D51" s="11">
-        <v>45216</v>
+        <v>45234</v>
       </c>
       <c r="E51" s="7">
-        <v>3600</v>
-      </c>
-      <c r="F51" s="8">
-        <v>0</v>
+        <v>20801</v>
+      </c>
+      <c r="F51" s="10">
+        <v>20385</v>
       </c>
       <c r="G51" s="10">
         <v>0</v>
       </c>
       <c r="H51" s="10">
-        <v>0</v>
+        <v>416</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3373,13 +3374,13 @@
         <v>86</v>
       </c>
       <c r="C52" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D52" s="11">
-        <v>45217</v>
+        <v>45216</v>
       </c>
       <c r="E52" s="7">
-        <v>22500</v>
+        <v>3600</v>
       </c>
       <c r="F52" s="8">
         <v>0</v>
@@ -3399,16 +3400,16 @@
         <v>86</v>
       </c>
       <c r="C53" s="7">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="D53" s="11">
-        <v>45097</v>
+        <v>45217</v>
       </c>
       <c r="E53" s="7">
-        <v>9398</v>
-      </c>
-      <c r="F53" s="10">
-        <v>9398</v>
+        <v>22500</v>
+      </c>
+      <c r="F53" s="8">
+        <v>0</v>
       </c>
       <c r="G53" s="10">
         <v>0</v>
@@ -3425,16 +3426,16 @@
         <v>86</v>
       </c>
       <c r="C54" s="7">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D54" s="11">
-        <v>45108</v>
+        <v>45097</v>
       </c>
       <c r="E54" s="7">
-        <v>11250</v>
+        <v>9398</v>
       </c>
       <c r="F54" s="10">
-        <v>11250</v>
+        <v>9398</v>
       </c>
       <c r="G54" s="10">
         <v>0</v>
@@ -3451,16 +3452,16 @@
         <v>86</v>
       </c>
       <c r="C55" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D55" s="11">
-        <v>45111</v>
+        <v>45108</v>
       </c>
       <c r="E55" s="7">
-        <v>28340</v>
+        <v>11250</v>
       </c>
       <c r="F55" s="10">
-        <v>28340</v>
+        <v>11250</v>
       </c>
       <c r="G55" s="10">
         <v>0</v>
@@ -3477,16 +3478,16 @@
         <v>86</v>
       </c>
       <c r="C56" s="7">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="D56" s="11">
-        <v>45251</v>
+        <v>45111</v>
       </c>
       <c r="E56" s="7">
-        <v>8620</v>
+        <v>28340</v>
       </c>
       <c r="F56" s="10">
-        <v>0</v>
+        <v>28340</v>
       </c>
       <c r="G56" s="10">
         <v>0</v>
@@ -3497,19 +3498,19 @@
     </row>
     <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C57" s="7">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D57" s="11">
-        <v>45226</v>
+        <v>45251</v>
       </c>
       <c r="E57" s="7">
-        <v>11000</v>
+        <v>8620</v>
       </c>
       <c r="F57" s="10">
         <v>0</v>
@@ -3523,19 +3524,19 @@
     </row>
     <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C58" s="7">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D58" s="11">
-        <v>45233</v>
+        <v>45226</v>
       </c>
       <c r="E58" s="7">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="F58" s="10">
         <v>0</v>
@@ -3549,19 +3550,19 @@
     </row>
     <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C59" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D59" s="11">
         <v>45233</v>
       </c>
       <c r="E59" s="7">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F59" s="10">
         <v>0</v>
@@ -3575,45 +3576,45 @@
     </row>
     <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="7">
+        <v>103</v>
+      </c>
+      <c r="D60" s="11">
+        <v>45233</v>
+      </c>
+      <c r="E60" s="7">
+        <v>10000</v>
+      </c>
+      <c r="F60" s="10">
+        <v>0</v>
+      </c>
+      <c r="G60" s="10">
+        <v>0</v>
+      </c>
+      <c r="H60" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B61" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C61" s="7">
         <v>105</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D61" s="11">
         <v>45237</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E61" s="7">
         <v>10400</v>
-      </c>
-      <c r="F60" s="10">
-        <v>0</v>
-      </c>
-      <c r="G60" s="10">
-        <v>0</v>
-      </c>
-      <c r="H60" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C61" s="7">
-        <v>114</v>
-      </c>
-      <c r="D61" s="11">
-        <v>45247</v>
-      </c>
-      <c r="E61" s="7">
-        <v>23751</v>
       </c>
       <c r="F61" s="10">
         <v>0</v>
@@ -3627,19 +3628,19 @@
     </row>
     <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C62" s="7">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D62" s="11">
-        <v>45262</v>
+        <v>45247</v>
       </c>
       <c r="E62" s="7">
-        <v>16760</v>
+        <v>23751</v>
       </c>
       <c r="F62" s="10">
         <v>0</v>
@@ -3653,48 +3654,48 @@
     </row>
     <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="7">
+        <v>119</v>
+      </c>
+      <c r="D63" s="11">
+        <v>45262</v>
+      </c>
+      <c r="E63" s="7">
+        <v>16760</v>
+      </c>
+      <c r="F63" s="10">
+        <v>0</v>
+      </c>
+      <c r="G63" s="10">
+        <v>0</v>
+      </c>
+      <c r="H63" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B64" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C64" s="7">
         <v>120</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D64" s="11">
         <v>45266</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E64" s="7">
         <v>15250</v>
       </c>
-      <c r="F63" s="10">
-        <v>0</v>
-      </c>
-      <c r="G63" s="10">
-        <v>0</v>
-      </c>
-      <c r="H63" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="17">
-        <v>51</v>
-      </c>
-      <c r="D64" s="11">
-        <v>45142</v>
-      </c>
-      <c r="E64" s="17">
-        <v>23250</v>
-      </c>
       <c r="F64" s="10">
-        <v>23250</v>
+        <v>0</v>
       </c>
       <c r="G64" s="10">
         <v>0</v>
@@ -3705,22 +3706,22 @@
     </row>
     <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="C65" s="17">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D65" s="11">
-        <v>45145</v>
+        <v>45142</v>
       </c>
       <c r="E65" s="17">
-        <v>9200</v>
+        <v>23250</v>
       </c>
       <c r="F65" s="10">
-        <v>9200</v>
+        <v>23250</v>
       </c>
       <c r="G65" s="10">
         <v>0</v>
@@ -3731,27 +3732,53 @@
     </row>
     <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="17">
+        <v>53</v>
+      </c>
+      <c r="D66" s="11">
+        <v>45145</v>
+      </c>
+      <c r="E66" s="17">
+        <v>9200</v>
+      </c>
+      <c r="F66" s="10">
+        <v>9200</v>
+      </c>
+      <c r="G66" s="10">
+        <v>0</v>
+      </c>
+      <c r="H66" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B67" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C66" s="17">
+      <c r="C67" s="17">
         <v>81</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D67" s="11">
         <v>45191</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E67" s="17">
         <v>25996</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F67" s="10">
         <v>25996</v>
       </c>
-      <c r="G66" s="10">
-        <v>0</v>
-      </c>
-      <c r="H66" s="10">
+      <c r="G67" s="10">
+        <v>0</v>
+      </c>
+      <c r="H67" s="10">
         <v>0</v>
       </c>
     </row>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -903,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1218,7 +1218,7 @@
         <v>131</v>
       </c>
       <c r="C28" s="20">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1240,7 +1240,7 @@
         <v>133</v>
       </c>
       <c r="C30" s="20">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1996,8 +1996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sales" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$68</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="143">
   <si>
     <t>Model</t>
   </si>
@@ -903,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1286,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1994,10 +1994,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3368,21 +3368,21 @@
     </row>
     <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C52" s="7">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="D52" s="11">
-        <v>45216</v>
+        <v>45271</v>
       </c>
       <c r="E52" s="7">
-        <v>3600</v>
-      </c>
-      <c r="F52" s="8">
+        <v>15600</v>
+      </c>
+      <c r="F52" s="10">
         <v>0</v>
       </c>
       <c r="G52" s="10">
@@ -3400,13 +3400,13 @@
         <v>86</v>
       </c>
       <c r="C53" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D53" s="11">
-        <v>45217</v>
+        <v>45216</v>
       </c>
       <c r="E53" s="7">
-        <v>22500</v>
+        <v>3600</v>
       </c>
       <c r="F53" s="8">
         <v>0</v>
@@ -3426,16 +3426,16 @@
         <v>86</v>
       </c>
       <c r="C54" s="7">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="D54" s="11">
-        <v>45097</v>
+        <v>45217</v>
       </c>
       <c r="E54" s="7">
-        <v>9398</v>
-      </c>
-      <c r="F54" s="10">
-        <v>9398</v>
+        <v>22500</v>
+      </c>
+      <c r="F54" s="8">
+        <v>0</v>
       </c>
       <c r="G54" s="10">
         <v>0</v>
@@ -3452,16 +3452,16 @@
         <v>86</v>
       </c>
       <c r="C55" s="7">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D55" s="11">
-        <v>45108</v>
+        <v>45097</v>
       </c>
       <c r="E55" s="7">
-        <v>11250</v>
+        <v>9398</v>
       </c>
       <c r="F55" s="10">
-        <v>11250</v>
+        <v>9398</v>
       </c>
       <c r="G55" s="10">
         <v>0</v>
@@ -3478,16 +3478,16 @@
         <v>86</v>
       </c>
       <c r="C56" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D56" s="11">
-        <v>45111</v>
+        <v>45108</v>
       </c>
       <c r="E56" s="7">
-        <v>28340</v>
+        <v>11250</v>
       </c>
       <c r="F56" s="10">
-        <v>28340</v>
+        <v>11250</v>
       </c>
       <c r="G56" s="10">
         <v>0</v>
@@ -3504,16 +3504,16 @@
         <v>86</v>
       </c>
       <c r="C57" s="7">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="D57" s="11">
-        <v>45251</v>
+        <v>45111</v>
       </c>
       <c r="E57" s="7">
-        <v>8620</v>
+        <v>28340</v>
       </c>
       <c r="F57" s="10">
-        <v>0</v>
+        <v>28340</v>
       </c>
       <c r="G57" s="10">
         <v>0</v>
@@ -3524,19 +3524,19 @@
     </row>
     <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C58" s="7">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D58" s="11">
-        <v>45226</v>
+        <v>45251</v>
       </c>
       <c r="E58" s="7">
-        <v>11000</v>
+        <v>8620</v>
       </c>
       <c r="F58" s="10">
         <v>0</v>
@@ -3550,19 +3550,19 @@
     </row>
     <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C59" s="7">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D59" s="11">
-        <v>45233</v>
+        <v>45226</v>
       </c>
       <c r="E59" s="7">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="F59" s="10">
         <v>0</v>
@@ -3576,19 +3576,19 @@
     </row>
     <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C60" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D60" s="11">
         <v>45233</v>
       </c>
       <c r="E60" s="7">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F60" s="10">
         <v>0</v>
@@ -3602,45 +3602,45 @@
     </row>
     <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" s="7">
+        <v>103</v>
+      </c>
+      <c r="D61" s="11">
+        <v>45233</v>
+      </c>
+      <c r="E61" s="7">
+        <v>10000</v>
+      </c>
+      <c r="F61" s="10">
+        <v>0</v>
+      </c>
+      <c r="G61" s="10">
+        <v>0</v>
+      </c>
+      <c r="H61" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B62" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C62" s="7">
         <v>105</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D62" s="11">
         <v>45237</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E62" s="7">
         <v>10400</v>
-      </c>
-      <c r="F61" s="10">
-        <v>0</v>
-      </c>
-      <c r="G61" s="10">
-        <v>0</v>
-      </c>
-      <c r="H61" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C62" s="7">
-        <v>114</v>
-      </c>
-      <c r="D62" s="11">
-        <v>45247</v>
-      </c>
-      <c r="E62" s="7">
-        <v>23751</v>
       </c>
       <c r="F62" s="10">
         <v>0</v>
@@ -3654,19 +3654,19 @@
     </row>
     <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C63" s="7">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D63" s="11">
-        <v>45262</v>
+        <v>45247</v>
       </c>
       <c r="E63" s="7">
-        <v>16760</v>
+        <v>23751</v>
       </c>
       <c r="F63" s="10">
         <v>0</v>
@@ -3680,48 +3680,48 @@
     </row>
     <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="7">
+        <v>119</v>
+      </c>
+      <c r="D64" s="11">
+        <v>45262</v>
+      </c>
+      <c r="E64" s="7">
+        <v>16760</v>
+      </c>
+      <c r="F64" s="10">
+        <v>0</v>
+      </c>
+      <c r="G64" s="10">
+        <v>0</v>
+      </c>
+      <c r="H64" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B65" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C65" s="7">
         <v>120</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="11">
         <v>45266</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E65" s="7">
         <v>15250</v>
       </c>
-      <c r="F64" s="10">
-        <v>0</v>
-      </c>
-      <c r="G64" s="10">
-        <v>0</v>
-      </c>
-      <c r="H64" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" s="17">
-        <v>51</v>
-      </c>
-      <c r="D65" s="11">
-        <v>45142</v>
-      </c>
-      <c r="E65" s="17">
-        <v>23250</v>
-      </c>
       <c r="F65" s="10">
-        <v>23250</v>
+        <v>0</v>
       </c>
       <c r="G65" s="10">
         <v>0</v>
@@ -3732,22 +3732,22 @@
     </row>
     <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="C66" s="17">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D66" s="11">
-        <v>45145</v>
+        <v>45142</v>
       </c>
       <c r="E66" s="17">
-        <v>9200</v>
+        <v>23250</v>
       </c>
       <c r="F66" s="10">
-        <v>9200</v>
+        <v>23250</v>
       </c>
       <c r="G66" s="10">
         <v>0</v>
@@ -3758,27 +3758,53 @@
     </row>
     <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="17">
+        <v>53</v>
+      </c>
+      <c r="D67" s="11">
+        <v>45145</v>
+      </c>
+      <c r="E67" s="17">
+        <v>9200</v>
+      </c>
+      <c r="F67" s="10">
+        <v>9200</v>
+      </c>
+      <c r="G67" s="10">
+        <v>0</v>
+      </c>
+      <c r="H67" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B68" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C67" s="17">
+      <c r="C68" s="17">
         <v>81</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D68" s="11">
         <v>45191</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E68" s="17">
         <v>25996</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F68" s="10">
         <v>25996</v>
       </c>
-      <c r="G67" s="10">
-        <v>0</v>
-      </c>
-      <c r="H67" s="10">
+      <c r="G68" s="10">
+        <v>0</v>
+      </c>
+      <c r="H68" s="10">
         <v>0</v>
       </c>
     </row>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -903,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1086,7 +1086,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="20">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1097,7 +1097,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="20">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1119,7 +1119,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="20">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1996,7 +1996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A60" sqref="A60:XFD60"/>
     </sheetView>
   </sheetViews>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sales" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$69</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="145">
   <si>
     <t>Model</t>
   </si>
@@ -470,6 +470,12 @@
   </si>
   <si>
     <t xml:space="preserve">dasanapura hobli </t>
+  </si>
+  <si>
+    <t>NAVARTHNA ELECTRICALS</t>
+  </si>
+  <si>
+    <t>kachehalli</t>
   </si>
 </sst>
 </file>
@@ -903,7 +909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1994,10 +2000,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:XFD60"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3731,49 +3737,49 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="7">
+        <v>124</v>
+      </c>
+      <c r="D66" s="11">
+        <v>45271</v>
+      </c>
+      <c r="E66" s="7">
+        <v>14900</v>
+      </c>
+      <c r="F66" s="10">
+        <v>0</v>
+      </c>
+      <c r="G66" s="10">
+        <v>0</v>
+      </c>
+      <c r="H66" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B67" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C66" s="17">
+      <c r="C67" s="17">
         <v>51</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D67" s="11">
         <v>45142</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E67" s="17">
         <v>23250</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F67" s="10">
         <v>23250</v>
-      </c>
-      <c r="G66" s="10">
-        <v>0</v>
-      </c>
-      <c r="H66" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C67" s="17">
-        <v>53</v>
-      </c>
-      <c r="D67" s="11">
-        <v>45145</v>
-      </c>
-      <c r="E67" s="17">
-        <v>9200</v>
-      </c>
-      <c r="F67" s="10">
-        <v>9200</v>
       </c>
       <c r="G67" s="10">
         <v>0</v>
@@ -3784,27 +3790,53 @@
     </row>
     <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" s="17">
+        <v>53</v>
+      </c>
+      <c r="D68" s="11">
+        <v>45145</v>
+      </c>
+      <c r="E68" s="17">
+        <v>9200</v>
+      </c>
+      <c r="F68" s="10">
+        <v>9200</v>
+      </c>
+      <c r="G68" s="10">
+        <v>0</v>
+      </c>
+      <c r="H68" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B69" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C68" s="17">
+      <c r="C69" s="17">
         <v>81</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D69" s="11">
         <v>45191</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E69" s="17">
         <v>25996</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F69" s="10">
         <v>25996</v>
       </c>
-      <c r="G68" s="10">
-        <v>0</v>
-      </c>
-      <c r="H68" s="10">
+      <c r="G69" s="10">
+        <v>0</v>
+      </c>
+      <c r="H69" s="10">
         <v>0</v>
       </c>
     </row>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -2002,8 +2002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2827,7 +2827,7 @@
         <v>17900</v>
       </c>
       <c r="F31" s="10">
-        <v>0</v>
+        <v>17900</v>
       </c>
       <c r="G31" s="10">
         <v>0</v>
@@ -3337,7 +3337,7 @@
         <v>10200</v>
       </c>
       <c r="F50" s="10">
-        <v>0</v>
+        <v>10200</v>
       </c>
       <c r="G50" s="10">
         <v>0</v>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -909,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -949,7 +949,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="20">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -960,7 +960,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="20">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1224,7 +1224,7 @@
         <v>131</v>
       </c>
       <c r="C28" s="20">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1246,7 +1246,7 @@
         <v>133</v>
       </c>
       <c r="C30" s="20">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2002,8 +2002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2723,7 +2723,7 @@
         <v>14300</v>
       </c>
       <c r="F27" s="10">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="G27" s="10">
         <v>0</v>
@@ -2963,7 +2963,7 @@
         <v>15950</v>
       </c>
       <c r="F36" s="10">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="G36" s="12">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>45271</v>
       </c>
       <c r="E52" s="7">
-        <v>15600</v>
+        <v>12400</v>
       </c>
       <c r="F52" s="10">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>23751</v>
       </c>
       <c r="F63" s="10">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G63" s="10">
         <v>0</v>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -909,7 +909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -2002,8 +2002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="B56" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70:F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2375,7 +2375,7 @@
         <v>35250</v>
       </c>
       <c r="F14" s="10">
-        <v>34400</v>
+        <v>35250</v>
       </c>
       <c r="G14" s="10">
         <v>0</v>
@@ -2668,7 +2668,7 @@
         <v>5000</v>
       </c>
       <c r="F25" s="10">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G25" s="10">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>20801</v>
       </c>
       <c r="F51" s="10">
-        <v>20385</v>
+        <v>20801</v>
       </c>
       <c r="G51" s="10">
         <v>0</v>
@@ -3649,7 +3649,7 @@
         <v>10400</v>
       </c>
       <c r="F62" s="10">
-        <v>0</v>
+        <v>10400</v>
       </c>
       <c r="G62" s="10">
         <v>0</v>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -909,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -949,7 +949,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="20">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -960,7 +960,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="20">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2002,7 +2002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B56" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="B56" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E70" sqref="E70:F70"/>
     </sheetView>
   </sheetViews>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sales" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$70</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="145">
   <si>
     <t>Model</t>
   </si>
@@ -909,7 +909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -2000,10 +2000,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="B56" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70:F70"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2652,23 +2652,23 @@
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>61</v>
+      <c r="A25" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="7">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="D25" s="11">
-        <v>45164</v>
+        <v>45278</v>
       </c>
       <c r="E25" s="7">
-        <v>5000</v>
+        <v>12400</v>
       </c>
       <c r="F25" s="10">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G25" s="10">
         <v>0</v>
@@ -2676,54 +2676,55 @@
       <c r="H25" s="10">
         <v>0</v>
       </c>
-      <c r="I25" s="4">
-        <v>45257</v>
-      </c>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="7">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D26" s="11">
-        <v>45181</v>
+        <v>45164</v>
       </c>
       <c r="E26" s="7">
-        <v>12899</v>
+        <v>5000</v>
       </c>
       <c r="F26" s="10">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="G26" s="10">
         <v>0</v>
       </c>
       <c r="H26" s="10">
         <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>45257</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D27" s="11">
-        <v>45177</v>
+        <v>45181</v>
       </c>
       <c r="E27" s="7">
-        <v>14300</v>
+        <v>12899</v>
       </c>
       <c r="F27" s="10">
-        <v>14000</v>
+        <v>1500</v>
       </c>
       <c r="G27" s="10">
         <v>0</v>
@@ -2740,16 +2741,16 @@
         <v>100</v>
       </c>
       <c r="C28" s="7">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D28" s="11">
-        <v>45202</v>
+        <v>45177</v>
       </c>
       <c r="E28" s="7">
-        <v>8700</v>
+        <v>14300</v>
       </c>
       <c r="F28" s="10">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="G28" s="10">
         <v>0</v>
@@ -2766,13 +2767,13 @@
         <v>100</v>
       </c>
       <c r="C29" s="7">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D29" s="11">
-        <v>45225</v>
+        <v>45202</v>
       </c>
       <c r="E29" s="7">
-        <v>13478</v>
+        <v>8700</v>
       </c>
       <c r="F29" s="10">
         <v>0</v>
@@ -2786,22 +2787,22 @@
     </row>
     <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C30" s="7">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D30" s="11">
-        <v>45155</v>
+        <v>45225</v>
       </c>
       <c r="E30" s="7">
-        <v>5000</v>
+        <v>13478</v>
       </c>
       <c r="F30" s="10">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G30" s="10">
         <v>0</v>
@@ -2812,31 +2813,28 @@
     </row>
     <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="12">
-        <v>72</v>
+        <v>91</v>
+      </c>
+      <c r="C31" s="7">
+        <v>56</v>
       </c>
       <c r="D31" s="11">
-        <v>45181</v>
+        <v>45155</v>
       </c>
       <c r="E31" s="7">
-        <v>17900</v>
+        <v>5000</v>
       </c>
       <c r="F31" s="10">
-        <v>17900</v>
+        <v>5000</v>
       </c>
       <c r="G31" s="10">
         <v>0</v>
       </c>
       <c r="H31" s="10">
         <v>0</v>
-      </c>
-      <c r="I31" s="4">
-        <v>45255</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -2846,17 +2844,17 @@
       <c r="B32" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="7">
-        <v>73</v>
+      <c r="C32" s="12">
+        <v>72</v>
       </c>
       <c r="D32" s="11">
-        <v>45182</v>
+        <v>45181</v>
       </c>
       <c r="E32" s="7">
-        <v>12440</v>
+        <v>17900</v>
       </c>
       <c r="F32" s="10">
-        <v>0</v>
+        <v>17900</v>
       </c>
       <c r="G32" s="10">
         <v>0</v>
@@ -2870,28 +2868,31 @@
     </row>
     <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C33" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33" s="11">
         <v>45182</v>
       </c>
       <c r="E33" s="7">
-        <v>6500</v>
+        <v>12440</v>
       </c>
       <c r="F33" s="10">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G33" s="10">
         <v>0</v>
       </c>
       <c r="H33" s="10">
         <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>45255</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -2902,77 +2903,74 @@
         <v>102</v>
       </c>
       <c r="C34" s="7">
+        <v>74</v>
+      </c>
+      <c r="D34" s="11">
+        <v>45182</v>
+      </c>
+      <c r="E34" s="7">
+        <v>6500</v>
+      </c>
+      <c r="F34" s="10">
+        <v>6500</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="7">
         <v>78</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="11">
         <v>45188</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E35" s="7">
         <v>9000</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F35" s="10">
         <v>9000</v>
       </c>
-      <c r="G34" s="10">
-        <v>0</v>
-      </c>
-      <c r="H34" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
+      <c r="G35" s="10">
+        <v>0</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B36" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C36" s="7">
         <v>76</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D36" s="11">
         <v>45183</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E36" s="7">
         <v>10200</v>
       </c>
-      <c r="F35" s="10">
-        <v>0</v>
-      </c>
-      <c r="G35" s="10">
-        <v>0</v>
-      </c>
-      <c r="H35" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="7">
-        <v>77</v>
-      </c>
-      <c r="D36" s="11">
-        <v>45184</v>
-      </c>
-      <c r="E36" s="7">
-        <v>15950</v>
-      </c>
       <c r="F36" s="10">
-        <v>5500</v>
-      </c>
-      <c r="G36" s="12">
+        <v>0</v>
+      </c>
+      <c r="G36" s="10">
         <v>0</v>
       </c>
       <c r="H36" s="10">
         <v>0</v>
-      </c>
-      <c r="I36" s="4">
-        <v>45258</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -2983,98 +2981,98 @@
         <v>104</v>
       </c>
       <c r="C37" s="7">
+        <v>77</v>
+      </c>
+      <c r="D37" s="11">
+        <v>45184</v>
+      </c>
+      <c r="E37" s="7">
+        <v>15950</v>
+      </c>
+      <c r="F37" s="10">
+        <v>5500</v>
+      </c>
+      <c r="G37" s="12">
+        <v>0</v>
+      </c>
+      <c r="H37" s="10">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="7">
         <v>121</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D38" s="11">
         <v>45267</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E38" s="7">
         <v>18600</v>
       </c>
-      <c r="F37" s="10">
-        <v>0</v>
-      </c>
-      <c r="G37" s="12">
-        <v>0</v>
-      </c>
-      <c r="H37" s="10">
-        <v>0</v>
-      </c>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="7">
-        <v>80</v>
-      </c>
-      <c r="D38" s="11">
-        <v>45191</v>
-      </c>
-      <c r="E38" s="7">
-        <v>9398</v>
-      </c>
       <c r="F38" s="10">
-        <v>1000</v>
-      </c>
-      <c r="G38" s="10">
+        <v>0</v>
+      </c>
+      <c r="G38" s="12">
         <v>0</v>
       </c>
       <c r="H38" s="10">
         <v>0</v>
       </c>
+      <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C39" s="7">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D39" s="11">
-        <v>45201</v>
+        <v>45191</v>
       </c>
       <c r="E39" s="7">
-        <v>9740</v>
+        <v>9398</v>
       </c>
       <c r="F39" s="10">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G39" s="10">
         <v>0</v>
       </c>
       <c r="H39" s="10">
         <v>0</v>
-      </c>
-      <c r="I39" s="4">
-        <v>45257</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C40" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D40" s="11">
         <v>45201</v>
       </c>
       <c r="E40" s="7">
-        <v>14100</v>
+        <v>9740</v>
       </c>
       <c r="F40" s="10">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G40" s="10">
         <v>0</v>
@@ -3083,33 +3081,36 @@
         <v>0</v>
       </c>
       <c r="I40" s="4">
-        <v>45259</v>
+        <v>45257</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C41" s="7">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D41" s="11">
-        <v>45203</v>
+        <v>45201</v>
       </c>
       <c r="E41" s="7">
-        <v>14800</v>
-      </c>
-      <c r="F41" s="12">
-        <v>10000</v>
+        <v>14100</v>
+      </c>
+      <c r="F41" s="10">
+        <v>0</v>
       </c>
       <c r="G41" s="10">
         <v>0</v>
       </c>
       <c r="H41" s="10">
         <v>0</v>
+      </c>
+      <c r="I41" s="4">
+        <v>45259</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -3120,16 +3121,16 @@
         <v>107</v>
       </c>
       <c r="C42" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D42" s="11">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="E42" s="7">
-        <v>9630</v>
-      </c>
-      <c r="F42" s="10">
-        <v>9630</v>
+        <v>14800</v>
+      </c>
+      <c r="F42" s="12">
+        <v>10000</v>
       </c>
       <c r="G42" s="10">
         <v>0</v>
@@ -3146,16 +3147,16 @@
         <v>107</v>
       </c>
       <c r="C43" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D43" s="11">
-        <v>45205</v>
+        <v>45204</v>
       </c>
       <c r="E43" s="7">
-        <v>13800</v>
+        <v>9630</v>
       </c>
       <c r="F43" s="10">
-        <v>13800</v>
+        <v>9630</v>
       </c>
       <c r="G43" s="10">
         <v>0</v>
@@ -3172,16 +3173,16 @@
         <v>107</v>
       </c>
       <c r="C44" s="7">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D44" s="11">
-        <v>45226</v>
+        <v>45205</v>
       </c>
       <c r="E44" s="7">
-        <v>13596</v>
+        <v>13800</v>
       </c>
       <c r="F44" s="10">
-        <v>0</v>
+        <v>13800</v>
       </c>
       <c r="G44" s="10">
         <v>0</v>
@@ -3191,20 +3192,20 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C45" s="7">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D45" s="11">
-        <v>45240</v>
+        <v>45226</v>
       </c>
       <c r="E45" s="7">
-        <v>28900</v>
+        <v>13596</v>
       </c>
       <c r="F45" s="10">
         <v>0</v>
@@ -3217,20 +3218,20 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C46" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D46" s="11">
-        <v>45241</v>
+        <v>45240</v>
       </c>
       <c r="E46" s="7">
-        <v>186301</v>
+        <v>28900</v>
       </c>
       <c r="F46" s="10">
         <v>0</v>
@@ -3250,42 +3251,42 @@
         <v>107</v>
       </c>
       <c r="C47" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D47" s="11">
         <v>45241</v>
       </c>
       <c r="E47" s="7">
+        <v>186301</v>
+      </c>
+      <c r="F47" s="10">
+        <v>0</v>
+      </c>
+      <c r="G47" s="10">
+        <v>0</v>
+      </c>
+      <c r="H47" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="7">
+        <v>109</v>
+      </c>
+      <c r="D48" s="11">
+        <v>45241</v>
+      </c>
+      <c r="E48" s="7">
         <v>22000</v>
       </c>
-      <c r="F47" s="10">
-        <v>0</v>
-      </c>
-      <c r="G47" s="10">
-        <v>0</v>
-      </c>
-      <c r="H47" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" s="7">
-        <v>90</v>
-      </c>
-      <c r="D48" s="11">
-        <v>45205</v>
-      </c>
-      <c r="E48" s="7">
-        <v>10000</v>
-      </c>
       <c r="F48" s="10">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G48" s="10">
         <v>0</v>
@@ -3302,16 +3303,16 @@
         <v>108</v>
       </c>
       <c r="C49" s="7">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D49" s="11">
-        <v>45238</v>
+        <v>45205</v>
       </c>
       <c r="E49" s="7">
-        <v>15001</v>
+        <v>10000</v>
       </c>
       <c r="F49" s="10">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G49" s="10">
         <v>0</v>
@@ -3322,22 +3323,22 @@
     </row>
     <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C50" s="7">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D50" s="11">
-        <v>45216</v>
+        <v>45238</v>
       </c>
       <c r="E50" s="7">
-        <v>10200</v>
+        <v>15001</v>
       </c>
       <c r="F50" s="10">
-        <v>10200</v>
+        <v>0</v>
       </c>
       <c r="G50" s="10">
         <v>0</v>
@@ -3354,22 +3355,22 @@
         <v>109</v>
       </c>
       <c r="C51" s="7">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D51" s="11">
-        <v>45234</v>
+        <v>45216</v>
       </c>
       <c r="E51" s="7">
-        <v>20801</v>
+        <v>10200</v>
       </c>
       <c r="F51" s="10">
-        <v>20801</v>
+        <v>10200</v>
       </c>
       <c r="G51" s="10">
         <v>0</v>
       </c>
       <c r="H51" s="10">
-        <v>416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3380,41 +3381,41 @@
         <v>109</v>
       </c>
       <c r="C52" s="7">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="D52" s="11">
-        <v>45271</v>
+        <v>45234</v>
       </c>
       <c r="E52" s="7">
-        <v>12400</v>
+        <v>20801</v>
       </c>
       <c r="F52" s="10">
-        <v>0</v>
+        <v>20801</v>
       </c>
       <c r="G52" s="10">
         <v>0</v>
       </c>
       <c r="H52" s="10">
-        <v>0</v>
+        <v>416</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C53" s="7">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="D53" s="11">
-        <v>45216</v>
+        <v>45271</v>
       </c>
       <c r="E53" s="7">
-        <v>3600</v>
-      </c>
-      <c r="F53" s="8">
+        <v>12400</v>
+      </c>
+      <c r="F53" s="10">
         <v>0</v>
       </c>
       <c r="G53" s="10">
@@ -3432,13 +3433,13 @@
         <v>86</v>
       </c>
       <c r="C54" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D54" s="11">
-        <v>45217</v>
+        <v>45216</v>
       </c>
       <c r="E54" s="7">
-        <v>22500</v>
+        <v>3600</v>
       </c>
       <c r="F54" s="8">
         <v>0</v>
@@ -3458,16 +3459,16 @@
         <v>86</v>
       </c>
       <c r="C55" s="7">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="D55" s="11">
-        <v>45097</v>
+        <v>45217</v>
       </c>
       <c r="E55" s="7">
-        <v>9398</v>
-      </c>
-      <c r="F55" s="10">
-        <v>9398</v>
+        <v>22500</v>
+      </c>
+      <c r="F55" s="8">
+        <v>0</v>
       </c>
       <c r="G55" s="10">
         <v>0</v>
@@ -3484,16 +3485,16 @@
         <v>86</v>
       </c>
       <c r="C56" s="7">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D56" s="11">
-        <v>45108</v>
+        <v>45097</v>
       </c>
       <c r="E56" s="7">
-        <v>11250</v>
+        <v>9398</v>
       </c>
       <c r="F56" s="10">
-        <v>11250</v>
+        <v>9398</v>
       </c>
       <c r="G56" s="10">
         <v>0</v>
@@ -3510,16 +3511,16 @@
         <v>86</v>
       </c>
       <c r="C57" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D57" s="11">
-        <v>45111</v>
+        <v>45108</v>
       </c>
       <c r="E57" s="7">
-        <v>28340</v>
+        <v>11250</v>
       </c>
       <c r="F57" s="10">
-        <v>28340</v>
+        <v>11250</v>
       </c>
       <c r="G57" s="10">
         <v>0</v>
@@ -3536,16 +3537,16 @@
         <v>86</v>
       </c>
       <c r="C58" s="7">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="D58" s="11">
-        <v>45251</v>
+        <v>45111</v>
       </c>
       <c r="E58" s="7">
-        <v>8620</v>
+        <v>28340</v>
       </c>
       <c r="F58" s="10">
-        <v>0</v>
+        <v>28340</v>
       </c>
       <c r="G58" s="10">
         <v>0</v>
@@ -3556,19 +3557,19 @@
     </row>
     <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C59" s="7">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D59" s="11">
-        <v>45226</v>
+        <v>45251</v>
       </c>
       <c r="E59" s="7">
-        <v>11000</v>
+        <v>8620</v>
       </c>
       <c r="F59" s="10">
         <v>0</v>
@@ -3582,19 +3583,19 @@
     </row>
     <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C60" s="7">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D60" s="11">
-        <v>45233</v>
+        <v>45226</v>
       </c>
       <c r="E60" s="7">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="F60" s="10">
         <v>0</v>
@@ -3608,19 +3609,19 @@
     </row>
     <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C61" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D61" s="11">
         <v>45233</v>
       </c>
       <c r="E61" s="7">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F61" s="10">
         <v>0</v>
@@ -3634,48 +3635,48 @@
     </row>
     <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="7">
+        <v>103</v>
+      </c>
+      <c r="D62" s="11">
+        <v>45233</v>
+      </c>
+      <c r="E62" s="7">
+        <v>10000</v>
+      </c>
+      <c r="F62" s="10">
+        <v>0</v>
+      </c>
+      <c r="G62" s="10">
+        <v>0</v>
+      </c>
+      <c r="H62" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B63" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C63" s="7">
         <v>105</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="11">
         <v>45237</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E63" s="7">
         <v>10400</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F63" s="10">
         <v>10400</v>
-      </c>
-      <c r="G62" s="10">
-        <v>0</v>
-      </c>
-      <c r="H62" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C63" s="7">
-        <v>114</v>
-      </c>
-      <c r="D63" s="11">
-        <v>45247</v>
-      </c>
-      <c r="E63" s="7">
-        <v>23751</v>
-      </c>
-      <c r="F63" s="10">
-        <v>5000</v>
       </c>
       <c r="G63" s="10">
         <v>0</v>
@@ -3686,22 +3687,22 @@
     </row>
     <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C64" s="7">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D64" s="11">
-        <v>45262</v>
+        <v>45247</v>
       </c>
       <c r="E64" s="7">
-        <v>16760</v>
+        <v>23751</v>
       </c>
       <c r="F64" s="10">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G64" s="10">
         <v>0</v>
@@ -3712,19 +3713,19 @@
     </row>
     <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C65" s="7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D65" s="11">
-        <v>45266</v>
+        <v>45262</v>
       </c>
       <c r="E65" s="7">
-        <v>15250</v>
+        <v>16760</v>
       </c>
       <c r="F65" s="10">
         <v>0</v>
@@ -3738,19 +3739,19 @@
     </row>
     <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C66" s="7">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D66" s="11">
-        <v>45271</v>
+        <v>45266</v>
       </c>
       <c r="E66" s="7">
-        <v>14900</v>
+        <v>15250</v>
       </c>
       <c r="F66" s="10">
         <v>0</v>
@@ -3764,79 +3765,105 @@
     </row>
     <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="7">
+        <v>124</v>
+      </c>
+      <c r="D67" s="11">
+        <v>45271</v>
+      </c>
+      <c r="E67" s="7">
+        <v>14900</v>
+      </c>
+      <c r="F67" s="10">
+        <v>0</v>
+      </c>
+      <c r="G67" s="10">
+        <v>0</v>
+      </c>
+      <c r="H67" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B68" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C67" s="17">
+      <c r="C68" s="17">
         <v>51</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D68" s="11">
         <v>45142</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E68" s="17">
         <v>23250</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F68" s="10">
         <v>23250</v>
       </c>
-      <c r="G67" s="10">
-        <v>0</v>
-      </c>
-      <c r="H67" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="16" t="s">
+      <c r="G68" s="10">
+        <v>0</v>
+      </c>
+      <c r="H68" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B69" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C68" s="17">
+      <c r="C69" s="17">
         <v>53</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D69" s="11">
         <v>45145</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E69" s="17">
         <v>9200</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F69" s="10">
         <v>9200</v>
       </c>
-      <c r="G68" s="10">
-        <v>0</v>
-      </c>
-      <c r="H68" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="15" t="s">
+      <c r="G69" s="10">
+        <v>0</v>
+      </c>
+      <c r="H69" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B70" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C69" s="17">
+      <c r="C70" s="17">
         <v>81</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D70" s="11">
         <v>45191</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E70" s="17">
         <v>25996</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F70" s="10">
         <v>25996</v>
       </c>
-      <c r="G69" s="10">
-        <v>0</v>
-      </c>
-      <c r="H69" s="10">
+      <c r="G70" s="10">
+        <v>0</v>
+      </c>
+      <c r="H70" s="10">
         <v>0</v>
       </c>
     </row>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -2002,8 +2002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="B55" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2427,7 +2427,7 @@
         <v>17100</v>
       </c>
       <c r="F16" s="10">
-        <v>0</v>
+        <v>17100</v>
       </c>
       <c r="G16" s="10">
         <v>0</v>
@@ -2990,7 +2990,7 @@
         <v>15950</v>
       </c>
       <c r="F37" s="10">
-        <v>5500</v>
+        <v>6760</v>
       </c>
       <c r="G37" s="12">
         <v>0</v>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Sales" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$73</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="149">
   <si>
     <t>Model</t>
   </si>
@@ -476,6 +476,18 @@
   </si>
   <si>
     <t>kachehalli</t>
+  </si>
+  <si>
+    <t>R B LIGHTING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHIVANAGAR </t>
+  </si>
+  <si>
+    <t>BRIGHT LIGHTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAGADI MAIN ROAD </t>
   </si>
 </sst>
 </file>
@@ -2000,10 +2012,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2219,7 +2231,7 @@
         <v>15000</v>
       </c>
       <c r="F8" s="10">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G8" s="10">
         <v>0</v>
@@ -3072,7 +3084,7 @@
         <v>9740</v>
       </c>
       <c r="F40" s="10">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G40" s="10">
         <v>0</v>
@@ -3686,23 +3698,23 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="15" t="s">
-        <v>120</v>
+      <c r="A64" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C64" s="7">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D64" s="11">
-        <v>45247</v>
+        <v>45283</v>
       </c>
       <c r="E64" s="7">
-        <v>23751</v>
+        <v>23800</v>
       </c>
       <c r="F64" s="10">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G64" s="10">
         <v>0</v>
@@ -3713,22 +3725,22 @@
     </row>
     <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C65" s="7">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D65" s="11">
-        <v>45262</v>
+        <v>45247</v>
       </c>
       <c r="E65" s="7">
-        <v>16760</v>
+        <v>23751</v>
       </c>
       <c r="F65" s="10">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G65" s="10">
         <v>0</v>
@@ -3739,19 +3751,19 @@
     </row>
     <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C66" s="7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D66" s="11">
-        <v>45266</v>
+        <v>45262</v>
       </c>
       <c r="E66" s="7">
-        <v>15250</v>
+        <v>16760</v>
       </c>
       <c r="F66" s="10">
         <v>0</v>
@@ -3765,19 +3777,19 @@
     </row>
     <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C67" s="7">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D67" s="11">
-        <v>45271</v>
+        <v>45266</v>
       </c>
       <c r="E67" s="7">
-        <v>14900</v>
+        <v>15250</v>
       </c>
       <c r="F67" s="10">
         <v>0</v>
@@ -3791,22 +3803,22 @@
     </row>
     <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" s="17">
-        <v>51</v>
+        <v>144</v>
+      </c>
+      <c r="C68" s="7">
+        <v>124</v>
       </c>
       <c r="D68" s="11">
-        <v>45142</v>
-      </c>
-      <c r="E68" s="17">
-        <v>23250</v>
+        <v>45271</v>
+      </c>
+      <c r="E68" s="7">
+        <v>14900</v>
       </c>
       <c r="F68" s="10">
-        <v>23250</v>
+        <v>0</v>
       </c>
       <c r="G68" s="10">
         <v>0</v>
@@ -3816,23 +3828,23 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="16" t="s">
-        <v>115</v>
+      <c r="A69" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C69" s="17">
-        <v>53</v>
+        <v>146</v>
+      </c>
+      <c r="C69" s="7">
+        <v>127</v>
       </c>
       <c r="D69" s="11">
-        <v>45145</v>
-      </c>
-      <c r="E69" s="17">
-        <v>9200</v>
+        <v>45285</v>
+      </c>
+      <c r="E69" s="7">
+        <v>19100</v>
       </c>
       <c r="F69" s="10">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G69" s="10">
         <v>0</v>
@@ -3843,27 +3855,105 @@
     </row>
     <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" s="7">
+        <v>128</v>
+      </c>
+      <c r="D70" s="11">
+        <v>45286</v>
+      </c>
+      <c r="E70" s="7">
+        <v>18600</v>
+      </c>
+      <c r="F70" s="10">
+        <v>0</v>
+      </c>
+      <c r="G70" s="10">
+        <v>0</v>
+      </c>
+      <c r="H70" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" s="17">
+        <v>51</v>
+      </c>
+      <c r="D71" s="11">
+        <v>45142</v>
+      </c>
+      <c r="E71" s="17">
+        <v>23250</v>
+      </c>
+      <c r="F71" s="10">
+        <v>23250</v>
+      </c>
+      <c r="G71" s="10">
+        <v>0</v>
+      </c>
+      <c r="H71" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72" s="17">
+        <v>53</v>
+      </c>
+      <c r="D72" s="11">
+        <v>45145</v>
+      </c>
+      <c r="E72" s="17">
+        <v>9200</v>
+      </c>
+      <c r="F72" s="10">
+        <v>9200</v>
+      </c>
+      <c r="G72" s="10">
+        <v>0</v>
+      </c>
+      <c r="H72" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B73" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C70" s="17">
+      <c r="C73" s="17">
         <v>81</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D73" s="11">
         <v>45191</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E73" s="17">
         <v>25996</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F73" s="10">
         <v>25996</v>
       </c>
-      <c r="G70" s="10">
-        <v>0</v>
-      </c>
-      <c r="H70" s="10">
+      <c r="G73" s="10">
+        <v>0</v>
+      </c>
+      <c r="H73" s="10">
         <v>0</v>
       </c>
     </row>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="150">
   <si>
     <t>Model</t>
   </si>
@@ -488,6 +488,9 @@
   </si>
   <si>
     <t xml:space="preserve">MAGADI MAIN ROAD </t>
+  </si>
+  <si>
+    <t>150mm exhaust fan</t>
   </si>
 </sst>
 </file>
@@ -531,7 +534,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -547,6 +550,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -639,6 +648,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -921,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -961,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="20">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -972,7 +983,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="20">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1071,14 +1082,14 @@
         <v>14</v>
       </c>
       <c r="C13" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="20">
@@ -1089,40 +1100,40 @@
       <c r="A15" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="20">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="20">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="20">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="20">
@@ -1133,7 +1144,7 @@
       <c r="A19" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="20">
@@ -1144,18 +1155,18 @@
       <c r="A20" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="20">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="20">
@@ -1166,7 +1177,7 @@
       <c r="A22" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="20">
@@ -1177,7 +1188,7 @@
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="20">
@@ -1188,8 +1199,8 @@
       <c r="A24" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>29</v>
+      <c r="B24" s="22" t="s">
+        <v>149</v>
       </c>
       <c r="C24" s="20">
         <v>28</v>
@@ -1199,7 +1210,7 @@
       <c r="A25" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="22" t="s">
         <v>137</v>
       </c>
       <c r="C25" s="20">
@@ -1210,7 +1221,7 @@
       <c r="A26" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="22" t="s">
         <v>130</v>
       </c>
       <c r="C26" s="20">
@@ -1236,7 +1247,7 @@
         <v>131</v>
       </c>
       <c r="C28" s="20">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1269,7 +1280,7 @@
         <v>134</v>
       </c>
       <c r="C31" s="20">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1291,12 +1302,12 @@
         <v>136</v>
       </c>
       <c r="C33" s="20">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="70" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1305,7 +1316,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D33"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2014,8 +2025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3324,7 +3335,7 @@
         <v>10000</v>
       </c>
       <c r="F49" s="10">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G49" s="10">
         <v>0</v>
@@ -3711,7 +3722,7 @@
         <v>45283</v>
       </c>
       <c r="E64" s="7">
-        <v>23800</v>
+        <v>23880</v>
       </c>
       <c r="F64" s="10">
         <v>0</v>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sales" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$75</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="152">
   <si>
     <t>Model</t>
   </si>
@@ -491,6 +491,12 @@
   </si>
   <si>
     <t>150mm exhaust fan</t>
+  </si>
+  <si>
+    <t>BALAJI ELECTRICALS</t>
+  </si>
+  <si>
+    <t>ANDRAHALLI</t>
   </si>
 </sst>
 </file>
@@ -932,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -994,7 +1000,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2023,10 +2029,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3450,21 +3456,21 @@
     </row>
     <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C54" s="7">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="D54" s="11">
-        <v>45216</v>
+        <v>45292</v>
       </c>
       <c r="E54" s="7">
-        <v>3600</v>
-      </c>
-      <c r="F54" s="8">
+        <v>15600</v>
+      </c>
+      <c r="F54" s="10">
         <v>0</v>
       </c>
       <c r="G54" s="10">
@@ -3482,13 +3488,13 @@
         <v>86</v>
       </c>
       <c r="C55" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D55" s="11">
-        <v>45217</v>
+        <v>45216</v>
       </c>
       <c r="E55" s="7">
-        <v>22500</v>
+        <v>3600</v>
       </c>
       <c r="F55" s="8">
         <v>0</v>
@@ -3508,16 +3514,16 @@
         <v>86</v>
       </c>
       <c r="C56" s="7">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="D56" s="11">
-        <v>45097</v>
+        <v>45217</v>
       </c>
       <c r="E56" s="7">
-        <v>9398</v>
-      </c>
-      <c r="F56" s="10">
-        <v>9398</v>
+        <v>22500</v>
+      </c>
+      <c r="F56" s="8">
+        <v>0</v>
       </c>
       <c r="G56" s="10">
         <v>0</v>
@@ -3534,16 +3540,16 @@
         <v>86</v>
       </c>
       <c r="C57" s="7">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D57" s="11">
-        <v>45108</v>
+        <v>45097</v>
       </c>
       <c r="E57" s="7">
-        <v>11250</v>
+        <v>9398</v>
       </c>
       <c r="F57" s="10">
-        <v>11250</v>
+        <v>9398</v>
       </c>
       <c r="G57" s="10">
         <v>0</v>
@@ -3560,16 +3566,16 @@
         <v>86</v>
       </c>
       <c r="C58" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D58" s="11">
-        <v>45111</v>
+        <v>45108</v>
       </c>
       <c r="E58" s="7">
-        <v>28340</v>
+        <v>11250</v>
       </c>
       <c r="F58" s="10">
-        <v>28340</v>
+        <v>11250</v>
       </c>
       <c r="G58" s="10">
         <v>0</v>
@@ -3586,16 +3592,16 @@
         <v>86</v>
       </c>
       <c r="C59" s="7">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="D59" s="11">
-        <v>45251</v>
+        <v>45111</v>
       </c>
       <c r="E59" s="7">
-        <v>8620</v>
+        <v>28340</v>
       </c>
       <c r="F59" s="10">
-        <v>0</v>
+        <v>28340</v>
       </c>
       <c r="G59" s="10">
         <v>0</v>
@@ -3606,19 +3612,19 @@
     </row>
     <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C60" s="7">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D60" s="11">
-        <v>45226</v>
+        <v>45251</v>
       </c>
       <c r="E60" s="7">
-        <v>11000</v>
+        <v>8620</v>
       </c>
       <c r="F60" s="10">
         <v>0</v>
@@ -3632,19 +3638,19 @@
     </row>
     <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C61" s="7">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D61" s="11">
-        <v>45233</v>
+        <v>45226</v>
       </c>
       <c r="E61" s="7">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="F61" s="10">
         <v>0</v>
@@ -3658,19 +3664,19 @@
     </row>
     <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C62" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D62" s="11">
         <v>45233</v>
       </c>
       <c r="E62" s="7">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F62" s="10">
         <v>0</v>
@@ -3684,22 +3690,22 @@
     </row>
     <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C63" s="7">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D63" s="11">
-        <v>45237</v>
+        <v>45233</v>
       </c>
       <c r="E63" s="7">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="F63" s="10">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="G63" s="10">
         <v>0</v>
@@ -3716,42 +3722,42 @@
         <v>101</v>
       </c>
       <c r="C64" s="7">
+        <v>105</v>
+      </c>
+      <c r="D64" s="11">
+        <v>45237</v>
+      </c>
+      <c r="E64" s="7">
+        <v>10400</v>
+      </c>
+      <c r="F64" s="10">
+        <v>10400</v>
+      </c>
+      <c r="G64" s="10">
+        <v>0</v>
+      </c>
+      <c r="H64" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" s="7">
         <v>126</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="11">
         <v>45283</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E65" s="7">
         <v>23880</v>
       </c>
-      <c r="F64" s="10">
-        <v>0</v>
-      </c>
-      <c r="G64" s="10">
-        <v>0</v>
-      </c>
-      <c r="H64" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C65" s="7">
-        <v>114</v>
-      </c>
-      <c r="D65" s="11">
-        <v>45247</v>
-      </c>
-      <c r="E65" s="7">
-        <v>23751</v>
-      </c>
       <c r="F65" s="10">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G65" s="10">
         <v>0</v>
@@ -3762,22 +3768,22 @@
     </row>
     <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C66" s="7">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D66" s="11">
-        <v>45262</v>
+        <v>45247</v>
       </c>
       <c r="E66" s="7">
-        <v>16760</v>
+        <v>23751</v>
       </c>
       <c r="F66" s="10">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G66" s="10">
         <v>0</v>
@@ -3788,19 +3794,19 @@
     </row>
     <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C67" s="7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D67" s="11">
-        <v>45266</v>
+        <v>45262</v>
       </c>
       <c r="E67" s="7">
-        <v>15250</v>
+        <v>16760</v>
       </c>
       <c r="F67" s="10">
         <v>0</v>
@@ -3814,19 +3820,19 @@
     </row>
     <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C68" s="7">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D68" s="11">
-        <v>45271</v>
+        <v>45266</v>
       </c>
       <c r="E68" s="7">
-        <v>14900</v>
+        <v>15250</v>
       </c>
       <c r="F68" s="10">
         <v>0</v>
@@ -3840,19 +3846,19 @@
     </row>
     <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C69" s="7">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D69" s="11">
-        <v>45285</v>
+        <v>45271</v>
       </c>
       <c r="E69" s="7">
-        <v>19100</v>
+        <v>14900</v>
       </c>
       <c r="F69" s="10">
         <v>0</v>
@@ -3866,19 +3872,19 @@
     </row>
     <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C70" s="7">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D70" s="11">
-        <v>45286</v>
+        <v>45285</v>
       </c>
       <c r="E70" s="7">
-        <v>18600</v>
+        <v>19100</v>
       </c>
       <c r="F70" s="10">
         <v>0</v>
@@ -3892,22 +3898,22 @@
     </row>
     <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" s="17">
-        <v>51</v>
+        <v>148</v>
+      </c>
+      <c r="C71" s="7">
+        <v>128</v>
       </c>
       <c r="D71" s="11">
-        <v>45142</v>
-      </c>
-      <c r="E71" s="17">
-        <v>23250</v>
+        <v>45286</v>
+      </c>
+      <c r="E71" s="7">
+        <v>18600</v>
       </c>
       <c r="F71" s="10">
-        <v>23250</v>
+        <v>0</v>
       </c>
       <c r="G71" s="10">
         <v>0</v>
@@ -3917,23 +3923,23 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="16" t="s">
-        <v>115</v>
+      <c r="A72" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C72" s="17">
-        <v>53</v>
+        <v>151</v>
+      </c>
+      <c r="C72" s="7">
+        <v>129</v>
       </c>
       <c r="D72" s="11">
-        <v>45145</v>
-      </c>
-      <c r="E72" s="17">
-        <v>9200</v>
+        <v>45290</v>
+      </c>
+      <c r="E72" s="7">
+        <v>15400</v>
       </c>
       <c r="F72" s="10">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G72" s="10">
         <v>0</v>
@@ -3944,27 +3950,79 @@
     </row>
     <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" s="17">
+        <v>51</v>
+      </c>
+      <c r="D73" s="11">
+        <v>45142</v>
+      </c>
+      <c r="E73" s="17">
+        <v>23250</v>
+      </c>
+      <c r="F73" s="10">
+        <v>23250</v>
+      </c>
+      <c r="G73" s="10">
+        <v>0</v>
+      </c>
+      <c r="H73" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C74" s="17">
+        <v>53</v>
+      </c>
+      <c r="D74" s="11">
+        <v>45145</v>
+      </c>
+      <c r="E74" s="17">
+        <v>9200</v>
+      </c>
+      <c r="F74" s="10">
+        <v>9200</v>
+      </c>
+      <c r="G74" s="10">
+        <v>0</v>
+      </c>
+      <c r="H74" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B75" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C73" s="17">
+      <c r="C75" s="17">
         <v>81</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D75" s="11">
         <v>45191</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E75" s="17">
         <v>25996</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F75" s="10">
         <v>25996</v>
       </c>
-      <c r="G73" s="10">
-        <v>0</v>
-      </c>
-      <c r="H73" s="10">
+      <c r="G75" s="10">
+        <v>0</v>
+      </c>
+      <c r="H75" s="10">
         <v>0</v>
       </c>
     </row>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -2031,8 +2031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2641,7 +2641,7 @@
         <v>11598</v>
       </c>
       <c r="F23" s="10">
-        <v>0</v>
+        <v>11598</v>
       </c>
       <c r="G23" s="10">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>15600</v>
       </c>
       <c r="F54" s="10">
-        <v>0</v>
+        <v>15600</v>
       </c>
       <c r="G54" s="10">
         <v>0</v>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -938,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1253,7 +1253,7 @@
         <v>131</v>
       </c>
       <c r="C28" s="20">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2031,9 +2031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2912,7 +2910,7 @@
         <v>12440</v>
       </c>
       <c r="F33" s="10">
-        <v>0</v>
+        <v>12440</v>
       </c>
       <c r="G33" s="10">
         <v>0</v>
@@ -3653,7 +3651,7 @@
         <v>11000</v>
       </c>
       <c r="F61" s="10">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="G61" s="10">
         <v>0</v>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Sales" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$76</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="152">
   <si>
     <t>Model</t>
   </si>
@@ -2029,9 +2029,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2924,22 +2926,22 @@
     </row>
     <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C34" s="7">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="D34" s="11">
-        <v>45182</v>
+        <v>45293</v>
       </c>
       <c r="E34" s="7">
-        <v>6500</v>
+        <v>37000</v>
       </c>
       <c r="F34" s="10">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G34" s="10">
         <v>0</v>
@@ -2947,6 +2949,7 @@
       <c r="H34" s="10">
         <v>0</v>
       </c>
+      <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
@@ -2956,77 +2959,74 @@
         <v>102</v>
       </c>
       <c r="C35" s="7">
+        <v>74</v>
+      </c>
+      <c r="D35" s="11">
+        <v>45182</v>
+      </c>
+      <c r="E35" s="7">
+        <v>6500</v>
+      </c>
+      <c r="F35" s="10">
+        <v>6500</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="7">
         <v>78</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D36" s="11">
         <v>45188</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E36" s="7">
         <v>9000</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F36" s="10">
         <v>9000</v>
       </c>
-      <c r="G35" s="10">
-        <v>0</v>
-      </c>
-      <c r="H35" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
+      <c r="G36" s="10">
+        <v>0</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B37" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C37" s="7">
         <v>76</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D37" s="11">
         <v>45183</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E37" s="7">
         <v>10200</v>
       </c>
-      <c r="F36" s="10">
-        <v>0</v>
-      </c>
-      <c r="G36" s="10">
-        <v>0</v>
-      </c>
-      <c r="H36" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="7">
-        <v>77</v>
-      </c>
-      <c r="D37" s="11">
-        <v>45184</v>
-      </c>
-      <c r="E37" s="7">
-        <v>15950</v>
-      </c>
       <c r="F37" s="10">
-        <v>6760</v>
-      </c>
-      <c r="G37" s="12">
+        <v>0</v>
+      </c>
+      <c r="G37" s="10">
         <v>0</v>
       </c>
       <c r="H37" s="10">
         <v>0</v>
-      </c>
-      <c r="I37" s="4">
-        <v>45258</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -3037,98 +3037,98 @@
         <v>104</v>
       </c>
       <c r="C38" s="7">
+        <v>77</v>
+      </c>
+      <c r="D38" s="11">
+        <v>45184</v>
+      </c>
+      <c r="E38" s="7">
+        <v>15950</v>
+      </c>
+      <c r="F38" s="10">
+        <v>6760</v>
+      </c>
+      <c r="G38" s="12">
+        <v>0</v>
+      </c>
+      <c r="H38" s="10">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="7">
         <v>121</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="11">
         <v>45267</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E39" s="7">
         <v>18600</v>
       </c>
-      <c r="F38" s="10">
-        <v>0</v>
-      </c>
-      <c r="G38" s="12">
-        <v>0</v>
-      </c>
-      <c r="H38" s="10">
-        <v>0</v>
-      </c>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" s="7">
-        <v>80</v>
-      </c>
-      <c r="D39" s="11">
-        <v>45191</v>
-      </c>
-      <c r="E39" s="7">
-        <v>9398</v>
-      </c>
       <c r="F39" s="10">
-        <v>1000</v>
-      </c>
-      <c r="G39" s="10">
+        <v>0</v>
+      </c>
+      <c r="G39" s="12">
         <v>0</v>
       </c>
       <c r="H39" s="10">
         <v>0</v>
       </c>
+      <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C40" s="7">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D40" s="11">
-        <v>45201</v>
+        <v>45191</v>
       </c>
       <c r="E40" s="7">
-        <v>9740</v>
+        <v>9398</v>
       </c>
       <c r="F40" s="10">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G40" s="10">
         <v>0</v>
       </c>
       <c r="H40" s="10">
         <v>0</v>
-      </c>
-      <c r="I40" s="4">
-        <v>45257</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C41" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D41" s="11">
         <v>45201</v>
       </c>
       <c r="E41" s="7">
-        <v>14100</v>
+        <v>9740</v>
       </c>
       <c r="F41" s="10">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G41" s="10">
         <v>0</v>
@@ -3137,33 +3137,36 @@
         <v>0</v>
       </c>
       <c r="I41" s="4">
-        <v>45259</v>
+        <v>45257</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C42" s="7">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D42" s="11">
-        <v>45203</v>
+        <v>45201</v>
       </c>
       <c r="E42" s="7">
-        <v>14800</v>
-      </c>
-      <c r="F42" s="12">
-        <v>10000</v>
+        <v>14100</v>
+      </c>
+      <c r="F42" s="10">
+        <v>5000</v>
       </c>
       <c r="G42" s="10">
         <v>0</v>
       </c>
       <c r="H42" s="10">
         <v>0</v>
+      </c>
+      <c r="I42" s="4">
+        <v>45259</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -3174,16 +3177,16 @@
         <v>107</v>
       </c>
       <c r="C43" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D43" s="11">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="E43" s="7">
-        <v>9630</v>
-      </c>
-      <c r="F43" s="10">
-        <v>9630</v>
+        <v>14800</v>
+      </c>
+      <c r="F43" s="12">
+        <v>10000</v>
       </c>
       <c r="G43" s="10">
         <v>0</v>
@@ -3200,16 +3203,16 @@
         <v>107</v>
       </c>
       <c r="C44" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D44" s="11">
-        <v>45205</v>
+        <v>45204</v>
       </c>
       <c r="E44" s="7">
-        <v>13800</v>
+        <v>9630</v>
       </c>
       <c r="F44" s="10">
-        <v>13800</v>
+        <v>9630</v>
       </c>
       <c r="G44" s="10">
         <v>0</v>
@@ -3226,16 +3229,16 @@
         <v>107</v>
       </c>
       <c r="C45" s="7">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D45" s="11">
-        <v>45226</v>
+        <v>45205</v>
       </c>
       <c r="E45" s="7">
-        <v>13596</v>
+        <v>13800</v>
       </c>
       <c r="F45" s="10">
-        <v>0</v>
+        <v>13800</v>
       </c>
       <c r="G45" s="10">
         <v>0</v>
@@ -3245,20 +3248,20 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C46" s="7">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D46" s="11">
-        <v>45240</v>
+        <v>45226</v>
       </c>
       <c r="E46" s="7">
-        <v>28900</v>
+        <v>13596</v>
       </c>
       <c r="F46" s="10">
         <v>0</v>
@@ -3271,20 +3274,20 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C47" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D47" s="11">
-        <v>45241</v>
+        <v>45240</v>
       </c>
       <c r="E47" s="7">
-        <v>186301</v>
+        <v>28900</v>
       </c>
       <c r="F47" s="10">
         <v>0</v>
@@ -3304,42 +3307,42 @@
         <v>107</v>
       </c>
       <c r="C48" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D48" s="11">
         <v>45241</v>
       </c>
       <c r="E48" s="7">
+        <v>186301</v>
+      </c>
+      <c r="F48" s="10">
+        <v>0</v>
+      </c>
+      <c r="G48" s="10">
+        <v>0</v>
+      </c>
+      <c r="H48" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="7">
+        <v>109</v>
+      </c>
+      <c r="D49" s="11">
+        <v>45241</v>
+      </c>
+      <c r="E49" s="7">
         <v>22000</v>
       </c>
-      <c r="F48" s="10">
-        <v>0</v>
-      </c>
-      <c r="G48" s="10">
-        <v>0</v>
-      </c>
-      <c r="H48" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" s="7">
-        <v>90</v>
-      </c>
-      <c r="D49" s="11">
-        <v>45205</v>
-      </c>
-      <c r="E49" s="7">
-        <v>10000</v>
-      </c>
       <c r="F49" s="10">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G49" s="10">
         <v>0</v>
@@ -3356,16 +3359,16 @@
         <v>108</v>
       </c>
       <c r="C50" s="7">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D50" s="11">
-        <v>45238</v>
+        <v>45205</v>
       </c>
       <c r="E50" s="7">
-        <v>15001</v>
+        <v>10000</v>
       </c>
       <c r="F50" s="10">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G50" s="10">
         <v>0</v>
@@ -3376,22 +3379,22 @@
     </row>
     <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C51" s="7">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D51" s="11">
-        <v>45216</v>
+        <v>45238</v>
       </c>
       <c r="E51" s="7">
-        <v>10200</v>
+        <v>15001</v>
       </c>
       <c r="F51" s="10">
-        <v>10200</v>
+        <v>0</v>
       </c>
       <c r="G51" s="10">
         <v>0</v>
@@ -3408,22 +3411,22 @@
         <v>109</v>
       </c>
       <c r="C52" s="7">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D52" s="11">
-        <v>45234</v>
+        <v>45216</v>
       </c>
       <c r="E52" s="7">
-        <v>20801</v>
+        <v>10200</v>
       </c>
       <c r="F52" s="10">
-        <v>20801</v>
+        <v>10200</v>
       </c>
       <c r="G52" s="10">
         <v>0</v>
       </c>
       <c r="H52" s="10">
-        <v>416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3434,22 +3437,22 @@
         <v>109</v>
       </c>
       <c r="C53" s="7">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="D53" s="11">
-        <v>45271</v>
+        <v>45234</v>
       </c>
       <c r="E53" s="7">
-        <v>12400</v>
+        <v>20801</v>
       </c>
       <c r="F53" s="10">
-        <v>0</v>
+        <v>20801</v>
       </c>
       <c r="G53" s="10">
         <v>0</v>
       </c>
       <c r="H53" s="10">
-        <v>0</v>
+        <v>416</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3460,16 +3463,16 @@
         <v>109</v>
       </c>
       <c r="C54" s="7">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D54" s="11">
-        <v>45292</v>
+        <v>45271</v>
       </c>
       <c r="E54" s="7">
-        <v>15600</v>
+        <v>12400</v>
       </c>
       <c r="F54" s="10">
-        <v>15600</v>
+        <v>0</v>
       </c>
       <c r="G54" s="10">
         <v>0</v>
@@ -3480,22 +3483,22 @@
     </row>
     <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C55" s="7">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="D55" s="11">
-        <v>45216</v>
+        <v>45292</v>
       </c>
       <c r="E55" s="7">
-        <v>3600</v>
-      </c>
-      <c r="F55" s="8">
-        <v>0</v>
+        <v>15600</v>
+      </c>
+      <c r="F55" s="10">
+        <v>15600</v>
       </c>
       <c r="G55" s="10">
         <v>0</v>
@@ -3512,13 +3515,13 @@
         <v>86</v>
       </c>
       <c r="C56" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D56" s="11">
-        <v>45217</v>
+        <v>45216</v>
       </c>
       <c r="E56" s="7">
-        <v>22500</v>
+        <v>3600</v>
       </c>
       <c r="F56" s="8">
         <v>0</v>
@@ -3538,16 +3541,16 @@
         <v>86</v>
       </c>
       <c r="C57" s="7">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="D57" s="11">
-        <v>45097</v>
+        <v>45217</v>
       </c>
       <c r="E57" s="7">
-        <v>9398</v>
-      </c>
-      <c r="F57" s="10">
-        <v>9398</v>
+        <v>22500</v>
+      </c>
+      <c r="F57" s="8">
+        <v>0</v>
       </c>
       <c r="G57" s="10">
         <v>0</v>
@@ -3564,16 +3567,16 @@
         <v>86</v>
       </c>
       <c r="C58" s="7">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D58" s="11">
-        <v>45108</v>
+        <v>45097</v>
       </c>
       <c r="E58" s="7">
-        <v>11250</v>
+        <v>9398</v>
       </c>
       <c r="F58" s="10">
-        <v>11250</v>
+        <v>9398</v>
       </c>
       <c r="G58" s="10">
         <v>0</v>
@@ -3590,16 +3593,16 @@
         <v>86</v>
       </c>
       <c r="C59" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D59" s="11">
-        <v>45111</v>
+        <v>45108</v>
       </c>
       <c r="E59" s="7">
-        <v>28340</v>
+        <v>11250</v>
       </c>
       <c r="F59" s="10">
-        <v>28340</v>
+        <v>11250</v>
       </c>
       <c r="G59" s="10">
         <v>0</v>
@@ -3616,16 +3619,16 @@
         <v>86</v>
       </c>
       <c r="C60" s="7">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="D60" s="11">
-        <v>45251</v>
+        <v>45111</v>
       </c>
       <c r="E60" s="7">
-        <v>8620</v>
+        <v>28340</v>
       </c>
       <c r="F60" s="10">
-        <v>0</v>
+        <v>28340</v>
       </c>
       <c r="G60" s="10">
         <v>0</v>
@@ -3636,22 +3639,22 @@
     </row>
     <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C61" s="7">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D61" s="11">
-        <v>45226</v>
+        <v>45251</v>
       </c>
       <c r="E61" s="7">
-        <v>11000</v>
+        <v>8620</v>
       </c>
       <c r="F61" s="10">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="G61" s="10">
         <v>0</v>
@@ -3662,22 +3665,22 @@
     </row>
     <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C62" s="7">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D62" s="11">
-        <v>45233</v>
+        <v>45226</v>
       </c>
       <c r="E62" s="7">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="F62" s="10">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="G62" s="10">
         <v>0</v>
@@ -3688,19 +3691,19 @@
     </row>
     <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C63" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D63" s="11">
         <v>45233</v>
       </c>
       <c r="E63" s="7">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F63" s="10">
         <v>0</v>
@@ -3714,22 +3717,22 @@
     </row>
     <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C64" s="7">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D64" s="11">
-        <v>45237</v>
+        <v>45233</v>
       </c>
       <c r="E64" s="7">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="F64" s="10">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="G64" s="10">
         <v>0</v>
@@ -3746,42 +3749,42 @@
         <v>101</v>
       </c>
       <c r="C65" s="7">
+        <v>105</v>
+      </c>
+      <c r="D65" s="11">
+        <v>45237</v>
+      </c>
+      <c r="E65" s="7">
+        <v>10400</v>
+      </c>
+      <c r="F65" s="10">
+        <v>10400</v>
+      </c>
+      <c r="G65" s="10">
+        <v>0</v>
+      </c>
+      <c r="H65" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" s="7">
         <v>126</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D66" s="11">
         <v>45283</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E66" s="7">
         <v>23880</v>
       </c>
-      <c r="F65" s="10">
-        <v>0</v>
-      </c>
-      <c r="G65" s="10">
-        <v>0</v>
-      </c>
-      <c r="H65" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C66" s="7">
-        <v>114</v>
-      </c>
-      <c r="D66" s="11">
-        <v>45247</v>
-      </c>
-      <c r="E66" s="7">
-        <v>23751</v>
-      </c>
       <c r="F66" s="10">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G66" s="10">
         <v>0</v>
@@ -3792,22 +3795,22 @@
     </row>
     <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C67" s="7">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D67" s="11">
-        <v>45262</v>
+        <v>45247</v>
       </c>
       <c r="E67" s="7">
-        <v>16760</v>
+        <v>23751</v>
       </c>
       <c r="F67" s="10">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G67" s="10">
         <v>0</v>
@@ -3818,19 +3821,19 @@
     </row>
     <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C68" s="7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D68" s="11">
-        <v>45266</v>
+        <v>45262</v>
       </c>
       <c r="E68" s="7">
-        <v>15250</v>
+        <v>16760</v>
       </c>
       <c r="F68" s="10">
         <v>0</v>
@@ -3844,19 +3847,19 @@
     </row>
     <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C69" s="7">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D69" s="11">
-        <v>45271</v>
+        <v>45266</v>
       </c>
       <c r="E69" s="7">
-        <v>14900</v>
+        <v>15250</v>
       </c>
       <c r="F69" s="10">
         <v>0</v>
@@ -3870,19 +3873,19 @@
     </row>
     <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C70" s="7">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D70" s="11">
-        <v>45285</v>
+        <v>45271</v>
       </c>
       <c r="E70" s="7">
-        <v>19100</v>
+        <v>14900</v>
       </c>
       <c r="F70" s="10">
         <v>0</v>
@@ -3896,19 +3899,19 @@
     </row>
     <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C71" s="7">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D71" s="11">
-        <v>45286</v>
+        <v>45285</v>
       </c>
       <c r="E71" s="7">
-        <v>18600</v>
+        <v>19100</v>
       </c>
       <c r="F71" s="10">
         <v>0</v>
@@ -3922,19 +3925,19 @@
     </row>
     <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C72" s="7">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D72" s="11">
-        <v>45290</v>
+        <v>45286</v>
       </c>
       <c r="E72" s="7">
-        <v>15400</v>
+        <v>18600</v>
       </c>
       <c r="F72" s="10">
         <v>0</v>
@@ -3948,79 +3951,105 @@
     </row>
     <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" s="7">
+        <v>129</v>
+      </c>
+      <c r="D73" s="11">
+        <v>45290</v>
+      </c>
+      <c r="E73" s="7">
+        <v>15400</v>
+      </c>
+      <c r="F73" s="10">
+        <v>0</v>
+      </c>
+      <c r="G73" s="10">
+        <v>0</v>
+      </c>
+      <c r="H73" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B74" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C73" s="17">
+      <c r="C74" s="17">
         <v>51</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D74" s="11">
         <v>45142</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E74" s="17">
         <v>23250</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F74" s="10">
         <v>23250</v>
       </c>
-      <c r="G73" s="10">
-        <v>0</v>
-      </c>
-      <c r="H73" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="16" t="s">
+      <c r="G74" s="10">
+        <v>0</v>
+      </c>
+      <c r="H74" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B75" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C74" s="17">
+      <c r="C75" s="17">
         <v>53</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="11">
         <v>45145</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E75" s="17">
         <v>9200</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F75" s="10">
         <v>9200</v>
       </c>
-      <c r="G74" s="10">
-        <v>0</v>
-      </c>
-      <c r="H74" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="15" t="s">
+      <c r="G75" s="10">
+        <v>0</v>
+      </c>
+      <c r="H75" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B76" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C75" s="17">
+      <c r="C76" s="17">
         <v>81</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D76" s="11">
         <v>45191</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E76" s="17">
         <v>25996</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F76" s="10">
         <v>25996</v>
       </c>
-      <c r="G75" s="10">
-        <v>0</v>
-      </c>
-      <c r="H75" s="10">
+      <c r="G76" s="10">
+        <v>0</v>
+      </c>
+      <c r="H76" s="10">
         <v>0</v>
       </c>
     </row>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -938,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -967,7 +967,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="20">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -989,7 +989,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="20">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1033,7 +1033,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1066,7 +1066,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="20">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1121,7 +1121,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="20">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1253,7 +1253,7 @@
         <v>131</v>
       </c>
       <c r="C28" s="20">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2031,7 +2031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="B34" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sales" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$77</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="152">
   <si>
     <t>Model</t>
   </si>
@@ -938,7 +938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -2029,10 +2029,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2170,7 +2170,7 @@
         <v>23650</v>
       </c>
       <c r="F5" s="10">
-        <v>0</v>
+        <v>176500</v>
       </c>
       <c r="G5" s="10">
         <v>0</v>
@@ -2708,23 +2708,23 @@
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>61</v>
+      <c r="A26" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26" s="7">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="D26" s="11">
-        <v>45164</v>
+        <v>45294</v>
       </c>
       <c r="E26" s="7">
-        <v>5000</v>
+        <v>4300</v>
       </c>
       <c r="F26" s="10">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G26" s="10">
         <v>0</v>
@@ -2732,54 +2732,55 @@
       <c r="H26" s="10">
         <v>0</v>
       </c>
-      <c r="I26" s="4">
-        <v>45257</v>
-      </c>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C27" s="7">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D27" s="11">
-        <v>45181</v>
+        <v>45164</v>
       </c>
       <c r="E27" s="7">
-        <v>12899</v>
+        <v>5000</v>
       </c>
       <c r="F27" s="10">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="G27" s="10">
         <v>0</v>
       </c>
       <c r="H27" s="10">
         <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>45257</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D28" s="11">
-        <v>45177</v>
+        <v>45181</v>
       </c>
       <c r="E28" s="7">
-        <v>14300</v>
+        <v>12899</v>
       </c>
       <c r="F28" s="10">
-        <v>14000</v>
+        <v>1500</v>
       </c>
       <c r="G28" s="10">
         <v>0</v>
@@ -2796,16 +2797,16 @@
         <v>100</v>
       </c>
       <c r="C29" s="7">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D29" s="11">
-        <v>45202</v>
+        <v>45177</v>
       </c>
       <c r="E29" s="7">
-        <v>8700</v>
+        <v>14300</v>
       </c>
       <c r="F29" s="10">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="G29" s="10">
         <v>0</v>
@@ -2822,13 +2823,13 @@
         <v>100</v>
       </c>
       <c r="C30" s="7">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D30" s="11">
-        <v>45225</v>
+        <v>45202</v>
       </c>
       <c r="E30" s="7">
-        <v>13478</v>
+        <v>8700</v>
       </c>
       <c r="F30" s="10">
         <v>0</v>
@@ -2842,22 +2843,22 @@
     </row>
     <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C31" s="7">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D31" s="11">
-        <v>45155</v>
+        <v>45225</v>
       </c>
       <c r="E31" s="7">
-        <v>5000</v>
+        <v>13478</v>
       </c>
       <c r="F31" s="10">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G31" s="10">
         <v>0</v>
@@ -2868,31 +2869,28 @@
     </row>
     <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="12">
-        <v>72</v>
+        <v>91</v>
+      </c>
+      <c r="C32" s="7">
+        <v>56</v>
       </c>
       <c r="D32" s="11">
-        <v>45181</v>
+        <v>45155</v>
       </c>
       <c r="E32" s="7">
-        <v>17900</v>
+        <v>5000</v>
       </c>
       <c r="F32" s="10">
-        <v>17900</v>
+        <v>5000</v>
       </c>
       <c r="G32" s="10">
         <v>0</v>
       </c>
       <c r="H32" s="10">
         <v>0</v>
-      </c>
-      <c r="I32" s="4">
-        <v>45255</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -2902,17 +2900,17 @@
       <c r="B33" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="7">
-        <v>73</v>
+      <c r="C33" s="12">
+        <v>72</v>
       </c>
       <c r="D33" s="11">
-        <v>45182</v>
+        <v>45181</v>
       </c>
       <c r="E33" s="7">
-        <v>12440</v>
+        <v>17900</v>
       </c>
       <c r="F33" s="10">
-        <v>12440</v>
+        <v>17900</v>
       </c>
       <c r="G33" s="10">
         <v>0</v>
@@ -2932,16 +2930,16 @@
         <v>101</v>
       </c>
       <c r="C34" s="7">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="D34" s="11">
-        <v>45293</v>
+        <v>45182</v>
       </c>
       <c r="E34" s="7">
-        <v>37000</v>
+        <v>12440</v>
       </c>
       <c r="F34" s="10">
-        <v>0</v>
+        <v>12440</v>
       </c>
       <c r="G34" s="10">
         <v>0</v>
@@ -2949,26 +2947,28 @@
       <c r="H34" s="10">
         <v>0</v>
       </c>
-      <c r="I34" s="4"/>
+      <c r="I34" s="4">
+        <v>45255</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C35" s="7">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="D35" s="11">
-        <v>45182</v>
+        <v>45293</v>
       </c>
       <c r="E35" s="7">
-        <v>6500</v>
+        <v>37000</v>
       </c>
       <c r="F35" s="10">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G35" s="10">
         <v>0</v>
@@ -2976,6 +2976,7 @@
       <c r="H35" s="10">
         <v>0</v>
       </c>
+      <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
@@ -2985,77 +2986,74 @@
         <v>102</v>
       </c>
       <c r="C36" s="7">
+        <v>74</v>
+      </c>
+      <c r="D36" s="11">
+        <v>45182</v>
+      </c>
+      <c r="E36" s="7">
+        <v>6500</v>
+      </c>
+      <c r="F36" s="10">
+        <v>6500</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="7">
         <v>78</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D37" s="11">
         <v>45188</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E37" s="7">
         <v>9000</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F37" s="10">
         <v>9000</v>
       </c>
-      <c r="G36" s="10">
-        <v>0</v>
-      </c>
-      <c r="H36" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
+      <c r="G37" s="10">
+        <v>0</v>
+      </c>
+      <c r="H37" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B38" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C38" s="7">
         <v>76</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D38" s="11">
         <v>45183</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E38" s="7">
         <v>10200</v>
       </c>
-      <c r="F37" s="10">
-        <v>0</v>
-      </c>
-      <c r="G37" s="10">
-        <v>0</v>
-      </c>
-      <c r="H37" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="7">
-        <v>77</v>
-      </c>
-      <c r="D38" s="11">
-        <v>45184</v>
-      </c>
-      <c r="E38" s="7">
-        <v>15950</v>
-      </c>
       <c r="F38" s="10">
-        <v>6760</v>
-      </c>
-      <c r="G38" s="12">
+        <v>0</v>
+      </c>
+      <c r="G38" s="10">
         <v>0</v>
       </c>
       <c r="H38" s="10">
         <v>0</v>
-      </c>
-      <c r="I38" s="4">
-        <v>45258</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -3066,98 +3064,98 @@
         <v>104</v>
       </c>
       <c r="C39" s="7">
+        <v>77</v>
+      </c>
+      <c r="D39" s="11">
+        <v>45184</v>
+      </c>
+      <c r="E39" s="7">
+        <v>15950</v>
+      </c>
+      <c r="F39" s="10">
+        <v>6760</v>
+      </c>
+      <c r="G39" s="12">
+        <v>0</v>
+      </c>
+      <c r="H39" s="10">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="7">
         <v>121</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D40" s="11">
         <v>45267</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E40" s="7">
         <v>18600</v>
       </c>
-      <c r="F39" s="10">
-        <v>0</v>
-      </c>
-      <c r="G39" s="12">
-        <v>0</v>
-      </c>
-      <c r="H39" s="10">
-        <v>0</v>
-      </c>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="7">
-        <v>80</v>
-      </c>
-      <c r="D40" s="11">
-        <v>45191</v>
-      </c>
-      <c r="E40" s="7">
-        <v>9398</v>
-      </c>
       <c r="F40" s="10">
-        <v>1000</v>
-      </c>
-      <c r="G40" s="10">
+        <v>0</v>
+      </c>
+      <c r="G40" s="12">
         <v>0</v>
       </c>
       <c r="H40" s="10">
         <v>0</v>
       </c>
+      <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C41" s="7">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D41" s="11">
-        <v>45201</v>
+        <v>45191</v>
       </c>
       <c r="E41" s="7">
-        <v>9740</v>
+        <v>9398</v>
       </c>
       <c r="F41" s="10">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G41" s="10">
         <v>0</v>
       </c>
       <c r="H41" s="10">
         <v>0</v>
-      </c>
-      <c r="I41" s="4">
-        <v>45257</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C42" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D42" s="11">
         <v>45201</v>
       </c>
       <c r="E42" s="7">
-        <v>14100</v>
+        <v>9740</v>
       </c>
       <c r="F42" s="10">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G42" s="10">
         <v>0</v>
@@ -3166,33 +3164,36 @@
         <v>0</v>
       </c>
       <c r="I42" s="4">
-        <v>45259</v>
+        <v>45257</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C43" s="7">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D43" s="11">
-        <v>45203</v>
+        <v>45201</v>
       </c>
       <c r="E43" s="7">
-        <v>14800</v>
-      </c>
-      <c r="F43" s="12">
-        <v>10000</v>
+        <v>14100</v>
+      </c>
+      <c r="F43" s="10">
+        <v>5000</v>
       </c>
       <c r="G43" s="10">
         <v>0</v>
       </c>
       <c r="H43" s="10">
         <v>0</v>
+      </c>
+      <c r="I43" s="4">
+        <v>45259</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -3203,16 +3204,16 @@
         <v>107</v>
       </c>
       <c r="C44" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D44" s="11">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="E44" s="7">
-        <v>9630</v>
-      </c>
-      <c r="F44" s="10">
-        <v>9630</v>
+        <v>14800</v>
+      </c>
+      <c r="F44" s="12">
+        <v>10000</v>
       </c>
       <c r="G44" s="10">
         <v>0</v>
@@ -3229,16 +3230,16 @@
         <v>107</v>
       </c>
       <c r="C45" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D45" s="11">
-        <v>45205</v>
+        <v>45204</v>
       </c>
       <c r="E45" s="7">
-        <v>13800</v>
+        <v>9630</v>
       </c>
       <c r="F45" s="10">
-        <v>13800</v>
+        <v>9630</v>
       </c>
       <c r="G45" s="10">
         <v>0</v>
@@ -3255,16 +3256,16 @@
         <v>107</v>
       </c>
       <c r="C46" s="7">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D46" s="11">
-        <v>45226</v>
+        <v>45205</v>
       </c>
       <c r="E46" s="7">
-        <v>13596</v>
+        <v>13800</v>
       </c>
       <c r="F46" s="10">
-        <v>0</v>
+        <v>13800</v>
       </c>
       <c r="G46" s="10">
         <v>0</v>
@@ -3274,20 +3275,20 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C47" s="7">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D47" s="11">
-        <v>45240</v>
+        <v>45226</v>
       </c>
       <c r="E47" s="7">
-        <v>28900</v>
+        <v>13596</v>
       </c>
       <c r="F47" s="10">
         <v>0</v>
@@ -3300,20 +3301,20 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C48" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D48" s="11">
-        <v>45241</v>
+        <v>45240</v>
       </c>
       <c r="E48" s="7">
-        <v>186301</v>
+        <v>28900</v>
       </c>
       <c r="F48" s="10">
         <v>0</v>
@@ -3333,42 +3334,42 @@
         <v>107</v>
       </c>
       <c r="C49" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D49" s="11">
         <v>45241</v>
       </c>
       <c r="E49" s="7">
+        <v>186301</v>
+      </c>
+      <c r="F49" s="10">
+        <v>0</v>
+      </c>
+      <c r="G49" s="10">
+        <v>0</v>
+      </c>
+      <c r="H49" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="7">
+        <v>109</v>
+      </c>
+      <c r="D50" s="11">
+        <v>45241</v>
+      </c>
+      <c r="E50" s="7">
         <v>22000</v>
       </c>
-      <c r="F49" s="10">
-        <v>0</v>
-      </c>
-      <c r="G49" s="10">
-        <v>0</v>
-      </c>
-      <c r="H49" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50" s="7">
-        <v>90</v>
-      </c>
-      <c r="D50" s="11">
-        <v>45205</v>
-      </c>
-      <c r="E50" s="7">
-        <v>10000</v>
-      </c>
       <c r="F50" s="10">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G50" s="10">
         <v>0</v>
@@ -3385,16 +3386,16 @@
         <v>108</v>
       </c>
       <c r="C51" s="7">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D51" s="11">
-        <v>45238</v>
+        <v>45205</v>
       </c>
       <c r="E51" s="7">
-        <v>15001</v>
+        <v>10000</v>
       </c>
       <c r="F51" s="10">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G51" s="10">
         <v>0</v>
@@ -3405,22 +3406,22 @@
     </row>
     <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C52" s="7">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D52" s="11">
-        <v>45216</v>
+        <v>45238</v>
       </c>
       <c r="E52" s="7">
-        <v>10200</v>
+        <v>15001</v>
       </c>
       <c r="F52" s="10">
-        <v>10200</v>
+        <v>0</v>
       </c>
       <c r="G52" s="10">
         <v>0</v>
@@ -3437,22 +3438,22 @@
         <v>109</v>
       </c>
       <c r="C53" s="7">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D53" s="11">
-        <v>45234</v>
+        <v>45216</v>
       </c>
       <c r="E53" s="7">
-        <v>20801</v>
+        <v>10200</v>
       </c>
       <c r="F53" s="10">
-        <v>20801</v>
+        <v>10200</v>
       </c>
       <c r="G53" s="10">
         <v>0</v>
       </c>
       <c r="H53" s="10">
-        <v>416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3463,22 +3464,22 @@
         <v>109</v>
       </c>
       <c r="C54" s="7">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="D54" s="11">
-        <v>45271</v>
+        <v>45234</v>
       </c>
       <c r="E54" s="7">
-        <v>12400</v>
+        <v>20801</v>
       </c>
       <c r="F54" s="10">
-        <v>0</v>
+        <v>20801</v>
       </c>
       <c r="G54" s="10">
         <v>0</v>
       </c>
       <c r="H54" s="10">
-        <v>0</v>
+        <v>416</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3489,16 +3490,16 @@
         <v>109</v>
       </c>
       <c r="C55" s="7">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D55" s="11">
-        <v>45292</v>
+        <v>45271</v>
       </c>
       <c r="E55" s="7">
-        <v>15600</v>
+        <v>12400</v>
       </c>
       <c r="F55" s="10">
-        <v>15600</v>
+        <v>0</v>
       </c>
       <c r="G55" s="10">
         <v>0</v>
@@ -3509,22 +3510,22 @@
     </row>
     <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C56" s="7">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="D56" s="11">
-        <v>45216</v>
+        <v>45292</v>
       </c>
       <c r="E56" s="7">
-        <v>3600</v>
-      </c>
-      <c r="F56" s="8">
-        <v>0</v>
+        <v>15600</v>
+      </c>
+      <c r="F56" s="10">
+        <v>15600</v>
       </c>
       <c r="G56" s="10">
         <v>0</v>
@@ -3541,13 +3542,13 @@
         <v>86</v>
       </c>
       <c r="C57" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D57" s="11">
-        <v>45217</v>
+        <v>45216</v>
       </c>
       <c r="E57" s="7">
-        <v>22500</v>
+        <v>3600</v>
       </c>
       <c r="F57" s="8">
         <v>0</v>
@@ -3567,16 +3568,16 @@
         <v>86</v>
       </c>
       <c r="C58" s="7">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="D58" s="11">
-        <v>45097</v>
+        <v>45217</v>
       </c>
       <c r="E58" s="7">
-        <v>9398</v>
-      </c>
-      <c r="F58" s="10">
-        <v>9398</v>
+        <v>22500</v>
+      </c>
+      <c r="F58" s="8">
+        <v>0</v>
       </c>
       <c r="G58" s="10">
         <v>0</v>
@@ -3593,16 +3594,16 @@
         <v>86</v>
       </c>
       <c r="C59" s="7">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D59" s="11">
-        <v>45108</v>
+        <v>45097</v>
       </c>
       <c r="E59" s="7">
-        <v>11250</v>
+        <v>9398</v>
       </c>
       <c r="F59" s="10">
-        <v>11250</v>
+        <v>9398</v>
       </c>
       <c r="G59" s="10">
         <v>0</v>
@@ -3619,16 +3620,16 @@
         <v>86</v>
       </c>
       <c r="C60" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D60" s="11">
-        <v>45111</v>
+        <v>45108</v>
       </c>
       <c r="E60" s="7">
-        <v>28340</v>
+        <v>11250</v>
       </c>
       <c r="F60" s="10">
-        <v>28340</v>
+        <v>11250</v>
       </c>
       <c r="G60" s="10">
         <v>0</v>
@@ -3645,16 +3646,16 @@
         <v>86</v>
       </c>
       <c r="C61" s="7">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="D61" s="11">
-        <v>45251</v>
+        <v>45111</v>
       </c>
       <c r="E61" s="7">
-        <v>8620</v>
+        <v>28340</v>
       </c>
       <c r="F61" s="10">
-        <v>0</v>
+        <v>28340</v>
       </c>
       <c r="G61" s="10">
         <v>0</v>
@@ -3665,22 +3666,22 @@
     </row>
     <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C62" s="7">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D62" s="11">
-        <v>45226</v>
+        <v>45251</v>
       </c>
       <c r="E62" s="7">
-        <v>11000</v>
+        <v>8620</v>
       </c>
       <c r="F62" s="10">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="G62" s="10">
         <v>0</v>
@@ -3691,22 +3692,22 @@
     </row>
     <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C63" s="7">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D63" s="11">
-        <v>45233</v>
+        <v>45226</v>
       </c>
       <c r="E63" s="7">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="F63" s="10">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="G63" s="10">
         <v>0</v>
@@ -3717,19 +3718,19 @@
     </row>
     <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C64" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D64" s="11">
         <v>45233</v>
       </c>
       <c r="E64" s="7">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F64" s="10">
         <v>0</v>
@@ -3743,22 +3744,22 @@
     </row>
     <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C65" s="7">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D65" s="11">
-        <v>45237</v>
+        <v>45233</v>
       </c>
       <c r="E65" s="7">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="F65" s="10">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="G65" s="10">
         <v>0</v>
@@ -3775,42 +3776,42 @@
         <v>101</v>
       </c>
       <c r="C66" s="7">
+        <v>105</v>
+      </c>
+      <c r="D66" s="11">
+        <v>45237</v>
+      </c>
+      <c r="E66" s="7">
+        <v>10400</v>
+      </c>
+      <c r="F66" s="10">
+        <v>10400</v>
+      </c>
+      <c r="G66" s="10">
+        <v>0</v>
+      </c>
+      <c r="H66" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" s="7">
         <v>126</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D67" s="11">
         <v>45283</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E67" s="7">
         <v>23880</v>
       </c>
-      <c r="F66" s="10">
-        <v>0</v>
-      </c>
-      <c r="G66" s="10">
-        <v>0</v>
-      </c>
-      <c r="H66" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C67" s="7">
-        <v>114</v>
-      </c>
-      <c r="D67" s="11">
-        <v>45247</v>
-      </c>
-      <c r="E67" s="7">
-        <v>23751</v>
-      </c>
       <c r="F67" s="10">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G67" s="10">
         <v>0</v>
@@ -3821,22 +3822,22 @@
     </row>
     <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C68" s="7">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D68" s="11">
-        <v>45262</v>
+        <v>45247</v>
       </c>
       <c r="E68" s="7">
-        <v>16760</v>
+        <v>23751</v>
       </c>
       <c r="F68" s="10">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G68" s="10">
         <v>0</v>
@@ -3847,19 +3848,19 @@
     </row>
     <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C69" s="7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D69" s="11">
-        <v>45266</v>
+        <v>45262</v>
       </c>
       <c r="E69" s="7">
-        <v>15250</v>
+        <v>16760</v>
       </c>
       <c r="F69" s="10">
         <v>0</v>
@@ -3873,19 +3874,19 @@
     </row>
     <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C70" s="7">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D70" s="11">
-        <v>45271</v>
+        <v>45266</v>
       </c>
       <c r="E70" s="7">
-        <v>14900</v>
+        <v>15250</v>
       </c>
       <c r="F70" s="10">
         <v>0</v>
@@ -3899,19 +3900,19 @@
     </row>
     <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C71" s="7">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D71" s="11">
-        <v>45285</v>
+        <v>45271</v>
       </c>
       <c r="E71" s="7">
-        <v>19100</v>
+        <v>14900</v>
       </c>
       <c r="F71" s="10">
         <v>0</v>
@@ -3925,19 +3926,19 @@
     </row>
     <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C72" s="7">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D72" s="11">
-        <v>45286</v>
+        <v>45285</v>
       </c>
       <c r="E72" s="7">
-        <v>18600</v>
+        <v>19100</v>
       </c>
       <c r="F72" s="10">
         <v>0</v>
@@ -3951,19 +3952,19 @@
     </row>
     <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C73" s="7">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D73" s="11">
-        <v>45290</v>
+        <v>45286</v>
       </c>
       <c r="E73" s="7">
-        <v>15400</v>
+        <v>18600</v>
       </c>
       <c r="F73" s="10">
         <v>0</v>
@@ -3977,79 +3978,105 @@
     </row>
     <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" s="7">
+        <v>129</v>
+      </c>
+      <c r="D74" s="11">
+        <v>45290</v>
+      </c>
+      <c r="E74" s="7">
+        <v>15400</v>
+      </c>
+      <c r="F74" s="10">
+        <v>0</v>
+      </c>
+      <c r="G74" s="10">
+        <v>0</v>
+      </c>
+      <c r="H74" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B75" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C74" s="17">
+      <c r="C75" s="17">
         <v>51</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="11">
         <v>45142</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E75" s="17">
         <v>23250</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F75" s="10">
         <v>23250</v>
       </c>
-      <c r="G74" s="10">
-        <v>0</v>
-      </c>
-      <c r="H74" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="16" t="s">
+      <c r="G75" s="10">
+        <v>0</v>
+      </c>
+      <c r="H75" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B76" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C75" s="17">
+      <c r="C76" s="17">
         <v>53</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D76" s="11">
         <v>45145</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E76" s="17">
         <v>9200</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F76" s="10">
         <v>9200</v>
       </c>
-      <c r="G75" s="10">
-        <v>0</v>
-      </c>
-      <c r="H75" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="15" t="s">
+      <c r="G76" s="10">
+        <v>0</v>
+      </c>
+      <c r="H76" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B77" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C76" s="17">
+      <c r="C77" s="17">
         <v>81</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D77" s="11">
         <v>45191</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E77" s="17">
         <v>25996</v>
       </c>
-      <c r="F76" s="10">
+      <c r="F77" s="10">
         <v>25996</v>
       </c>
-      <c r="G76" s="10">
-        <v>0</v>
-      </c>
-      <c r="H76" s="10">
+      <c r="G77" s="10">
+        <v>0</v>
+      </c>
+      <c r="H77" s="10">
         <v>0</v>
       </c>
     </row>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -2031,8 +2031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="B50" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2806,7 +2806,7 @@
         <v>14300</v>
       </c>
       <c r="F29" s="10">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="G29" s="10">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>15950</v>
       </c>
       <c r="F39" s="10">
-        <v>6760</v>
+        <v>8640</v>
       </c>
       <c r="G39" s="12">
         <v>0</v>
@@ -3733,7 +3733,7 @@
         <v>5000</v>
       </c>
       <c r="F64" s="10">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G64" s="10">
         <v>0</v>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -2031,8 +2031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B50" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2170,7 +2170,7 @@
         <v>23650</v>
       </c>
       <c r="F5" s="10">
-        <v>176500</v>
+        <v>17650</v>
       </c>
       <c r="G5" s="10">
         <v>0</v>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -2031,8 +2031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3155,7 +3155,7 @@
         <v>9740</v>
       </c>
       <c r="F42" s="10">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G42" s="10">
         <v>0</v>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -938,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2031,7 +2031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="B28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="151">
   <si>
     <t>Model</t>
   </si>
@@ -488,9 +488,6 @@
   </si>
   <si>
     <t xml:space="preserve">MAGADI MAIN ROAD </t>
-  </si>
-  <si>
-    <t>150mm exhaust fan</t>
   </si>
   <si>
     <t>BALAJI ELECTRICALS</t>
@@ -938,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1206,7 +1203,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="C24" s="20">
         <v>28</v>
@@ -1321,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3978,10 +3975,10 @@
     </row>
     <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="C74" s="7">
         <v>129</v>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -1318,7 +1318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -1734,7 +1734,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2002,7 +2002,7 @@
         <v>1840.8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2016,7 +2016,7 @@
         <v>45132.639999999999</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2028,8 +2028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3044,7 +3044,7 @@
         <v>10200</v>
       </c>
       <c r="F38" s="10">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G38" s="10">
         <v>0</v>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -935,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1107,7 +1107,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1261,7 +1261,7 @@
         <v>132</v>
       </c>
       <c r="C29" s="20">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1272,7 +1272,7 @@
         <v>133</v>
       </c>
       <c r="C30" s="20">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2028,8 +2028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -935,7 +935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -2028,8 +2028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3548,7 +3548,7 @@
         <v>3600</v>
       </c>
       <c r="F57" s="8">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="G57" s="10">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>22500</v>
       </c>
       <c r="F58" s="8">
-        <v>0</v>
+        <v>22500</v>
       </c>
       <c r="G58" s="10">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>8620</v>
       </c>
       <c r="F62" s="10">
-        <v>0</v>
+        <v>8620</v>
       </c>
       <c r="G62" s="10">
         <v>0</v>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$77</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="153">
   <si>
     <t>Model</t>
   </si>
@@ -494,6 +494,12 @@
   </si>
   <si>
     <t>ANDRAHALLI</t>
+  </si>
+  <si>
+    <t>6200 creditnote</t>
+  </si>
+  <si>
+    <t>6000 credit note</t>
   </si>
 </sst>
 </file>
@@ -2028,8 +2034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2144,10 +2150,13 @@
         <v>9600</v>
       </c>
       <c r="G4" s="10">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="H4" s="10">
         <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -2167,7 +2176,7 @@
         <v>23650</v>
       </c>
       <c r="F5" s="10">
-        <v>17650</v>
+        <v>23650</v>
       </c>
       <c r="G5" s="10">
         <v>0</v>
@@ -2219,13 +2228,16 @@
         <v>20200</v>
       </c>
       <c r="F7" s="10">
-        <v>14000</v>
+        <v>20200</v>
       </c>
       <c r="G7" s="10">
-        <v>6200</v>
+        <v>0</v>
       </c>
       <c r="H7" s="10">
         <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Sales" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$79</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="153">
   <si>
     <t>Model</t>
   </si>
@@ -2032,10 +2032,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2213,51 +2213,48 @@
     </row>
     <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="7">
-        <v>24</v>
-      </c>
-      <c r="D7" s="11">
-        <v>45108</v>
+        <v>135</v>
+      </c>
+      <c r="D7" s="9">
+        <v>45310</v>
       </c>
       <c r="E7" s="7">
-        <v>20200</v>
+        <v>17450</v>
       </c>
       <c r="F7" s="10">
-        <v>20200</v>
+        <v>0</v>
       </c>
       <c r="G7" s="10">
         <v>0</v>
       </c>
       <c r="H7" s="10">
         <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="7">
-        <v>45</v>
-      </c>
-      <c r="D8" s="11">
-        <v>45133</v>
+        <v>136</v>
+      </c>
+      <c r="D8" s="9">
+        <v>45311</v>
       </c>
       <c r="E8" s="7">
-        <v>15000</v>
+        <v>17750</v>
       </c>
       <c r="F8" s="10">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G8" s="10">
         <v>0</v>
@@ -2274,42 +2271,45 @@
         <v>88</v>
       </c>
       <c r="C9" s="7">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D9" s="11">
-        <v>45138</v>
+        <v>45108</v>
       </c>
       <c r="E9" s="7">
-        <v>32568</v>
+        <v>20200</v>
       </c>
       <c r="F9" s="10">
-        <v>32568</v>
+        <v>20200</v>
       </c>
       <c r="G9" s="10">
         <v>0</v>
       </c>
       <c r="H9" s="10">
         <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="7">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D10" s="11">
-        <v>45113</v>
+        <v>45133</v>
       </c>
       <c r="E10" s="7">
-        <v>7100</v>
+        <v>15000</v>
       </c>
       <c r="F10" s="10">
-        <v>7100</v>
+        <v>15000</v>
       </c>
       <c r="G10" s="10">
         <v>0</v>
@@ -2320,22 +2320,22 @@
     </row>
     <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C11" s="7">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D11" s="11">
-        <v>45113</v>
+        <v>45138</v>
       </c>
       <c r="E11" s="7">
-        <v>10000</v>
+        <v>32568</v>
       </c>
       <c r="F11" s="10">
-        <v>10000</v>
+        <v>32568</v>
       </c>
       <c r="G11" s="10">
         <v>0</v>
@@ -2346,22 +2346,22 @@
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C12" s="7">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="11">
         <v>45113</v>
       </c>
       <c r="E12" s="7">
-        <v>60690</v>
+        <v>7100</v>
       </c>
       <c r="F12" s="10">
-        <v>60690</v>
+        <v>7100</v>
       </c>
       <c r="G12" s="10">
         <v>0</v>
@@ -2372,22 +2372,22 @@
     </row>
     <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C13" s="7">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D13" s="11">
-        <v>45117</v>
+        <v>45113</v>
       </c>
       <c r="E13" s="7">
-        <v>12440</v>
+        <v>10000</v>
       </c>
       <c r="F13" s="10">
-        <v>12440</v>
+        <v>10000</v>
       </c>
       <c r="G13" s="10">
         <v>0</v>
@@ -2398,48 +2398,48 @@
     </row>
     <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C14" s="7">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D14" s="11">
-        <v>45122</v>
+        <v>45113</v>
       </c>
       <c r="E14" s="7">
-        <v>35250</v>
+        <v>60690</v>
       </c>
       <c r="F14" s="10">
-        <v>35250</v>
+        <v>60690</v>
       </c>
       <c r="G14" s="10">
         <v>0</v>
       </c>
       <c r="H14" s="10">
-        <v>850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C15" s="7">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D15" s="11">
-        <v>45129</v>
+        <v>45117</v>
       </c>
       <c r="E15" s="7">
-        <v>15400</v>
+        <v>12440</v>
       </c>
       <c r="F15" s="10">
-        <v>15400</v>
+        <v>12440</v>
       </c>
       <c r="G15" s="10">
         <v>0</v>
@@ -2450,48 +2450,48 @@
     </row>
     <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="7">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="D16" s="11">
-        <v>45176</v>
+        <v>45122</v>
       </c>
       <c r="E16" s="7">
-        <v>17100</v>
+        <v>35250</v>
       </c>
       <c r="F16" s="10">
-        <v>17100</v>
+        <v>35250</v>
       </c>
       <c r="G16" s="10">
         <v>0</v>
       </c>
       <c r="H16" s="10">
-        <v>0</v>
+        <v>850</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" s="7">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D17" s="11">
-        <v>45159</v>
+        <v>45129</v>
       </c>
       <c r="E17" s="7">
-        <v>14550</v>
+        <v>15400</v>
       </c>
       <c r="F17" s="10">
-        <v>14550</v>
+        <v>15400</v>
       </c>
       <c r="G17" s="10">
         <v>0</v>
@@ -2502,22 +2502,22 @@
     </row>
     <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C18" s="7">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D18" s="11">
-        <v>45159</v>
+        <v>45176</v>
       </c>
       <c r="E18" s="7">
-        <v>5350</v>
+        <v>17100</v>
       </c>
       <c r="F18" s="10">
-        <v>5350</v>
+        <v>17100</v>
       </c>
       <c r="G18" s="10">
         <v>0</v>
@@ -2528,22 +2528,22 @@
     </row>
     <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="7">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="D19" s="11">
-        <v>45202</v>
+        <v>45159</v>
       </c>
       <c r="E19" s="7">
-        <v>7700</v>
+        <v>14550</v>
       </c>
       <c r="F19" s="10">
-        <v>0</v>
+        <v>14550</v>
       </c>
       <c r="G19" s="10">
         <v>0</v>
@@ -2554,22 +2554,22 @@
     </row>
     <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="11">
-        <v>45164</v>
+        <v>45159</v>
       </c>
       <c r="E20" s="7">
-        <v>10099</v>
+        <v>5350</v>
       </c>
       <c r="F20" s="10">
-        <v>10099</v>
+        <v>5350</v>
       </c>
       <c r="G20" s="10">
         <v>0</v>
@@ -2580,22 +2580,22 @@
     </row>
     <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D21" s="11">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="E21" s="7">
-        <v>7480</v>
+        <v>7700</v>
       </c>
       <c r="F21" s="10">
-        <v>7480</v>
+        <v>0</v>
       </c>
       <c r="G21" s="10">
         <v>0</v>
@@ -2612,25 +2612,22 @@
         <v>97</v>
       </c>
       <c r="C22" s="7">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="D22" s="11">
-        <v>45211</v>
+        <v>45164</v>
       </c>
       <c r="E22" s="7">
-        <v>14900</v>
+        <v>10099</v>
       </c>
       <c r="F22" s="10">
-        <v>14900</v>
+        <v>10099</v>
       </c>
       <c r="G22" s="10">
         <v>0</v>
       </c>
       <c r="H22" s="10">
         <v>0</v>
-      </c>
-      <c r="I22" s="4">
-        <v>45257</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -2641,16 +2638,16 @@
         <v>97</v>
       </c>
       <c r="C23" s="7">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D23" s="11">
-        <v>45231</v>
+        <v>45192</v>
       </c>
       <c r="E23" s="7">
-        <v>11598</v>
+        <v>7480</v>
       </c>
       <c r="F23" s="10">
-        <v>11598</v>
+        <v>7480</v>
       </c>
       <c r="G23" s="10">
         <v>0</v>
@@ -2658,28 +2655,25 @@
       <c r="H23" s="10">
         <v>0</v>
       </c>
-      <c r="I23" s="4">
-        <v>45257</v>
-      </c>
     </row>
     <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>97</v>
       </c>
       <c r="C24" s="7">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="D24" s="11">
-        <v>45259</v>
+        <v>45211</v>
       </c>
       <c r="E24" s="7">
-        <v>13990</v>
+        <v>14900</v>
       </c>
       <c r="F24" s="10">
-        <v>0</v>
+        <v>14900</v>
       </c>
       <c r="G24" s="10">
         <v>0</v>
@@ -2687,26 +2681,28 @@
       <c r="H24" s="10">
         <v>0</v>
       </c>
-      <c r="I24" s="4"/>
+      <c r="I24" s="4">
+        <v>45257</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>97</v>
       </c>
       <c r="C25" s="7">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="D25" s="11">
-        <v>45278</v>
+        <v>45231</v>
       </c>
       <c r="E25" s="7">
-        <v>12400</v>
+        <v>11598</v>
       </c>
       <c r="F25" s="10">
-        <v>0</v>
+        <v>11598</v>
       </c>
       <c r="G25" s="10">
         <v>0</v>
@@ -2714,7 +2710,9 @@
       <c r="H25" s="10">
         <v>0</v>
       </c>
-      <c r="I25" s="4"/>
+      <c r="I25" s="4">
+        <v>45257</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
@@ -2724,72 +2722,70 @@
         <v>97</v>
       </c>
       <c r="C26" s="7">
+        <v>117</v>
+      </c>
+      <c r="D26" s="11">
+        <v>45259</v>
+      </c>
+      <c r="E26" s="7">
+        <v>13990</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="7">
+        <v>125</v>
+      </c>
+      <c r="D27" s="11">
+        <v>45278</v>
+      </c>
+      <c r="E27" s="7">
+        <v>12400</v>
+      </c>
+      <c r="F27" s="10">
+        <v>0</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="7">
         <v>132</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D28" s="11">
         <v>45294</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E28" s="7">
         <v>4300</v>
       </c>
-      <c r="F26" s="10">
-        <v>0</v>
-      </c>
-      <c r="G26" s="10">
-        <v>0</v>
-      </c>
-      <c r="H26" s="10">
-        <v>0</v>
-      </c>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="7">
-        <v>61</v>
-      </c>
-      <c r="D27" s="11">
-        <v>45164</v>
-      </c>
-      <c r="E27" s="7">
-        <v>5000</v>
-      </c>
-      <c r="F27" s="10">
-        <v>5000</v>
-      </c>
-      <c r="G27" s="10">
-        <v>0</v>
-      </c>
-      <c r="H27" s="10">
-        <v>0</v>
-      </c>
-      <c r="I27" s="4">
-        <v>45257</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="7">
-        <v>71</v>
-      </c>
-      <c r="D28" s="11">
-        <v>45181</v>
-      </c>
-      <c r="E28" s="7">
-        <v>12899</v>
-      </c>
       <c r="F28" s="10">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G28" s="10">
         <v>0</v>
@@ -2797,51 +2793,55 @@
       <c r="H28" s="10">
         <v>0</v>
       </c>
+      <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C29" s="7">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D29" s="11">
-        <v>45177</v>
+        <v>45164</v>
       </c>
       <c r="E29" s="7">
-        <v>14300</v>
+        <v>5000</v>
       </c>
       <c r="F29" s="10">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="G29" s="10">
         <v>0</v>
       </c>
       <c r="H29" s="10">
         <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>45257</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C30" s="7">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D30" s="11">
-        <v>45202</v>
+        <v>45181</v>
       </c>
       <c r="E30" s="7">
-        <v>8700</v>
+        <v>12899</v>
       </c>
       <c r="F30" s="10">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G30" s="10">
         <v>0</v>
@@ -2858,16 +2858,16 @@
         <v>100</v>
       </c>
       <c r="C31" s="7">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="D31" s="11">
-        <v>45225</v>
+        <v>45177</v>
       </c>
       <c r="E31" s="7">
-        <v>13478</v>
+        <v>14300</v>
       </c>
       <c r="F31" s="10">
-        <v>0</v>
+        <v>17000</v>
       </c>
       <c r="G31" s="10">
         <v>0</v>
@@ -2878,22 +2878,22 @@
     </row>
     <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C32" s="7">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="D32" s="11">
-        <v>45155</v>
+        <v>45202</v>
       </c>
       <c r="E32" s="7">
-        <v>5000</v>
+        <v>8700</v>
       </c>
       <c r="F32" s="10">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G32" s="10">
         <v>0</v>
@@ -2904,60 +2904,54 @@
     </row>
     <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="12">
-        <v>72</v>
+        <v>100</v>
+      </c>
+      <c r="C33" s="7">
+        <v>96</v>
       </c>
       <c r="D33" s="11">
-        <v>45181</v>
+        <v>45225</v>
       </c>
       <c r="E33" s="7">
-        <v>17900</v>
+        <v>13478</v>
       </c>
       <c r="F33" s="10">
-        <v>17900</v>
+        <v>0</v>
       </c>
       <c r="G33" s="10">
         <v>0</v>
       </c>
       <c r="H33" s="10">
         <v>0</v>
-      </c>
-      <c r="I33" s="4">
-        <v>45255</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C34" s="7">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D34" s="11">
-        <v>45182</v>
+        <v>45155</v>
       </c>
       <c r="E34" s="7">
-        <v>12440</v>
+        <v>5000</v>
       </c>
       <c r="F34" s="10">
-        <v>12440</v>
+        <v>5000</v>
       </c>
       <c r="G34" s="10">
         <v>0</v>
       </c>
       <c r="H34" s="10">
         <v>0</v>
-      </c>
-      <c r="I34" s="4">
-        <v>45255</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -2967,17 +2961,17 @@
       <c r="B35" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="7">
-        <v>131</v>
+      <c r="C35" s="12">
+        <v>72</v>
       </c>
       <c r="D35" s="11">
-        <v>45293</v>
+        <v>45181</v>
       </c>
       <c r="E35" s="7">
-        <v>37000</v>
+        <v>17900</v>
       </c>
       <c r="F35" s="10">
-        <v>0</v>
+        <v>17900</v>
       </c>
       <c r="G35" s="10">
         <v>0</v>
@@ -2985,276 +2979,282 @@
       <c r="H35" s="10">
         <v>0</v>
       </c>
-      <c r="I35" s="4"/>
+      <c r="I35" s="4">
+        <v>45255</v>
+      </c>
     </row>
     <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C36" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D36" s="11">
         <v>45182</v>
       </c>
       <c r="E36" s="7">
-        <v>6500</v>
+        <v>12440</v>
       </c>
       <c r="F36" s="10">
-        <v>6500</v>
+        <v>12440</v>
       </c>
       <c r="G36" s="10">
         <v>0</v>
       </c>
       <c r="H36" s="10">
         <v>0</v>
+      </c>
+      <c r="I36" s="4">
+        <v>45255</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="7">
+        <v>131</v>
+      </c>
+      <c r="D37" s="11">
+        <v>45293</v>
+      </c>
+      <c r="E37" s="7">
+        <v>37000</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0</v>
+      </c>
+      <c r="G37" s="10">
+        <v>0</v>
+      </c>
+      <c r="H37" s="10">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B38" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C38" s="7">
+        <v>74</v>
+      </c>
+      <c r="D38" s="11">
+        <v>45182</v>
+      </c>
+      <c r="E38" s="7">
+        <v>6500</v>
+      </c>
+      <c r="F38" s="10">
+        <v>6500</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0</v>
+      </c>
+      <c r="H38" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="7">
         <v>78</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D39" s="11">
         <v>45188</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E39" s="7">
         <v>9000</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F39" s="10">
         <v>9000</v>
       </c>
-      <c r="G37" s="10">
-        <v>0</v>
-      </c>
-      <c r="H37" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
+      <c r="G39" s="10">
+        <v>0</v>
+      </c>
+      <c r="H39" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B40" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C40" s="7">
         <v>76</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D40" s="11">
         <v>45183</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E40" s="7">
         <v>10200</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F40" s="10">
         <v>2500</v>
       </c>
-      <c r="G38" s="10">
-        <v>0</v>
-      </c>
-      <c r="H38" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
+      <c r="G40" s="10">
+        <v>0</v>
+      </c>
+      <c r="H40" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B41" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C41" s="7">
         <v>77</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D41" s="11">
         <v>45184</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E41" s="7">
         <v>15950</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F41" s="10">
         <v>8640</v>
       </c>
-      <c r="G39" s="12">
-        <v>0</v>
-      </c>
-      <c r="H39" s="10">
-        <v>0</v>
-      </c>
-      <c r="I39" s="4">
+      <c r="G41" s="12">
+        <v>0</v>
+      </c>
+      <c r="H41" s="10">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
         <v>45258</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B42" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C42" s="7">
         <v>121</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D42" s="11">
         <v>45267</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E42" s="7">
         <v>18600</v>
       </c>
-      <c r="F40" s="10">
-        <v>0</v>
-      </c>
-      <c r="G40" s="12">
-        <v>0</v>
-      </c>
-      <c r="H40" s="10">
-        <v>0</v>
-      </c>
-      <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="7">
-        <v>80</v>
-      </c>
-      <c r="D41" s="11">
-        <v>45191</v>
-      </c>
-      <c r="E41" s="7">
-        <v>9398</v>
-      </c>
-      <c r="F41" s="10">
-        <v>1000</v>
-      </c>
-      <c r="G41" s="10">
-        <v>0</v>
-      </c>
-      <c r="H41" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="7">
-        <v>83</v>
-      </c>
-      <c r="D42" s="11">
-        <v>45201</v>
-      </c>
-      <c r="E42" s="7">
-        <v>9740</v>
-      </c>
       <c r="F42" s="10">
-        <v>6000</v>
-      </c>
-      <c r="G42" s="10">
+        <v>0</v>
+      </c>
+      <c r="G42" s="12">
         <v>0</v>
       </c>
       <c r="H42" s="10">
         <v>0</v>
       </c>
-      <c r="I42" s="4">
-        <v>45257</v>
-      </c>
+      <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C43" s="7">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D43" s="11">
-        <v>45201</v>
+        <v>45191</v>
       </c>
       <c r="E43" s="7">
-        <v>14100</v>
+        <v>9398</v>
       </c>
       <c r="F43" s="10">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="G43" s="10">
         <v>0</v>
       </c>
       <c r="H43" s="10">
         <v>0</v>
-      </c>
-      <c r="I43" s="4">
-        <v>45259</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C44" s="7">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D44" s="11">
-        <v>45203</v>
+        <v>45201</v>
       </c>
       <c r="E44" s="7">
-        <v>14800</v>
-      </c>
-      <c r="F44" s="12">
-        <v>10000</v>
+        <v>9740</v>
+      </c>
+      <c r="F44" s="10">
+        <v>6000</v>
       </c>
       <c r="G44" s="10">
         <v>0</v>
       </c>
       <c r="H44" s="10">
         <v>0</v>
+      </c>
+      <c r="I44" s="4">
+        <v>45257</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C45" s="7">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D45" s="11">
-        <v>45204</v>
+        <v>45201</v>
       </c>
       <c r="E45" s="7">
-        <v>9630</v>
+        <v>14100</v>
       </c>
       <c r="F45" s="10">
-        <v>9630</v>
+        <v>5000</v>
       </c>
       <c r="G45" s="10">
         <v>0</v>
       </c>
       <c r="H45" s="10">
         <v>0</v>
+      </c>
+      <c r="I45" s="4">
+        <v>45259</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -3265,16 +3265,16 @@
         <v>107</v>
       </c>
       <c r="C46" s="7">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D46" s="11">
-        <v>45205</v>
+        <v>45203</v>
       </c>
       <c r="E46" s="7">
-        <v>13800</v>
-      </c>
-      <c r="F46" s="10">
-        <v>13800</v>
+        <v>14800</v>
+      </c>
+      <c r="F46" s="12">
+        <v>10000</v>
       </c>
       <c r="G46" s="10">
         <v>0</v>
@@ -3291,16 +3291,16 @@
         <v>107</v>
       </c>
       <c r="C47" s="7">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D47" s="11">
-        <v>45226</v>
+        <v>45204</v>
       </c>
       <c r="E47" s="7">
-        <v>13596</v>
+        <v>9630</v>
       </c>
       <c r="F47" s="10">
-        <v>0</v>
+        <v>9630</v>
       </c>
       <c r="G47" s="10">
         <v>0</v>
@@ -3310,23 +3310,23 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C48" s="7">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D48" s="11">
-        <v>45240</v>
+        <v>45205</v>
       </c>
       <c r="E48" s="7">
-        <v>28900</v>
+        <v>13800</v>
       </c>
       <c r="F48" s="10">
-        <v>0</v>
+        <v>13800</v>
       </c>
       <c r="G48" s="10">
         <v>0</v>
@@ -3343,13 +3343,13 @@
         <v>107</v>
       </c>
       <c r="C49" s="7">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D49" s="11">
-        <v>45241</v>
+        <v>45226</v>
       </c>
       <c r="E49" s="7">
-        <v>186301</v>
+        <v>13596</v>
       </c>
       <c r="F49" s="10">
         <v>0</v>
@@ -3362,72 +3362,72 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C50" s="7">
+        <v>107</v>
+      </c>
+      <c r="D50" s="11">
+        <v>45240</v>
+      </c>
+      <c r="E50" s="7">
+        <v>28900</v>
+      </c>
+      <c r="F50" s="10">
+        <v>0</v>
+      </c>
+      <c r="G50" s="10">
+        <v>0</v>
+      </c>
+      <c r="H50" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="7">
+        <v>108</v>
+      </c>
+      <c r="D51" s="11">
+        <v>45241</v>
+      </c>
+      <c r="E51" s="7">
+        <v>186301</v>
+      </c>
+      <c r="F51" s="10">
+        <v>0</v>
+      </c>
+      <c r="G51" s="10">
+        <v>0</v>
+      </c>
+      <c r="H51" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="7">
         <v>109</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D52" s="11">
         <v>45241</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E52" s="7">
         <v>22000</v>
-      </c>
-      <c r="F50" s="10">
-        <v>0</v>
-      </c>
-      <c r="G50" s="10">
-        <v>0</v>
-      </c>
-      <c r="H50" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="7">
-        <v>90</v>
-      </c>
-      <c r="D51" s="11">
-        <v>45205</v>
-      </c>
-      <c r="E51" s="7">
-        <v>10000</v>
-      </c>
-      <c r="F51" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G51" s="10">
-        <v>0</v>
-      </c>
-      <c r="H51" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="7">
-        <v>106</v>
-      </c>
-      <c r="D52" s="11">
-        <v>45238</v>
-      </c>
-      <c r="E52" s="7">
-        <v>15001</v>
       </c>
       <c r="F52" s="10">
         <v>0</v>
@@ -3441,22 +3441,22 @@
     </row>
     <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C53" s="7">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D53" s="11">
-        <v>45216</v>
+        <v>45205</v>
       </c>
       <c r="E53" s="7">
-        <v>10200</v>
+        <v>10000</v>
       </c>
       <c r="F53" s="10">
-        <v>10200</v>
+        <v>10000</v>
       </c>
       <c r="G53" s="10">
         <v>0</v>
@@ -3467,28 +3467,28 @@
     </row>
     <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C54" s="7">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D54" s="11">
-        <v>45234</v>
+        <v>45238</v>
       </c>
       <c r="E54" s="7">
-        <v>20801</v>
+        <v>15001</v>
       </c>
       <c r="F54" s="10">
-        <v>20801</v>
+        <v>0</v>
       </c>
       <c r="G54" s="10">
         <v>0</v>
       </c>
       <c r="H54" s="10">
-        <v>416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3499,16 +3499,16 @@
         <v>109</v>
       </c>
       <c r="C55" s="7">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="D55" s="11">
-        <v>45271</v>
+        <v>45216</v>
       </c>
       <c r="E55" s="7">
-        <v>12400</v>
+        <v>10200</v>
       </c>
       <c r="F55" s="10">
-        <v>0</v>
+        <v>10200</v>
       </c>
       <c r="G55" s="10">
         <v>0</v>
@@ -3525,42 +3525,42 @@
         <v>109</v>
       </c>
       <c r="C56" s="7">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="D56" s="11">
-        <v>45292</v>
+        <v>45234</v>
       </c>
       <c r="E56" s="7">
-        <v>15600</v>
+        <v>20801</v>
       </c>
       <c r="F56" s="10">
-        <v>15600</v>
+        <v>20801</v>
       </c>
       <c r="G56" s="10">
         <v>0</v>
       </c>
       <c r="H56" s="10">
-        <v>0</v>
+        <v>416</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C57" s="7">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="D57" s="11">
-        <v>45216</v>
+        <v>45271</v>
       </c>
       <c r="E57" s="7">
-        <v>3600</v>
-      </c>
-      <c r="F57" s="8">
-        <v>3600</v>
+        <v>12400</v>
+      </c>
+      <c r="F57" s="10">
+        <v>0</v>
       </c>
       <c r="G57" s="10">
         <v>0</v>
@@ -3571,22 +3571,22 @@
     </row>
     <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C58" s="7">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="D58" s="11">
-        <v>45217</v>
+        <v>45292</v>
       </c>
       <c r="E58" s="7">
-        <v>22500</v>
-      </c>
-      <c r="F58" s="8">
-        <v>22500</v>
+        <v>15600</v>
+      </c>
+      <c r="F58" s="10">
+        <v>15600</v>
       </c>
       <c r="G58" s="10">
         <v>0</v>
@@ -3603,16 +3603,16 @@
         <v>86</v>
       </c>
       <c r="C59" s="7">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="D59" s="11">
-        <v>45097</v>
+        <v>45216</v>
       </c>
       <c r="E59" s="7">
-        <v>9398</v>
-      </c>
-      <c r="F59" s="10">
-        <v>9398</v>
+        <v>3600</v>
+      </c>
+      <c r="F59" s="8">
+        <v>3600</v>
       </c>
       <c r="G59" s="10">
         <v>0</v>
@@ -3629,16 +3629,16 @@
         <v>86</v>
       </c>
       <c r="C60" s="7">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="D60" s="11">
-        <v>45108</v>
+        <v>45217</v>
       </c>
       <c r="E60" s="7">
-        <v>11250</v>
-      </c>
-      <c r="F60" s="10">
-        <v>11250</v>
+        <v>22500</v>
+      </c>
+      <c r="F60" s="8">
+        <v>22500</v>
       </c>
       <c r="G60" s="10">
         <v>0</v>
@@ -3655,16 +3655,16 @@
         <v>86</v>
       </c>
       <c r="C61" s="7">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D61" s="11">
-        <v>45111</v>
+        <v>45097</v>
       </c>
       <c r="E61" s="7">
-        <v>28340</v>
+        <v>9398</v>
       </c>
       <c r="F61" s="10">
-        <v>28340</v>
+        <v>9398</v>
       </c>
       <c r="G61" s="10">
         <v>0</v>
@@ -3681,16 +3681,16 @@
         <v>86</v>
       </c>
       <c r="C62" s="7">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="D62" s="11">
-        <v>45251</v>
+        <v>45108</v>
       </c>
       <c r="E62" s="7">
-        <v>8620</v>
+        <v>11250</v>
       </c>
       <c r="F62" s="10">
-        <v>8620</v>
+        <v>11250</v>
       </c>
       <c r="G62" s="10">
         <v>0</v>
@@ -3701,22 +3701,22 @@
     </row>
     <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C63" s="7">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="D63" s="11">
-        <v>45226</v>
+        <v>45111</v>
       </c>
       <c r="E63" s="7">
-        <v>11000</v>
+        <v>28340</v>
       </c>
       <c r="F63" s="10">
-        <v>11000</v>
+        <v>28340</v>
       </c>
       <c r="G63" s="10">
         <v>0</v>
@@ -3727,22 +3727,22 @@
     </row>
     <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C64" s="7">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D64" s="11">
-        <v>45233</v>
+        <v>45251</v>
       </c>
       <c r="E64" s="7">
-        <v>5000</v>
+        <v>8620</v>
       </c>
       <c r="F64" s="10">
-        <v>2000</v>
+        <v>8620</v>
       </c>
       <c r="G64" s="10">
         <v>0</v>
@@ -3753,22 +3753,22 @@
     </row>
     <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C65" s="7">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D65" s="11">
-        <v>45233</v>
+        <v>45226</v>
       </c>
       <c r="E65" s="7">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="F65" s="10">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="G65" s="10">
         <v>0</v>
@@ -3779,22 +3779,22 @@
     </row>
     <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C66" s="7">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D66" s="11">
-        <v>45237</v>
+        <v>45233</v>
       </c>
       <c r="E66" s="7">
-        <v>10400</v>
+        <v>5000</v>
       </c>
       <c r="F66" s="10">
-        <v>10400</v>
+        <v>2000</v>
       </c>
       <c r="G66" s="10">
         <v>0</v>
@@ -3805,71 +3805,71 @@
     </row>
     <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C67" s="7">
+        <v>103</v>
+      </c>
+      <c r="D67" s="11">
+        <v>45233</v>
+      </c>
+      <c r="E67" s="7">
+        <v>10000</v>
+      </c>
+      <c r="F67" s="10">
+        <v>0</v>
+      </c>
+      <c r="G67" s="10">
+        <v>0</v>
+      </c>
+      <c r="H67" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B68" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C68" s="7">
+        <v>105</v>
+      </c>
+      <c r="D68" s="11">
+        <v>45237</v>
+      </c>
+      <c r="E68" s="7">
+        <v>10400</v>
+      </c>
+      <c r="F68" s="10">
+        <v>10400</v>
+      </c>
+      <c r="G68" s="10">
+        <v>0</v>
+      </c>
+      <c r="H68" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C69" s="7">
         <v>126</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D69" s="11">
         <v>45283</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E69" s="7">
         <v>23880</v>
-      </c>
-      <c r="F67" s="10">
-        <v>0</v>
-      </c>
-      <c r="G67" s="10">
-        <v>0</v>
-      </c>
-      <c r="H67" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C68" s="7">
-        <v>114</v>
-      </c>
-      <c r="D68" s="11">
-        <v>45247</v>
-      </c>
-      <c r="E68" s="7">
-        <v>23751</v>
-      </c>
-      <c r="F68" s="10">
-        <v>5000</v>
-      </c>
-      <c r="G68" s="10">
-        <v>0</v>
-      </c>
-      <c r="H68" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C69" s="7">
-        <v>119</v>
-      </c>
-      <c r="D69" s="11">
-        <v>45262</v>
-      </c>
-      <c r="E69" s="7">
-        <v>16760</v>
       </c>
       <c r="F69" s="10">
         <v>0</v>
@@ -3883,22 +3883,22 @@
     </row>
     <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C70" s="7">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D70" s="11">
-        <v>45266</v>
+        <v>45247</v>
       </c>
       <c r="E70" s="7">
-        <v>15250</v>
+        <v>23751</v>
       </c>
       <c r="F70" s="10">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G70" s="10">
         <v>0</v>
@@ -3909,19 +3909,19 @@
     </row>
     <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C71" s="7">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D71" s="11">
-        <v>45271</v>
+        <v>45262</v>
       </c>
       <c r="E71" s="7">
-        <v>14900</v>
+        <v>16760</v>
       </c>
       <c r="F71" s="10">
         <v>0</v>
@@ -3935,19 +3935,19 @@
     </row>
     <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C72" s="7">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D72" s="11">
-        <v>45285</v>
+        <v>45266</v>
       </c>
       <c r="E72" s="7">
-        <v>19100</v>
+        <v>15250</v>
       </c>
       <c r="F72" s="10">
         <v>0</v>
@@ -3961,19 +3961,19 @@
     </row>
     <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C73" s="7">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D73" s="11">
-        <v>45286</v>
+        <v>45271</v>
       </c>
       <c r="E73" s="7">
-        <v>18600</v>
+        <v>14900</v>
       </c>
       <c r="F73" s="10">
         <v>0</v>
@@ -3987,19 +3987,19 @@
     </row>
     <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C74" s="7">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D74" s="11">
-        <v>45290</v>
+        <v>45285</v>
       </c>
       <c r="E74" s="7">
-        <v>15400</v>
+        <v>19100</v>
       </c>
       <c r="F74" s="10">
         <v>0</v>
@@ -4013,22 +4013,22 @@
     </row>
     <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="15" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C75" s="17">
-        <v>51</v>
+        <v>148</v>
+      </c>
+      <c r="C75" s="7">
+        <v>128</v>
       </c>
       <c r="D75" s="11">
-        <v>45142</v>
-      </c>
-      <c r="E75" s="17">
-        <v>23250</v>
+        <v>45286</v>
+      </c>
+      <c r="E75" s="7">
+        <v>18600</v>
       </c>
       <c r="F75" s="10">
-        <v>23250</v>
+        <v>0</v>
       </c>
       <c r="G75" s="10">
         <v>0</v>
@@ -4038,23 +4038,23 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="16" t="s">
-        <v>115</v>
+      <c r="A76" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C76" s="17">
-        <v>53</v>
+        <v>150</v>
+      </c>
+      <c r="C76" s="7">
+        <v>129</v>
       </c>
       <c r="D76" s="11">
-        <v>45145</v>
-      </c>
-      <c r="E76" s="17">
-        <v>9200</v>
+        <v>45290</v>
+      </c>
+      <c r="E76" s="7">
+        <v>15400</v>
       </c>
       <c r="F76" s="10">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G76" s="10">
         <v>0</v>
@@ -4065,27 +4065,79 @@
     </row>
     <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" s="17">
+        <v>51</v>
+      </c>
+      <c r="D77" s="11">
+        <v>45142</v>
+      </c>
+      <c r="E77" s="17">
+        <v>23250</v>
+      </c>
+      <c r="F77" s="10">
+        <v>23250</v>
+      </c>
+      <c r="G77" s="10">
+        <v>0</v>
+      </c>
+      <c r="H77" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C78" s="17">
+        <v>53</v>
+      </c>
+      <c r="D78" s="11">
+        <v>45145</v>
+      </c>
+      <c r="E78" s="17">
+        <v>9200</v>
+      </c>
+      <c r="F78" s="10">
+        <v>9200</v>
+      </c>
+      <c r="G78" s="10">
+        <v>0</v>
+      </c>
+      <c r="H78" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B79" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="17">
+      <c r="C79" s="17">
         <v>81</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D79" s="11">
         <v>45191</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E79" s="17">
         <v>25996</v>
       </c>
-      <c r="F77" s="10">
+      <c r="F79" s="10">
         <v>25996</v>
       </c>
-      <c r="G77" s="10">
-        <v>0</v>
-      </c>
-      <c r="H77" s="10">
+      <c r="G79" s="10">
+        <v>0</v>
+      </c>
+      <c r="H79" s="10">
         <v>0</v>
       </c>
     </row>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="155">
   <si>
     <t>Model</t>
   </si>
@@ -500,6 +500,12 @@
   </si>
   <si>
     <t>6000 credit note</t>
+  </si>
+  <si>
+    <t>SI-KA-94</t>
+  </si>
+  <si>
+    <t>SI-KA-98</t>
   </si>
 </sst>
 </file>
@@ -607,7 +613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -659,6 +665,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1737,10 +1744,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1949,35 +1956,35 @@
         <v>123</v>
       </c>
       <c r="C15" s="3">
-        <v>256720.8</v>
+        <v>100000</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
+        <v>45250</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="3">
+        <v>156720.79999999999</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>45229</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C17" s="3">
         <v>3540</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>45230</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="3">
-        <v>79743.22</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>48</v>
@@ -1985,16 +1992,16 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>45250</v>
+        <v>45230</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="3">
-        <v>166899.20000000001</v>
+        <v>79743.22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2002,13 +2009,13 @@
         <v>45250</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C19" s="3">
-        <v>1840.8</v>
+        <v>166899.20000000001</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2016,13 +2023,55 @@
         <v>45250</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C20" s="3">
-        <v>45132.639999999999</v>
+        <v>1840.8</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>45250</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="3">
+        <v>45132.639999999999</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>45313</v>
+      </c>
+      <c r="B22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="23">
+        <v>147382</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>45314</v>
+      </c>
+      <c r="B23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="23">
+        <v>9322</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2034,7 +2083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sales" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$80</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="157">
   <si>
     <t>Model</t>
   </si>
@@ -506,6 +506,12 @@
   </si>
   <si>
     <t>SI-KA-98</t>
+  </si>
+  <si>
+    <t>SRI LAKSHMI VENKATESHWARA  ELECTRICAL</t>
+  </si>
+  <si>
+    <t>VISHWESHWARAIAH LAYOUT</t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -2081,16 +2087,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="B67" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="51.77734375" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.109375" customWidth="1"/>
     <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
@@ -3843,7 +3849,7 @@
         <v>5000</v>
       </c>
       <c r="F66" s="10">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G66" s="10">
         <v>0</v>
@@ -4114,79 +4120,105 @@
     </row>
     <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" s="7">
+        <v>137</v>
+      </c>
+      <c r="D77" s="11">
+        <v>45314</v>
+      </c>
+      <c r="E77" s="7">
+        <v>18000</v>
+      </c>
+      <c r="F77" s="10">
+        <v>0</v>
+      </c>
+      <c r="G77" s="10">
+        <v>0</v>
+      </c>
+      <c r="H77" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B78" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="17">
+      <c r="C78" s="17">
         <v>51</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D78" s="11">
         <v>45142</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E78" s="17">
         <v>23250</v>
       </c>
-      <c r="F77" s="10">
+      <c r="F78" s="10">
         <v>23250</v>
       </c>
-      <c r="G77" s="10">
-        <v>0</v>
-      </c>
-      <c r="H77" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="16" t="s">
+      <c r="G78" s="10">
+        <v>0</v>
+      </c>
+      <c r="H78" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B79" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C78" s="17">
+      <c r="C79" s="17">
         <v>53</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D79" s="11">
         <v>45145</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E79" s="17">
         <v>9200</v>
       </c>
-      <c r="F78" s="10">
+      <c r="F79" s="10">
         <v>9200</v>
       </c>
-      <c r="G78" s="10">
-        <v>0</v>
-      </c>
-      <c r="H78" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="15" t="s">
+      <c r="G79" s="10">
+        <v>0</v>
+      </c>
+      <c r="H79" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B80" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C79" s="17">
+      <c r="C80" s="17">
         <v>81</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D80" s="11">
         <v>45191</v>
       </c>
-      <c r="E79" s="17">
+      <c r="E80" s="17">
         <v>25996</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F80" s="10">
         <v>25996</v>
       </c>
-      <c r="G79" s="10">
-        <v>0</v>
-      </c>
-      <c r="H79" s="10">
+      <c r="G80" s="10">
+        <v>0</v>
+      </c>
+      <c r="H80" s="10">
         <v>0</v>
       </c>
     </row>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -2089,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B67" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2922,7 +2922,7 @@
         <v>14300</v>
       </c>
       <c r="F31" s="10">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="G31" s="10">
         <v>0</v>
@@ -2948,7 +2948,7 @@
         <v>8700</v>
       </c>
       <c r="F32" s="10">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G32" s="10">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>15950</v>
       </c>
       <c r="F41" s="10">
-        <v>8640</v>
+        <v>10640</v>
       </c>
       <c r="G41" s="12">
         <v>0</v>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -2089,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="B29" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3537,7 +3537,7 @@
         <v>15001</v>
       </c>
       <c r="F54" s="10">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G54" s="10">
         <v>0</v>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -1752,11 +1752,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1962,7 +1965,7 @@
         <v>123</v>
       </c>
       <c r="C15" s="3">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>48</v>
@@ -1976,7 +1979,7 @@
         <v>123</v>
       </c>
       <c r="C16" s="3">
-        <v>156720.79999999999</v>
+        <v>106720.8</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>128</v>
@@ -2089,7 +2092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="B29" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -1752,7 +1752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -2092,8 +2092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView topLeftCell="B29" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2789,7 +2789,7 @@
         <v>13990</v>
       </c>
       <c r="F26" s="10">
-        <v>0</v>
+        <v>13990</v>
       </c>
       <c r="G26" s="10">
         <v>0</v>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="158">
   <si>
     <t>Model</t>
   </si>
@@ -512,6 +512,9 @@
   </si>
   <si>
     <t>VISHWESHWARAIAH LAYOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glide majestic blue </t>
   </si>
 </sst>
 </file>
@@ -555,7 +558,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,6 +580,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -669,9 +684,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -952,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -979,18 +997,18 @@
       <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="20">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="20">
@@ -1001,11 +1019,11 @@
       <c r="A4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="20">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1023,51 +1041,51 @@
       <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="20">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="20">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="20">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="20">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="20">
@@ -1078,22 +1096,22 @@
       <c r="A11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="20">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="20">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1111,7 +1129,7 @@
       <c r="A14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="20">
@@ -1122,7 +1140,7 @@
       <c r="A15" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="20">
@@ -1133,29 +1151,29 @@
       <c r="A16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="20">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="20">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="20">
@@ -1166,29 +1184,29 @@
       <c r="A19" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="20">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="20">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="20">
@@ -1199,7 +1217,7 @@
       <c r="A22" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="20">
@@ -1210,7 +1228,7 @@
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="20">
@@ -1221,7 +1239,7 @@
       <c r="A24" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="20">
@@ -1232,7 +1250,7 @@
       <c r="A25" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>137</v>
       </c>
       <c r="C25" s="20">
@@ -1243,7 +1261,7 @@
       <c r="A26" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>130</v>
       </c>
       <c r="C26" s="20">
@@ -1254,7 +1272,7 @@
       <c r="A27" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="23" t="s">
         <v>129</v>
       </c>
       <c r="C27" s="20">
@@ -1265,29 +1283,29 @@
       <c r="A28" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="23" t="s">
         <v>131</v>
       </c>
       <c r="C28" s="20">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="23" t="s">
         <v>132</v>
       </c>
       <c r="C29" s="20">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="23" t="s">
         <v>133</v>
       </c>
       <c r="C30" s="20">
@@ -1298,7 +1316,7 @@
       <c r="A31" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="23" t="s">
         <v>134</v>
       </c>
       <c r="C31" s="20">
@@ -1309,7 +1327,7 @@
       <c r="A32" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="23" t="s">
         <v>135</v>
       </c>
       <c r="C32" s="20">
@@ -1320,11 +1338,22 @@
       <c r="A33" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="23" t="s">
         <v>136</v>
       </c>
       <c r="C33" s="20">
         <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="20">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1335,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A37" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1438,7 +1467,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>1880.44</v>
+        <v>1776</v>
       </c>
       <c r="D8" s="20"/>
     </row>
@@ -1727,7 +1756,7 @@
         <v>135</v>
       </c>
       <c r="C32">
-        <v>1180</v>
+        <v>1121</v>
       </c>
       <c r="D32" s="20"/>
     </row>
@@ -1742,6 +1771,18 @@
         <v>1180</v>
       </c>
       <c r="D33" s="20"/>
+    </row>
+    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34">
+        <v>1210</v>
+      </c>
+      <c r="D34" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2062,7 +2103,7 @@
       <c r="B22" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="22">
         <v>147382</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2076,7 +2117,7 @@
       <c r="B23" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="22">
         <v>9322</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -2092,7 +2133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -972,7 +972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -1366,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A22" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2133,8 +2133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3315,7 +3315,7 @@
         <v>9740</v>
       </c>
       <c r="F44" s="10">
-        <v>6000</v>
+        <v>7800</v>
       </c>
       <c r="G44" s="10">
         <v>0</v>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$80</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2133,7 +2133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B42" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
@@ -3344,7 +3344,7 @@
         <v>14100</v>
       </c>
       <c r="F45" s="10">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="G45" s="10">
         <v>0</v>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Sales" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$83</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="160">
   <si>
     <t>Model</t>
   </si>
@@ -481,21 +481,12 @@
     <t>R B LIGHTING</t>
   </si>
   <si>
-    <t xml:space="preserve">SHIVANAGAR </t>
-  </si>
-  <si>
     <t>BRIGHT LIGHTS</t>
   </si>
   <si>
-    <t xml:space="preserve">MAGADI MAIN ROAD </t>
-  </si>
-  <si>
     <t>BALAJI ELECTRICALS</t>
   </si>
   <si>
-    <t>ANDRAHALLI</t>
-  </si>
-  <si>
     <t>6200 creditnote</t>
   </si>
   <si>
@@ -511,10 +502,25 @@
     <t>SRI LAKSHMI VENKATESHWARA  ELECTRICAL</t>
   </si>
   <si>
-    <t>VISHWESHWARAIAH LAYOUT</t>
-  </si>
-  <si>
     <t xml:space="preserve">glide majestic blue </t>
+  </si>
+  <si>
+    <t>C K METAL</t>
+  </si>
+  <si>
+    <t>shivanagar</t>
+  </si>
+  <si>
+    <t>magadi main road</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> andrahalli</t>
+  </si>
+  <si>
+    <t>vishveshwaraiahlayout</t>
+  </si>
+  <si>
+    <t>kamalanagar</t>
   </si>
 </sst>
 </file>
@@ -972,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1001,7 +1007,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1331,7 +1337,7 @@
         <v>135</v>
       </c>
       <c r="C32" s="20">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1350,7 +1356,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C34" s="20">
         <v>16</v>
@@ -1777,7 +1783,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C34">
         <v>1210</v>
@@ -2101,7 +2107,7 @@
         <v>45313</v>
       </c>
       <c r="B22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C22" s="22">
         <v>147382</v>
@@ -2115,7 +2121,7 @@
         <v>45314</v>
       </c>
       <c r="B23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C23" s="22">
         <v>9322</v>
@@ -2131,10 +2137,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B42" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2255,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -2388,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -3852,22 +3858,22 @@
     </row>
     <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C65" s="7">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="D65" s="11">
-        <v>45226</v>
+        <v>45327</v>
       </c>
       <c r="E65" s="7">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="F65" s="10">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="G65" s="10">
         <v>0</v>
@@ -3878,22 +3884,22 @@
     </row>
     <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C66" s="7">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D66" s="11">
-        <v>45233</v>
+        <v>45226</v>
       </c>
       <c r="E66" s="7">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="F66" s="10">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="G66" s="10">
         <v>0</v>
@@ -3904,22 +3910,22 @@
     </row>
     <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C67" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D67" s="11">
         <v>45233</v>
       </c>
       <c r="E67" s="7">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F67" s="10">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G67" s="10">
         <v>0</v>
@@ -3930,22 +3936,22 @@
     </row>
     <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C68" s="7">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D68" s="11">
-        <v>45237</v>
+        <v>45233</v>
       </c>
       <c r="E68" s="7">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="F68" s="10">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="G68" s="10">
         <v>0</v>
@@ -3962,42 +3968,42 @@
         <v>101</v>
       </c>
       <c r="C69" s="7">
+        <v>105</v>
+      </c>
+      <c r="D69" s="11">
+        <v>45237</v>
+      </c>
+      <c r="E69" s="7">
+        <v>10400</v>
+      </c>
+      <c r="F69" s="10">
+        <v>10400</v>
+      </c>
+      <c r="G69" s="10">
+        <v>0</v>
+      </c>
+      <c r="H69" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70" s="7">
         <v>126</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D70" s="11">
         <v>45283</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E70" s="7">
         <v>23880</v>
       </c>
-      <c r="F69" s="10">
-        <v>0</v>
-      </c>
-      <c r="G69" s="10">
-        <v>0</v>
-      </c>
-      <c r="H69" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C70" s="7">
-        <v>114</v>
-      </c>
-      <c r="D70" s="11">
-        <v>45247</v>
-      </c>
-      <c r="E70" s="7">
-        <v>23751</v>
-      </c>
       <c r="F70" s="10">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G70" s="10">
         <v>0</v>
@@ -4008,22 +4014,22 @@
     </row>
     <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C71" s="7">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D71" s="11">
-        <v>45262</v>
+        <v>45247</v>
       </c>
       <c r="E71" s="7">
-        <v>16760</v>
+        <v>23751</v>
       </c>
       <c r="F71" s="10">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G71" s="10">
         <v>0</v>
@@ -4034,19 +4040,19 @@
     </row>
     <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C72" s="7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D72" s="11">
-        <v>45266</v>
+        <v>45262</v>
       </c>
       <c r="E72" s="7">
-        <v>15250</v>
+        <v>16760</v>
       </c>
       <c r="F72" s="10">
         <v>0</v>
@@ -4060,19 +4066,19 @@
     </row>
     <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C73" s="7">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D73" s="11">
-        <v>45271</v>
+        <v>45266</v>
       </c>
       <c r="E73" s="7">
-        <v>14900</v>
+        <v>15250</v>
       </c>
       <c r="F73" s="10">
         <v>0</v>
@@ -4086,19 +4092,19 @@
     </row>
     <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C74" s="7">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D74" s="11">
-        <v>45285</v>
+        <v>45271</v>
       </c>
       <c r="E74" s="7">
-        <v>19100</v>
+        <v>14900</v>
       </c>
       <c r="F74" s="10">
         <v>0</v>
@@ -4112,19 +4118,19 @@
     </row>
     <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C75" s="7">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D75" s="11">
-        <v>45286</v>
+        <v>45285</v>
       </c>
       <c r="E75" s="7">
-        <v>18600</v>
+        <v>19100</v>
       </c>
       <c r="F75" s="10">
         <v>0</v>
@@ -4138,19 +4144,19 @@
     </row>
     <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C76" s="7">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D76" s="11">
-        <v>45290</v>
+        <v>45286</v>
       </c>
       <c r="E76" s="7">
-        <v>15400</v>
+        <v>18600</v>
       </c>
       <c r="F76" s="10">
         <v>0</v>
@@ -4164,19 +4170,19 @@
     </row>
     <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C77" s="7">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D77" s="11">
-        <v>45314</v>
+        <v>45290</v>
       </c>
       <c r="E77" s="7">
-        <v>18000</v>
+        <v>15400</v>
       </c>
       <c r="F77" s="10">
         <v>0</v>
@@ -4190,22 +4196,22 @@
     </row>
     <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" s="17">
-        <v>51</v>
+        <v>158</v>
+      </c>
+      <c r="C78" s="7">
+        <v>137</v>
       </c>
       <c r="D78" s="11">
-        <v>45142</v>
-      </c>
-      <c r="E78" s="17">
-        <v>23250</v>
+        <v>45314</v>
+      </c>
+      <c r="E78" s="7">
+        <v>18000</v>
       </c>
       <c r="F78" s="10">
-        <v>23250</v>
+        <v>0</v>
       </c>
       <c r="G78" s="10">
         <v>0</v>
@@ -4215,23 +4221,23 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="16" t="s">
-        <v>115</v>
+      <c r="A79" s="15" t="s">
+        <v>154</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C79" s="17">
-        <v>53</v>
+        <v>159</v>
+      </c>
+      <c r="C79" s="7">
+        <v>141</v>
       </c>
       <c r="D79" s="11">
-        <v>45145</v>
-      </c>
-      <c r="E79" s="17">
-        <v>9200</v>
+        <v>45323</v>
+      </c>
+      <c r="E79" s="7">
+        <v>18600</v>
       </c>
       <c r="F79" s="10">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G79" s="10">
         <v>0</v>
@@ -4242,27 +4248,105 @@
     </row>
     <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" s="7">
+        <v>143</v>
+      </c>
+      <c r="D80" s="11">
+        <v>45325</v>
+      </c>
+      <c r="E80" s="7">
+        <v>15001</v>
+      </c>
+      <c r="F80" s="10">
+        <v>0</v>
+      </c>
+      <c r="G80" s="10">
+        <v>0</v>
+      </c>
+      <c r="H80" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" s="17">
+        <v>51</v>
+      </c>
+      <c r="D81" s="11">
+        <v>45142</v>
+      </c>
+      <c r="E81" s="17">
+        <v>23250</v>
+      </c>
+      <c r="F81" s="10">
+        <v>23250</v>
+      </c>
+      <c r="G81" s="10">
+        <v>0</v>
+      </c>
+      <c r="H81" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C82" s="17">
+        <v>53</v>
+      </c>
+      <c r="D82" s="11">
+        <v>45145</v>
+      </c>
+      <c r="E82" s="17">
+        <v>9200</v>
+      </c>
+      <c r="F82" s="10">
+        <v>9200</v>
+      </c>
+      <c r="G82" s="10">
+        <v>0</v>
+      </c>
+      <c r="H82" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B83" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C80" s="17">
+      <c r="C83" s="17">
         <v>81</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D83" s="11">
         <v>45191</v>
       </c>
-      <c r="E80" s="17">
+      <c r="E83" s="17">
         <v>25996</v>
       </c>
-      <c r="F80" s="10">
+      <c r="F83" s="10">
         <v>25996</v>
       </c>
-      <c r="G80" s="10">
-        <v>0</v>
-      </c>
-      <c r="H80" s="10">
+      <c r="G83" s="10">
+        <v>0</v>
+      </c>
+      <c r="H83" s="10">
         <v>0</v>
       </c>
     </row>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -2139,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3239,7 +3239,7 @@
         <v>15950</v>
       </c>
       <c r="F41" s="10">
-        <v>10640</v>
+        <v>12790</v>
       </c>
       <c r="G41" s="12">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>10000</v>
       </c>
       <c r="F68" s="10">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G68" s="10">
         <v>0</v>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -2139,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="B61" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4055,7 +4055,7 @@
         <v>16760</v>
       </c>
       <c r="F72" s="10">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G72" s="10">
         <v>0</v>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -2139,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2946,7 +2946,7 @@
         <v>12899</v>
       </c>
       <c r="F30" s="10">
-        <v>1500</v>
+        <v>4500</v>
       </c>
       <c r="G30" s="10">
         <v>0</v>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -2139,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3350,7 +3350,7 @@
         <v>14100</v>
       </c>
       <c r="F45" s="10">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="G45" s="10">
         <v>0</v>
@@ -3665,7 +3665,7 @@
         <v>12400</v>
       </c>
       <c r="F57" s="10">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G57" s="10">
         <v>0</v>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -2139,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="B61" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4029,7 +4029,7 @@
         <v>23751</v>
       </c>
       <c r="F71" s="10">
-        <v>5000</v>
+        <v>13751</v>
       </c>
       <c r="G71" s="10">
         <v>0</v>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Sales" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$84</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="162">
   <si>
     <t>Model</t>
   </si>
@@ -521,6 +521,12 @@
   </si>
   <si>
     <t>kamalanagar</t>
+  </si>
+  <si>
+    <t>HEMANTH HOME APPLIANCES</t>
+  </si>
+  <si>
+    <t>kengeri satellite town</t>
   </si>
 </sst>
 </file>
@@ -2137,10 +2143,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4274,79 +4280,105 @@
     </row>
     <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" s="7">
+        <v>145</v>
+      </c>
+      <c r="D81" s="11">
+        <v>45337</v>
+      </c>
+      <c r="E81" s="7">
+        <v>5000</v>
+      </c>
+      <c r="F81" s="10">
+        <v>0</v>
+      </c>
+      <c r="G81" s="10">
+        <v>0</v>
+      </c>
+      <c r="H81" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B82" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C81" s="17">
+      <c r="C82" s="17">
         <v>51</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D82" s="11">
         <v>45142</v>
       </c>
-      <c r="E81" s="17">
+      <c r="E82" s="17">
         <v>23250</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F82" s="10">
         <v>23250</v>
       </c>
-      <c r="G81" s="10">
-        <v>0</v>
-      </c>
-      <c r="H81" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="16" t="s">
+      <c r="G82" s="10">
+        <v>0</v>
+      </c>
+      <c r="H82" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B83" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C82" s="17">
+      <c r="C83" s="17">
         <v>53</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="11">
         <v>45145</v>
       </c>
-      <c r="E82" s="17">
+      <c r="E83" s="17">
         <v>9200</v>
       </c>
-      <c r="F82" s="10">
+      <c r="F83" s="10">
         <v>9200</v>
       </c>
-      <c r="G82" s="10">
-        <v>0</v>
-      </c>
-      <c r="H82" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="15" t="s">
+      <c r="G83" s="10">
+        <v>0</v>
+      </c>
+      <c r="H83" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B84" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C83" s="17">
+      <c r="C84" s="17">
         <v>81</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D84" s="11">
         <v>45191</v>
       </c>
-      <c r="E83" s="17">
+      <c r="E84" s="17">
         <v>25996</v>
       </c>
-      <c r="F83" s="10">
+      <c r="F84" s="10">
         <v>25996</v>
       </c>
-      <c r="G83" s="10">
-        <v>0</v>
-      </c>
-      <c r="H83" s="10">
+      <c r="G84" s="10">
+        <v>0</v>
+      </c>
+      <c r="H84" s="10">
         <v>0</v>
       </c>
     </row>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="164">
   <si>
     <t>Model</t>
   </si>
@@ -527,13 +527,19 @@
   </si>
   <si>
     <t>kengeri satellite town</t>
+  </si>
+  <si>
+    <t>1200mm bldc bianco</t>
+  </si>
+  <si>
+    <t>1200mm bldc  brown</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,6 +570,13 @@
     </font>
     <font>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -646,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -701,7 +714,8 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -982,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1013,7 +1027,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1024,7 +1038,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1035,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="20">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1068,7 +1082,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1112,7 +1126,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="20">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1156,7 +1170,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="20">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1167,7 +1181,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="20">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1178,7 +1192,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="20">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1200,7 +1214,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="20">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1211,7 +1225,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="20">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1299,7 +1313,7 @@
         <v>131</v>
       </c>
       <c r="C28" s="20">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1332,7 +1346,7 @@
         <v>134</v>
       </c>
       <c r="C31" s="20">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1366,6 +1380,28 @@
       </c>
       <c r="C34" s="20">
         <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" s="20">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1376,10 +1412,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1796,8 +1832,31 @@
       </c>
       <c r="D34" s="20"/>
     </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36">
+        <v>2065</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2145,7 +2204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sales" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$85</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="165">
   <si>
     <t>Model</t>
   </si>
@@ -533,6 +533,9 @@
   </si>
   <si>
     <t>1200mm bldc  brown</t>
+  </si>
+  <si>
+    <t>17-02-204</t>
   </si>
 </sst>
 </file>
@@ -1414,7 +1417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -2202,10 +2205,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2372,7 +2375,7 @@
         <v>14401</v>
       </c>
       <c r="F6" s="10">
-        <v>0</v>
+        <v>14401</v>
       </c>
       <c r="G6" s="10">
         <v>0</v>
@@ -3011,7 +3014,7 @@
         <v>12899</v>
       </c>
       <c r="F30" s="10">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="G30" s="10">
         <v>0</v>
@@ -3211,22 +3214,22 @@
     </row>
     <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C38" s="7">
-        <v>74</v>
-      </c>
-      <c r="D38" s="11">
-        <v>45182</v>
+        <v>146</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>164</v>
       </c>
       <c r="E38" s="7">
-        <v>6500</v>
+        <v>25651</v>
       </c>
       <c r="F38" s="10">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G38" s="10">
         <v>0</v>
@@ -3234,6 +3237,7 @@
       <c r="H38" s="10">
         <v>0</v>
       </c>
+      <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
@@ -3243,77 +3247,74 @@
         <v>102</v>
       </c>
       <c r="C39" s="7">
+        <v>74</v>
+      </c>
+      <c r="D39" s="11">
+        <v>45182</v>
+      </c>
+      <c r="E39" s="7">
+        <v>6500</v>
+      </c>
+      <c r="F39" s="10">
+        <v>6500</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0</v>
+      </c>
+      <c r="H39" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="7">
         <v>78</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D40" s="11">
         <v>45188</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E40" s="7">
         <v>9000</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F40" s="10">
         <v>9000</v>
       </c>
-      <c r="G39" s="10">
-        <v>0</v>
-      </c>
-      <c r="H39" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="s">
+      <c r="G40" s="10">
+        <v>0</v>
+      </c>
+      <c r="H40" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B41" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C41" s="7">
         <v>76</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="11">
         <v>45183</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E41" s="7">
         <v>10200</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F41" s="10">
         <v>2500</v>
       </c>
-      <c r="G40" s="10">
-        <v>0</v>
-      </c>
-      <c r="H40" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="7">
-        <v>77</v>
-      </c>
-      <c r="D41" s="11">
-        <v>45184</v>
-      </c>
-      <c r="E41" s="7">
-        <v>15950</v>
-      </c>
-      <c r="F41" s="10">
-        <v>12790</v>
-      </c>
-      <c r="G41" s="12">
+      <c r="G41" s="10">
         <v>0</v>
       </c>
       <c r="H41" s="10">
         <v>0</v>
-      </c>
-      <c r="I41" s="4">
-        <v>45258</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -3324,98 +3325,98 @@
         <v>104</v>
       </c>
       <c r="C42" s="7">
+        <v>77</v>
+      </c>
+      <c r="D42" s="11">
+        <v>45184</v>
+      </c>
+      <c r="E42" s="7">
+        <v>15950</v>
+      </c>
+      <c r="F42" s="10">
+        <v>14790</v>
+      </c>
+      <c r="G42" s="12">
+        <v>0</v>
+      </c>
+      <c r="H42" s="10">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="7">
         <v>121</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D43" s="11">
         <v>45267</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E43" s="7">
         <v>18600</v>
       </c>
-      <c r="F42" s="10">
-        <v>0</v>
-      </c>
-      <c r="G42" s="12">
-        <v>0</v>
-      </c>
-      <c r="H42" s="10">
-        <v>0</v>
-      </c>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" s="7">
-        <v>80</v>
-      </c>
-      <c r="D43" s="11">
-        <v>45191</v>
-      </c>
-      <c r="E43" s="7">
-        <v>9398</v>
-      </c>
       <c r="F43" s="10">
-        <v>1000</v>
-      </c>
-      <c r="G43" s="10">
+        <v>0</v>
+      </c>
+      <c r="G43" s="12">
         <v>0</v>
       </c>
       <c r="H43" s="10">
         <v>0</v>
       </c>
+      <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C44" s="7">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D44" s="11">
-        <v>45201</v>
+        <v>45191</v>
       </c>
       <c r="E44" s="7">
-        <v>9740</v>
+        <v>9398</v>
       </c>
       <c r="F44" s="10">
-        <v>7800</v>
+        <v>1000</v>
       </c>
       <c r="G44" s="10">
         <v>0</v>
       </c>
       <c r="H44" s="10">
         <v>0</v>
-      </c>
-      <c r="I44" s="4">
-        <v>45257</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C45" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D45" s="11">
         <v>45201</v>
       </c>
       <c r="E45" s="7">
-        <v>14100</v>
+        <v>9740</v>
       </c>
       <c r="F45" s="10">
-        <v>9000</v>
+        <v>7800</v>
       </c>
       <c r="G45" s="10">
         <v>0</v>
@@ -3424,33 +3425,36 @@
         <v>0</v>
       </c>
       <c r="I45" s="4">
-        <v>45259</v>
+        <v>45257</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C46" s="7">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D46" s="11">
-        <v>45203</v>
+        <v>45201</v>
       </c>
       <c r="E46" s="7">
-        <v>14800</v>
-      </c>
-      <c r="F46" s="12">
-        <v>10000</v>
+        <v>14100</v>
+      </c>
+      <c r="F46" s="10">
+        <v>9000</v>
       </c>
       <c r="G46" s="10">
         <v>0</v>
       </c>
       <c r="H46" s="10">
         <v>0</v>
+      </c>
+      <c r="I46" s="4">
+        <v>45259</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -3461,16 +3465,16 @@
         <v>107</v>
       </c>
       <c r="C47" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D47" s="11">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="E47" s="7">
-        <v>9630</v>
-      </c>
-      <c r="F47" s="10">
-        <v>9630</v>
+        <v>14800</v>
+      </c>
+      <c r="F47" s="12">
+        <v>10000</v>
       </c>
       <c r="G47" s="10">
         <v>0</v>
@@ -3487,16 +3491,16 @@
         <v>107</v>
       </c>
       <c r="C48" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D48" s="11">
-        <v>45205</v>
+        <v>45204</v>
       </c>
       <c r="E48" s="7">
-        <v>13800</v>
+        <v>9630</v>
       </c>
       <c r="F48" s="10">
-        <v>13800</v>
+        <v>9630</v>
       </c>
       <c r="G48" s="10">
         <v>0</v>
@@ -3513,16 +3517,16 @@
         <v>107</v>
       </c>
       <c r="C49" s="7">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D49" s="11">
-        <v>45226</v>
+        <v>45205</v>
       </c>
       <c r="E49" s="7">
-        <v>13596</v>
+        <v>13800</v>
       </c>
       <c r="F49" s="10">
-        <v>0</v>
+        <v>13800</v>
       </c>
       <c r="G49" s="10">
         <v>0</v>
@@ -3532,20 +3536,20 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C50" s="7">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D50" s="11">
-        <v>45240</v>
+        <v>45226</v>
       </c>
       <c r="E50" s="7">
-        <v>28900</v>
+        <v>13596</v>
       </c>
       <c r="F50" s="10">
         <v>0</v>
@@ -3558,20 +3562,20 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C51" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D51" s="11">
-        <v>45241</v>
+        <v>45240</v>
       </c>
       <c r="E51" s="7">
-        <v>186301</v>
+        <v>28900</v>
       </c>
       <c r="F51" s="10">
         <v>0</v>
@@ -3591,42 +3595,42 @@
         <v>107</v>
       </c>
       <c r="C52" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D52" s="11">
         <v>45241</v>
       </c>
       <c r="E52" s="7">
+        <v>186301</v>
+      </c>
+      <c r="F52" s="10">
+        <v>0</v>
+      </c>
+      <c r="G52" s="10">
+        <v>0</v>
+      </c>
+      <c r="H52" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="7">
+        <v>109</v>
+      </c>
+      <c r="D53" s="11">
+        <v>45241</v>
+      </c>
+      <c r="E53" s="7">
         <v>22000</v>
       </c>
-      <c r="F52" s="10">
-        <v>0</v>
-      </c>
-      <c r="G52" s="10">
-        <v>0</v>
-      </c>
-      <c r="H52" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C53" s="7">
-        <v>90</v>
-      </c>
-      <c r="D53" s="11">
-        <v>45205</v>
-      </c>
-      <c r="E53" s="7">
-        <v>10000</v>
-      </c>
       <c r="F53" s="10">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G53" s="10">
         <v>0</v>
@@ -3643,16 +3647,16 @@
         <v>108</v>
       </c>
       <c r="C54" s="7">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D54" s="11">
-        <v>45238</v>
+        <v>45205</v>
       </c>
       <c r="E54" s="7">
-        <v>15001</v>
+        <v>10000</v>
       </c>
       <c r="F54" s="10">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G54" s="10">
         <v>0</v>
@@ -3663,22 +3667,22 @@
     </row>
     <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C55" s="7">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D55" s="11">
-        <v>45216</v>
+        <v>45238</v>
       </c>
       <c r="E55" s="7">
-        <v>10200</v>
+        <v>15001</v>
       </c>
       <c r="F55" s="10">
-        <v>10200</v>
+        <v>5000</v>
       </c>
       <c r="G55" s="10">
         <v>0</v>
@@ -3695,22 +3699,22 @@
         <v>109</v>
       </c>
       <c r="C56" s="7">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D56" s="11">
-        <v>45234</v>
+        <v>45216</v>
       </c>
       <c r="E56" s="7">
-        <v>20801</v>
+        <v>10200</v>
       </c>
       <c r="F56" s="10">
-        <v>20801</v>
+        <v>10200</v>
       </c>
       <c r="G56" s="10">
         <v>0</v>
       </c>
       <c r="H56" s="10">
-        <v>416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3721,22 +3725,22 @@
         <v>109</v>
       </c>
       <c r="C57" s="7">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="D57" s="11">
-        <v>45271</v>
+        <v>45234</v>
       </c>
       <c r="E57" s="7">
-        <v>12400</v>
+        <v>20801</v>
       </c>
       <c r="F57" s="10">
-        <v>12400</v>
+        <v>20801</v>
       </c>
       <c r="G57" s="10">
         <v>0</v>
       </c>
       <c r="H57" s="10">
-        <v>0</v>
+        <v>416</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3747,16 +3751,16 @@
         <v>109</v>
       </c>
       <c r="C58" s="7">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D58" s="11">
-        <v>45292</v>
+        <v>45271</v>
       </c>
       <c r="E58" s="7">
-        <v>15600</v>
+        <v>12400</v>
       </c>
       <c r="F58" s="10">
-        <v>15600</v>
+        <v>12400</v>
       </c>
       <c r="G58" s="10">
         <v>0</v>
@@ -3767,22 +3771,22 @@
     </row>
     <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C59" s="7">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="D59" s="11">
-        <v>45216</v>
+        <v>45292</v>
       </c>
       <c r="E59" s="7">
-        <v>3600</v>
-      </c>
-      <c r="F59" s="8">
-        <v>3600</v>
+        <v>15600</v>
+      </c>
+      <c r="F59" s="10">
+        <v>15600</v>
       </c>
       <c r="G59" s="10">
         <v>0</v>
@@ -3799,16 +3803,16 @@
         <v>86</v>
       </c>
       <c r="C60" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D60" s="11">
-        <v>45217</v>
+        <v>45216</v>
       </c>
       <c r="E60" s="7">
-        <v>22500</v>
+        <v>3600</v>
       </c>
       <c r="F60" s="8">
-        <v>22500</v>
+        <v>3600</v>
       </c>
       <c r="G60" s="10">
         <v>0</v>
@@ -3825,16 +3829,16 @@
         <v>86</v>
       </c>
       <c r="C61" s="7">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="D61" s="11">
-        <v>45097</v>
+        <v>45217</v>
       </c>
       <c r="E61" s="7">
-        <v>9398</v>
-      </c>
-      <c r="F61" s="10">
-        <v>9398</v>
+        <v>22500</v>
+      </c>
+      <c r="F61" s="8">
+        <v>22500</v>
       </c>
       <c r="G61" s="10">
         <v>0</v>
@@ -3851,16 +3855,16 @@
         <v>86</v>
       </c>
       <c r="C62" s="7">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D62" s="11">
-        <v>45108</v>
+        <v>45097</v>
       </c>
       <c r="E62" s="7">
-        <v>11250</v>
+        <v>9398</v>
       </c>
       <c r="F62" s="10">
-        <v>11250</v>
+        <v>9398</v>
       </c>
       <c r="G62" s="10">
         <v>0</v>
@@ -3877,16 +3881,16 @@
         <v>86</v>
       </c>
       <c r="C63" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D63" s="11">
-        <v>45111</v>
+        <v>45108</v>
       </c>
       <c r="E63" s="7">
-        <v>28340</v>
+        <v>11250</v>
       </c>
       <c r="F63" s="10">
-        <v>28340</v>
+        <v>11250</v>
       </c>
       <c r="G63" s="10">
         <v>0</v>
@@ -3903,16 +3907,16 @@
         <v>86</v>
       </c>
       <c r="C64" s="7">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="D64" s="11">
-        <v>45251</v>
+        <v>45111</v>
       </c>
       <c r="E64" s="7">
-        <v>8620</v>
+        <v>28340</v>
       </c>
       <c r="F64" s="10">
-        <v>8620</v>
+        <v>28340</v>
       </c>
       <c r="G64" s="10">
         <v>0</v>
@@ -3929,16 +3933,16 @@
         <v>86</v>
       </c>
       <c r="C65" s="7">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="D65" s="11">
-        <v>45327</v>
+        <v>45251</v>
       </c>
       <c r="E65" s="7">
-        <v>22500</v>
+        <v>8620</v>
       </c>
       <c r="F65" s="10">
-        <v>0</v>
+        <v>8620</v>
       </c>
       <c r="G65" s="10">
         <v>0</v>
@@ -3949,22 +3953,22 @@
     </row>
     <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C66" s="7">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="D66" s="11">
-        <v>45226</v>
+        <v>45327</v>
       </c>
       <c r="E66" s="7">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="F66" s="10">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="G66" s="10">
         <v>0</v>
@@ -3975,22 +3979,22 @@
     </row>
     <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C67" s="7">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D67" s="11">
-        <v>45233</v>
+        <v>45226</v>
       </c>
       <c r="E67" s="7">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="F67" s="10">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="G67" s="10">
         <v>0</v>
@@ -4001,22 +4005,22 @@
     </row>
     <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C68" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D68" s="11">
         <v>45233</v>
       </c>
       <c r="E68" s="7">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F68" s="10">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G68" s="10">
         <v>0</v>
@@ -4027,22 +4031,22 @@
     </row>
     <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C69" s="7">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D69" s="11">
-        <v>45237</v>
+        <v>45233</v>
       </c>
       <c r="E69" s="7">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="F69" s="10">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="G69" s="10">
         <v>0</v>
@@ -4059,42 +4063,42 @@
         <v>101</v>
       </c>
       <c r="C70" s="7">
+        <v>105</v>
+      </c>
+      <c r="D70" s="11">
+        <v>45237</v>
+      </c>
+      <c r="E70" s="7">
+        <v>10400</v>
+      </c>
+      <c r="F70" s="10">
+        <v>10400</v>
+      </c>
+      <c r="G70" s="10">
+        <v>0</v>
+      </c>
+      <c r="H70" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" s="7">
         <v>126</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="11">
         <v>45283</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E71" s="7">
         <v>23880</v>
       </c>
-      <c r="F70" s="10">
-        <v>0</v>
-      </c>
-      <c r="G70" s="10">
-        <v>0</v>
-      </c>
-      <c r="H70" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C71" s="7">
-        <v>114</v>
-      </c>
-      <c r="D71" s="11">
-        <v>45247</v>
-      </c>
-      <c r="E71" s="7">
-        <v>23751</v>
-      </c>
       <c r="F71" s="10">
-        <v>13751</v>
+        <v>0</v>
       </c>
       <c r="G71" s="10">
         <v>0</v>
@@ -4105,22 +4109,22 @@
     </row>
     <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C72" s="7">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D72" s="11">
-        <v>45262</v>
+        <v>45247</v>
       </c>
       <c r="E72" s="7">
-        <v>16760</v>
+        <v>23751</v>
       </c>
       <c r="F72" s="10">
-        <v>5000</v>
+        <v>13751</v>
       </c>
       <c r="G72" s="10">
         <v>0</v>
@@ -4131,22 +4135,22 @@
     </row>
     <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C73" s="7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D73" s="11">
-        <v>45266</v>
+        <v>45262</v>
       </c>
       <c r="E73" s="7">
-        <v>15250</v>
+        <v>16760</v>
       </c>
       <c r="F73" s="10">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G73" s="10">
         <v>0</v>
@@ -4157,19 +4161,19 @@
     </row>
     <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C74" s="7">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D74" s="11">
-        <v>45271</v>
+        <v>45266</v>
       </c>
       <c r="E74" s="7">
-        <v>14900</v>
+        <v>15250</v>
       </c>
       <c r="F74" s="10">
         <v>0</v>
@@ -4183,19 +4187,19 @@
     </row>
     <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C75" s="7">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D75" s="11">
-        <v>45285</v>
+        <v>45271</v>
       </c>
       <c r="E75" s="7">
-        <v>19100</v>
+        <v>14900</v>
       </c>
       <c r="F75" s="10">
         <v>0</v>
@@ -4209,19 +4213,19 @@
     </row>
     <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C76" s="7">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D76" s="11">
-        <v>45286</v>
+        <v>45285</v>
       </c>
       <c r="E76" s="7">
-        <v>18600</v>
+        <v>19100</v>
       </c>
       <c r="F76" s="10">
         <v>0</v>
@@ -4235,19 +4239,19 @@
     </row>
     <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C77" s="7">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D77" s="11">
-        <v>45290</v>
+        <v>45286</v>
       </c>
       <c r="E77" s="7">
-        <v>15400</v>
+        <v>18600</v>
       </c>
       <c r="F77" s="10">
         <v>0</v>
@@ -4261,19 +4265,19 @@
     </row>
     <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C78" s="7">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D78" s="11">
-        <v>45314</v>
+        <v>45290</v>
       </c>
       <c r="E78" s="7">
-        <v>18000</v>
+        <v>15400</v>
       </c>
       <c r="F78" s="10">
         <v>0</v>
@@ -4287,19 +4291,19 @@
     </row>
     <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C79" s="7">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D79" s="11">
-        <v>45323</v>
+        <v>45314</v>
       </c>
       <c r="E79" s="7">
-        <v>18600</v>
+        <v>18000</v>
       </c>
       <c r="F79" s="10">
         <v>0</v>
@@ -4319,13 +4323,13 @@
         <v>159</v>
       </c>
       <c r="C80" s="7">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D80" s="11">
-        <v>45325</v>
+        <v>45323</v>
       </c>
       <c r="E80" s="7">
-        <v>15001</v>
+        <v>18600</v>
       </c>
       <c r="F80" s="10">
         <v>0</v>
@@ -4339,19 +4343,19 @@
     </row>
     <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="15" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C81" s="7">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D81" s="11">
-        <v>45337</v>
+        <v>45325</v>
       </c>
       <c r="E81" s="7">
-        <v>5000</v>
+        <v>15001</v>
       </c>
       <c r="F81" s="10">
         <v>0</v>
@@ -4365,79 +4369,105 @@
     </row>
     <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C82" s="7">
+        <v>145</v>
+      </c>
+      <c r="D82" s="11">
+        <v>45337</v>
+      </c>
+      <c r="E82" s="7">
+        <v>5000</v>
+      </c>
+      <c r="F82" s="10">
+        <v>0</v>
+      </c>
+      <c r="G82" s="10">
+        <v>0</v>
+      </c>
+      <c r="H82" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B83" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C82" s="17">
+      <c r="C83" s="17">
         <v>51</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="11">
         <v>45142</v>
       </c>
-      <c r="E82" s="17">
+      <c r="E83" s="17">
         <v>23250</v>
       </c>
-      <c r="F82" s="10">
+      <c r="F83" s="10">
         <v>23250</v>
       </c>
-      <c r="G82" s="10">
-        <v>0</v>
-      </c>
-      <c r="H82" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="16" t="s">
+      <c r="G83" s="10">
+        <v>0</v>
+      </c>
+      <c r="H83" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B84" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C83" s="17">
+      <c r="C84" s="17">
         <v>53</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D84" s="11">
         <v>45145</v>
       </c>
-      <c r="E83" s="17">
+      <c r="E84" s="17">
         <v>9200</v>
       </c>
-      <c r="F83" s="10">
+      <c r="F84" s="10">
         <v>9200</v>
       </c>
-      <c r="G83" s="10">
-        <v>0</v>
-      </c>
-      <c r="H83" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="15" t="s">
+      <c r="G84" s="10">
+        <v>0</v>
+      </c>
+      <c r="H84" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B85" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C84" s="17">
+      <c r="C85" s="17">
         <v>81</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D85" s="11">
         <v>45191</v>
       </c>
-      <c r="E84" s="17">
+      <c r="E85" s="17">
         <v>25996</v>
       </c>
-      <c r="F84" s="10">
+      <c r="F85" s="10">
         <v>25996</v>
       </c>
-      <c r="G84" s="10">
-        <v>0</v>
-      </c>
-      <c r="H84" s="10">
+      <c r="G85" s="10">
+        <v>0</v>
+      </c>
+      <c r="H85" s="10">
         <v>0</v>
       </c>
     </row>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -1001,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:B36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1417,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A31" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2207,7 +2207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sales" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$86</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="165">
   <si>
     <t>Model</t>
   </si>
@@ -1001,7 +1001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -2205,10 +2205,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2969,23 +2969,23 @@
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>61</v>
+      <c r="A29" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29" s="7">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="D29" s="11">
-        <v>45164</v>
+        <v>45343</v>
       </c>
       <c r="E29" s="7">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="F29" s="10">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G29" s="10">
         <v>0</v>
@@ -2993,54 +2993,55 @@
       <c r="H29" s="10">
         <v>0</v>
       </c>
-      <c r="I29" s="4">
-        <v>45257</v>
-      </c>
+      <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" s="7">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D30" s="11">
-        <v>45181</v>
+        <v>45164</v>
       </c>
       <c r="E30" s="7">
-        <v>12899</v>
+        <v>5000</v>
       </c>
       <c r="F30" s="10">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="G30" s="10">
         <v>0</v>
       </c>
       <c r="H30" s="10">
         <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>45257</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C31" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D31" s="11">
-        <v>45177</v>
+        <v>45181</v>
       </c>
       <c r="E31" s="7">
-        <v>14300</v>
+        <v>12899</v>
       </c>
       <c r="F31" s="10">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="G31" s="10">
         <v>0</v>
@@ -3057,16 +3058,16 @@
         <v>100</v>
       </c>
       <c r="C32" s="7">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D32" s="11">
-        <v>45202</v>
+        <v>45177</v>
       </c>
       <c r="E32" s="7">
-        <v>8700</v>
+        <v>14300</v>
       </c>
       <c r="F32" s="10">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="G32" s="10">
         <v>0</v>
@@ -3083,16 +3084,16 @@
         <v>100</v>
       </c>
       <c r="C33" s="7">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D33" s="11">
-        <v>45225</v>
+        <v>45202</v>
       </c>
       <c r="E33" s="7">
-        <v>13478</v>
+        <v>8700</v>
       </c>
       <c r="F33" s="10">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G33" s="10">
         <v>0</v>
@@ -3103,22 +3104,22 @@
     </row>
     <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C34" s="7">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D34" s="11">
-        <v>45155</v>
+        <v>45225</v>
       </c>
       <c r="E34" s="7">
-        <v>5000</v>
+        <v>13478</v>
       </c>
       <c r="F34" s="10">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G34" s="10">
         <v>0</v>
@@ -3129,31 +3130,28 @@
     </row>
     <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="12">
-        <v>72</v>
+        <v>91</v>
+      </c>
+      <c r="C35" s="7">
+        <v>56</v>
       </c>
       <c r="D35" s="11">
-        <v>45181</v>
+        <v>45155</v>
       </c>
       <c r="E35" s="7">
-        <v>17900</v>
+        <v>5000</v>
       </c>
       <c r="F35" s="10">
-        <v>17900</v>
+        <v>5000</v>
       </c>
       <c r="G35" s="10">
         <v>0</v>
       </c>
       <c r="H35" s="10">
         <v>0</v>
-      </c>
-      <c r="I35" s="4">
-        <v>45255</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -3163,17 +3161,17 @@
       <c r="B36" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C36" s="7">
-        <v>73</v>
+      <c r="C36" s="12">
+        <v>72</v>
       </c>
       <c r="D36" s="11">
-        <v>45182</v>
+        <v>45181</v>
       </c>
       <c r="E36" s="7">
-        <v>12440</v>
+        <v>17900</v>
       </c>
       <c r="F36" s="10">
-        <v>12440</v>
+        <v>17900</v>
       </c>
       <c r="G36" s="10">
         <v>0</v>
@@ -3193,16 +3191,16 @@
         <v>101</v>
       </c>
       <c r="C37" s="7">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="D37" s="11">
-        <v>45293</v>
+        <v>45182</v>
       </c>
       <c r="E37" s="7">
-        <v>37000</v>
+        <v>12440</v>
       </c>
       <c r="F37" s="10">
-        <v>0</v>
+        <v>12440</v>
       </c>
       <c r="G37" s="10">
         <v>0</v>
@@ -3210,7 +3208,9 @@
       <c r="H37" s="10">
         <v>0</v>
       </c>
-      <c r="I37" s="4"/>
+      <c r="I37" s="4">
+        <v>45255</v>
+      </c>
     </row>
     <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
@@ -3220,13 +3220,13 @@
         <v>101</v>
       </c>
       <c r="C38" s="7">
-        <v>146</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>164</v>
+        <v>131</v>
+      </c>
+      <c r="D38" s="11">
+        <v>45293</v>
       </c>
       <c r="E38" s="7">
-        <v>25651</v>
+        <v>37000</v>
       </c>
       <c r="F38" s="10">
         <v>0</v>
@@ -3241,22 +3241,22 @@
     </row>
     <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C39" s="7">
-        <v>74</v>
-      </c>
-      <c r="D39" s="11">
-        <v>45182</v>
+        <v>146</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>164</v>
       </c>
       <c r="E39" s="7">
-        <v>6500</v>
+        <v>25651</v>
       </c>
       <c r="F39" s="10">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G39" s="10">
         <v>0</v>
@@ -3264,6 +3264,7 @@
       <c r="H39" s="10">
         <v>0</v>
       </c>
+      <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
@@ -3273,77 +3274,74 @@
         <v>102</v>
       </c>
       <c r="C40" s="7">
+        <v>74</v>
+      </c>
+      <c r="D40" s="11">
+        <v>45182</v>
+      </c>
+      <c r="E40" s="7">
+        <v>6500</v>
+      </c>
+      <c r="F40" s="10">
+        <v>6500</v>
+      </c>
+      <c r="G40" s="10">
+        <v>0</v>
+      </c>
+      <c r="H40" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="7">
         <v>78</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="11">
         <v>45188</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E41" s="7">
         <v>9000</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F41" s="10">
         <v>9000</v>
       </c>
-      <c r="G40" s="10">
-        <v>0</v>
-      </c>
-      <c r="H40" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
+      <c r="G41" s="10">
+        <v>0</v>
+      </c>
+      <c r="H41" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B42" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C42" s="7">
         <v>76</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D42" s="11">
         <v>45183</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E42" s="7">
         <v>10200</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F42" s="10">
         <v>2500</v>
       </c>
-      <c r="G41" s="10">
-        <v>0</v>
-      </c>
-      <c r="H41" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C42" s="7">
-        <v>77</v>
-      </c>
-      <c r="D42" s="11">
-        <v>45184</v>
-      </c>
-      <c r="E42" s="7">
-        <v>15950</v>
-      </c>
-      <c r="F42" s="10">
-        <v>14790</v>
-      </c>
-      <c r="G42" s="12">
+      <c r="G42" s="10">
         <v>0</v>
       </c>
       <c r="H42" s="10">
         <v>0</v>
-      </c>
-      <c r="I42" s="4">
-        <v>45258</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -3354,98 +3352,98 @@
         <v>104</v>
       </c>
       <c r="C43" s="7">
+        <v>77</v>
+      </c>
+      <c r="D43" s="11">
+        <v>45184</v>
+      </c>
+      <c r="E43" s="7">
+        <v>15950</v>
+      </c>
+      <c r="F43" s="10">
+        <v>14790</v>
+      </c>
+      <c r="G43" s="12">
+        <v>0</v>
+      </c>
+      <c r="H43" s="10">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="7">
         <v>121</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D44" s="11">
         <v>45267</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E44" s="7">
         <v>18600</v>
       </c>
-      <c r="F43" s="10">
-        <v>0</v>
-      </c>
-      <c r="G43" s="12">
-        <v>0</v>
-      </c>
-      <c r="H43" s="10">
-        <v>0</v>
-      </c>
-      <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="7">
-        <v>80</v>
-      </c>
-      <c r="D44" s="11">
-        <v>45191</v>
-      </c>
-      <c r="E44" s="7">
-        <v>9398</v>
-      </c>
       <c r="F44" s="10">
-        <v>1000</v>
-      </c>
-      <c r="G44" s="10">
+        <v>0</v>
+      </c>
+      <c r="G44" s="12">
         <v>0</v>
       </c>
       <c r="H44" s="10">
         <v>0</v>
       </c>
+      <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C45" s="7">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D45" s="11">
-        <v>45201</v>
+        <v>45191</v>
       </c>
       <c r="E45" s="7">
-        <v>9740</v>
+        <v>9398</v>
       </c>
       <c r="F45" s="10">
-        <v>7800</v>
+        <v>1000</v>
       </c>
       <c r="G45" s="10">
         <v>0</v>
       </c>
       <c r="H45" s="10">
         <v>0</v>
-      </c>
-      <c r="I45" s="4">
-        <v>45257</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C46" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D46" s="11">
         <v>45201</v>
       </c>
       <c r="E46" s="7">
-        <v>14100</v>
+        <v>9740</v>
       </c>
       <c r="F46" s="10">
-        <v>9000</v>
+        <v>7800</v>
       </c>
       <c r="G46" s="10">
         <v>0</v>
@@ -3454,33 +3452,36 @@
         <v>0</v>
       </c>
       <c r="I46" s="4">
-        <v>45259</v>
+        <v>45257</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C47" s="7">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D47" s="11">
-        <v>45203</v>
+        <v>45201</v>
       </c>
       <c r="E47" s="7">
-        <v>14800</v>
-      </c>
-      <c r="F47" s="12">
-        <v>10000</v>
+        <v>14100</v>
+      </c>
+      <c r="F47" s="10">
+        <v>9000</v>
       </c>
       <c r="G47" s="10">
         <v>0</v>
       </c>
       <c r="H47" s="10">
         <v>0</v>
+      </c>
+      <c r="I47" s="4">
+        <v>45259</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -3491,16 +3492,16 @@
         <v>107</v>
       </c>
       <c r="C48" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D48" s="11">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="E48" s="7">
-        <v>9630</v>
-      </c>
-      <c r="F48" s="10">
-        <v>9630</v>
+        <v>14800</v>
+      </c>
+      <c r="F48" s="12">
+        <v>10000</v>
       </c>
       <c r="G48" s="10">
         <v>0</v>
@@ -3517,16 +3518,16 @@
         <v>107</v>
       </c>
       <c r="C49" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D49" s="11">
-        <v>45205</v>
+        <v>45204</v>
       </c>
       <c r="E49" s="7">
-        <v>13800</v>
+        <v>9630</v>
       </c>
       <c r="F49" s="10">
-        <v>13800</v>
+        <v>9630</v>
       </c>
       <c r="G49" s="10">
         <v>0</v>
@@ -3543,16 +3544,16 @@
         <v>107</v>
       </c>
       <c r="C50" s="7">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D50" s="11">
-        <v>45226</v>
+        <v>45205</v>
       </c>
       <c r="E50" s="7">
-        <v>13596</v>
+        <v>13800</v>
       </c>
       <c r="F50" s="10">
-        <v>0</v>
+        <v>13800</v>
       </c>
       <c r="G50" s="10">
         <v>0</v>
@@ -3562,20 +3563,20 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C51" s="7">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D51" s="11">
-        <v>45240</v>
+        <v>45226</v>
       </c>
       <c r="E51" s="7">
-        <v>28900</v>
+        <v>13596</v>
       </c>
       <c r="F51" s="10">
         <v>0</v>
@@ -3588,20 +3589,20 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C52" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D52" s="11">
-        <v>45241</v>
+        <v>45240</v>
       </c>
       <c r="E52" s="7">
-        <v>186301</v>
+        <v>28900</v>
       </c>
       <c r="F52" s="10">
         <v>0</v>
@@ -3621,42 +3622,42 @@
         <v>107</v>
       </c>
       <c r="C53" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D53" s="11">
         <v>45241</v>
       </c>
       <c r="E53" s="7">
+        <v>186301</v>
+      </c>
+      <c r="F53" s="10">
+        <v>0</v>
+      </c>
+      <c r="G53" s="10">
+        <v>0</v>
+      </c>
+      <c r="H53" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="7">
+        <v>109</v>
+      </c>
+      <c r="D54" s="11">
+        <v>45241</v>
+      </c>
+      <c r="E54" s="7">
         <v>22000</v>
       </c>
-      <c r="F53" s="10">
-        <v>0</v>
-      </c>
-      <c r="G53" s="10">
-        <v>0</v>
-      </c>
-      <c r="H53" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C54" s="7">
-        <v>90</v>
-      </c>
-      <c r="D54" s="11">
-        <v>45205</v>
-      </c>
-      <c r="E54" s="7">
-        <v>10000</v>
-      </c>
       <c r="F54" s="10">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G54" s="10">
         <v>0</v>
@@ -3673,16 +3674,16 @@
         <v>108</v>
       </c>
       <c r="C55" s="7">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D55" s="11">
-        <v>45238</v>
+        <v>45205</v>
       </c>
       <c r="E55" s="7">
-        <v>15001</v>
+        <v>10000</v>
       </c>
       <c r="F55" s="10">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G55" s="10">
         <v>0</v>
@@ -3693,22 +3694,22 @@
     </row>
     <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C56" s="7">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D56" s="11">
-        <v>45216</v>
+        <v>45238</v>
       </c>
       <c r="E56" s="7">
-        <v>10200</v>
+        <v>15001</v>
       </c>
       <c r="F56" s="10">
-        <v>10200</v>
+        <v>5000</v>
       </c>
       <c r="G56" s="10">
         <v>0</v>
@@ -3725,22 +3726,22 @@
         <v>109</v>
       </c>
       <c r="C57" s="7">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D57" s="11">
-        <v>45234</v>
+        <v>45216</v>
       </c>
       <c r="E57" s="7">
-        <v>20801</v>
+        <v>10200</v>
       </c>
       <c r="F57" s="10">
-        <v>20801</v>
+        <v>10200</v>
       </c>
       <c r="G57" s="10">
         <v>0</v>
       </c>
       <c r="H57" s="10">
-        <v>416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3751,22 +3752,22 @@
         <v>109</v>
       </c>
       <c r="C58" s="7">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="D58" s="11">
-        <v>45271</v>
+        <v>45234</v>
       </c>
       <c r="E58" s="7">
-        <v>12400</v>
+        <v>20801</v>
       </c>
       <c r="F58" s="10">
-        <v>12400</v>
+        <v>20801</v>
       </c>
       <c r="G58" s="10">
         <v>0</v>
       </c>
       <c r="H58" s="10">
-        <v>0</v>
+        <v>416</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3777,16 +3778,16 @@
         <v>109</v>
       </c>
       <c r="C59" s="7">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D59" s="11">
-        <v>45292</v>
+        <v>45271</v>
       </c>
       <c r="E59" s="7">
-        <v>15600</v>
+        <v>12400</v>
       </c>
       <c r="F59" s="10">
-        <v>15600</v>
+        <v>12400</v>
       </c>
       <c r="G59" s="10">
         <v>0</v>
@@ -3797,22 +3798,22 @@
     </row>
     <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C60" s="7">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="D60" s="11">
-        <v>45216</v>
+        <v>45292</v>
       </c>
       <c r="E60" s="7">
-        <v>3600</v>
-      </c>
-      <c r="F60" s="8">
-        <v>3600</v>
+        <v>15600</v>
+      </c>
+      <c r="F60" s="10">
+        <v>15600</v>
       </c>
       <c r="G60" s="10">
         <v>0</v>
@@ -3829,16 +3830,16 @@
         <v>86</v>
       </c>
       <c r="C61" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D61" s="11">
-        <v>45217</v>
+        <v>45216</v>
       </c>
       <c r="E61" s="7">
-        <v>22500</v>
+        <v>3600</v>
       </c>
       <c r="F61" s="8">
-        <v>22500</v>
+        <v>3600</v>
       </c>
       <c r="G61" s="10">
         <v>0</v>
@@ -3855,16 +3856,16 @@
         <v>86</v>
       </c>
       <c r="C62" s="7">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="D62" s="11">
-        <v>45097</v>
+        <v>45217</v>
       </c>
       <c r="E62" s="7">
-        <v>9398</v>
-      </c>
-      <c r="F62" s="10">
-        <v>9398</v>
+        <v>22500</v>
+      </c>
+      <c r="F62" s="8">
+        <v>22500</v>
       </c>
       <c r="G62" s="10">
         <v>0</v>
@@ -3881,16 +3882,16 @@
         <v>86</v>
       </c>
       <c r="C63" s="7">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D63" s="11">
-        <v>45108</v>
+        <v>45097</v>
       </c>
       <c r="E63" s="7">
-        <v>11250</v>
+        <v>9398</v>
       </c>
       <c r="F63" s="10">
-        <v>11250</v>
+        <v>9398</v>
       </c>
       <c r="G63" s="10">
         <v>0</v>
@@ -3907,16 +3908,16 @@
         <v>86</v>
       </c>
       <c r="C64" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D64" s="11">
-        <v>45111</v>
+        <v>45108</v>
       </c>
       <c r="E64" s="7">
-        <v>28340</v>
+        <v>11250</v>
       </c>
       <c r="F64" s="10">
-        <v>28340</v>
+        <v>11250</v>
       </c>
       <c r="G64" s="10">
         <v>0</v>
@@ -3933,16 +3934,16 @@
         <v>86</v>
       </c>
       <c r="C65" s="7">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="D65" s="11">
-        <v>45251</v>
+        <v>45111</v>
       </c>
       <c r="E65" s="7">
-        <v>8620</v>
+        <v>28340</v>
       </c>
       <c r="F65" s="10">
-        <v>8620</v>
+        <v>28340</v>
       </c>
       <c r="G65" s="10">
         <v>0</v>
@@ -3959,16 +3960,16 @@
         <v>86</v>
       </c>
       <c r="C66" s="7">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="D66" s="11">
-        <v>45327</v>
+        <v>45251</v>
       </c>
       <c r="E66" s="7">
-        <v>22500</v>
+        <v>8620</v>
       </c>
       <c r="F66" s="10">
-        <v>0</v>
+        <v>8620</v>
       </c>
       <c r="G66" s="10">
         <v>0</v>
@@ -3979,22 +3980,22 @@
     </row>
     <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C67" s="7">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="D67" s="11">
-        <v>45226</v>
+        <v>45327</v>
       </c>
       <c r="E67" s="7">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="F67" s="10">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="G67" s="10">
         <v>0</v>
@@ -4005,22 +4006,22 @@
     </row>
     <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C68" s="7">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D68" s="11">
-        <v>45233</v>
+        <v>45226</v>
       </c>
       <c r="E68" s="7">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="F68" s="10">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="G68" s="10">
         <v>0</v>
@@ -4031,22 +4032,22 @@
     </row>
     <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C69" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D69" s="11">
         <v>45233</v>
       </c>
       <c r="E69" s="7">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F69" s="10">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G69" s="10">
         <v>0</v>
@@ -4057,22 +4058,22 @@
     </row>
     <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C70" s="7">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D70" s="11">
-        <v>45237</v>
+        <v>45233</v>
       </c>
       <c r="E70" s="7">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="F70" s="10">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="G70" s="10">
         <v>0</v>
@@ -4089,42 +4090,42 @@
         <v>101</v>
       </c>
       <c r="C71" s="7">
+        <v>105</v>
+      </c>
+      <c r="D71" s="11">
+        <v>45237</v>
+      </c>
+      <c r="E71" s="7">
+        <v>10400</v>
+      </c>
+      <c r="F71" s="10">
+        <v>10400</v>
+      </c>
+      <c r="G71" s="10">
+        <v>0</v>
+      </c>
+      <c r="H71" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" s="7">
         <v>126</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D72" s="11">
         <v>45283</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E72" s="7">
         <v>23880</v>
       </c>
-      <c r="F71" s="10">
-        <v>0</v>
-      </c>
-      <c r="G71" s="10">
-        <v>0</v>
-      </c>
-      <c r="H71" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C72" s="7">
-        <v>114</v>
-      </c>
-      <c r="D72" s="11">
-        <v>45247</v>
-      </c>
-      <c r="E72" s="7">
-        <v>23751</v>
-      </c>
       <c r="F72" s="10">
-        <v>13751</v>
+        <v>0</v>
       </c>
       <c r="G72" s="10">
         <v>0</v>
@@ -4135,22 +4136,22 @@
     </row>
     <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C73" s="7">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D73" s="11">
-        <v>45262</v>
+        <v>45247</v>
       </c>
       <c r="E73" s="7">
-        <v>16760</v>
+        <v>23751</v>
       </c>
       <c r="F73" s="10">
-        <v>5000</v>
+        <v>13751</v>
       </c>
       <c r="G73" s="10">
         <v>0</v>
@@ -4161,22 +4162,22 @@
     </row>
     <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C74" s="7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D74" s="11">
-        <v>45266</v>
+        <v>45262</v>
       </c>
       <c r="E74" s="7">
-        <v>15250</v>
+        <v>16760</v>
       </c>
       <c r="F74" s="10">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G74" s="10">
         <v>0</v>
@@ -4187,19 +4188,19 @@
     </row>
     <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C75" s="7">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D75" s="11">
-        <v>45271</v>
+        <v>45266</v>
       </c>
       <c r="E75" s="7">
-        <v>14900</v>
+        <v>15250</v>
       </c>
       <c r="F75" s="10">
         <v>0</v>
@@ -4213,19 +4214,19 @@
     </row>
     <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C76" s="7">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D76" s="11">
-        <v>45285</v>
+        <v>45271</v>
       </c>
       <c r="E76" s="7">
-        <v>19100</v>
+        <v>14900</v>
       </c>
       <c r="F76" s="10">
         <v>0</v>
@@ -4239,19 +4240,19 @@
     </row>
     <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C77" s="7">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D77" s="11">
-        <v>45286</v>
+        <v>45285</v>
       </c>
       <c r="E77" s="7">
-        <v>18600</v>
+        <v>19100</v>
       </c>
       <c r="F77" s="10">
         <v>0</v>
@@ -4265,19 +4266,19 @@
     </row>
     <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C78" s="7">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D78" s="11">
-        <v>45290</v>
+        <v>45286</v>
       </c>
       <c r="E78" s="7">
-        <v>15400</v>
+        <v>18600</v>
       </c>
       <c r="F78" s="10">
         <v>0</v>
@@ -4291,19 +4292,19 @@
     </row>
     <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C79" s="7">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D79" s="11">
-        <v>45314</v>
+        <v>45290</v>
       </c>
       <c r="E79" s="7">
-        <v>18000</v>
+        <v>15400</v>
       </c>
       <c r="F79" s="10">
         <v>0</v>
@@ -4317,19 +4318,19 @@
     </row>
     <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C80" s="7">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D80" s="11">
-        <v>45323</v>
+        <v>45314</v>
       </c>
       <c r="E80" s="7">
-        <v>18600</v>
+        <v>18000</v>
       </c>
       <c r="F80" s="10">
         <v>0</v>
@@ -4349,13 +4350,13 @@
         <v>159</v>
       </c>
       <c r="C81" s="7">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D81" s="11">
-        <v>45325</v>
+        <v>45323</v>
       </c>
       <c r="E81" s="7">
-        <v>15001</v>
+        <v>18600</v>
       </c>
       <c r="F81" s="10">
         <v>0</v>
@@ -4369,19 +4370,19 @@
     </row>
     <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C82" s="7">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D82" s="11">
-        <v>45337</v>
+        <v>45325</v>
       </c>
       <c r="E82" s="7">
-        <v>5000</v>
+        <v>15001</v>
       </c>
       <c r="F82" s="10">
         <v>0</v>
@@ -4395,79 +4396,105 @@
     </row>
     <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" s="7">
+        <v>145</v>
+      </c>
+      <c r="D83" s="11">
+        <v>45337</v>
+      </c>
+      <c r="E83" s="7">
+        <v>5000</v>
+      </c>
+      <c r="F83" s="10">
+        <v>0</v>
+      </c>
+      <c r="G83" s="10">
+        <v>0</v>
+      </c>
+      <c r="H83" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B84" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C83" s="17">
+      <c r="C84" s="17">
         <v>51</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D84" s="11">
         <v>45142</v>
       </c>
-      <c r="E83" s="17">
+      <c r="E84" s="17">
         <v>23250</v>
       </c>
-      <c r="F83" s="10">
+      <c r="F84" s="10">
         <v>23250</v>
       </c>
-      <c r="G83" s="10">
-        <v>0</v>
-      </c>
-      <c r="H83" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="16" t="s">
+      <c r="G84" s="10">
+        <v>0</v>
+      </c>
+      <c r="H84" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B85" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C84" s="17">
+      <c r="C85" s="17">
         <v>53</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D85" s="11">
         <v>45145</v>
       </c>
-      <c r="E84" s="17">
+      <c r="E85" s="17">
         <v>9200</v>
       </c>
-      <c r="F84" s="10">
+      <c r="F85" s="10">
         <v>9200</v>
       </c>
-      <c r="G84" s="10">
-        <v>0</v>
-      </c>
-      <c r="H84" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="15" t="s">
+      <c r="G85" s="10">
+        <v>0</v>
+      </c>
+      <c r="H85" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B86" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C85" s="17">
+      <c r="C86" s="17">
         <v>81</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D86" s="11">
         <v>45191</v>
       </c>
-      <c r="E85" s="17">
+      <c r="E86" s="17">
         <v>25996</v>
       </c>
-      <c r="F85" s="10">
+      <c r="F86" s="10">
         <v>25996</v>
       </c>
-      <c r="G85" s="10">
-        <v>0</v>
-      </c>
-      <c r="H85" s="10">
+      <c r="G86" s="10">
+        <v>0</v>
+      </c>
+      <c r="H86" s="10">
         <v>0</v>
       </c>
     </row>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="164">
   <si>
     <t>Model</t>
   </si>
@@ -533,9 +533,6 @@
   </si>
   <si>
     <t>1200mm bldc  brown</t>
-  </si>
-  <si>
-    <t>17-02-204</t>
   </si>
 </sst>
 </file>
@@ -1001,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1184,7 +1181,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="20">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1217,7 +1214,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="20">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1316,7 +1313,7 @@
         <v>131</v>
       </c>
       <c r="C28" s="20">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1327,7 +1324,7 @@
         <v>132</v>
       </c>
       <c r="C29" s="20">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1338,7 +1335,7 @@
         <v>133</v>
       </c>
       <c r="C30" s="20">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1349,7 +1346,7 @@
         <v>134</v>
       </c>
       <c r="C31" s="20">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1417,7 +1414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -2207,8 +2204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:H29"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3067,7 +3064,7 @@
         <v>14300</v>
       </c>
       <c r="F32" s="10">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="G32" s="10">
         <v>0</v>
@@ -3093,7 +3090,7 @@
         <v>8700</v>
       </c>
       <c r="F33" s="10">
-        <v>6000</v>
+        <v>8700</v>
       </c>
       <c r="G33" s="10">
         <v>0</v>
@@ -3249,8 +3246,8 @@
       <c r="C39" s="7">
         <v>146</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>164</v>
+      <c r="D39" s="11">
+        <v>45339</v>
       </c>
       <c r="E39" s="7">
         <v>25651</v>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Sales" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$94</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="164">
   <si>
     <t>Model</t>
   </si>
@@ -2202,10 +2202,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83:H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2435,51 +2435,48 @@
     </row>
     <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="7">
-        <v>24</v>
-      </c>
-      <c r="D9" s="11">
-        <v>45108</v>
+        <v>154</v>
+      </c>
+      <c r="D9" s="9">
+        <v>45358</v>
       </c>
       <c r="E9" s="7">
-        <v>20200</v>
+        <v>24000</v>
       </c>
       <c r="F9" s="10">
-        <v>20200</v>
+        <v>0</v>
       </c>
       <c r="G9" s="10">
         <v>0</v>
       </c>
       <c r="H9" s="10">
         <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="7">
-        <v>45</v>
-      </c>
-      <c r="D10" s="11">
-        <v>45133</v>
+        <v>155</v>
+      </c>
+      <c r="D10" s="9">
+        <v>45360</v>
       </c>
       <c r="E10" s="7">
-        <v>15000</v>
+        <v>17600</v>
       </c>
       <c r="F10" s="10">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G10" s="10">
         <v>0</v>
@@ -2496,42 +2493,45 @@
         <v>88</v>
       </c>
       <c r="C11" s="7">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D11" s="11">
-        <v>45138</v>
+        <v>45108</v>
       </c>
       <c r="E11" s="7">
-        <v>32568</v>
+        <v>20200</v>
       </c>
       <c r="F11" s="10">
-        <v>32568</v>
+        <v>20200</v>
       </c>
       <c r="G11" s="10">
         <v>0</v>
       </c>
       <c r="H11" s="10">
         <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="7">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D12" s="11">
-        <v>45113</v>
+        <v>45133</v>
       </c>
       <c r="E12" s="7">
-        <v>7100</v>
+        <v>15000</v>
       </c>
       <c r="F12" s="10">
-        <v>7100</v>
+        <v>15000</v>
       </c>
       <c r="G12" s="10">
         <v>0</v>
@@ -2542,22 +2542,22 @@
     </row>
     <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" s="7">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D13" s="11">
-        <v>45113</v>
+        <v>45138</v>
       </c>
       <c r="E13" s="7">
-        <v>10000</v>
+        <v>32568</v>
       </c>
       <c r="F13" s="10">
-        <v>10000</v>
+        <v>32568</v>
       </c>
       <c r="G13" s="10">
         <v>0</v>
@@ -2568,22 +2568,22 @@
     </row>
     <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C14" s="7">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" s="11">
         <v>45113</v>
       </c>
       <c r="E14" s="7">
-        <v>60690</v>
+        <v>7100</v>
       </c>
       <c r="F14" s="10">
-        <v>60690</v>
+        <v>7100</v>
       </c>
       <c r="G14" s="10">
         <v>0</v>
@@ -2594,22 +2594,22 @@
     </row>
     <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C15" s="7">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D15" s="11">
-        <v>45117</v>
+        <v>45113</v>
       </c>
       <c r="E15" s="7">
-        <v>12440</v>
+        <v>10000</v>
       </c>
       <c r="F15" s="10">
-        <v>12440</v>
+        <v>10000</v>
       </c>
       <c r="G15" s="10">
         <v>0</v>
@@ -2620,48 +2620,48 @@
     </row>
     <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C16" s="7">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D16" s="11">
-        <v>45122</v>
+        <v>45113</v>
       </c>
       <c r="E16" s="7">
-        <v>35250</v>
+        <v>60690</v>
       </c>
       <c r="F16" s="10">
-        <v>35250</v>
+        <v>60690</v>
       </c>
       <c r="G16" s="10">
         <v>0</v>
       </c>
       <c r="H16" s="10">
-        <v>850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C17" s="7">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D17" s="11">
-        <v>45129</v>
+        <v>45117</v>
       </c>
       <c r="E17" s="7">
-        <v>15400</v>
+        <v>12440</v>
       </c>
       <c r="F17" s="10">
-        <v>15400</v>
+        <v>12440</v>
       </c>
       <c r="G17" s="10">
         <v>0</v>
@@ -2672,48 +2672,48 @@
     </row>
     <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="7">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="D18" s="11">
-        <v>45176</v>
+        <v>45122</v>
       </c>
       <c r="E18" s="7">
-        <v>17100</v>
+        <v>35250</v>
       </c>
       <c r="F18" s="10">
-        <v>17100</v>
+        <v>35250</v>
       </c>
       <c r="G18" s="10">
         <v>0</v>
       </c>
       <c r="H18" s="10">
-        <v>0</v>
+        <v>850</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="7">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D19" s="11">
-        <v>45159</v>
+        <v>45129</v>
       </c>
       <c r="E19" s="7">
-        <v>14550</v>
+        <v>15400</v>
       </c>
       <c r="F19" s="10">
-        <v>14550</v>
+        <v>15400</v>
       </c>
       <c r="G19" s="10">
         <v>0</v>
@@ -2724,22 +2724,22 @@
     </row>
     <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C20" s="7">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D20" s="11">
-        <v>45159</v>
+        <v>45176</v>
       </c>
       <c r="E20" s="7">
-        <v>5350</v>
+        <v>17100</v>
       </c>
       <c r="F20" s="10">
-        <v>5350</v>
+        <v>17100</v>
       </c>
       <c r="G20" s="10">
         <v>0</v>
@@ -2750,22 +2750,22 @@
     </row>
     <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="7">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="D21" s="11">
-        <v>45202</v>
+        <v>45159</v>
       </c>
       <c r="E21" s="7">
-        <v>7700</v>
+        <v>14550</v>
       </c>
       <c r="F21" s="10">
-        <v>0</v>
+        <v>14550</v>
       </c>
       <c r="G21" s="10">
         <v>0</v>
@@ -2776,22 +2776,22 @@
     </row>
     <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" s="11">
-        <v>45164</v>
+        <v>45159</v>
       </c>
       <c r="E22" s="7">
-        <v>10099</v>
+        <v>5350</v>
       </c>
       <c r="F22" s="10">
-        <v>10099</v>
+        <v>5350</v>
       </c>
       <c r="G22" s="10">
         <v>0</v>
@@ -2802,22 +2802,22 @@
     </row>
     <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D23" s="11">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="E23" s="7">
-        <v>7480</v>
+        <v>7700</v>
       </c>
       <c r="F23" s="10">
-        <v>7480</v>
+        <v>0</v>
       </c>
       <c r="G23" s="10">
         <v>0</v>
@@ -2834,25 +2834,22 @@
         <v>97</v>
       </c>
       <c r="C24" s="7">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="D24" s="11">
-        <v>45211</v>
+        <v>45164</v>
       </c>
       <c r="E24" s="7">
-        <v>14900</v>
+        <v>10099</v>
       </c>
       <c r="F24" s="10">
-        <v>14900</v>
+        <v>10099</v>
       </c>
       <c r="G24" s="10">
         <v>0</v>
       </c>
       <c r="H24" s="10">
         <v>0</v>
-      </c>
-      <c r="I24" s="4">
-        <v>45257</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -2863,16 +2860,16 @@
         <v>97</v>
       </c>
       <c r="C25" s="7">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D25" s="11">
-        <v>45231</v>
+        <v>45192</v>
       </c>
       <c r="E25" s="7">
-        <v>11598</v>
+        <v>7480</v>
       </c>
       <c r="F25" s="10">
-        <v>11598</v>
+        <v>7480</v>
       </c>
       <c r="G25" s="10">
         <v>0</v>
@@ -2880,28 +2877,25 @@
       <c r="H25" s="10">
         <v>0</v>
       </c>
-      <c r="I25" s="4">
-        <v>45257</v>
-      </c>
     </row>
     <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>97</v>
       </c>
       <c r="C26" s="7">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="D26" s="11">
-        <v>45259</v>
+        <v>45211</v>
       </c>
       <c r="E26" s="7">
-        <v>13990</v>
+        <v>14900</v>
       </c>
       <c r="F26" s="10">
-        <v>13990</v>
+        <v>14900</v>
       </c>
       <c r="G26" s="10">
         <v>0</v>
@@ -2909,26 +2903,28 @@
       <c r="H26" s="10">
         <v>0</v>
       </c>
-      <c r="I26" s="4"/>
+      <c r="I26" s="4">
+        <v>45257</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>97</v>
       </c>
       <c r="C27" s="7">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="D27" s="11">
-        <v>45278</v>
+        <v>45231</v>
       </c>
       <c r="E27" s="7">
-        <v>12400</v>
+        <v>11598</v>
       </c>
       <c r="F27" s="10">
-        <v>0</v>
+        <v>11598</v>
       </c>
       <c r="G27" s="10">
         <v>0</v>
@@ -2936,7 +2932,9 @@
       <c r="H27" s="10">
         <v>0</v>
       </c>
-      <c r="I27" s="4"/>
+      <c r="I27" s="4">
+        <v>45257</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
@@ -2946,16 +2944,16 @@
         <v>97</v>
       </c>
       <c r="C28" s="7">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D28" s="11">
-        <v>45294</v>
+        <v>45259</v>
       </c>
       <c r="E28" s="7">
-        <v>4300</v>
+        <v>13990</v>
       </c>
       <c r="F28" s="10">
-        <v>0</v>
+        <v>13990</v>
       </c>
       <c r="G28" s="10">
         <v>0</v>
@@ -2973,72 +2971,70 @@
         <v>97</v>
       </c>
       <c r="C29" s="7">
+        <v>125</v>
+      </c>
+      <c r="D29" s="11">
+        <v>45278</v>
+      </c>
+      <c r="E29" s="7">
+        <v>12400</v>
+      </c>
+      <c r="F29" s="7">
+        <v>12400</v>
+      </c>
+      <c r="G29" s="10">
+        <v>0</v>
+      </c>
+      <c r="H29" s="10">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="7">
+        <v>132</v>
+      </c>
+      <c r="D30" s="11">
+        <v>45294</v>
+      </c>
+      <c r="E30" s="7">
+        <v>4300</v>
+      </c>
+      <c r="F30" s="7">
+        <v>4300</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0</v>
+      </c>
+      <c r="H30" s="10">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="7">
         <v>147</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D31" s="11">
         <v>45343</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E31" s="7">
         <v>4800</v>
       </c>
-      <c r="F29" s="10">
-        <v>0</v>
-      </c>
-      <c r="G29" s="10">
-        <v>0</v>
-      </c>
-      <c r="H29" s="10">
-        <v>0</v>
-      </c>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="7">
-        <v>61</v>
-      </c>
-      <c r="D30" s="11">
-        <v>45164</v>
-      </c>
-      <c r="E30" s="7">
-        <v>5000</v>
-      </c>
-      <c r="F30" s="10">
-        <v>5000</v>
-      </c>
-      <c r="G30" s="10">
-        <v>0</v>
-      </c>
-      <c r="H30" s="10">
-        <v>0</v>
-      </c>
-      <c r="I30" s="4">
-        <v>45257</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="7">
-        <v>71</v>
-      </c>
-      <c r="D31" s="11">
-        <v>45181</v>
-      </c>
-      <c r="E31" s="7">
-        <v>12899</v>
-      </c>
-      <c r="F31" s="10">
-        <v>7500</v>
+      <c r="F31" s="7">
+        <v>4800</v>
       </c>
       <c r="G31" s="10">
         <v>0</v>
@@ -3046,25 +3042,26 @@
       <c r="H31" s="10">
         <v>0</v>
       </c>
+      <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>63</v>
+      <c r="A32" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C32" s="7">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="D32" s="11">
-        <v>45177</v>
+        <v>45350</v>
       </c>
       <c r="E32" s="7">
-        <v>14300</v>
+        <v>6800</v>
       </c>
       <c r="F32" s="10">
-        <v>14300</v>
+        <v>0</v>
       </c>
       <c r="G32" s="10">
         <v>0</v>
@@ -3072,25 +3069,26 @@
       <c r="H32" s="10">
         <v>0</v>
       </c>
+      <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>63</v>
+      <c r="A33" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C33" s="7">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="D33" s="11">
-        <v>45202</v>
+        <v>45356</v>
       </c>
       <c r="E33" s="7">
-        <v>8700</v>
+        <v>14150</v>
       </c>
       <c r="F33" s="10">
-        <v>8700</v>
+        <v>0</v>
       </c>
       <c r="G33" s="10">
         <v>0</v>
@@ -3098,51 +3096,55 @@
       <c r="H33" s="10">
         <v>0</v>
       </c>
+      <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C34" s="7">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="D34" s="11">
-        <v>45225</v>
+        <v>45164</v>
       </c>
       <c r="E34" s="7">
-        <v>13478</v>
+        <v>5000</v>
       </c>
       <c r="F34" s="10">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G34" s="10">
         <v>0</v>
       </c>
       <c r="H34" s="10">
         <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>45257</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C35" s="7">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D35" s="11">
-        <v>45155</v>
+        <v>45181</v>
       </c>
       <c r="E35" s="7">
-        <v>5000</v>
+        <v>12899</v>
       </c>
       <c r="F35" s="10">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="G35" s="10">
         <v>0</v>
@@ -3153,77 +3155,71 @@
     </row>
     <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="12">
-        <v>72</v>
+        <v>100</v>
+      </c>
+      <c r="C36" s="7">
+        <v>67</v>
       </c>
       <c r="D36" s="11">
-        <v>45181</v>
+        <v>45177</v>
       </c>
       <c r="E36" s="7">
-        <v>17900</v>
+        <v>14300</v>
       </c>
       <c r="F36" s="10">
-        <v>17900</v>
+        <v>14300</v>
       </c>
       <c r="G36" s="10">
         <v>0</v>
       </c>
       <c r="H36" s="10">
         <v>0</v>
-      </c>
-      <c r="I36" s="4">
-        <v>45255</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37" s="7">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D37" s="11">
-        <v>45182</v>
+        <v>45202</v>
       </c>
       <c r="E37" s="7">
-        <v>12440</v>
+        <v>8700</v>
       </c>
       <c r="F37" s="10">
-        <v>12440</v>
+        <v>8700</v>
       </c>
       <c r="G37" s="10">
         <v>0</v>
       </c>
       <c r="H37" s="10">
         <v>0</v>
-      </c>
-      <c r="I37" s="4">
-        <v>45255</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38" s="7">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="D38" s="11">
-        <v>45293</v>
+        <v>45225</v>
       </c>
       <c r="E38" s="7">
-        <v>37000</v>
+        <v>13478</v>
       </c>
       <c r="F38" s="10">
         <v>0</v>
@@ -3234,26 +3230,25 @@
       <c r="H38" s="10">
         <v>0</v>
       </c>
-      <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C39" s="7">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="D39" s="11">
-        <v>45339</v>
+        <v>45155</v>
       </c>
       <c r="E39" s="7">
-        <v>25651</v>
+        <v>5000</v>
       </c>
       <c r="F39" s="10">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G39" s="10">
         <v>0</v>
@@ -3261,160 +3256,163 @@
       <c r="H39" s="10">
         <v>0</v>
       </c>
-      <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="7">
-        <v>74</v>
+        <v>101</v>
+      </c>
+      <c r="C40" s="12">
+        <v>72</v>
       </c>
       <c r="D40" s="11">
-        <v>45182</v>
+        <v>45181</v>
       </c>
       <c r="E40" s="7">
-        <v>6500</v>
+        <v>17900</v>
       </c>
       <c r="F40" s="10">
-        <v>6500</v>
+        <v>17900</v>
       </c>
       <c r="G40" s="10">
         <v>0</v>
       </c>
       <c r="H40" s="10">
         <v>0</v>
+      </c>
+      <c r="I40" s="4">
+        <v>45255</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="7">
+        <v>73</v>
+      </c>
+      <c r="D41" s="11">
+        <v>45182</v>
+      </c>
+      <c r="E41" s="7">
+        <v>12440</v>
+      </c>
+      <c r="F41" s="10">
+        <v>12440</v>
+      </c>
+      <c r="G41" s="10">
+        <v>0</v>
+      </c>
+      <c r="H41" s="10">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
+        <v>45255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="7">
+        <v>131</v>
+      </c>
+      <c r="D42" s="11">
+        <v>45293</v>
+      </c>
+      <c r="E42" s="7">
+        <v>37000</v>
+      </c>
+      <c r="F42" s="10">
+        <v>0</v>
+      </c>
+      <c r="G42" s="10">
+        <v>0</v>
+      </c>
+      <c r="H42" s="10">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="7">
+        <v>146</v>
+      </c>
+      <c r="D43" s="11">
+        <v>45339</v>
+      </c>
+      <c r="E43" s="7">
+        <v>25651</v>
+      </c>
+      <c r="F43" s="10">
+        <v>0</v>
+      </c>
+      <c r="G43" s="10">
+        <v>0</v>
+      </c>
+      <c r="H43" s="10">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B44" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="7">
-        <v>78</v>
-      </c>
-      <c r="D41" s="11">
-        <v>45188</v>
-      </c>
-      <c r="E41" s="7">
-        <v>9000</v>
-      </c>
-      <c r="F41" s="10">
-        <v>9000</v>
-      </c>
-      <c r="G41" s="10">
-        <v>0</v>
-      </c>
-      <c r="H41" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="7">
-        <v>76</v>
-      </c>
-      <c r="D42" s="11">
-        <v>45183</v>
-      </c>
-      <c r="E42" s="7">
-        <v>10200</v>
-      </c>
-      <c r="F42" s="10">
-        <v>2500</v>
-      </c>
-      <c r="G42" s="10">
-        <v>0</v>
-      </c>
-      <c r="H42" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" s="7">
-        <v>77</v>
-      </c>
-      <c r="D43" s="11">
-        <v>45184</v>
-      </c>
-      <c r="E43" s="7">
-        <v>15950</v>
-      </c>
-      <c r="F43" s="10">
-        <v>14790</v>
-      </c>
-      <c r="G43" s="12">
-        <v>0</v>
-      </c>
-      <c r="H43" s="10">
-        <v>0</v>
-      </c>
-      <c r="I43" s="4">
-        <v>45258</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>104</v>
-      </c>
       <c r="C44" s="7">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="D44" s="11">
-        <v>45267</v>
+        <v>45182</v>
       </c>
       <c r="E44" s="7">
-        <v>18600</v>
+        <v>6500</v>
       </c>
       <c r="F44" s="10">
-        <v>0</v>
-      </c>
-      <c r="G44" s="12">
+        <v>6500</v>
+      </c>
+      <c r="G44" s="10">
         <v>0</v>
       </c>
       <c r="H44" s="10">
         <v>0</v>
       </c>
-      <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C45" s="7">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D45" s="11">
-        <v>45191</v>
+        <v>45188</v>
       </c>
       <c r="E45" s="7">
-        <v>9398</v>
+        <v>9000</v>
       </c>
       <c r="F45" s="10">
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="G45" s="10">
         <v>0</v>
@@ -3423,24 +3421,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
-        <v>70</v>
+    <row r="46" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C46" s="7">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D46" s="11">
-        <v>45201</v>
+        <v>45183</v>
       </c>
       <c r="E46" s="7">
-        <v>9740</v>
+        <v>10200</v>
       </c>
       <c r="F46" s="10">
-        <v>7800</v>
+        <v>2500</v>
       </c>
       <c r="G46" s="10">
         <v>0</v>
@@ -3448,161 +3446,165 @@
       <c r="H46" s="10">
         <v>0</v>
       </c>
-      <c r="I46" s="4">
-        <v>45257</v>
-      </c>
     </row>
     <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
-        <v>71</v>
+      <c r="A47" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>104</v>
       </c>
       <c r="C47" s="7">
+        <v>77</v>
+      </c>
+      <c r="D47" s="11">
+        <v>45184</v>
+      </c>
+      <c r="E47" s="7">
+        <v>15950</v>
+      </c>
+      <c r="F47" s="10">
+        <v>14790</v>
+      </c>
+      <c r="G47" s="12">
+        <v>0</v>
+      </c>
+      <c r="H47" s="10">
+        <v>0</v>
+      </c>
+      <c r="I47" s="4">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="7">
+        <v>121</v>
+      </c>
+      <c r="D48" s="11">
+        <v>45267</v>
+      </c>
+      <c r="E48" s="7">
+        <v>18600</v>
+      </c>
+      <c r="F48" s="10">
+        <v>0</v>
+      </c>
+      <c r="G48" s="12">
+        <v>0</v>
+      </c>
+      <c r="H48" s="10">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="7">
+        <v>80</v>
+      </c>
+      <c r="D49" s="11">
+        <v>45191</v>
+      </c>
+      <c r="E49" s="7">
+        <v>9398</v>
+      </c>
+      <c r="F49" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G49" s="10">
+        <v>0</v>
+      </c>
+      <c r="H49" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="7">
+        <v>83</v>
+      </c>
+      <c r="D50" s="11">
+        <v>45201</v>
+      </c>
+      <c r="E50" s="7">
+        <v>9740</v>
+      </c>
+      <c r="F50" s="10">
+        <v>9240</v>
+      </c>
+      <c r="G50" s="10">
+        <v>0</v>
+      </c>
+      <c r="H50" s="10">
+        <v>0</v>
+      </c>
+      <c r="I50" s="4">
+        <v>45257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="7">
         <v>84</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D51" s="11">
         <v>45201</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E51" s="7">
         <v>14100</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F51" s="10">
         <v>9000</v>
       </c>
-      <c r="G47" s="10">
-        <v>0</v>
-      </c>
-      <c r="H47" s="10">
-        <v>0</v>
-      </c>
-      <c r="I47" s="4">
+      <c r="G51" s="10">
+        <v>0</v>
+      </c>
+      <c r="H51" s="10">
+        <v>0</v>
+      </c>
+      <c r="I51" s="4">
         <v>45259</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" s="7">
-        <v>87</v>
-      </c>
-      <c r="D48" s="11">
-        <v>45203</v>
-      </c>
-      <c r="E48" s="7">
-        <v>14800</v>
-      </c>
-      <c r="F48" s="12">
-        <v>10000</v>
-      </c>
-      <c r="G48" s="10">
-        <v>0</v>
-      </c>
-      <c r="H48" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C49" s="7">
-        <v>88</v>
-      </c>
-      <c r="D49" s="11">
-        <v>45204</v>
-      </c>
-      <c r="E49" s="7">
-        <v>9630</v>
-      </c>
-      <c r="F49" s="10">
-        <v>9630</v>
-      </c>
-      <c r="G49" s="10">
-        <v>0</v>
-      </c>
-      <c r="H49" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" s="7">
-        <v>89</v>
-      </c>
-      <c r="D50" s="11">
-        <v>45205</v>
-      </c>
-      <c r="E50" s="7">
-        <v>13800</v>
-      </c>
-      <c r="F50" s="10">
-        <v>13800</v>
-      </c>
-      <c r="G50" s="10">
-        <v>0</v>
-      </c>
-      <c r="H50" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C51" s="7">
-        <v>99</v>
-      </c>
-      <c r="D51" s="11">
-        <v>45226</v>
-      </c>
-      <c r="E51" s="7">
-        <v>13596</v>
-      </c>
-      <c r="F51" s="10">
-        <v>0</v>
-      </c>
-      <c r="G51" s="10">
-        <v>0</v>
-      </c>
-      <c r="H51" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="10" t="s">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C52" s="7">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D52" s="11">
-        <v>45240</v>
+        <v>45203</v>
       </c>
       <c r="E52" s="7">
-        <v>28900</v>
-      </c>
-      <c r="F52" s="10">
-        <v>0</v>
+        <v>14800</v>
+      </c>
+      <c r="F52" s="12">
+        <v>10000</v>
       </c>
       <c r="G52" s="10">
         <v>0</v>
@@ -3611,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>72</v>
       </c>
@@ -3619,16 +3621,16 @@
         <v>107</v>
       </c>
       <c r="C53" s="7">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D53" s="11">
-        <v>45241</v>
+        <v>45204</v>
       </c>
       <c r="E53" s="7">
-        <v>186301</v>
+        <v>9630</v>
       </c>
       <c r="F53" s="10">
-        <v>0</v>
+        <v>9630</v>
       </c>
       <c r="G53" s="10">
         <v>0</v>
@@ -3637,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>72</v>
       </c>
@@ -3645,276 +3647,270 @@
         <v>107</v>
       </c>
       <c r="C54" s="7">
+        <v>89</v>
+      </c>
+      <c r="D54" s="11">
+        <v>45205</v>
+      </c>
+      <c r="E54" s="7">
+        <v>13800</v>
+      </c>
+      <c r="F54" s="10">
+        <v>13800</v>
+      </c>
+      <c r="G54" s="10">
+        <v>0</v>
+      </c>
+      <c r="H54" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="7">
+        <v>99</v>
+      </c>
+      <c r="D55" s="11">
+        <v>45226</v>
+      </c>
+      <c r="E55" s="7">
+        <v>13596</v>
+      </c>
+      <c r="F55" s="10">
+        <v>0</v>
+      </c>
+      <c r="G55" s="10">
+        <v>0</v>
+      </c>
+      <c r="H55" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="7">
+        <v>107</v>
+      </c>
+      <c r="D56" s="11">
+        <v>45240</v>
+      </c>
+      <c r="E56" s="7">
+        <v>28900</v>
+      </c>
+      <c r="F56" s="10">
+        <v>0</v>
+      </c>
+      <c r="G56" s="10">
+        <v>0</v>
+      </c>
+      <c r="H56" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="7">
+        <v>108</v>
+      </c>
+      <c r="D57" s="11">
+        <v>45241</v>
+      </c>
+      <c r="E57" s="7">
+        <v>186301</v>
+      </c>
+      <c r="F57" s="10">
+        <v>0</v>
+      </c>
+      <c r="G57" s="10">
+        <v>0</v>
+      </c>
+      <c r="H57" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="7">
         <v>109</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D58" s="11">
         <v>45241</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E58" s="7">
         <v>22000</v>
       </c>
-      <c r="F54" s="10">
-        <v>0</v>
-      </c>
-      <c r="G54" s="10">
-        <v>0</v>
-      </c>
-      <c r="H54" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="14" t="s">
+      <c r="F58" s="10">
+        <v>0</v>
+      </c>
+      <c r="G58" s="10">
+        <v>0</v>
+      </c>
+      <c r="H58" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B59" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C59" s="7">
         <v>90</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D59" s="11">
         <v>45205</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E59" s="7">
         <v>10000</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F59" s="10">
         <v>10000</v>
       </c>
-      <c r="G55" s="10">
-        <v>0</v>
-      </c>
-      <c r="H55" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="14" t="s">
+      <c r="G59" s="10">
+        <v>0</v>
+      </c>
+      <c r="H59" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B60" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C60" s="7">
         <v>106</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D60" s="11">
         <v>45238</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E60" s="7">
         <v>15001</v>
       </c>
-      <c r="F56" s="10">
-        <v>5000</v>
-      </c>
-      <c r="G56" s="10">
-        <v>0</v>
-      </c>
-      <c r="H56" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="14" t="s">
+      <c r="F60" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G60" s="10">
+        <v>0</v>
+      </c>
+      <c r="H60" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="7">
+        <v>148</v>
+      </c>
+      <c r="D61" s="11">
+        <v>45348</v>
+      </c>
+      <c r="E61" s="7">
+        <v>20600</v>
+      </c>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+    </row>
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B62" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C62" s="7">
         <v>92</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D62" s="11">
         <v>45216</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E62" s="7">
         <v>10200</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F62" s="10">
         <v>10200</v>
       </c>
-      <c r="G57" s="10">
-        <v>0</v>
-      </c>
-      <c r="H57" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="14" t="s">
+      <c r="G62" s="10">
+        <v>0</v>
+      </c>
+      <c r="H62" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B63" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C63" s="7">
         <v>104</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D63" s="11">
         <v>45234</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E63" s="7">
         <v>20801</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F63" s="10">
         <v>20801</v>
       </c>
-      <c r="G58" s="10">
-        <v>0</v>
-      </c>
-      <c r="H58" s="10">
+      <c r="G63" s="10">
+        <v>0</v>
+      </c>
+      <c r="H63" s="10">
         <v>416</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="14" t="s">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B64" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C64" s="7">
         <v>123</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D64" s="11">
         <v>45271</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E64" s="7">
         <v>12400</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F64" s="10">
         <v>12400</v>
-      </c>
-      <c r="G59" s="10">
-        <v>0</v>
-      </c>
-      <c r="H59" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C60" s="7">
-        <v>130</v>
-      </c>
-      <c r="D60" s="11">
-        <v>45292</v>
-      </c>
-      <c r="E60" s="7">
-        <v>15600</v>
-      </c>
-      <c r="F60" s="10">
-        <v>15600</v>
-      </c>
-      <c r="G60" s="10">
-        <v>0</v>
-      </c>
-      <c r="H60" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" s="7">
-        <v>93</v>
-      </c>
-      <c r="D61" s="11">
-        <v>45216</v>
-      </c>
-      <c r="E61" s="7">
-        <v>3600</v>
-      </c>
-      <c r="F61" s="8">
-        <v>3600</v>
-      </c>
-      <c r="G61" s="10">
-        <v>0</v>
-      </c>
-      <c r="H61" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" s="7">
-        <v>94</v>
-      </c>
-      <c r="D62" s="11">
-        <v>45217</v>
-      </c>
-      <c r="E62" s="7">
-        <v>22500</v>
-      </c>
-      <c r="F62" s="8">
-        <v>22500</v>
-      </c>
-      <c r="G62" s="10">
-        <v>0</v>
-      </c>
-      <c r="H62" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" s="7">
-        <v>16</v>
-      </c>
-      <c r="D63" s="11">
-        <v>45097</v>
-      </c>
-      <c r="E63" s="7">
-        <v>9398</v>
-      </c>
-      <c r="F63" s="10">
-        <v>9398</v>
-      </c>
-      <c r="G63" s="10">
-        <v>0</v>
-      </c>
-      <c r="H63" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="7">
-        <v>25</v>
-      </c>
-      <c r="D64" s="11">
-        <v>45108</v>
-      </c>
-      <c r="E64" s="7">
-        <v>11250</v>
-      </c>
-      <c r="F64" s="10">
-        <v>11250</v>
       </c>
       <c r="G64" s="10">
         <v>0</v>
@@ -3925,22 +3921,22 @@
     </row>
     <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C65" s="7">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="D65" s="11">
-        <v>45111</v>
+        <v>45292</v>
       </c>
       <c r="E65" s="7">
-        <v>28340</v>
+        <v>15600</v>
       </c>
       <c r="F65" s="10">
-        <v>28340</v>
+        <v>15600</v>
       </c>
       <c r="G65" s="10">
         <v>0</v>
@@ -3951,74 +3947,62 @@
     </row>
     <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C66" s="7">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="D66" s="11">
-        <v>45251</v>
+        <v>45349</v>
       </c>
       <c r="E66" s="7">
-        <v>8620</v>
-      </c>
-      <c r="F66" s="10">
-        <v>8620</v>
-      </c>
-      <c r="G66" s="10">
-        <v>0</v>
-      </c>
-      <c r="H66" s="10">
-        <v>0</v>
-      </c>
+        <v>15600</v>
+      </c>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
     </row>
     <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C67" s="7">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D67" s="11">
-        <v>45327</v>
+        <v>45357</v>
       </c>
       <c r="E67" s="7">
-        <v>22500</v>
-      </c>
-      <c r="F67" s="10">
-        <v>0</v>
-      </c>
-      <c r="G67" s="10">
-        <v>0</v>
-      </c>
-      <c r="H67" s="10">
-        <v>0</v>
-      </c>
+        <v>30300</v>
+      </c>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
     </row>
     <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C68" s="7">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D68" s="11">
-        <v>45226</v>
+        <v>45216</v>
       </c>
       <c r="E68" s="7">
-        <v>11000</v>
-      </c>
-      <c r="F68" s="10">
-        <v>11000</v>
+        <v>3600</v>
+      </c>
+      <c r="F68" s="8">
+        <v>3600</v>
       </c>
       <c r="G68" s="10">
         <v>0</v>
@@ -4029,22 +4013,22 @@
     </row>
     <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C69" s="7">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D69" s="11">
-        <v>45233</v>
+        <v>45217</v>
       </c>
       <c r="E69" s="7">
-        <v>5000</v>
-      </c>
-      <c r="F69" s="10">
-        <v>5000</v>
+        <v>22500</v>
+      </c>
+      <c r="F69" s="8">
+        <v>22500</v>
       </c>
       <c r="G69" s="10">
         <v>0</v>
@@ -4055,22 +4039,22 @@
     </row>
     <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C70" s="7">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="D70" s="11">
-        <v>45233</v>
+        <v>45097</v>
       </c>
       <c r="E70" s="7">
-        <v>10000</v>
+        <v>9398</v>
       </c>
       <c r="F70" s="10">
-        <v>10000</v>
+        <v>9398</v>
       </c>
       <c r="G70" s="10">
         <v>0</v>
@@ -4081,22 +4065,22 @@
     </row>
     <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C71" s="7">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="D71" s="11">
-        <v>45237</v>
+        <v>45108</v>
       </c>
       <c r="E71" s="7">
-        <v>10400</v>
+        <v>11250</v>
       </c>
       <c r="F71" s="10">
-        <v>10400</v>
+        <v>11250</v>
       </c>
       <c r="G71" s="10">
         <v>0</v>
@@ -4107,201 +4091,201 @@
     </row>
     <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" s="7">
+        <v>30</v>
+      </c>
+      <c r="D72" s="11">
+        <v>45111</v>
+      </c>
+      <c r="E72" s="7">
+        <v>28340</v>
+      </c>
+      <c r="F72" s="10">
+        <v>28340</v>
+      </c>
+      <c r="G72" s="10">
+        <v>0</v>
+      </c>
+      <c r="H72" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" s="7">
+        <v>115</v>
+      </c>
+      <c r="D73" s="11">
+        <v>45251</v>
+      </c>
+      <c r="E73" s="7">
+        <v>8620</v>
+      </c>
+      <c r="F73" s="10">
+        <v>8620</v>
+      </c>
+      <c r="G73" s="10">
+        <v>0</v>
+      </c>
+      <c r="H73" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="7">
+        <v>144</v>
+      </c>
+      <c r="D74" s="11">
+        <v>45327</v>
+      </c>
+      <c r="E74" s="7">
+        <v>22500</v>
+      </c>
+      <c r="F74" s="10">
+        <v>0</v>
+      </c>
+      <c r="G74" s="10">
+        <v>0</v>
+      </c>
+      <c r="H74" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75" s="7">
+        <v>98</v>
+      </c>
+      <c r="D75" s="11">
+        <v>45226</v>
+      </c>
+      <c r="E75" s="7">
+        <v>11000</v>
+      </c>
+      <c r="F75" s="10">
+        <v>11000</v>
+      </c>
+      <c r="G75" s="10">
+        <v>0</v>
+      </c>
+      <c r="H75" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" s="7">
+        <v>102</v>
+      </c>
+      <c r="D76" s="11">
+        <v>45233</v>
+      </c>
+      <c r="E76" s="7">
+        <v>5000</v>
+      </c>
+      <c r="F76" s="10">
+        <v>5000</v>
+      </c>
+      <c r="G76" s="10">
+        <v>0</v>
+      </c>
+      <c r="H76" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77" s="7">
+        <v>103</v>
+      </c>
+      <c r="D77" s="11">
+        <v>45233</v>
+      </c>
+      <c r="E77" s="7">
+        <v>10000</v>
+      </c>
+      <c r="F77" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G77" s="10">
+        <v>0</v>
+      </c>
+      <c r="H77" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B78" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C78" s="7">
+        <v>105</v>
+      </c>
+      <c r="D78" s="11">
+        <v>45237</v>
+      </c>
+      <c r="E78" s="7">
+        <v>10400</v>
+      </c>
+      <c r="F78" s="10">
+        <v>10400</v>
+      </c>
+      <c r="G78" s="10">
+        <v>0</v>
+      </c>
+      <c r="H78" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C79" s="7">
         <v>126</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D79" s="11">
         <v>45283</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E79" s="7">
         <v>23880</v>
-      </c>
-      <c r="F72" s="10">
-        <v>0</v>
-      </c>
-      <c r="G72" s="10">
-        <v>0</v>
-      </c>
-      <c r="H72" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C73" s="7">
-        <v>114</v>
-      </c>
-      <c r="D73" s="11">
-        <v>45247</v>
-      </c>
-      <c r="E73" s="7">
-        <v>23751</v>
-      </c>
-      <c r="F73" s="10">
-        <v>13751</v>
-      </c>
-      <c r="G73" s="10">
-        <v>0</v>
-      </c>
-      <c r="H73" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C74" s="7">
-        <v>119</v>
-      </c>
-      <c r="D74" s="11">
-        <v>45262</v>
-      </c>
-      <c r="E74" s="7">
-        <v>16760</v>
-      </c>
-      <c r="F74" s="10">
-        <v>5000</v>
-      </c>
-      <c r="G74" s="10">
-        <v>0</v>
-      </c>
-      <c r="H74" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C75" s="7">
-        <v>120</v>
-      </c>
-      <c r="D75" s="11">
-        <v>45266</v>
-      </c>
-      <c r="E75" s="7">
-        <v>15250</v>
-      </c>
-      <c r="F75" s="10">
-        <v>0</v>
-      </c>
-      <c r="G75" s="10">
-        <v>0</v>
-      </c>
-      <c r="H75" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C76" s="7">
-        <v>124</v>
-      </c>
-      <c r="D76" s="11">
-        <v>45271</v>
-      </c>
-      <c r="E76" s="7">
-        <v>14900</v>
-      </c>
-      <c r="F76" s="10">
-        <v>0</v>
-      </c>
-      <c r="G76" s="10">
-        <v>0</v>
-      </c>
-      <c r="H76" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C77" s="7">
-        <v>127</v>
-      </c>
-      <c r="D77" s="11">
-        <v>45285</v>
-      </c>
-      <c r="E77" s="7">
-        <v>19100</v>
-      </c>
-      <c r="F77" s="10">
-        <v>0</v>
-      </c>
-      <c r="G77" s="10">
-        <v>0</v>
-      </c>
-      <c r="H77" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C78" s="7">
-        <v>128</v>
-      </c>
-      <c r="D78" s="11">
-        <v>45286</v>
-      </c>
-      <c r="E78" s="7">
-        <v>18600</v>
-      </c>
-      <c r="F78" s="10">
-        <v>0</v>
-      </c>
-      <c r="G78" s="10">
-        <v>0</v>
-      </c>
-      <c r="H78" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C79" s="7">
-        <v>129</v>
-      </c>
-      <c r="D79" s="11">
-        <v>45290</v>
-      </c>
-      <c r="E79" s="7">
-        <v>15400</v>
       </c>
       <c r="F79" s="10">
         <v>0</v>
@@ -4315,22 +4299,22 @@
     </row>
     <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="C80" s="7">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="D80" s="11">
-        <v>45314</v>
+        <v>45247</v>
       </c>
       <c r="E80" s="7">
-        <v>18000</v>
+        <v>23751</v>
       </c>
       <c r="F80" s="10">
-        <v>0</v>
+        <v>13751</v>
       </c>
       <c r="G80" s="10">
         <v>0</v>
@@ -4341,22 +4325,22 @@
     </row>
     <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="15" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C81" s="7">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D81" s="11">
-        <v>45323</v>
+        <v>45262</v>
       </c>
       <c r="E81" s="7">
-        <v>18600</v>
+        <v>16760</v>
       </c>
       <c r="F81" s="10">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G81" s="10">
         <v>0</v>
@@ -4367,19 +4351,19 @@
     </row>
     <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C82" s="7">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="D82" s="11">
-        <v>45325</v>
+        <v>45266</v>
       </c>
       <c r="E82" s="7">
-        <v>15001</v>
+        <v>15250</v>
       </c>
       <c r="F82" s="10">
         <v>0</v>
@@ -4393,19 +4377,19 @@
     </row>
     <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C83" s="7">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D83" s="11">
-        <v>45337</v>
+        <v>45343</v>
       </c>
       <c r="E83" s="7">
-        <v>5000</v>
+        <v>10400</v>
       </c>
       <c r="F83" s="10">
         <v>0</v>
@@ -4419,22 +4403,22 @@
     </row>
     <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C84" s="17">
-        <v>51</v>
+        <v>144</v>
+      </c>
+      <c r="C84" s="7">
+        <v>124</v>
       </c>
       <c r="D84" s="11">
-        <v>45142</v>
-      </c>
-      <c r="E84" s="17">
-        <v>23250</v>
+        <v>45271</v>
+      </c>
+      <c r="E84" s="7">
+        <v>14900</v>
       </c>
       <c r="F84" s="10">
-        <v>23250</v>
+        <v>0</v>
       </c>
       <c r="G84" s="10">
         <v>0</v>
@@ -4444,23 +4428,23 @@
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="16" t="s">
-        <v>115</v>
+      <c r="A85" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C85" s="17">
-        <v>53</v>
+        <v>155</v>
+      </c>
+      <c r="C85" s="7">
+        <v>127</v>
       </c>
       <c r="D85" s="11">
-        <v>45145</v>
-      </c>
-      <c r="E85" s="17">
-        <v>9200</v>
+        <v>45285</v>
+      </c>
+      <c r="E85" s="7">
+        <v>19100</v>
       </c>
       <c r="F85" s="10">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G85" s="10">
         <v>0</v>
@@ -4471,27 +4455,235 @@
     </row>
     <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C86" s="7">
+        <v>128</v>
+      </c>
+      <c r="D86" s="11">
+        <v>45286</v>
+      </c>
+      <c r="E86" s="7">
+        <v>18600</v>
+      </c>
+      <c r="F86" s="10">
+        <v>0</v>
+      </c>
+      <c r="G86" s="10">
+        <v>0</v>
+      </c>
+      <c r="H86" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87" s="7">
+        <v>129</v>
+      </c>
+      <c r="D87" s="11">
+        <v>45290</v>
+      </c>
+      <c r="E87" s="7">
+        <v>15400</v>
+      </c>
+      <c r="F87" s="10">
+        <v>0</v>
+      </c>
+      <c r="G87" s="10">
+        <v>0</v>
+      </c>
+      <c r="H87" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C88" s="7">
+        <v>137</v>
+      </c>
+      <c r="D88" s="11">
+        <v>45314</v>
+      </c>
+      <c r="E88" s="7">
+        <v>18000</v>
+      </c>
+      <c r="F88" s="10">
+        <v>0</v>
+      </c>
+      <c r="G88" s="10">
+        <v>0</v>
+      </c>
+      <c r="H88" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C89" s="7">
+        <v>141</v>
+      </c>
+      <c r="D89" s="11">
+        <v>45323</v>
+      </c>
+      <c r="E89" s="7">
+        <v>18600</v>
+      </c>
+      <c r="F89" s="10">
+        <v>0</v>
+      </c>
+      <c r="G89" s="10">
+        <v>0</v>
+      </c>
+      <c r="H89" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C90" s="7">
+        <v>143</v>
+      </c>
+      <c r="D90" s="11">
+        <v>45325</v>
+      </c>
+      <c r="E90" s="7">
+        <v>15001</v>
+      </c>
+      <c r="F90" s="10">
+        <v>0</v>
+      </c>
+      <c r="G90" s="10">
+        <v>0</v>
+      </c>
+      <c r="H90" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C91" s="7">
+        <v>145</v>
+      </c>
+      <c r="D91" s="11">
+        <v>45337</v>
+      </c>
+      <c r="E91" s="7">
+        <v>5000</v>
+      </c>
+      <c r="F91" s="10">
+        <v>0</v>
+      </c>
+      <c r="G91" s="10">
+        <v>0</v>
+      </c>
+      <c r="H91" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C92" s="17">
+        <v>51</v>
+      </c>
+      <c r="D92" s="11">
+        <v>45142</v>
+      </c>
+      <c r="E92" s="17">
+        <v>23250</v>
+      </c>
+      <c r="F92" s="10">
+        <v>23250</v>
+      </c>
+      <c r="G92" s="10">
+        <v>0</v>
+      </c>
+      <c r="H92" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C93" s="17">
+        <v>53</v>
+      </c>
+      <c r="D93" s="11">
+        <v>45145</v>
+      </c>
+      <c r="E93" s="17">
+        <v>9200</v>
+      </c>
+      <c r="F93" s="10">
+        <v>9200</v>
+      </c>
+      <c r="G93" s="10">
+        <v>0</v>
+      </c>
+      <c r="H93" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B94" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C86" s="17">
+      <c r="C94" s="17">
         <v>81</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D94" s="11">
         <v>45191</v>
       </c>
-      <c r="E86" s="17">
+      <c r="E94" s="17">
         <v>25996</v>
       </c>
-      <c r="F86" s="10">
+      <c r="F94" s="10">
         <v>25996</v>
       </c>
-      <c r="G86" s="10">
-        <v>0</v>
-      </c>
-      <c r="H86" s="10">
+      <c r="G94" s="10">
+        <v>0</v>
+      </c>
+      <c r="H94" s="10">
         <v>0</v>
       </c>
     </row>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="166">
   <si>
     <t>Model</t>
   </si>
@@ -533,6 +533,12 @@
   </si>
   <si>
     <t>1200mm bldc  brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">celino bianco </t>
+  </si>
+  <si>
+    <t>celino bianco</t>
   </si>
 </sst>
 </file>
@@ -996,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1049,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="20">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1071,7 +1077,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="20">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1104,7 +1110,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="20">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1126,7 +1132,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="20">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1159,7 +1165,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="20">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1170,7 +1176,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="20">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1181,7 +1187,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="20">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1192,7 +1198,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="20">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1203,7 +1209,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="20">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1225,7 +1231,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="20">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1313,7 +1319,7 @@
         <v>131</v>
       </c>
       <c r="C28" s="20">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1335,7 +1341,7 @@
         <v>133</v>
       </c>
       <c r="C30" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1346,7 +1352,7 @@
         <v>134</v>
       </c>
       <c r="C31" s="20">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1390,7 +1396,7 @@
         <v>162</v>
       </c>
       <c r="C35" s="20">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1401,8 +1407,24 @@
         <v>163</v>
       </c>
       <c r="C36" s="20">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="20"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1412,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1832,7 +1854,7 @@
       </c>
       <c r="D34" s="20"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="25" t="s">
         <v>7</v>
       </c>
@@ -1842,8 +1864,9 @@
       <c r="C35">
         <v>2065</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="20"/>
+    </row>
+    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="25" t="s">
         <v>7</v>
       </c>
@@ -1853,6 +1876,19 @@
       <c r="C36">
         <v>2065</v>
       </c>
+      <c r="D36" s="20"/>
+    </row>
+    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37">
+        <v>1121</v>
+      </c>
+      <c r="D37" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2204,8 +2240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83:H83"/>
+    <sheetView topLeftCell="B82" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3034,7 +3070,7 @@
         <v>4800</v>
       </c>
       <c r="F31" s="7">
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="G31" s="10">
         <v>0</v>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -665,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -722,6 +722,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1004,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C37"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1436,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1882,7 +1883,7 @@
       <c r="A37" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="28" t="s">
         <v>165</v>
       </c>
       <c r="C37">

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -665,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -722,7 +722,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1437,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1883,7 +1882,7 @@
       <c r="A37" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" t="s">
         <v>165</v>
       </c>
       <c r="C37">

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -665,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -719,9 +719,12 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1004,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1423,7 +1426,7 @@
     </row>
     <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="20"/>
-      <c r="B38" s="23"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="20"/>
     </row>
   </sheetData>
@@ -1436,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A34" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1447,445 +1450,445 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="A2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="27">
         <v>1121</v>
       </c>
       <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="A3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="27">
         <v>1209.5</v>
       </c>
       <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+      <c r="A4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="27">
         <v>1209.5</v>
       </c>
       <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+      <c r="A5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="27">
         <v>1121</v>
       </c>
       <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+      <c r="A6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="27">
         <v>1931.424</v>
       </c>
       <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+      <c r="A7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="27">
         <v>1931.42</v>
       </c>
       <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+      <c r="A8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="27">
         <v>1776</v>
       </c>
       <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+      <c r="A9" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="27">
         <v>1835.136</v>
       </c>
       <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+      <c r="A10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="27">
         <v>1852.6</v>
       </c>
       <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+      <c r="A11" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="27">
         <v>1880.44</v>
       </c>
       <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+      <c r="A12" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="27">
         <v>1852.6</v>
       </c>
       <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:5" s="19" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="28">
         <v>1239</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13"/>
     </row>
     <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+      <c r="A14" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="27">
         <v>2684.5</v>
       </c>
       <c r="D14" s="20"/>
     </row>
     <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
+      <c r="A15" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="27">
         <v>2684.5</v>
       </c>
       <c r="D15" s="20"/>
     </row>
     <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+      <c r="A16" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="27">
         <v>1834.9</v>
       </c>
       <c r="D16" s="20"/>
     </row>
     <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
+      <c r="A17" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="27">
         <v>1609.52</v>
       </c>
       <c r="D17" s="20"/>
     </row>
     <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
+      <c r="A18" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="27">
         <v>1886.82</v>
       </c>
       <c r="D18" s="20"/>
     </row>
     <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
+      <c r="A19" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="27">
         <v>1421.9</v>
       </c>
       <c r="D19" s="20"/>
     </row>
     <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
+      <c r="A20" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="27">
         <v>2289.1999999999998</v>
       </c>
       <c r="D20" s="20"/>
     </row>
     <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
+      <c r="A21" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="27">
         <v>911.9</v>
       </c>
       <c r="D21" s="20"/>
     </row>
     <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
+      <c r="A22" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="27">
         <v>1014.98</v>
       </c>
       <c r="D22" s="20"/>
     </row>
     <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
+      <c r="A23" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="27">
         <v>843.7</v>
       </c>
       <c r="D23" s="20"/>
     </row>
     <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
+      <c r="A24" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="27">
         <v>797.68</v>
       </c>
       <c r="D24" s="20"/>
     </row>
     <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
+      <c r="A25" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="27">
         <v>949.9</v>
       </c>
       <c r="D25" s="20"/>
     </row>
     <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
+      <c r="A26" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="27">
         <v>1050.2</v>
       </c>
       <c r="D26" s="20"/>
     </row>
     <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
+      <c r="A27" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="27">
         <v>1298</v>
       </c>
       <c r="D27" s="20"/>
     </row>
     <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
+      <c r="A28" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="27">
         <v>1121</v>
       </c>
       <c r="D28" s="20"/>
     </row>
     <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
+      <c r="A29" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="27">
         <v>1121</v>
       </c>
       <c r="D29" s="20"/>
     </row>
     <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
+      <c r="A30" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="27">
         <v>1121</v>
       </c>
       <c r="D30" s="20"/>
     </row>
     <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" t="s">
+      <c r="A31" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="27">
         <v>1121</v>
       </c>
       <c r="D31" s="20"/>
     </row>
     <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" t="s">
+      <c r="A32" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="27">
         <v>1121</v>
       </c>
       <c r="D32" s="20"/>
     </row>
     <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" t="s">
+      <c r="A33" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="27">
         <v>1180</v>
       </c>
       <c r="D33" s="20"/>
     </row>
     <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="27">
         <v>1210</v>
       </c>
       <c r="D34" s="20"/>
     </row>
     <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="27">
         <v>2065</v>
       </c>
       <c r="D35" s="20"/>
     </row>
     <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="27">
         <v>2065</v>
       </c>
       <c r="D36" s="20"/>
     </row>
     <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="27">
         <v>1121</v>
       </c>
       <c r="D37" s="20"/>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1524" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Latest_stocks" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sales" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$104</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="173">
   <si>
     <t>Model</t>
   </si>
@@ -539,6 +539,27 @@
   </si>
   <si>
     <t>celino bianco</t>
+  </si>
+  <si>
+    <t>MISHRA &amp; CO</t>
+  </si>
+  <si>
+    <t>B M KITCHEN APPLIANCES</t>
+  </si>
+  <si>
+    <t>MALLESH</t>
+  </si>
+  <si>
+    <t>KUNDAN ELECTRICALS</t>
+  </si>
+  <si>
+    <t>cholurupalya</t>
+  </si>
+  <si>
+    <t>rajajinagar</t>
+  </si>
+  <si>
+    <t>chikkabanavara</t>
   </si>
 </sst>
 </file>
@@ -1007,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1439,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2241,10 +2262,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView topLeftCell="B82" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2437,7 +2458,7 @@
         <v>17450</v>
       </c>
       <c r="F7" s="10">
-        <v>0</v>
+        <v>17450</v>
       </c>
       <c r="G7" s="10">
         <v>0</v>
@@ -2526,31 +2547,28 @@
     </row>
     <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="7">
-        <v>24</v>
-      </c>
-      <c r="D11" s="11">
-        <v>45108</v>
+        <v>158</v>
+      </c>
+      <c r="D11" s="9">
+        <v>45363</v>
       </c>
       <c r="E11" s="7">
-        <v>20200</v>
+        <v>28800</v>
       </c>
       <c r="F11" s="10">
-        <v>20200</v>
+        <v>0</v>
       </c>
       <c r="G11" s="10">
         <v>0</v>
       </c>
       <c r="H11" s="10">
         <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -2561,22 +2579,25 @@
         <v>88</v>
       </c>
       <c r="C12" s="7">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D12" s="11">
-        <v>45133</v>
+        <v>45108</v>
       </c>
       <c r="E12" s="7">
-        <v>15000</v>
+        <v>20200</v>
       </c>
       <c r="F12" s="10">
-        <v>15000</v>
+        <v>20200</v>
       </c>
       <c r="G12" s="10">
         <v>0</v>
       </c>
       <c r="H12" s="10">
         <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -2587,16 +2608,16 @@
         <v>88</v>
       </c>
       <c r="C13" s="7">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D13" s="11">
-        <v>45138</v>
+        <v>45133</v>
       </c>
       <c r="E13" s="7">
-        <v>32568</v>
+        <v>15000</v>
       </c>
       <c r="F13" s="10">
-        <v>32568</v>
+        <v>15000</v>
       </c>
       <c r="G13" s="10">
         <v>0</v>
@@ -2607,22 +2628,22 @@
     </row>
     <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="7">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D14" s="11">
-        <v>45113</v>
+        <v>45138</v>
       </c>
       <c r="E14" s="7">
-        <v>7100</v>
+        <v>32568</v>
       </c>
       <c r="F14" s="10">
-        <v>7100</v>
+        <v>32568</v>
       </c>
       <c r="G14" s="10">
         <v>0</v>
@@ -2633,48 +2654,42 @@
     </row>
     <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C15" s="7">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="D15" s="11">
-        <v>45113</v>
+        <v>45367</v>
       </c>
       <c r="E15" s="7">
-        <v>10000</v>
-      </c>
-      <c r="F15" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G15" s="10">
-        <v>0</v>
-      </c>
-      <c r="H15" s="10">
-        <v>0</v>
-      </c>
+        <v>14000</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C16" s="7">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="11">
         <v>45113</v>
       </c>
       <c r="E16" s="7">
-        <v>60690</v>
+        <v>7100</v>
       </c>
       <c r="F16" s="10">
-        <v>60690</v>
+        <v>7100</v>
       </c>
       <c r="G16" s="10">
         <v>0</v>
@@ -2685,22 +2700,22 @@
     </row>
     <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C17" s="7">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D17" s="11">
-        <v>45117</v>
+        <v>45113</v>
       </c>
       <c r="E17" s="7">
-        <v>12440</v>
+        <v>10000</v>
       </c>
       <c r="F17" s="10">
-        <v>12440</v>
+        <v>10000</v>
       </c>
       <c r="G17" s="10">
         <v>0</v>
@@ -2711,48 +2726,48 @@
     </row>
     <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C18" s="7">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D18" s="11">
-        <v>45122</v>
+        <v>45113</v>
       </c>
       <c r="E18" s="7">
-        <v>35250</v>
+        <v>60690</v>
       </c>
       <c r="F18" s="10">
-        <v>35250</v>
+        <v>60690</v>
       </c>
       <c r="G18" s="10">
         <v>0</v>
       </c>
       <c r="H18" s="10">
-        <v>850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C19" s="7">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D19" s="11">
-        <v>45129</v>
+        <v>45117</v>
       </c>
       <c r="E19" s="7">
-        <v>15400</v>
+        <v>12440</v>
       </c>
       <c r="F19" s="10">
-        <v>15400</v>
+        <v>12440</v>
       </c>
       <c r="G19" s="10">
         <v>0</v>
@@ -2763,48 +2778,48 @@
     </row>
     <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" s="7">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="D20" s="11">
-        <v>45176</v>
+        <v>45122</v>
       </c>
       <c r="E20" s="7">
-        <v>17100</v>
+        <v>35250</v>
       </c>
       <c r="F20" s="10">
-        <v>17100</v>
+        <v>35250</v>
       </c>
       <c r="G20" s="10">
         <v>0</v>
       </c>
       <c r="H20" s="10">
-        <v>0</v>
+        <v>850</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" s="7">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D21" s="11">
-        <v>45159</v>
+        <v>45129</v>
       </c>
       <c r="E21" s="7">
-        <v>14550</v>
+        <v>15400</v>
       </c>
       <c r="F21" s="10">
-        <v>14550</v>
+        <v>15400</v>
       </c>
       <c r="G21" s="10">
         <v>0</v>
@@ -2815,22 +2830,22 @@
     </row>
     <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C22" s="7">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D22" s="11">
-        <v>45159</v>
+        <v>45176</v>
       </c>
       <c r="E22" s="7">
-        <v>5350</v>
+        <v>17100</v>
       </c>
       <c r="F22" s="10">
-        <v>5350</v>
+        <v>17100</v>
       </c>
       <c r="G22" s="10">
         <v>0</v>
@@ -2841,22 +2856,22 @@
     </row>
     <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" s="7">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="D23" s="11">
-        <v>45202</v>
+        <v>45159</v>
       </c>
       <c r="E23" s="7">
-        <v>7700</v>
+        <v>14550</v>
       </c>
       <c r="F23" s="10">
-        <v>0</v>
+        <v>14550</v>
       </c>
       <c r="G23" s="10">
         <v>0</v>
@@ -2867,22 +2882,22 @@
     </row>
     <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24" s="11">
-        <v>45164</v>
+        <v>45159</v>
       </c>
       <c r="E24" s="7">
-        <v>10099</v>
+        <v>5350</v>
       </c>
       <c r="F24" s="10">
-        <v>10099</v>
+        <v>5350</v>
       </c>
       <c r="G24" s="10">
         <v>0</v>
@@ -2893,22 +2908,22 @@
     </row>
     <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D25" s="11">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="E25" s="7">
-        <v>7480</v>
+        <v>7700</v>
       </c>
       <c r="F25" s="10">
-        <v>7480</v>
+        <v>7700</v>
       </c>
       <c r="G25" s="10">
         <v>0</v>
@@ -2925,25 +2940,22 @@
         <v>97</v>
       </c>
       <c r="C26" s="7">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="D26" s="11">
-        <v>45211</v>
+        <v>45164</v>
       </c>
       <c r="E26" s="7">
-        <v>14900</v>
+        <v>10099</v>
       </c>
       <c r="F26" s="10">
-        <v>14900</v>
+        <v>10099</v>
       </c>
       <c r="G26" s="10">
         <v>0</v>
       </c>
       <c r="H26" s="10">
         <v>0</v>
-      </c>
-      <c r="I26" s="4">
-        <v>45257</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -2954,16 +2966,16 @@
         <v>97</v>
       </c>
       <c r="C27" s="7">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D27" s="11">
-        <v>45231</v>
+        <v>45192</v>
       </c>
       <c r="E27" s="7">
-        <v>11598</v>
+        <v>7480</v>
       </c>
       <c r="F27" s="10">
-        <v>11598</v>
+        <v>7480</v>
       </c>
       <c r="G27" s="10">
         <v>0</v>
@@ -2971,28 +2983,25 @@
       <c r="H27" s="10">
         <v>0</v>
       </c>
-      <c r="I27" s="4">
-        <v>45257</v>
-      </c>
     </row>
     <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>97</v>
       </c>
       <c r="C28" s="7">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="D28" s="11">
-        <v>45259</v>
+        <v>45211</v>
       </c>
       <c r="E28" s="7">
-        <v>13990</v>
+        <v>14900</v>
       </c>
       <c r="F28" s="10">
-        <v>13990</v>
+        <v>14900</v>
       </c>
       <c r="G28" s="10">
         <v>0</v>
@@ -3000,26 +3009,28 @@
       <c r="H28" s="10">
         <v>0</v>
       </c>
-      <c r="I28" s="4"/>
+      <c r="I28" s="4">
+        <v>45257</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>97</v>
       </c>
       <c r="C29" s="7">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="D29" s="11">
-        <v>45278</v>
+        <v>45231</v>
       </c>
       <c r="E29" s="7">
-        <v>12400</v>
-      </c>
-      <c r="F29" s="7">
-        <v>12400</v>
+        <v>11598</v>
+      </c>
+      <c r="F29" s="10">
+        <v>11598</v>
       </c>
       <c r="G29" s="10">
         <v>0</v>
@@ -3027,7 +3038,9 @@
       <c r="H29" s="10">
         <v>0</v>
       </c>
-      <c r="I29" s="4"/>
+      <c r="I29" s="4">
+        <v>45257</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
@@ -3037,16 +3050,16 @@
         <v>97</v>
       </c>
       <c r="C30" s="7">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D30" s="11">
-        <v>45294</v>
+        <v>45259</v>
       </c>
       <c r="E30" s="7">
-        <v>4300</v>
-      </c>
-      <c r="F30" s="7">
-        <v>4300</v>
+        <v>13990</v>
+      </c>
+      <c r="F30" s="10">
+        <v>13990</v>
       </c>
       <c r="G30" s="10">
         <v>0</v>
@@ -3064,16 +3077,16 @@
         <v>97</v>
       </c>
       <c r="C31" s="7">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D31" s="11">
-        <v>45343</v>
+        <v>45278</v>
       </c>
       <c r="E31" s="7">
-        <v>4800</v>
+        <v>12400</v>
       </c>
       <c r="F31" s="7">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G31" s="10">
         <v>0</v>
@@ -3091,16 +3104,16 @@
         <v>97</v>
       </c>
       <c r="C32" s="7">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D32" s="11">
-        <v>45350</v>
+        <v>45294</v>
       </c>
       <c r="E32" s="7">
-        <v>6800</v>
-      </c>
-      <c r="F32" s="10">
-        <v>0</v>
+        <v>4300</v>
+      </c>
+      <c r="F32" s="7">
+        <v>4300</v>
       </c>
       <c r="G32" s="10">
         <v>0</v>
@@ -3118,72 +3131,70 @@
         <v>97</v>
       </c>
       <c r="C33" s="7">
+        <v>147</v>
+      </c>
+      <c r="D33" s="11">
+        <v>45343</v>
+      </c>
+      <c r="E33" s="7">
+        <v>4800</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0</v>
+      </c>
+      <c r="G33" s="10">
+        <v>0</v>
+      </c>
+      <c r="H33" s="10">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="7">
+        <v>151</v>
+      </c>
+      <c r="D34" s="11">
+        <v>45350</v>
+      </c>
+      <c r="E34" s="7">
+        <v>6800</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="7">
         <v>152</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D35" s="11">
         <v>45356</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E35" s="7">
         <v>14150</v>
       </c>
-      <c r="F33" s="10">
-        <v>0</v>
-      </c>
-      <c r="G33" s="10">
-        <v>0</v>
-      </c>
-      <c r="H33" s="10">
-        <v>0</v>
-      </c>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="7">
-        <v>61</v>
-      </c>
-      <c r="D34" s="11">
-        <v>45164</v>
-      </c>
-      <c r="E34" s="7">
-        <v>5000</v>
-      </c>
-      <c r="F34" s="10">
-        <v>5000</v>
-      </c>
-      <c r="G34" s="10">
-        <v>0</v>
-      </c>
-      <c r="H34" s="10">
-        <v>0</v>
-      </c>
-      <c r="I34" s="4">
-        <v>45257</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="7">
-        <v>71</v>
-      </c>
-      <c r="D35" s="11">
-        <v>45181</v>
-      </c>
-      <c r="E35" s="7">
-        <v>12899</v>
-      </c>
       <c r="F35" s="10">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="G35" s="10">
         <v>0</v>
@@ -3191,51 +3202,55 @@
       <c r="H35" s="10">
         <v>0</v>
       </c>
+      <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C36" s="7">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D36" s="11">
-        <v>45177</v>
+        <v>45164</v>
       </c>
       <c r="E36" s="7">
-        <v>14300</v>
+        <v>5000</v>
       </c>
       <c r="F36" s="10">
-        <v>14300</v>
+        <v>5000</v>
       </c>
       <c r="G36" s="10">
         <v>0</v>
       </c>
       <c r="H36" s="10">
         <v>0</v>
+      </c>
+      <c r="I36" s="4">
+        <v>45257</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" s="7">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D37" s="11">
-        <v>45202</v>
+        <v>45181</v>
       </c>
       <c r="E37" s="7">
-        <v>8700</v>
+        <v>12899</v>
       </c>
       <c r="F37" s="10">
-        <v>8700</v>
+        <v>7500</v>
       </c>
       <c r="G37" s="10">
         <v>0</v>
@@ -3252,16 +3267,16 @@
         <v>100</v>
       </c>
       <c r="C38" s="7">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="D38" s="11">
-        <v>45225</v>
+        <v>45177</v>
       </c>
       <c r="E38" s="7">
-        <v>13478</v>
+        <v>14300</v>
       </c>
       <c r="F38" s="10">
-        <v>0</v>
+        <v>14300</v>
       </c>
       <c r="G38" s="10">
         <v>0</v>
@@ -3272,22 +3287,22 @@
     </row>
     <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C39" s="7">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="D39" s="11">
-        <v>45155</v>
+        <v>45202</v>
       </c>
       <c r="E39" s="7">
-        <v>5000</v>
+        <v>8700</v>
       </c>
       <c r="F39" s="10">
-        <v>5000</v>
+        <v>8700</v>
       </c>
       <c r="G39" s="10">
         <v>0</v>
@@ -3298,60 +3313,54 @@
     </row>
     <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" s="12">
-        <v>72</v>
+        <v>100</v>
+      </c>
+      <c r="C40" s="7">
+        <v>96</v>
       </c>
       <c r="D40" s="11">
-        <v>45181</v>
+        <v>45225</v>
       </c>
       <c r="E40" s="7">
-        <v>17900</v>
+        <v>13478</v>
       </c>
       <c r="F40" s="10">
-        <v>17900</v>
+        <v>3000</v>
       </c>
       <c r="G40" s="10">
         <v>0</v>
       </c>
       <c r="H40" s="10">
         <v>0</v>
-      </c>
-      <c r="I40" s="4">
-        <v>45255</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C41" s="7">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D41" s="11">
-        <v>45182</v>
+        <v>45155</v>
       </c>
       <c r="E41" s="7">
-        <v>12440</v>
+        <v>5000</v>
       </c>
       <c r="F41" s="10">
-        <v>12440</v>
+        <v>5000</v>
       </c>
       <c r="G41" s="10">
         <v>0</v>
       </c>
       <c r="H41" s="10">
         <v>0</v>
-      </c>
-      <c r="I41" s="4">
-        <v>45255</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -3361,17 +3370,17 @@
       <c r="B42" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="7">
-        <v>131</v>
+      <c r="C42" s="12">
+        <v>72</v>
       </c>
       <c r="D42" s="11">
-        <v>45293</v>
+        <v>45181</v>
       </c>
       <c r="E42" s="7">
-        <v>37000</v>
+        <v>17900</v>
       </c>
       <c r="F42" s="10">
-        <v>0</v>
+        <v>17900</v>
       </c>
       <c r="G42" s="10">
         <v>0</v>
@@ -3379,7 +3388,9 @@
       <c r="H42" s="10">
         <v>0</v>
       </c>
-      <c r="I42" s="4"/>
+      <c r="I42" s="4">
+        <v>45255</v>
+      </c>
     </row>
     <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
@@ -3389,16 +3400,16 @@
         <v>101</v>
       </c>
       <c r="C43" s="7">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="D43" s="11">
-        <v>45339</v>
+        <v>45182</v>
       </c>
       <c r="E43" s="7">
-        <v>25651</v>
+        <v>12440</v>
       </c>
       <c r="F43" s="10">
-        <v>0</v>
+        <v>12440</v>
       </c>
       <c r="G43" s="10">
         <v>0</v>
@@ -3406,26 +3417,28 @@
       <c r="H43" s="10">
         <v>0</v>
       </c>
-      <c r="I43" s="4"/>
+      <c r="I43" s="4">
+        <v>45255</v>
+      </c>
     </row>
     <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C44" s="7">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="D44" s="11">
-        <v>45182</v>
+        <v>45293</v>
       </c>
       <c r="E44" s="7">
-        <v>6500</v>
+        <v>37000</v>
       </c>
       <c r="F44" s="10">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G44" s="10">
         <v>0</v>
@@ -3433,133 +3446,131 @@
       <c r="H44" s="10">
         <v>0</v>
       </c>
+      <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="7">
+        <v>146</v>
+      </c>
+      <c r="D45" s="11">
+        <v>45339</v>
+      </c>
+      <c r="E45" s="7">
+        <v>25651</v>
+      </c>
+      <c r="F45" s="10">
+        <v>0</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0</v>
+      </c>
+      <c r="H45" s="10">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B46" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C46" s="7">
+        <v>74</v>
+      </c>
+      <c r="D46" s="11">
+        <v>45182</v>
+      </c>
+      <c r="E46" s="7">
+        <v>6500</v>
+      </c>
+      <c r="F46" s="10">
+        <v>6500</v>
+      </c>
+      <c r="G46" s="10">
+        <v>0</v>
+      </c>
+      <c r="H46" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="7">
         <v>78</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D47" s="11">
         <v>45188</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E47" s="7">
         <v>9000</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F47" s="10">
         <v>9000</v>
       </c>
-      <c r="G45" s="10">
-        <v>0</v>
-      </c>
-      <c r="H45" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="7">
-        <v>76</v>
-      </c>
-      <c r="D46" s="11">
-        <v>45183</v>
-      </c>
-      <c r="E46" s="7">
-        <v>10200</v>
-      </c>
-      <c r="F46" s="10">
-        <v>2500</v>
-      </c>
-      <c r="G46" s="10">
-        <v>0</v>
-      </c>
-      <c r="H46" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" s="7">
-        <v>77</v>
-      </c>
-      <c r="D47" s="11">
-        <v>45184</v>
-      </c>
-      <c r="E47" s="7">
-        <v>15950</v>
-      </c>
-      <c r="F47" s="10">
-        <v>14790</v>
-      </c>
-      <c r="G47" s="12">
+      <c r="G47" s="10">
         <v>0</v>
       </c>
       <c r="H47" s="10">
         <v>0</v>
       </c>
-      <c r="I47" s="4">
-        <v>45258</v>
-      </c>
     </row>
     <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
-        <v>68</v>
+      <c r="A48" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C48" s="7">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="D48" s="11">
-        <v>45267</v>
+        <v>45363</v>
       </c>
       <c r="E48" s="7">
-        <v>18600</v>
+        <v>9400</v>
       </c>
       <c r="F48" s="10">
         <v>0</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="10">
         <v>0</v>
       </c>
       <c r="H48" s="10">
         <v>0</v>
       </c>
-      <c r="I48" s="4"/>
     </row>
     <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C49" s="7">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="D49" s="11">
-        <v>45191</v>
+        <v>45364</v>
       </c>
       <c r="E49" s="7">
-        <v>9398</v>
+        <v>19500</v>
       </c>
       <c r="F49" s="10">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G49" s="10">
         <v>0</v>
@@ -3568,24 +3579,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
-        <v>70</v>
+    <row r="50" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C50" s="7">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D50" s="11">
-        <v>45201</v>
+        <v>45183</v>
       </c>
       <c r="E50" s="7">
-        <v>9740</v>
+        <v>10200</v>
       </c>
       <c r="F50" s="10">
-        <v>9240</v>
+        <v>2500</v>
       </c>
       <c r="G50" s="10">
         <v>0</v>
@@ -3593,83 +3604,81 @@
       <c r="H50" s="10">
         <v>0</v>
       </c>
-      <c r="I50" s="4">
-        <v>45257</v>
-      </c>
     </row>
     <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
-        <v>71</v>
+      <c r="A51" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>104</v>
       </c>
       <c r="C51" s="7">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D51" s="11">
-        <v>45201</v>
+        <v>45184</v>
       </c>
       <c r="E51" s="7">
-        <v>14100</v>
+        <v>15950</v>
       </c>
       <c r="F51" s="10">
-        <v>9000</v>
-      </c>
-      <c r="G51" s="10">
+        <v>14790</v>
+      </c>
+      <c r="G51" s="12">
         <v>0</v>
       </c>
       <c r="H51" s="10">
         <v>0</v>
       </c>
       <c r="I51" s="4">
-        <v>45259</v>
+        <v>45258</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
-        <v>72</v>
+      <c r="A52" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C52" s="7">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="D52" s="11">
-        <v>45203</v>
+        <v>45267</v>
       </c>
       <c r="E52" s="7">
-        <v>14800</v>
-      </c>
-      <c r="F52" s="12">
-        <v>10000</v>
-      </c>
-      <c r="G52" s="10">
+        <v>18600</v>
+      </c>
+      <c r="F52" s="10">
+        <v>0</v>
+      </c>
+      <c r="G52" s="12">
         <v>0</v>
       </c>
       <c r="H52" s="10">
         <v>0</v>
       </c>
+      <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C53" s="7">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D53" s="11">
-        <v>45204</v>
+        <v>45191</v>
       </c>
       <c r="E53" s="7">
-        <v>9630</v>
+        <v>9398</v>
       </c>
       <c r="F53" s="10">
-        <v>9630</v>
+        <v>1000</v>
       </c>
       <c r="G53" s="10">
         <v>0</v>
@@ -3680,48 +3689,51 @@
     </row>
     <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C54" s="7">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D54" s="11">
-        <v>45205</v>
+        <v>45201</v>
       </c>
       <c r="E54" s="7">
-        <v>13800</v>
+        <v>9740</v>
       </c>
       <c r="F54" s="10">
-        <v>13800</v>
+        <v>9240</v>
       </c>
       <c r="G54" s="10">
         <v>0</v>
       </c>
       <c r="H54" s="10">
         <v>0</v>
+      </c>
+      <c r="I54" s="4">
+        <v>45257</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C55" s="7">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D55" s="11">
-        <v>45226</v>
+        <v>45201</v>
       </c>
       <c r="E55" s="7">
-        <v>13596</v>
+        <v>14100</v>
       </c>
       <c r="F55" s="10">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="G55" s="10">
         <v>0</v>
@@ -3729,25 +3741,28 @@
       <c r="H55" s="10">
         <v>0</v>
       </c>
+      <c r="I55" s="4">
+        <v>45259</v>
+      </c>
     </row>
     <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C56" s="7">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D56" s="11">
-        <v>45240</v>
+        <v>45203</v>
       </c>
       <c r="E56" s="7">
-        <v>28900</v>
-      </c>
-      <c r="F56" s="10">
-        <v>0</v>
+        <v>14800</v>
+      </c>
+      <c r="F56" s="12">
+        <v>10000</v>
       </c>
       <c r="G56" s="10">
         <v>0</v>
@@ -3764,16 +3779,16 @@
         <v>107</v>
       </c>
       <c r="C57" s="7">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D57" s="11">
-        <v>45241</v>
+        <v>45204</v>
       </c>
       <c r="E57" s="7">
-        <v>186301</v>
+        <v>9630</v>
       </c>
       <c r="F57" s="10">
-        <v>0</v>
+        <v>9630</v>
       </c>
       <c r="G57" s="10">
         <v>0</v>
@@ -3790,114 +3805,120 @@
         <v>107</v>
       </c>
       <c r="C58" s="7">
+        <v>89</v>
+      </c>
+      <c r="D58" s="11">
+        <v>45205</v>
+      </c>
+      <c r="E58" s="7">
+        <v>13800</v>
+      </c>
+      <c r="F58" s="10">
+        <v>13800</v>
+      </c>
+      <c r="G58" s="10">
+        <v>0</v>
+      </c>
+      <c r="H58" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="7">
+        <v>99</v>
+      </c>
+      <c r="D59" s="11">
+        <v>45226</v>
+      </c>
+      <c r="E59" s="7">
+        <v>13596</v>
+      </c>
+      <c r="F59" s="10">
+        <v>0</v>
+      </c>
+      <c r="G59" s="10">
+        <v>0</v>
+      </c>
+      <c r="H59" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="7">
+        <v>107</v>
+      </c>
+      <c r="D60" s="11">
+        <v>45240</v>
+      </c>
+      <c r="E60" s="7">
+        <v>28900</v>
+      </c>
+      <c r="F60" s="10">
+        <v>0</v>
+      </c>
+      <c r="G60" s="10">
+        <v>0</v>
+      </c>
+      <c r="H60" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" s="7">
+        <v>108</v>
+      </c>
+      <c r="D61" s="11">
+        <v>45241</v>
+      </c>
+      <c r="E61" s="7">
+        <v>186301</v>
+      </c>
+      <c r="F61" s="10">
+        <v>0</v>
+      </c>
+      <c r="G61" s="10">
+        <v>0</v>
+      </c>
+      <c r="H61" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" s="7">
         <v>109</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D62" s="11">
         <v>45241</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E62" s="7">
         <v>22000</v>
       </c>
-      <c r="F58" s="10">
-        <v>0</v>
-      </c>
-      <c r="G58" s="10">
-        <v>0</v>
-      </c>
-      <c r="H58" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C59" s="7">
-        <v>90</v>
-      </c>
-      <c r="D59" s="11">
-        <v>45205</v>
-      </c>
-      <c r="E59" s="7">
-        <v>10000</v>
-      </c>
-      <c r="F59" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G59" s="10">
-        <v>0</v>
-      </c>
-      <c r="H59" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C60" s="7">
-        <v>106</v>
-      </c>
-      <c r="D60" s="11">
-        <v>45238</v>
-      </c>
-      <c r="E60" s="7">
-        <v>15001</v>
-      </c>
-      <c r="F60" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G60" s="10">
-        <v>0</v>
-      </c>
-      <c r="H60" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C61" s="7">
-        <v>148</v>
-      </c>
-      <c r="D61" s="11">
-        <v>45348</v>
-      </c>
-      <c r="E61" s="7">
-        <v>20600</v>
-      </c>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-    </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C62" s="7">
-        <v>92</v>
-      </c>
-      <c r="D62" s="11">
-        <v>45216</v>
-      </c>
-      <c r="E62" s="7">
-        <v>10200</v>
-      </c>
       <c r="F62" s="10">
-        <v>10200</v>
+        <v>0</v>
       </c>
       <c r="G62" s="10">
         <v>0</v>
@@ -3908,48 +3929,48 @@
     </row>
     <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C63" s="7">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D63" s="11">
-        <v>45234</v>
+        <v>45205</v>
       </c>
       <c r="E63" s="7">
-        <v>20801</v>
+        <v>10000</v>
       </c>
       <c r="F63" s="10">
-        <v>20801</v>
+        <v>10000</v>
       </c>
       <c r="G63" s="10">
         <v>0</v>
       </c>
       <c r="H63" s="10">
-        <v>416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C64" s="7">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D64" s="11">
-        <v>45271</v>
+        <v>45238</v>
       </c>
       <c r="E64" s="7">
-        <v>12400</v>
+        <v>15001</v>
       </c>
       <c r="F64" s="10">
-        <v>12400</v>
+        <v>10000</v>
       </c>
       <c r="G64" s="10">
         <v>0</v>
@@ -3960,29 +3981,23 @@
     </row>
     <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C65" s="7">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="D65" s="11">
-        <v>45292</v>
+        <v>45348</v>
       </c>
       <c r="E65" s="7">
-        <v>15600</v>
-      </c>
-      <c r="F65" s="10">
-        <v>15600</v>
-      </c>
-      <c r="G65" s="10">
-        <v>0</v>
-      </c>
-      <c r="H65" s="10">
-        <v>0</v>
-      </c>
+        <v>20600</v>
+      </c>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
     </row>
     <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
@@ -3992,17 +4007,23 @@
         <v>109</v>
       </c>
       <c r="C66" s="7">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="D66" s="11">
-        <v>45349</v>
+        <v>45216</v>
       </c>
       <c r="E66" s="7">
-        <v>15600</v>
-      </c>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
+        <v>10200</v>
+      </c>
+      <c r="F66" s="10">
+        <v>10200</v>
+      </c>
+      <c r="G66" s="10">
+        <v>0</v>
+      </c>
+      <c r="H66" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
@@ -4012,36 +4033,42 @@
         <v>109</v>
       </c>
       <c r="C67" s="7">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="D67" s="11">
-        <v>45357</v>
+        <v>45234</v>
       </c>
       <c r="E67" s="7">
-        <v>30300</v>
-      </c>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
+        <v>20801</v>
+      </c>
+      <c r="F67" s="10">
+        <v>20801</v>
+      </c>
+      <c r="G67" s="10">
+        <v>0</v>
+      </c>
+      <c r="H67" s="10">
+        <v>416</v>
+      </c>
     </row>
     <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C68" s="7">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="D68" s="11">
-        <v>45216</v>
+        <v>45271</v>
       </c>
       <c r="E68" s="7">
-        <v>3600</v>
-      </c>
-      <c r="F68" s="8">
-        <v>3600</v>
+        <v>12400</v>
+      </c>
+      <c r="F68" s="10">
+        <v>12400</v>
       </c>
       <c r="G68" s="10">
         <v>0</v>
@@ -4052,22 +4079,22 @@
     </row>
     <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C69" s="7">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="D69" s="11">
-        <v>45217</v>
+        <v>45292</v>
       </c>
       <c r="E69" s="7">
-        <v>22500</v>
-      </c>
-      <c r="F69" s="8">
-        <v>22500</v>
+        <v>15600</v>
+      </c>
+      <c r="F69" s="10">
+        <v>15600</v>
       </c>
       <c r="G69" s="10">
         <v>0</v>
@@ -4078,55 +4105,43 @@
     </row>
     <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C70" s="7">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="D70" s="11">
-        <v>45097</v>
+        <v>45349</v>
       </c>
       <c r="E70" s="7">
-        <v>9398</v>
-      </c>
-      <c r="F70" s="10">
-        <v>9398</v>
-      </c>
-      <c r="G70" s="10">
-        <v>0</v>
-      </c>
-      <c r="H70" s="10">
-        <v>0</v>
-      </c>
+        <v>15600</v>
+      </c>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
     </row>
     <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C71" s="7">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="D71" s="11">
-        <v>45108</v>
+        <v>45357</v>
       </c>
       <c r="E71" s="7">
-        <v>11250</v>
-      </c>
-      <c r="F71" s="10">
-        <v>11250</v>
-      </c>
-      <c r="G71" s="10">
-        <v>0</v>
-      </c>
-      <c r="H71" s="10">
-        <v>0</v>
-      </c>
+        <v>30300</v>
+      </c>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
     </row>
     <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
@@ -4136,16 +4151,16 @@
         <v>86</v>
       </c>
       <c r="C72" s="7">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D72" s="11">
-        <v>45111</v>
+        <v>45216</v>
       </c>
       <c r="E72" s="7">
-        <v>28340</v>
-      </c>
-      <c r="F72" s="10">
-        <v>28340</v>
+        <v>3600</v>
+      </c>
+      <c r="F72" s="8">
+        <v>3600</v>
       </c>
       <c r="G72" s="10">
         <v>0</v>
@@ -4162,16 +4177,16 @@
         <v>86</v>
       </c>
       <c r="C73" s="7">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="D73" s="11">
-        <v>45251</v>
+        <v>45217</v>
       </c>
       <c r="E73" s="7">
-        <v>8620</v>
-      </c>
-      <c r="F73" s="10">
-        <v>8620</v>
+        <v>22500</v>
+      </c>
+      <c r="F73" s="8">
+        <v>22500</v>
       </c>
       <c r="G73" s="10">
         <v>0</v>
@@ -4188,16 +4203,16 @@
         <v>86</v>
       </c>
       <c r="C74" s="7">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="D74" s="11">
-        <v>45327</v>
+        <v>45097</v>
       </c>
       <c r="E74" s="7">
-        <v>22500</v>
+        <v>9398</v>
       </c>
       <c r="F74" s="10">
-        <v>0</v>
+        <v>9398</v>
       </c>
       <c r="G74" s="10">
         <v>0</v>
@@ -4208,22 +4223,22 @@
     </row>
     <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C75" s="7">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="D75" s="11">
-        <v>45226</v>
+        <v>45108</v>
       </c>
       <c r="E75" s="7">
-        <v>11000</v>
+        <v>11250</v>
       </c>
       <c r="F75" s="10">
-        <v>11000</v>
+        <v>11250</v>
       </c>
       <c r="G75" s="10">
         <v>0</v>
@@ -4234,22 +4249,22 @@
     </row>
     <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C76" s="7">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="D76" s="11">
-        <v>45233</v>
+        <v>45111</v>
       </c>
       <c r="E76" s="7">
-        <v>5000</v>
+        <v>28340</v>
       </c>
       <c r="F76" s="10">
-        <v>5000</v>
+        <v>28340</v>
       </c>
       <c r="G76" s="10">
         <v>0</v>
@@ -4260,22 +4275,22 @@
     </row>
     <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C77" s="7">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D77" s="11">
-        <v>45233</v>
+        <v>45251</v>
       </c>
       <c r="E77" s="7">
-        <v>10000</v>
+        <v>8620</v>
       </c>
       <c r="F77" s="10">
-        <v>10000</v>
+        <v>8620</v>
       </c>
       <c r="G77" s="10">
         <v>0</v>
@@ -4286,22 +4301,22 @@
     </row>
     <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C78" s="7">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="D78" s="11">
-        <v>45237</v>
+        <v>45327</v>
       </c>
       <c r="E78" s="7">
-        <v>10400</v>
+        <v>22500</v>
       </c>
       <c r="F78" s="10">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="G78" s="10">
         <v>0</v>
@@ -4312,124 +4327,124 @@
     </row>
     <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79" s="7">
+        <v>98</v>
+      </c>
+      <c r="D79" s="11">
+        <v>45226</v>
+      </c>
+      <c r="E79" s="7">
+        <v>11000</v>
+      </c>
+      <c r="F79" s="10">
+        <v>11000</v>
+      </c>
+      <c r="G79" s="10">
+        <v>0</v>
+      </c>
+      <c r="H79" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80" s="7">
+        <v>102</v>
+      </c>
+      <c r="D80" s="11">
+        <v>45233</v>
+      </c>
+      <c r="E80" s="7">
+        <v>5000</v>
+      </c>
+      <c r="F80" s="10">
+        <v>5000</v>
+      </c>
+      <c r="G80" s="10">
+        <v>0</v>
+      </c>
+      <c r="H80" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" s="7">
+        <v>103</v>
+      </c>
+      <c r="D81" s="11">
+        <v>45233</v>
+      </c>
+      <c r="E81" s="7">
+        <v>10000</v>
+      </c>
+      <c r="F81" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G81" s="10">
+        <v>0</v>
+      </c>
+      <c r="H81" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B82" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C82" s="7">
+        <v>105</v>
+      </c>
+      <c r="D82" s="11">
+        <v>45237</v>
+      </c>
+      <c r="E82" s="7">
+        <v>10400</v>
+      </c>
+      <c r="F82" s="10">
+        <v>10400</v>
+      </c>
+      <c r="G82" s="10">
+        <v>0</v>
+      </c>
+      <c r="H82" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C83" s="7">
         <v>126</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D83" s="11">
         <v>45283</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E83" s="7">
         <v>23880</v>
       </c>
-      <c r="F79" s="10">
-        <v>0</v>
-      </c>
-      <c r="G79" s="10">
-        <v>0</v>
-      </c>
-      <c r="H79" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C80" s="7">
-        <v>114</v>
-      </c>
-      <c r="D80" s="11">
-        <v>45247</v>
-      </c>
-      <c r="E80" s="7">
-        <v>23751</v>
-      </c>
-      <c r="F80" s="10">
-        <v>13751</v>
-      </c>
-      <c r="G80" s="10">
-        <v>0</v>
-      </c>
-      <c r="H80" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C81" s="7">
-        <v>119</v>
-      </c>
-      <c r="D81" s="11">
-        <v>45262</v>
-      </c>
-      <c r="E81" s="7">
-        <v>16760</v>
-      </c>
-      <c r="F81" s="10">
-        <v>5000</v>
-      </c>
-      <c r="G81" s="10">
-        <v>0</v>
-      </c>
-      <c r="H81" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C82" s="7">
-        <v>120</v>
-      </c>
-      <c r="D82" s="11">
-        <v>45266</v>
-      </c>
-      <c r="E82" s="7">
-        <v>15250</v>
-      </c>
-      <c r="F82" s="10">
-        <v>0</v>
-      </c>
-      <c r="G82" s="10">
-        <v>0</v>
-      </c>
-      <c r="H82" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C83" s="7">
-        <v>150</v>
-      </c>
-      <c r="D83" s="11">
-        <v>45343</v>
-      </c>
-      <c r="E83" s="7">
-        <v>10400</v>
-      </c>
       <c r="F83" s="10">
         <v>0</v>
       </c>
@@ -4441,20 +4456,20 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="15" t="s">
-        <v>143</v>
+      <c r="A84" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="C84" s="7">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="D84" s="11">
-        <v>45271</v>
+        <v>45369</v>
       </c>
       <c r="E84" s="7">
-        <v>14900</v>
+        <v>6450</v>
       </c>
       <c r="F84" s="10">
         <v>0</v>
@@ -4467,20 +4482,20 @@
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="15" t="s">
-        <v>145</v>
+      <c r="A85" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="C85" s="7">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="D85" s="11">
-        <v>45285</v>
+        <v>45367</v>
       </c>
       <c r="E85" s="7">
-        <v>19100</v>
+        <v>13300</v>
       </c>
       <c r="F85" s="10">
         <v>0</v>
@@ -4494,22 +4509,22 @@
     </row>
     <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="C86" s="7">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D86" s="11">
-        <v>45286</v>
+        <v>45247</v>
       </c>
       <c r="E86" s="7">
-        <v>18600</v>
+        <v>23751</v>
       </c>
       <c r="F86" s="10">
-        <v>0</v>
+        <v>13751</v>
       </c>
       <c r="G86" s="10">
         <v>0</v>
@@ -4520,22 +4535,22 @@
     </row>
     <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C87" s="7">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D87" s="11">
-        <v>45290</v>
+        <v>45262</v>
       </c>
       <c r="E87" s="7">
-        <v>15400</v>
+        <v>16760</v>
       </c>
       <c r="F87" s="10">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G87" s="10">
         <v>0</v>
@@ -4546,19 +4561,19 @@
     </row>
     <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="15" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C88" s="7">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D88" s="11">
-        <v>45314</v>
+        <v>45266</v>
       </c>
       <c r="E88" s="7">
-        <v>18000</v>
+        <v>15250</v>
       </c>
       <c r="F88" s="10">
         <v>0</v>
@@ -4572,19 +4587,19 @@
     </row>
     <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C89" s="7">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D89" s="11">
-        <v>45323</v>
+        <v>45349</v>
       </c>
       <c r="E89" s="7">
-        <v>18600</v>
+        <v>10400</v>
       </c>
       <c r="F89" s="10">
         <v>0</v>
@@ -4598,19 +4613,19 @@
     </row>
     <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C90" s="7">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="D90" s="11">
-        <v>45325</v>
+        <v>45271</v>
       </c>
       <c r="E90" s="7">
-        <v>15001</v>
+        <v>14900</v>
       </c>
       <c r="F90" s="10">
         <v>0</v>
@@ -4624,19 +4639,19 @@
     </row>
     <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C91" s="7">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="D91" s="11">
-        <v>45337</v>
+        <v>45285</v>
       </c>
       <c r="E91" s="7">
-        <v>5000</v>
+        <v>19100</v>
       </c>
       <c r="F91" s="10">
         <v>0</v>
@@ -4650,22 +4665,22 @@
     </row>
     <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="15" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C92" s="17">
-        <v>51</v>
+        <v>156</v>
+      </c>
+      <c r="C92" s="7">
+        <v>128</v>
       </c>
       <c r="D92" s="11">
-        <v>45142</v>
-      </c>
-      <c r="E92" s="17">
-        <v>23250</v>
+        <v>45286</v>
+      </c>
+      <c r="E92" s="7">
+        <v>18600</v>
       </c>
       <c r="F92" s="10">
-        <v>23250</v>
+        <v>18600</v>
       </c>
       <c r="G92" s="10">
         <v>0</v>
@@ -4675,23 +4690,23 @@
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="16" t="s">
-        <v>115</v>
+      <c r="A93" s="15" t="s">
+        <v>147</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C93" s="17">
-        <v>53</v>
+        <v>157</v>
+      </c>
+      <c r="C93" s="7">
+        <v>129</v>
       </c>
       <c r="D93" s="11">
-        <v>45145</v>
-      </c>
-      <c r="E93" s="17">
-        <v>9200</v>
+        <v>45290</v>
+      </c>
+      <c r="E93" s="7">
+        <v>15400</v>
       </c>
       <c r="F93" s="10">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G93" s="10">
         <v>0</v>
@@ -4702,27 +4717,287 @@
     </row>
     <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C94" s="7">
+        <v>137</v>
+      </c>
+      <c r="D94" s="11">
+        <v>45314</v>
+      </c>
+      <c r="E94" s="7">
+        <v>18000</v>
+      </c>
+      <c r="F94" s="10">
+        <v>0</v>
+      </c>
+      <c r="G94" s="10">
+        <v>0</v>
+      </c>
+      <c r="H94" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C95" s="7">
+        <v>141</v>
+      </c>
+      <c r="D95" s="11">
+        <v>45323</v>
+      </c>
+      <c r="E95" s="7">
+        <v>18600</v>
+      </c>
+      <c r="F95" s="10">
+        <v>0</v>
+      </c>
+      <c r="G95" s="10">
+        <v>0</v>
+      </c>
+      <c r="H95" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C96" s="7">
+        <v>143</v>
+      </c>
+      <c r="D96" s="11">
+        <v>45325</v>
+      </c>
+      <c r="E96" s="7">
+        <v>15001</v>
+      </c>
+      <c r="F96" s="10">
+        <v>0</v>
+      </c>
+      <c r="G96" s="10">
+        <v>0</v>
+      </c>
+      <c r="H96" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C97" s="7">
+        <v>145</v>
+      </c>
+      <c r="D97" s="11">
+        <v>45337</v>
+      </c>
+      <c r="E97" s="7">
+        <v>5000</v>
+      </c>
+      <c r="F97" s="10">
+        <v>0</v>
+      </c>
+      <c r="G97" s="10">
+        <v>0</v>
+      </c>
+      <c r="H97" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C98" s="7">
+        <v>156</v>
+      </c>
+      <c r="D98" s="11">
+        <v>45362</v>
+      </c>
+      <c r="E98" s="7">
+        <v>6600</v>
+      </c>
+      <c r="F98" s="10">
+        <v>0</v>
+      </c>
+      <c r="G98" s="10">
+        <v>0</v>
+      </c>
+      <c r="H98" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C99" s="7">
+        <v>160</v>
+      </c>
+      <c r="D99" s="11">
+        <v>45364</v>
+      </c>
+      <c r="E99" s="7">
+        <v>11300</v>
+      </c>
+      <c r="F99" s="10">
+        <v>0</v>
+      </c>
+      <c r="G99" s="10">
+        <v>0</v>
+      </c>
+      <c r="H99" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C100" s="7">
+        <v>166</v>
+      </c>
+      <c r="D100" s="11">
+        <v>45366</v>
+      </c>
+      <c r="E100" s="7">
+        <v>3500</v>
+      </c>
+      <c r="F100" s="10">
+        <v>0</v>
+      </c>
+      <c r="G100" s="10">
+        <v>0</v>
+      </c>
+      <c r="H100" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A101" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C101" s="7">
+        <v>170</v>
+      </c>
+      <c r="D101" s="11">
+        <v>45369</v>
+      </c>
+      <c r="E101" s="7">
+        <v>10200</v>
+      </c>
+      <c r="F101" s="10">
+        <v>0</v>
+      </c>
+      <c r="G101" s="10">
+        <v>0</v>
+      </c>
+      <c r="H101" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C102" s="17">
+        <v>51</v>
+      </c>
+      <c r="D102" s="11">
+        <v>45142</v>
+      </c>
+      <c r="E102" s="17">
+        <v>23250</v>
+      </c>
+      <c r="F102" s="10">
+        <v>23250</v>
+      </c>
+      <c r="G102" s="10">
+        <v>0</v>
+      </c>
+      <c r="H102" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C103" s="17">
+        <v>53</v>
+      </c>
+      <c r="D103" s="11">
+        <v>45145</v>
+      </c>
+      <c r="E103" s="17">
+        <v>9200</v>
+      </c>
+      <c r="F103" s="10">
+        <v>9200</v>
+      </c>
+      <c r="G103" s="10">
+        <v>0</v>
+      </c>
+      <c r="H103" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B104" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C94" s="17">
+      <c r="C104" s="17">
         <v>81</v>
       </c>
-      <c r="D94" s="11">
+      <c r="D104" s="11">
         <v>45191</v>
       </c>
-      <c r="E94" s="17">
+      <c r="E104" s="17">
         <v>25996</v>
       </c>
-      <c r="F94" s="10">
+      <c r="F104" s="10">
         <v>25996</v>
       </c>
-      <c r="G94" s="10">
-        <v>0</v>
-      </c>
-      <c r="H94" s="10">
+      <c r="G104" s="10">
+        <v>0</v>
+      </c>
+      <c r="H104" s="10">
         <v>0</v>
       </c>
     </row>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -1028,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2262,10 +2262,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3250,7 +3250,7 @@
         <v>12899</v>
       </c>
       <c r="F37" s="10">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="G37" s="10">
         <v>0</v>
@@ -4999,6 +4999,16 @@
       </c>
       <c r="H104" s="10">
         <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E105">
+        <f>SUM(E2:E104)</f>
+        <v>1732397</v>
+      </c>
+      <c r="F105">
+        <f>SUM(F2:F104)</f>
+        <v>879372</v>
       </c>
     </row>
   </sheetData>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Sales" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$I$124</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="177">
   <si>
     <t>Model</t>
   </si>
@@ -487,12 +487,6 @@
     <t>BALAJI ELECTRICALS</t>
   </si>
   <si>
-    <t>6200 creditnote</t>
-  </si>
-  <si>
-    <t>6000 credit note</t>
-  </si>
-  <si>
     <t>SI-KA-94</t>
   </si>
   <si>
@@ -560,6 +554,24 @@
   </si>
   <si>
     <t>chikkabanavara</t>
+  </si>
+  <si>
+    <t>KAVERI  HARDWARE  &amp; ELECTRICAL</t>
+  </si>
+  <si>
+    <t>JAI SRI ELECTRICALS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR RANGANATHA  HOME  APPLIANCES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GANAPATI ELECTRICALS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXMI  ELECTRICALS AND HARDWARE </t>
+  </si>
+  <si>
+    <t>manjunathnagar</t>
   </si>
 </sst>
 </file>
@@ -686,7 +698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -746,6 +758,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1028,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1079,7 +1100,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="20">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1134,7 +1155,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="20">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1156,7 +1177,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1211,7 +1232,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="20">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1222,7 +1243,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="20">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1233,7 +1254,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="20">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1244,7 +1265,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="20">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1343,7 +1364,7 @@
         <v>131</v>
       </c>
       <c r="C28" s="20">
-        <v>42</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1365,7 +1386,7 @@
         <v>133</v>
       </c>
       <c r="C30" s="20">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1376,7 +1397,7 @@
         <v>134</v>
       </c>
       <c r="C31" s="20">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1406,7 +1427,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C34" s="20">
         <v>16</v>
@@ -1417,10 +1438,10 @@
         <v>7</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C35" s="20">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1428,7 +1449,7 @@
         <v>7</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C36" s="20">
         <v>16</v>
@@ -1439,10 +1460,10 @@
         <v>7</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C37" s="20">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1458,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1491,7 +1512,13 @@
       <c r="C2" s="27">
         <v>1121</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="20">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>D2*C2</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
@@ -1503,7 +1530,13 @@
       <c r="C3" s="27">
         <v>1209.5</v>
       </c>
-      <c r="D3" s="20"/>
+      <c r="D3" s="20">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E37" si="0">D3*C3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
@@ -1515,7 +1548,13 @@
       <c r="C4" s="27">
         <v>1209.5</v>
       </c>
-      <c r="D4" s="20"/>
+      <c r="D4" s="20">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>18142.5</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
@@ -1527,7 +1566,13 @@
       <c r="C5" s="27">
         <v>1121</v>
       </c>
-      <c r="D5" s="20"/>
+      <c r="D5" s="20">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
@@ -1539,7 +1584,13 @@
       <c r="C6" s="27">
         <v>1931.424</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="20">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>19314.239999999998</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
@@ -1551,7 +1602,13 @@
       <c r="C7" s="27">
         <v>1931.42</v>
       </c>
-      <c r="D7" s="20"/>
+      <c r="D7" s="20">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>17382.78</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
@@ -1563,7 +1620,13 @@
       <c r="C8" s="27">
         <v>1776</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="20">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>7104</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
@@ -1575,7 +1638,13 @@
       <c r="C9" s="27">
         <v>1835.136</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="20">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>12845.951999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="27" t="s">
@@ -1587,7 +1656,13 @@
       <c r="C10" s="27">
         <v>1852.6</v>
       </c>
-      <c r="D10" s="20"/>
+      <c r="D10" s="20">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="27" t="s">
@@ -1599,7 +1674,13 @@
       <c r="C11" s="27">
         <v>1880.44</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="20">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>5641.32</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="27" t="s">
@@ -1611,7 +1692,13 @@
       <c r="C12" s="27">
         <v>1852.6</v>
       </c>
-      <c r="D12" s="20"/>
+      <c r="D12" s="20">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>7410.4</v>
+      </c>
     </row>
     <row r="13" spans="1:5" s="19" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="28" t="s">
@@ -1623,8 +1710,13 @@
       <c r="C13" s="28">
         <v>1239</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13"/>
+      <c r="D13" s="20">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="27" t="s">
@@ -1636,7 +1728,13 @@
       <c r="C14" s="27">
         <v>2684.5</v>
       </c>
-      <c r="D14" s="20"/>
+      <c r="D14" s="20">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>18791.5</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="27" t="s">
@@ -1648,7 +1746,13 @@
       <c r="C15" s="27">
         <v>2684.5</v>
       </c>
-      <c r="D15" s="20"/>
+      <c r="D15" s="20">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>16107</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="27" t="s">
@@ -1660,9 +1764,15 @@
       <c r="C16" s="27">
         <v>1834.9</v>
       </c>
-      <c r="D16" s="20"/>
-    </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D16" s="20">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>38532.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="27" t="s">
         <v>15</v>
       </c>
@@ -1672,9 +1782,15 @@
       <c r="C17" s="27">
         <v>1609.52</v>
       </c>
-      <c r="D17" s="20"/>
-    </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D17" s="20">
+        <v>51</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>82085.52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="27" t="s">
         <v>15</v>
       </c>
@@ -1684,9 +1800,15 @@
       <c r="C18" s="27">
         <v>1886.82</v>
       </c>
-      <c r="D18" s="20"/>
-    </row>
-    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D18" s="20">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>11320.92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="27" t="s">
         <v>15</v>
       </c>
@@ -1696,9 +1818,15 @@
       <c r="C19" s="27">
         <v>1421.9</v>
       </c>
-      <c r="D19" s="20"/>
-    </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" s="20">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>4265.7000000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="27" t="s">
         <v>15</v>
       </c>
@@ -1708,9 +1836,15 @@
       <c r="C20" s="27">
         <v>2289.1999999999998</v>
       </c>
-      <c r="D20" s="20"/>
-    </row>
-    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20" s="20">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>20602.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="27" t="s">
         <v>23</v>
       </c>
@@ -1720,9 +1854,15 @@
       <c r="C21" s="27">
         <v>911.9</v>
       </c>
-      <c r="D21" s="20"/>
-    </row>
-    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D21" s="20">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>1823.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="27" t="s">
         <v>23</v>
       </c>
@@ -1732,9 +1872,15 @@
       <c r="C22" s="27">
         <v>1014.98</v>
       </c>
-      <c r="D22" s="20"/>
-    </row>
-    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22" s="20">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>8119.84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="27" t="s">
         <v>28</v>
       </c>
@@ -1744,9 +1890,15 @@
       <c r="C23" s="27">
         <v>843.7</v>
       </c>
-      <c r="D23" s="20"/>
-    </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23" s="20">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>14342.900000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="27" t="s">
         <v>28</v>
       </c>
@@ -1756,9 +1908,15 @@
       <c r="C24" s="27">
         <v>797.68</v>
       </c>
-      <c r="D24" s="20"/>
-    </row>
-    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24" s="20">
+        <v>28</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>22335.039999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="27" t="s">
         <v>23</v>
       </c>
@@ -1768,9 +1926,15 @@
       <c r="C25" s="27">
         <v>949.9</v>
       </c>
-      <c r="D25" s="20"/>
-    </row>
-    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D25" s="20">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>22797.599999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="27" t="s">
         <v>23</v>
       </c>
@@ -1780,9 +1944,15 @@
       <c r="C26" s="27">
         <v>1050.2</v>
       </c>
-      <c r="D26" s="20"/>
-    </row>
-    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D26" s="20">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>25204.800000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="27" t="s">
         <v>7</v>
       </c>
@@ -1792,9 +1962,15 @@
       <c r="C27" s="27">
         <v>1298</v>
       </c>
-      <c r="D27" s="20"/>
-    </row>
-    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D27" s="20">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>5192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="27" t="s">
         <v>7</v>
       </c>
@@ -1804,9 +1980,15 @@
       <c r="C28" s="27">
         <v>1121</v>
       </c>
-      <c r="D28" s="20"/>
-    </row>
-    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D28" s="20">
+        <v>78</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>87438</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="27" t="s">
         <v>7</v>
       </c>
@@ -1816,9 +1998,15 @@
       <c r="C29" s="27">
         <v>1121</v>
       </c>
-      <c r="D29" s="20"/>
-    </row>
-    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" s="20">
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>31388</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="27" t="s">
         <v>7</v>
       </c>
@@ -1828,9 +2016,15 @@
       <c r="C30" s="27">
         <v>1121</v>
       </c>
-      <c r="D30" s="20"/>
-    </row>
-    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D30" s="20">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="27" t="s">
         <v>7</v>
       </c>
@@ -1840,9 +2034,15 @@
       <c r="C31" s="27">
         <v>1121</v>
       </c>
-      <c r="D31" s="20"/>
-    </row>
-    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D31" s="20">
+        <v>59</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>66139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="27" t="s">
         <v>7</v>
       </c>
@@ -1852,9 +2052,15 @@
       <c r="C32" s="27">
         <v>1121</v>
       </c>
-      <c r="D32" s="20"/>
-    </row>
-    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D32" s="20">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>8968</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="27" t="s">
         <v>7</v>
       </c>
@@ -1864,55 +2070,91 @@
       <c r="C33" s="27">
         <v>1180</v>
       </c>
-      <c r="D33" s="20"/>
-    </row>
-    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D33" s="20">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>9440</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C34" s="27">
         <v>1210</v>
       </c>
-      <c r="D34" s="20"/>
-    </row>
-    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D34" s="20">
+        <v>16</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>19360</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C35" s="27">
         <v>2065</v>
       </c>
-      <c r="D35" s="20"/>
-    </row>
-    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D35" s="20">
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>18585</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C36" s="27">
         <v>2065</v>
       </c>
-      <c r="D36" s="20"/>
-    </row>
-    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D36" s="20">
+        <v>16</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>33040</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C37" s="27">
         <v>1121</v>
       </c>
-      <c r="D37" s="20"/>
+      <c r="D37" s="20">
+        <v>28</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>31388</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <f>SUM(E2:E37)</f>
+        <v>688472.51199999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2232,7 +2474,7 @@
         <v>45313</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C22" s="22">
         <v>147382</v>
@@ -2246,7 +2488,7 @@
         <v>45314</v>
       </c>
       <c r="B23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C23" s="22">
         <v>9322</v>
@@ -2262,10 +2504,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85:F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2385,9 +2627,6 @@
       <c r="H4" s="10">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
@@ -2484,7 +2723,7 @@
         <v>17750</v>
       </c>
       <c r="F8" s="10">
-        <v>0</v>
+        <v>17750</v>
       </c>
       <c r="G8" s="10">
         <v>0</v>
@@ -2510,7 +2749,7 @@
         <v>24000</v>
       </c>
       <c r="F9" s="10">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G9" s="10">
         <v>0</v>
@@ -2536,7 +2775,7 @@
         <v>17600</v>
       </c>
       <c r="F10" s="10">
-        <v>0</v>
+        <v>21600</v>
       </c>
       <c r="G10" s="10">
         <v>0</v>
@@ -2573,31 +2812,28 @@
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="7">
-        <v>24</v>
-      </c>
-      <c r="D12" s="11">
-        <v>45108</v>
+        <v>10</v>
+      </c>
+      <c r="D12" s="9">
+        <v>45404</v>
       </c>
       <c r="E12" s="7">
-        <v>20200</v>
+        <v>16650</v>
       </c>
       <c r="F12" s="10">
-        <v>20200</v>
+        <v>0</v>
       </c>
       <c r="G12" s="10">
         <v>0</v>
       </c>
       <c r="H12" s="10">
         <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -2608,16 +2844,16 @@
         <v>88</v>
       </c>
       <c r="C13" s="7">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D13" s="11">
-        <v>45133</v>
+        <v>45108</v>
       </c>
       <c r="E13" s="7">
-        <v>15000</v>
+        <v>20200</v>
       </c>
       <c r="F13" s="10">
-        <v>15000</v>
+        <v>20200</v>
       </c>
       <c r="G13" s="10">
         <v>0</v>
@@ -2634,16 +2870,16 @@
         <v>88</v>
       </c>
       <c r="C14" s="7">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D14" s="11">
-        <v>45138</v>
+        <v>45133</v>
       </c>
       <c r="E14" s="7">
-        <v>32568</v>
+        <v>15000</v>
       </c>
       <c r="F14" s="10">
-        <v>32568</v>
+        <v>15000</v>
       </c>
       <c r="G14" s="10">
         <v>0</v>
@@ -2660,62 +2896,68 @@
         <v>88</v>
       </c>
       <c r="C15" s="7">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="D15" s="11">
-        <v>45367</v>
+        <v>45138</v>
       </c>
       <c r="E15" s="7">
-        <v>14000</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+        <v>32568</v>
+      </c>
+      <c r="F15" s="10">
+        <v>32568</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="7">
+        <v>167</v>
+      </c>
+      <c r="D16" s="11">
+        <v>45367</v>
+      </c>
+      <c r="E16" s="7">
+        <v>14000</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C17" s="7">
         <v>31</v>
-      </c>
-      <c r="D16" s="11">
-        <v>45113</v>
-      </c>
-      <c r="E16" s="7">
-        <v>7100</v>
-      </c>
-      <c r="F16" s="10">
-        <v>7100</v>
-      </c>
-      <c r="G16" s="10">
-        <v>0</v>
-      </c>
-      <c r="H16" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="7">
-        <v>32</v>
       </c>
       <c r="D17" s="11">
         <v>45113</v>
       </c>
       <c r="E17" s="7">
-        <v>10000</v>
+        <v>7100</v>
       </c>
       <c r="F17" s="10">
-        <v>10000</v>
+        <v>7100</v>
       </c>
       <c r="G17" s="10">
         <v>0</v>
@@ -2724,369 +2966,362 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>54</v>
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="11">
         <v>45113</v>
       </c>
       <c r="E18" s="7">
+        <v>10000</v>
+      </c>
+      <c r="F18" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="7">
+        <v>12</v>
+      </c>
+      <c r="D19" s="11">
+        <v>45404</v>
+      </c>
+      <c r="E19" s="7">
+        <v>4100</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="7">
+        <v>33</v>
+      </c>
+      <c r="D20" s="11">
+        <v>45113</v>
+      </c>
+      <c r="E20" s="7">
         <v>60690</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F20" s="10">
         <v>60690</v>
       </c>
-      <c r="G18" s="10">
-        <v>0</v>
-      </c>
-      <c r="H18" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="G20" s="10">
+        <v>0</v>
+      </c>
+      <c r="H20" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="7">
+        <v>11</v>
+      </c>
+      <c r="D21" s="11">
+        <v>45404</v>
+      </c>
+      <c r="E21" s="7">
+        <v>28500</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="7">
+        <v>22</v>
+      </c>
+      <c r="D22" s="11">
+        <v>45416</v>
+      </c>
+      <c r="E22" s="7">
+        <v>20000</v>
+      </c>
+      <c r="F22" s="10">
+        <v>20000</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C23" s="7">
         <v>36</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D23" s="11">
         <v>45117</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E23" s="7">
         <v>12440</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F23" s="10">
         <v>12440</v>
       </c>
-      <c r="G19" s="10">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="G23" s="10">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B24" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C24" s="7">
         <v>39</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D24" s="11">
         <v>45122</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E24" s="7">
         <v>35250</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F24" s="10">
         <v>35250</v>
       </c>
-      <c r="G20" s="10">
-        <v>0</v>
-      </c>
-      <c r="H20" s="10">
+      <c r="G24" s="10">
+        <v>0</v>
+      </c>
+      <c r="H24" s="10">
         <v>850</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B25" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C25" s="7">
         <v>43</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D25" s="11">
         <v>45129</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E25" s="7">
         <v>15400</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F25" s="10">
         <v>15400</v>
       </c>
-      <c r="G21" s="10">
-        <v>0</v>
-      </c>
-      <c r="H21" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="G25" s="10">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B26" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C26" s="7">
         <v>66</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D26" s="11">
         <v>45176</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E26" s="7">
         <v>17100</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F26" s="10">
         <v>17100</v>
       </c>
-      <c r="G22" s="10">
-        <v>0</v>
-      </c>
-      <c r="H22" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B27" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C27" s="7">
         <v>58</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D27" s="11">
         <v>45159</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E27" s="7">
         <v>14550</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F27" s="10">
         <v>14550</v>
       </c>
-      <c r="G23" s="10">
-        <v>0</v>
-      </c>
-      <c r="H23" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="G27" s="10">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="7">
+        <v>5</v>
+      </c>
+      <c r="D28" s="11">
+        <v>45393</v>
+      </c>
+      <c r="E28" s="7">
+        <v>24600</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0</v>
+      </c>
+      <c r="H28" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B29" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C29" s="7">
         <v>59</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D29" s="11">
         <v>45159</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E29" s="7">
         <v>5350</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F29" s="10">
         <v>5350</v>
       </c>
-      <c r="G24" s="10">
-        <v>0</v>
-      </c>
-      <c r="H24" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+      <c r="G29" s="10">
+        <v>0</v>
+      </c>
+      <c r="H29" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B30" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C30" s="7">
         <v>86</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D30" s="11">
         <v>45202</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E30" s="7">
         <v>7700</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F30" s="10">
         <v>7700</v>
       </c>
-      <c r="G25" s="10">
-        <v>0</v>
-      </c>
-      <c r="H25" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="7">
-        <v>60</v>
-      </c>
-      <c r="D26" s="11">
-        <v>45164</v>
-      </c>
-      <c r="E26" s="7">
-        <v>10099</v>
-      </c>
-      <c r="F26" s="10">
-        <v>10099</v>
-      </c>
-      <c r="G26" s="10">
-        <v>0</v>
-      </c>
-      <c r="H26" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="7">
-        <v>82</v>
-      </c>
-      <c r="D27" s="11">
-        <v>45192</v>
-      </c>
-      <c r="E27" s="7">
-        <v>7480</v>
-      </c>
-      <c r="F27" s="10">
-        <v>7480</v>
-      </c>
-      <c r="G27" s="10">
-        <v>0</v>
-      </c>
-      <c r="H27" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="7">
-        <v>91</v>
-      </c>
-      <c r="D28" s="11">
-        <v>45211</v>
-      </c>
-      <c r="E28" s="7">
-        <v>14900</v>
-      </c>
-      <c r="F28" s="10">
-        <v>14900</v>
-      </c>
-      <c r="G28" s="10">
-        <v>0</v>
-      </c>
-      <c r="H28" s="10">
-        <v>0</v>
-      </c>
-      <c r="I28" s="4">
-        <v>45257</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="7">
-        <v>100</v>
-      </c>
-      <c r="D29" s="11">
-        <v>45231</v>
-      </c>
-      <c r="E29" s="7">
-        <v>11598</v>
-      </c>
-      <c r="F29" s="10">
-        <v>11598</v>
-      </c>
-      <c r="G29" s="10">
-        <v>0</v>
-      </c>
-      <c r="H29" s="10">
-        <v>0</v>
-      </c>
-      <c r="I29" s="4">
-        <v>45257</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="7">
-        <v>117</v>
-      </c>
-      <c r="D30" s="11">
-        <v>45259</v>
-      </c>
-      <c r="E30" s="7">
-        <v>13990</v>
-      </c>
-      <c r="F30" s="10">
-        <v>13990</v>
-      </c>
       <c r="G30" s="10">
         <v>0</v>
       </c>
       <c r="H30" s="10">
         <v>0</v>
       </c>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
+    </row>
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>97</v>
       </c>
       <c r="C31" s="7">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="D31" s="11">
-        <v>45278</v>
+        <v>45164</v>
       </c>
       <c r="E31" s="7">
-        <v>12400</v>
-      </c>
-      <c r="F31" s="7">
-        <v>12400</v>
+        <v>10099</v>
+      </c>
+      <c r="F31" s="10">
+        <v>10099</v>
       </c>
       <c r="G31" s="10">
         <v>0</v>
@@ -3094,26 +3329,25 @@
       <c r="H31" s="10">
         <v>0</v>
       </c>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+    </row>
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>97</v>
       </c>
       <c r="C32" s="7">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="D32" s="11">
-        <v>45294</v>
+        <v>45192</v>
       </c>
       <c r="E32" s="7">
-        <v>4300</v>
-      </c>
-      <c r="F32" s="7">
-        <v>4300</v>
+        <v>7480</v>
+      </c>
+      <c r="F32" s="10">
+        <v>7480</v>
       </c>
       <c r="G32" s="10">
         <v>0</v>
@@ -3121,26 +3355,25 @@
       <c r="H32" s="10">
         <v>0</v>
       </c>
-      <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>97</v>
       </c>
       <c r="C33" s="7">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="D33" s="11">
-        <v>45343</v>
+        <v>45211</v>
       </c>
       <c r="E33" s="7">
-        <v>4800</v>
-      </c>
-      <c r="F33" s="7">
-        <v>0</v>
+        <v>14900</v>
+      </c>
+      <c r="F33" s="10">
+        <v>14900</v>
       </c>
       <c r="G33" s="10">
         <v>0</v>
@@ -3151,23 +3384,23 @@
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>97</v>
       </c>
       <c r="C34" s="7">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="D34" s="11">
-        <v>45350</v>
+        <v>45231</v>
       </c>
       <c r="E34" s="7">
-        <v>6800</v>
+        <v>11598</v>
       </c>
       <c r="F34" s="10">
-        <v>0</v>
+        <v>11598</v>
       </c>
       <c r="G34" s="10">
         <v>0</v>
@@ -3185,150 +3418,151 @@
         <v>97</v>
       </c>
       <c r="C35" s="7">
+        <v>117</v>
+      </c>
+      <c r="D35" s="11">
+        <v>45259</v>
+      </c>
+      <c r="E35" s="7">
+        <v>13990</v>
+      </c>
+      <c r="F35" s="10">
+        <v>13990</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="7">
+        <v>125</v>
+      </c>
+      <c r="D36" s="11">
+        <v>45278</v>
+      </c>
+      <c r="E36" s="7">
+        <v>12400</v>
+      </c>
+      <c r="F36" s="7">
+        <v>12400</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="7">
+        <v>132</v>
+      </c>
+      <c r="D37" s="11">
+        <v>45294</v>
+      </c>
+      <c r="E37" s="7">
+        <v>4300</v>
+      </c>
+      <c r="F37" s="7">
+        <v>4300</v>
+      </c>
+      <c r="G37" s="10">
+        <v>0</v>
+      </c>
+      <c r="H37" s="10">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="7">
+        <v>147</v>
+      </c>
+      <c r="D38" s="11">
+        <v>45343</v>
+      </c>
+      <c r="E38" s="7">
+        <v>4800</v>
+      </c>
+      <c r="F38" s="7">
+        <v>4800</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0</v>
+      </c>
+      <c r="H38" s="10">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="7">
+        <v>151</v>
+      </c>
+      <c r="D39" s="11">
+        <v>45350</v>
+      </c>
+      <c r="E39" s="7">
+        <v>6800</v>
+      </c>
+      <c r="F39" s="7">
+        <v>6800</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0</v>
+      </c>
+      <c r="H39" s="10">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="7">
         <v>152</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D40" s="11">
         <v>45356</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E40" s="7">
         <v>14150</v>
       </c>
-      <c r="F35" s="10">
-        <v>0</v>
-      </c>
-      <c r="G35" s="10">
-        <v>0</v>
-      </c>
-      <c r="H35" s="10">
-        <v>0</v>
-      </c>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="7">
-        <v>61</v>
-      </c>
-      <c r="D36" s="11">
-        <v>45164</v>
-      </c>
-      <c r="E36" s="7">
-        <v>5000</v>
-      </c>
-      <c r="F36" s="10">
-        <v>5000</v>
-      </c>
-      <c r="G36" s="10">
-        <v>0</v>
-      </c>
-      <c r="H36" s="10">
-        <v>0</v>
-      </c>
-      <c r="I36" s="4">
-        <v>45257</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" s="7">
-        <v>71</v>
-      </c>
-      <c r="D37" s="11">
-        <v>45181</v>
-      </c>
-      <c r="E37" s="7">
-        <v>12899</v>
-      </c>
-      <c r="F37" s="10">
-        <v>9500</v>
-      </c>
-      <c r="G37" s="10">
-        <v>0</v>
-      </c>
-      <c r="H37" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="7">
-        <v>67</v>
-      </c>
-      <c r="D38" s="11">
-        <v>45177</v>
-      </c>
-      <c r="E38" s="7">
-        <v>14300</v>
-      </c>
-      <c r="F38" s="10">
-        <v>14300</v>
-      </c>
-      <c r="G38" s="10">
-        <v>0</v>
-      </c>
-      <c r="H38" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" s="7">
-        <v>85</v>
-      </c>
-      <c r="D39" s="11">
-        <v>45202</v>
-      </c>
-      <c r="E39" s="7">
-        <v>8700</v>
-      </c>
-      <c r="F39" s="10">
-        <v>8700</v>
-      </c>
-      <c r="G39" s="10">
-        <v>0</v>
-      </c>
-      <c r="H39" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="7">
-        <v>96</v>
-      </c>
-      <c r="D40" s="11">
-        <v>45225</v>
-      </c>
-      <c r="E40" s="7">
-        <v>13478</v>
-      </c>
-      <c r="F40" s="10">
-        <v>3000</v>
+      <c r="F40" s="7">
+        <v>14150</v>
       </c>
       <c r="G40" s="10">
         <v>0</v>
@@ -3336,25 +3570,26 @@
       <c r="H40" s="10">
         <v>0</v>
       </c>
+      <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
-        <v>64</v>
+      <c r="A41" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C41" s="7">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D41" s="11">
-        <v>45155</v>
+        <v>45397</v>
       </c>
       <c r="E41" s="7">
-        <v>5000</v>
+        <v>16250</v>
       </c>
       <c r="F41" s="10">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G41" s="10">
         <v>0</v>
@@ -3362,25 +3597,26 @@
       <c r="H41" s="10">
         <v>0</v>
       </c>
+      <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
-        <v>65</v>
+      <c r="A42" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" s="12">
-        <v>72</v>
+        <v>97</v>
+      </c>
+      <c r="C42" s="7">
+        <v>19</v>
       </c>
       <c r="D42" s="11">
-        <v>45181</v>
+        <v>45414</v>
       </c>
       <c r="E42" s="7">
-        <v>17900</v>
+        <v>23100</v>
       </c>
       <c r="F42" s="10">
-        <v>17900</v>
+        <v>0</v>
       </c>
       <c r="G42" s="10">
         <v>0</v>
@@ -3388,28 +3624,26 @@
       <c r="H42" s="10">
         <v>0</v>
       </c>
-      <c r="I42" s="4">
-        <v>45255</v>
-      </c>
+      <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C43" s="7">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D43" s="11">
-        <v>45182</v>
+        <v>45164</v>
       </c>
       <c r="E43" s="7">
-        <v>12440</v>
+        <v>5000</v>
       </c>
       <c r="F43" s="10">
-        <v>12440</v>
+        <v>5000</v>
       </c>
       <c r="G43" s="10">
         <v>0</v>
@@ -3417,28 +3651,26 @@
       <c r="H43" s="10">
         <v>0</v>
       </c>
-      <c r="I43" s="4">
-        <v>45255</v>
-      </c>
+      <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C44" s="7">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="D44" s="11">
-        <v>45293</v>
+        <v>45181</v>
       </c>
       <c r="E44" s="7">
-        <v>37000</v>
+        <v>12899</v>
       </c>
       <c r="F44" s="10">
-        <v>0</v>
+        <v>12899</v>
       </c>
       <c r="G44" s="10">
         <v>0</v>
@@ -3446,26 +3678,25 @@
       <c r="H44" s="10">
         <v>0</v>
       </c>
-      <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C45" s="7">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="D45" s="11">
-        <v>45339</v>
+        <v>45177</v>
       </c>
       <c r="E45" s="7">
-        <v>25651</v>
+        <v>14300</v>
       </c>
       <c r="F45" s="10">
-        <v>0</v>
+        <v>14300</v>
       </c>
       <c r="G45" s="10">
         <v>0</v>
@@ -3473,26 +3704,25 @@
       <c r="H45" s="10">
         <v>0</v>
       </c>
-      <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C46" s="7">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D46" s="11">
-        <v>45182</v>
+        <v>45202</v>
       </c>
       <c r="E46" s="7">
-        <v>6500</v>
+        <v>8700</v>
       </c>
       <c r="F46" s="10">
-        <v>6500</v>
+        <v>8700</v>
       </c>
       <c r="G46" s="10">
         <v>0</v>
@@ -3503,22 +3733,22 @@
     </row>
     <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C47" s="7">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D47" s="11">
-        <v>45188</v>
+        <v>45225</v>
       </c>
       <c r="E47" s="7">
-        <v>9000</v>
-      </c>
-      <c r="F47" s="10">
-        <v>9000</v>
+        <v>13478</v>
+      </c>
+      <c r="F47" s="7">
+        <v>13478</v>
       </c>
       <c r="G47" s="10">
         <v>0</v>
@@ -3529,22 +3759,22 @@
     </row>
     <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C48" s="7">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="D48" s="11">
-        <v>45363</v>
+        <v>45155</v>
       </c>
       <c r="E48" s="7">
-        <v>9400</v>
+        <v>5000</v>
       </c>
       <c r="F48" s="10">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G48" s="10">
         <v>0</v>
@@ -3555,22 +3785,22 @@
     </row>
     <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" s="7">
-        <v>159</v>
+        <v>101</v>
+      </c>
+      <c r="C49" s="12">
+        <v>72</v>
       </c>
       <c r="D49" s="11">
-        <v>45364</v>
+        <v>45181</v>
       </c>
       <c r="E49" s="7">
-        <v>19500</v>
+        <v>17900</v>
       </c>
       <c r="F49" s="10">
-        <v>0</v>
+        <v>17900</v>
       </c>
       <c r="G49" s="10">
         <v>0</v>
@@ -3578,25 +3808,26 @@
       <c r="H49" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="s">
-        <v>67</v>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C50" s="7">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D50" s="11">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="E50" s="7">
-        <v>10200</v>
+        <v>12440</v>
       </c>
       <c r="F50" s="10">
-        <v>2500</v>
+        <v>12440</v>
       </c>
       <c r="G50" s="10">
         <v>0</v>
@@ -3604,56 +3835,55 @@
       <c r="H50" s="10">
         <v>0</v>
       </c>
+      <c r="I50" s="4"/>
     </row>
     <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="10" t="s">
-        <v>68</v>
+      <c r="A51" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C51" s="7">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="D51" s="11">
-        <v>45184</v>
+        <v>45293</v>
       </c>
       <c r="E51" s="7">
-        <v>15950</v>
-      </c>
-      <c r="F51" s="10">
-        <v>14790</v>
-      </c>
-      <c r="G51" s="12">
+        <v>37000</v>
+      </c>
+      <c r="F51" s="7">
+        <v>37000</v>
+      </c>
+      <c r="G51" s="10">
         <v>0</v>
       </c>
       <c r="H51" s="10">
         <v>0</v>
       </c>
-      <c r="I51" s="4">
-        <v>45258</v>
-      </c>
+      <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="10" t="s">
-        <v>68</v>
+      <c r="A52" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C52" s="7">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="D52" s="11">
-        <v>45267</v>
+        <v>45339</v>
       </c>
       <c r="E52" s="7">
-        <v>18600</v>
+        <v>25651</v>
       </c>
       <c r="F52" s="10">
         <v>0</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G52" s="10">
         <v>0</v>
       </c>
       <c r="H52" s="10">
@@ -3663,22 +3893,22 @@
     </row>
     <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C53" s="7">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D53" s="11">
-        <v>45191</v>
+        <v>45182</v>
       </c>
       <c r="E53" s="7">
-        <v>9398</v>
+        <v>6500</v>
       </c>
       <c r="F53" s="10">
-        <v>1000</v>
+        <v>6500</v>
       </c>
       <c r="G53" s="10">
         <v>0</v>
@@ -3689,80 +3919,74 @@
     </row>
     <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C54" s="7">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D54" s="11">
-        <v>45201</v>
+        <v>45188</v>
       </c>
       <c r="E54" s="7">
-        <v>9740</v>
+        <v>9000</v>
       </c>
       <c r="F54" s="10">
-        <v>9240</v>
+        <v>9000</v>
       </c>
       <c r="G54" s="10">
         <v>0</v>
       </c>
       <c r="H54" s="10">
         <v>0</v>
-      </c>
-      <c r="I54" s="4">
-        <v>45257</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C55" s="7">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="D55" s="11">
-        <v>45201</v>
+        <v>45363</v>
       </c>
       <c r="E55" s="7">
-        <v>14100</v>
-      </c>
-      <c r="F55" s="10">
-        <v>9000</v>
+        <v>9400</v>
+      </c>
+      <c r="F55" s="7">
+        <v>9400</v>
       </c>
       <c r="G55" s="10">
         <v>0</v>
       </c>
       <c r="H55" s="10">
         <v>0</v>
-      </c>
-      <c r="I55" s="4">
-        <v>45259</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C56" s="7">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="D56" s="11">
-        <v>45203</v>
+        <v>45364</v>
       </c>
       <c r="E56" s="7">
-        <v>14800</v>
-      </c>
-      <c r="F56" s="12">
-        <v>10000</v>
+        <v>19500</v>
+      </c>
+      <c r="F56" s="7">
+        <v>19500</v>
       </c>
       <c r="G56" s="10">
         <v>0</v>
@@ -3773,22 +3997,22 @@
     </row>
     <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C57" s="7">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="D57" s="11">
-        <v>45204</v>
+        <v>45391</v>
       </c>
       <c r="E57" s="7">
-        <v>9630</v>
+        <v>54650</v>
       </c>
       <c r="F57" s="10">
-        <v>9630</v>
+        <v>0</v>
       </c>
       <c r="G57" s="10">
         <v>0</v>
@@ -3797,24 +4021,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
-        <v>72</v>
+    <row r="58" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C58" s="7">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D58" s="11">
-        <v>45205</v>
+        <v>45183</v>
       </c>
       <c r="E58" s="7">
-        <v>13800</v>
+        <v>10200</v>
       </c>
       <c r="F58" s="10">
-        <v>13800</v>
+        <v>2500</v>
       </c>
       <c r="G58" s="10">
         <v>0</v>
@@ -3824,74 +4048,76 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="7" t="s">
-        <v>72</v>
+      <c r="A59" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C59" s="7">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="D59" s="11">
-        <v>45226</v>
+        <v>45184</v>
       </c>
       <c r="E59" s="7">
-        <v>13596</v>
+        <v>15950</v>
       </c>
       <c r="F59" s="10">
-        <v>0</v>
-      </c>
-      <c r="G59" s="10">
+        <v>15950</v>
+      </c>
+      <c r="G59" s="12">
         <v>0</v>
       </c>
       <c r="H59" s="10">
         <v>0</v>
       </c>
+      <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C60" s="7">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="D60" s="11">
-        <v>45240</v>
+        <v>45267</v>
       </c>
       <c r="E60" s="7">
-        <v>28900</v>
+        <v>18600</v>
       </c>
       <c r="F60" s="10">
-        <v>0</v>
-      </c>
-      <c r="G60" s="10">
+        <v>7500</v>
+      </c>
+      <c r="G60" s="12">
         <v>0</v>
       </c>
       <c r="H60" s="10">
         <v>0</v>
       </c>
+      <c r="I60" s="4"/>
     </row>
     <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="7" t="s">
-        <v>72</v>
+      <c r="A61" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C61" s="7">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="D61" s="11">
-        <v>45241</v>
+        <v>45411</v>
       </c>
       <c r="E61" s="7">
-        <v>186301</v>
-      </c>
-      <c r="F61" s="10">
+        <v>5280</v>
+      </c>
+      <c r="F61" s="12">
         <v>0</v>
       </c>
       <c r="G61" s="10">
@@ -3900,267 +4126,288 @@
       <c r="H61" s="10">
         <v>0</v>
       </c>
+      <c r="I61" s="4"/>
     </row>
     <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" s="7">
+        <v>80</v>
+      </c>
+      <c r="D62" s="11">
+        <v>45191</v>
+      </c>
+      <c r="E62" s="7">
+        <v>9398</v>
+      </c>
+      <c r="F62" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G62" s="10">
+        <v>0</v>
+      </c>
+      <c r="H62" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63" s="7">
+        <v>83</v>
+      </c>
+      <c r="D63" s="11">
+        <v>45201</v>
+      </c>
+      <c r="E63" s="7">
+        <v>9740</v>
+      </c>
+      <c r="F63" s="7">
+        <v>9740</v>
+      </c>
+      <c r="G63" s="10">
+        <v>0</v>
+      </c>
+      <c r="H63" s="10">
+        <v>0</v>
+      </c>
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" s="7">
+        <v>84</v>
+      </c>
+      <c r="D64" s="11">
+        <v>45201</v>
+      </c>
+      <c r="E64" s="7">
+        <v>14100</v>
+      </c>
+      <c r="F64" s="10">
+        <v>12100</v>
+      </c>
+      <c r="G64" s="10">
+        <v>0</v>
+      </c>
+      <c r="H64" s="10">
+        <v>0</v>
+      </c>
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B65" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C65" s="7">
+        <v>87</v>
+      </c>
+      <c r="D65" s="11">
+        <v>45203</v>
+      </c>
+      <c r="E65" s="7">
+        <v>14800</v>
+      </c>
+      <c r="F65" s="12">
+        <v>10000</v>
+      </c>
+      <c r="G65" s="10">
+        <v>0</v>
+      </c>
+      <c r="H65" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" s="7">
+        <v>88</v>
+      </c>
+      <c r="D66" s="11">
+        <v>45204</v>
+      </c>
+      <c r="E66" s="7">
+        <v>9630</v>
+      </c>
+      <c r="F66" s="10">
+        <v>9630</v>
+      </c>
+      <c r="G66" s="10">
+        <v>0</v>
+      </c>
+      <c r="H66" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67" s="7">
+        <v>89</v>
+      </c>
+      <c r="D67" s="11">
+        <v>45205</v>
+      </c>
+      <c r="E67" s="7">
+        <v>13800</v>
+      </c>
+      <c r="F67" s="10">
+        <v>13800</v>
+      </c>
+      <c r="G67" s="10">
+        <v>0</v>
+      </c>
+      <c r="H67" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C68" s="7">
+        <v>99</v>
+      </c>
+      <c r="D68" s="11">
+        <v>45226</v>
+      </c>
+      <c r="E68" s="7">
+        <v>13596</v>
+      </c>
+      <c r="F68" s="10">
+        <v>0</v>
+      </c>
+      <c r="G68" s="10">
+        <v>0</v>
+      </c>
+      <c r="H68" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" s="7">
+        <v>107</v>
+      </c>
+      <c r="D69" s="11">
+        <v>45240</v>
+      </c>
+      <c r="E69" s="7">
+        <v>28900</v>
+      </c>
+      <c r="F69" s="10">
+        <v>0</v>
+      </c>
+      <c r="G69" s="10">
+        <v>0</v>
+      </c>
+      <c r="H69" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" s="7">
+        <v>108</v>
+      </c>
+      <c r="D70" s="11">
+        <v>45241</v>
+      </c>
+      <c r="E70" s="7">
+        <v>186301</v>
+      </c>
+      <c r="F70" s="10">
+        <v>0</v>
+      </c>
+      <c r="G70" s="10">
+        <v>0</v>
+      </c>
+      <c r="H70" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" s="7">
         <v>109</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D71" s="11">
         <v>45241</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E71" s="7">
         <v>22000</v>
       </c>
-      <c r="F62" s="10">
-        <v>0</v>
-      </c>
-      <c r="G62" s="10">
-        <v>0</v>
-      </c>
-      <c r="H62" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C63" s="7">
-        <v>90</v>
-      </c>
-      <c r="D63" s="11">
-        <v>45205</v>
-      </c>
-      <c r="E63" s="7">
-        <v>10000</v>
-      </c>
-      <c r="F63" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G63" s="10">
-        <v>0</v>
-      </c>
-      <c r="H63" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C64" s="7">
-        <v>106</v>
-      </c>
-      <c r="D64" s="11">
-        <v>45238</v>
-      </c>
-      <c r="E64" s="7">
-        <v>15001</v>
-      </c>
-      <c r="F64" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G64" s="10">
-        <v>0</v>
-      </c>
-      <c r="H64" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C65" s="7">
-        <v>148</v>
-      </c>
-      <c r="D65" s="11">
-        <v>45348</v>
-      </c>
-      <c r="E65" s="7">
-        <v>20600</v>
-      </c>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-    </row>
-    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C66" s="7">
-        <v>92</v>
-      </c>
-      <c r="D66" s="11">
-        <v>45216</v>
-      </c>
-      <c r="E66" s="7">
-        <v>10200</v>
-      </c>
-      <c r="F66" s="10">
-        <v>10200</v>
-      </c>
-      <c r="G66" s="10">
-        <v>0</v>
-      </c>
-      <c r="H66" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C67" s="7">
-        <v>104</v>
-      </c>
-      <c r="D67" s="11">
-        <v>45234</v>
-      </c>
-      <c r="E67" s="7">
-        <v>20801</v>
-      </c>
-      <c r="F67" s="10">
-        <v>20801</v>
-      </c>
-      <c r="G67" s="10">
-        <v>0</v>
-      </c>
-      <c r="H67" s="10">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C68" s="7">
-        <v>123</v>
-      </c>
-      <c r="D68" s="11">
-        <v>45271</v>
-      </c>
-      <c r="E68" s="7">
-        <v>12400</v>
-      </c>
-      <c r="F68" s="10">
-        <v>12400</v>
-      </c>
-      <c r="G68" s="10">
-        <v>0</v>
-      </c>
-      <c r="H68" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C69" s="7">
-        <v>130</v>
-      </c>
-      <c r="D69" s="11">
-        <v>45292</v>
-      </c>
-      <c r="E69" s="7">
-        <v>15600</v>
-      </c>
-      <c r="F69" s="10">
-        <v>15600</v>
-      </c>
-      <c r="G69" s="10">
-        <v>0</v>
-      </c>
-      <c r="H69" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C70" s="7">
-        <v>149</v>
-      </c>
-      <c r="D70" s="11">
-        <v>45349</v>
-      </c>
-      <c r="E70" s="7">
-        <v>15600</v>
-      </c>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-    </row>
-    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C71" s="7">
-        <v>153</v>
-      </c>
-      <c r="D71" s="11">
-        <v>45357</v>
-      </c>
-      <c r="E71" s="7">
-        <v>30300</v>
-      </c>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
+      <c r="F71" s="10">
+        <v>0</v>
+      </c>
+      <c r="G71" s="10">
+        <v>0</v>
+      </c>
+      <c r="H71" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="C72" s="7">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D72" s="11">
-        <v>45216</v>
+        <v>45205</v>
       </c>
       <c r="E72" s="7">
-        <v>3600</v>
-      </c>
-      <c r="F72" s="8">
-        <v>3600</v>
+        <v>10000</v>
+      </c>
+      <c r="F72" s="10">
+        <v>10000</v>
       </c>
       <c r="G72" s="10">
         <v>0</v>
@@ -4171,22 +4418,22 @@
     </row>
     <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="C73" s="7">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D73" s="11">
-        <v>45217</v>
+        <v>45238</v>
       </c>
       <c r="E73" s="7">
-        <v>22500</v>
-      </c>
-      <c r="F73" s="8">
-        <v>22500</v>
+        <v>15001</v>
+      </c>
+      <c r="F73" s="10">
+        <v>10000</v>
       </c>
       <c r="G73" s="10">
         <v>0</v>
@@ -4197,22 +4444,22 @@
     </row>
     <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="C74" s="7">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="D74" s="11">
-        <v>45097</v>
+        <v>45348</v>
       </c>
       <c r="E74" s="7">
-        <v>9398</v>
+        <v>20600</v>
       </c>
       <c r="F74" s="10">
-        <v>9398</v>
+        <v>0</v>
       </c>
       <c r="G74" s="10">
         <v>0</v>
@@ -4223,22 +4470,22 @@
     </row>
     <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="C75" s="7">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D75" s="11">
-        <v>45108</v>
+        <v>45391</v>
       </c>
       <c r="E75" s="7">
-        <v>11250</v>
+        <v>18950</v>
       </c>
       <c r="F75" s="10">
-        <v>11250</v>
+        <v>0</v>
       </c>
       <c r="G75" s="10">
         <v>0</v>
@@ -4249,22 +4496,22 @@
     </row>
     <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C76" s="7">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="D76" s="11">
-        <v>45111</v>
+        <v>45216</v>
       </c>
       <c r="E76" s="7">
-        <v>28340</v>
+        <v>10200</v>
       </c>
       <c r="F76" s="10">
-        <v>28340</v>
+        <v>10200</v>
       </c>
       <c r="G76" s="10">
         <v>0</v>
@@ -4275,48 +4522,48 @@
     </row>
     <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C77" s="7">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D77" s="11">
-        <v>45251</v>
+        <v>45234</v>
       </c>
       <c r="E77" s="7">
-        <v>8620</v>
+        <v>20801</v>
       </c>
       <c r="F77" s="10">
-        <v>8620</v>
+        <v>20801</v>
       </c>
       <c r="G77" s="10">
         <v>0</v>
       </c>
       <c r="H77" s="10">
-        <v>0</v>
+        <v>416</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C78" s="7">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="D78" s="11">
-        <v>45327</v>
+        <v>45271</v>
       </c>
       <c r="E78" s="7">
-        <v>22500</v>
+        <v>12400</v>
       </c>
       <c r="F78" s="10">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G78" s="10">
         <v>0</v>
@@ -4327,22 +4574,22 @@
     </row>
     <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C79" s="7">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="D79" s="11">
-        <v>45226</v>
+        <v>45292</v>
       </c>
       <c r="E79" s="7">
-        <v>11000</v>
+        <v>15600</v>
       </c>
       <c r="F79" s="10">
-        <v>11000</v>
+        <v>15600</v>
       </c>
       <c r="G79" s="10">
         <v>0</v>
@@ -4353,22 +4600,22 @@
     </row>
     <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C80" s="7">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="D80" s="11">
-        <v>45233</v>
+        <v>45349</v>
       </c>
       <c r="E80" s="7">
-        <v>5000</v>
-      </c>
-      <c r="F80" s="10">
-        <v>5000</v>
+        <v>15600</v>
+      </c>
+      <c r="F80" s="7">
+        <v>15600</v>
       </c>
       <c r="G80" s="10">
         <v>0</v>
@@ -4379,22 +4626,22 @@
     </row>
     <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C81" s="7">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="D81" s="11">
-        <v>45233</v>
+        <v>45357</v>
       </c>
       <c r="E81" s="7">
-        <v>10000</v>
+        <v>30300</v>
       </c>
       <c r="F81" s="10">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G81" s="10">
         <v>0</v>
@@ -4405,22 +4652,22 @@
     </row>
     <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C82" s="7">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="D82" s="11">
-        <v>45237</v>
+        <v>45415</v>
       </c>
       <c r="E82" s="7">
-        <v>10400</v>
+        <v>16500</v>
       </c>
       <c r="F82" s="10">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="G82" s="10">
         <v>0</v>
@@ -4431,22 +4678,22 @@
     </row>
     <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C83" s="7">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="D83" s="11">
-        <v>45283</v>
+        <v>45216</v>
       </c>
       <c r="E83" s="7">
-        <v>23880</v>
-      </c>
-      <c r="F83" s="10">
-        <v>0</v>
+        <v>3600</v>
+      </c>
+      <c r="F83" s="8">
+        <v>3600</v>
       </c>
       <c r="G83" s="10">
         <v>0</v>
@@ -4457,22 +4704,22 @@
     </row>
     <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C84" s="7">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="D84" s="11">
-        <v>45369</v>
+        <v>45217</v>
       </c>
       <c r="E84" s="7">
-        <v>6450</v>
-      </c>
-      <c r="F84" s="10">
-        <v>0</v>
+        <v>22500</v>
+      </c>
+      <c r="F84" s="8">
+        <v>22500</v>
       </c>
       <c r="G84" s="10">
         <v>0</v>
@@ -4483,384 +4730,384 @@
     </row>
     <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" s="7">
+        <v>16</v>
+      </c>
+      <c r="D85" s="11">
+        <v>45097</v>
+      </c>
+      <c r="E85" s="7">
+        <v>9398</v>
+      </c>
+      <c r="F85" s="10">
+        <v>9398</v>
+      </c>
+      <c r="G85" s="10">
+        <v>0</v>
+      </c>
+      <c r="H85" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86" s="7">
+        <v>25</v>
+      </c>
+      <c r="D86" s="11">
+        <v>45108</v>
+      </c>
+      <c r="E86" s="7">
+        <v>11250</v>
+      </c>
+      <c r="F86" s="10">
+        <v>11250</v>
+      </c>
+      <c r="G86" s="10">
+        <v>0</v>
+      </c>
+      <c r="H86" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" s="7">
+        <v>30</v>
+      </c>
+      <c r="D87" s="11">
+        <v>45111</v>
+      </c>
+      <c r="E87" s="7">
+        <v>28340</v>
+      </c>
+      <c r="F87" s="10">
+        <v>28340</v>
+      </c>
+      <c r="G87" s="10">
+        <v>0</v>
+      </c>
+      <c r="H87" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" s="7">
+        <v>115</v>
+      </c>
+      <c r="D88" s="11">
+        <v>45251</v>
+      </c>
+      <c r="E88" s="7">
+        <v>8620</v>
+      </c>
+      <c r="F88" s="10">
+        <v>8620</v>
+      </c>
+      <c r="G88" s="10">
+        <v>0</v>
+      </c>
+      <c r="H88" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" s="7">
+        <v>144</v>
+      </c>
+      <c r="D89" s="11">
+        <v>45327</v>
+      </c>
+      <c r="E89" s="7">
+        <v>22500</v>
+      </c>
+      <c r="F89" s="7">
+        <v>22500</v>
+      </c>
+      <c r="G89" s="10">
+        <v>0</v>
+      </c>
+      <c r="H89" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C90" s="7">
+        <v>176</v>
+      </c>
+      <c r="D90" s="11">
+        <v>45377</v>
+      </c>
+      <c r="E90" s="7">
+        <v>8600</v>
+      </c>
+      <c r="F90" s="10">
+        <v>0</v>
+      </c>
+      <c r="G90" s="10">
+        <v>0</v>
+      </c>
+      <c r="H90" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C91" s="7">
+        <v>7</v>
+      </c>
+      <c r="D91" s="11">
+        <v>45393</v>
+      </c>
+      <c r="E91" s="7">
+        <v>17400</v>
+      </c>
+      <c r="F91" s="10">
+        <v>0</v>
+      </c>
+      <c r="G91" s="10">
+        <v>0</v>
+      </c>
+      <c r="H91" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C92" s="7">
+        <v>1</v>
+      </c>
+      <c r="D92" s="11">
+        <v>45388</v>
+      </c>
+      <c r="E92" s="7">
+        <v>3200</v>
+      </c>
+      <c r="F92" s="10">
+        <v>0</v>
+      </c>
+      <c r="G92" s="10">
+        <v>0</v>
+      </c>
+      <c r="H92" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C93" s="7">
+        <v>98</v>
+      </c>
+      <c r="D93" s="11">
+        <v>45226</v>
+      </c>
+      <c r="E93" s="7">
+        <v>11000</v>
+      </c>
+      <c r="F93" s="10">
+        <v>11000</v>
+      </c>
+      <c r="G93" s="10">
+        <v>0</v>
+      </c>
+      <c r="H93" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C94" s="7">
+        <v>102</v>
+      </c>
+      <c r="D94" s="11">
+        <v>45233</v>
+      </c>
+      <c r="E94" s="7">
+        <v>5000</v>
+      </c>
+      <c r="F94" s="10">
+        <v>5000</v>
+      </c>
+      <c r="G94" s="10">
+        <v>0</v>
+      </c>
+      <c r="H94" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C95" s="7">
+        <v>103</v>
+      </c>
+      <c r="D95" s="11">
+        <v>45233</v>
+      </c>
+      <c r="E95" s="7">
+        <v>10000</v>
+      </c>
+      <c r="F95" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G95" s="10">
+        <v>0</v>
+      </c>
+      <c r="H95" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B96" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C96" s="7">
+        <v>105</v>
+      </c>
+      <c r="D96" s="11">
+        <v>45237</v>
+      </c>
+      <c r="E96" s="7">
+        <v>10400</v>
+      </c>
+      <c r="F96" s="10">
+        <v>10400</v>
+      </c>
+      <c r="G96" s="10">
+        <v>0</v>
+      </c>
+      <c r="H96" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" s="7">
+        <v>126</v>
+      </c>
+      <c r="D97" s="11">
+        <v>45283</v>
+      </c>
+      <c r="E97" s="7">
+        <v>23880</v>
+      </c>
+      <c r="F97" s="10">
+        <v>7960</v>
+      </c>
+      <c r="G97" s="10">
+        <v>0</v>
+      </c>
+      <c r="H97" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98" s="7">
+        <v>169</v>
+      </c>
+      <c r="D98" s="11">
+        <v>45369</v>
+      </c>
+      <c r="E98" s="7">
+        <v>6450</v>
+      </c>
+      <c r="F98" s="10">
+        <v>0</v>
+      </c>
+      <c r="G98" s="10">
+        <v>0</v>
+      </c>
+      <c r="H98" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" s="7">
         <v>168</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D99" s="11">
         <v>45367</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E99" s="7">
         <v>13300</v>
       </c>
-      <c r="F85" s="10">
-        <v>0</v>
-      </c>
-      <c r="G85" s="10">
-        <v>0</v>
-      </c>
-      <c r="H85" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C86" s="7">
-        <v>114</v>
-      </c>
-      <c r="D86" s="11">
-        <v>45247</v>
-      </c>
-      <c r="E86" s="7">
-        <v>23751</v>
-      </c>
-      <c r="F86" s="10">
-        <v>13751</v>
-      </c>
-      <c r="G86" s="10">
-        <v>0</v>
-      </c>
-      <c r="H86" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C87" s="7">
-        <v>119</v>
-      </c>
-      <c r="D87" s="11">
-        <v>45262</v>
-      </c>
-      <c r="E87" s="7">
-        <v>16760</v>
-      </c>
-      <c r="F87" s="10">
-        <v>5000</v>
-      </c>
-      <c r="G87" s="10">
-        <v>0</v>
-      </c>
-      <c r="H87" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C88" s="7">
-        <v>120</v>
-      </c>
-      <c r="D88" s="11">
-        <v>45266</v>
-      </c>
-      <c r="E88" s="7">
-        <v>15250</v>
-      </c>
-      <c r="F88" s="10">
-        <v>0</v>
-      </c>
-      <c r="G88" s="10">
-        <v>0</v>
-      </c>
-      <c r="H88" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C89" s="7">
-        <v>150</v>
-      </c>
-      <c r="D89" s="11">
-        <v>45349</v>
-      </c>
-      <c r="E89" s="7">
-        <v>10400</v>
-      </c>
-      <c r="F89" s="10">
-        <v>0</v>
-      </c>
-      <c r="G89" s="10">
-        <v>0</v>
-      </c>
-      <c r="H89" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C90" s="7">
-        <v>124</v>
-      </c>
-      <c r="D90" s="11">
-        <v>45271</v>
-      </c>
-      <c r="E90" s="7">
-        <v>14900</v>
-      </c>
-      <c r="F90" s="10">
-        <v>0</v>
-      </c>
-      <c r="G90" s="10">
-        <v>0</v>
-      </c>
-      <c r="H90" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C91" s="7">
-        <v>127</v>
-      </c>
-      <c r="D91" s="11">
-        <v>45285</v>
-      </c>
-      <c r="E91" s="7">
-        <v>19100</v>
-      </c>
-      <c r="F91" s="10">
-        <v>0</v>
-      </c>
-      <c r="G91" s="10">
-        <v>0</v>
-      </c>
-      <c r="H91" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C92" s="7">
-        <v>128</v>
-      </c>
-      <c r="D92" s="11">
-        <v>45286</v>
-      </c>
-      <c r="E92" s="7">
-        <v>18600</v>
-      </c>
-      <c r="F92" s="10">
-        <v>18600</v>
-      </c>
-      <c r="G92" s="10">
-        <v>0</v>
-      </c>
-      <c r="H92" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C93" s="7">
-        <v>129</v>
-      </c>
-      <c r="D93" s="11">
-        <v>45290</v>
-      </c>
-      <c r="E93" s="7">
-        <v>15400</v>
-      </c>
-      <c r="F93" s="10">
-        <v>0</v>
-      </c>
-      <c r="G93" s="10">
-        <v>0</v>
-      </c>
-      <c r="H93" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C94" s="7">
-        <v>137</v>
-      </c>
-      <c r="D94" s="11">
-        <v>45314</v>
-      </c>
-      <c r="E94" s="7">
-        <v>18000</v>
-      </c>
-      <c r="F94" s="10">
-        <v>0</v>
-      </c>
-      <c r="G94" s="10">
-        <v>0</v>
-      </c>
-      <c r="H94" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C95" s="7">
-        <v>141</v>
-      </c>
-      <c r="D95" s="11">
-        <v>45323</v>
-      </c>
-      <c r="E95" s="7">
-        <v>18600</v>
-      </c>
-      <c r="F95" s="10">
-        <v>0</v>
-      </c>
-      <c r="G95" s="10">
-        <v>0</v>
-      </c>
-      <c r="H95" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C96" s="7">
-        <v>143</v>
-      </c>
-      <c r="D96" s="11">
-        <v>45325</v>
-      </c>
-      <c r="E96" s="7">
-        <v>15001</v>
-      </c>
-      <c r="F96" s="10">
-        <v>0</v>
-      </c>
-      <c r="G96" s="10">
-        <v>0</v>
-      </c>
-      <c r="H96" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C97" s="7">
-        <v>145</v>
-      </c>
-      <c r="D97" s="11">
-        <v>45337</v>
-      </c>
-      <c r="E97" s="7">
-        <v>5000</v>
-      </c>
-      <c r="F97" s="10">
-        <v>0</v>
-      </c>
-      <c r="G97" s="10">
-        <v>0</v>
-      </c>
-      <c r="H97" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C98" s="7">
-        <v>156</v>
-      </c>
-      <c r="D98" s="11">
-        <v>45362</v>
-      </c>
-      <c r="E98" s="7">
-        <v>6600</v>
-      </c>
-      <c r="F98" s="10">
-        <v>0</v>
-      </c>
-      <c r="G98" s="10">
-        <v>0</v>
-      </c>
-      <c r="H98" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C99" s="7">
-        <v>160</v>
-      </c>
-      <c r="D99" s="11">
-        <v>45364</v>
-      </c>
-      <c r="E99" s="7">
-        <v>11300</v>
-      </c>
       <c r="F99" s="10">
         <v>0</v>
       </c>
@@ -4872,20 +5119,20 @@
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="15" t="s">
-        <v>168</v>
+      <c r="A100" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="C100" s="7">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D100" s="11">
-        <v>45366</v>
+        <v>45371</v>
       </c>
       <c r="E100" s="7">
-        <v>3500</v>
+        <v>5100</v>
       </c>
       <c r="F100" s="10">
         <v>0</v>
@@ -4898,20 +5145,20 @@
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="15" t="s">
-        <v>169</v>
+      <c r="A101" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="C101" s="7">
-        <v>170</v>
+        <v>9</v>
       </c>
       <c r="D101" s="11">
-        <v>45369</v>
+        <v>45397</v>
       </c>
       <c r="E101" s="7">
-        <v>10200</v>
+        <v>4750</v>
       </c>
       <c r="F101" s="10">
         <v>0</v>
@@ -4925,22 +5172,22 @@
     </row>
     <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C102" s="7">
         <v>114</v>
       </c>
-      <c r="B102" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C102" s="17">
-        <v>51</v>
-      </c>
       <c r="D102" s="11">
-        <v>45142</v>
-      </c>
-      <c r="E102" s="17">
-        <v>23250</v>
+        <v>45247</v>
+      </c>
+      <c r="E102" s="7">
+        <v>23751</v>
       </c>
       <c r="F102" s="10">
-        <v>23250</v>
+        <v>13751</v>
       </c>
       <c r="G102" s="10">
         <v>0</v>
@@ -4950,23 +5197,23 @@
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="16" t="s">
-        <v>115</v>
+      <c r="A103" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C103" s="17">
-        <v>53</v>
+        <v>140</v>
+      </c>
+      <c r="C103" s="7">
+        <v>119</v>
       </c>
       <c r="D103" s="11">
-        <v>45145</v>
-      </c>
-      <c r="E103" s="17">
-        <v>9200</v>
+        <v>45262</v>
+      </c>
+      <c r="E103" s="7">
+        <v>16760</v>
       </c>
       <c r="F103" s="10">
-        <v>9200</v>
+        <v>11750</v>
       </c>
       <c r="G103" s="10">
         <v>0</v>
@@ -4977,38 +5224,652 @@
     </row>
     <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C104" s="7">
+        <v>120</v>
+      </c>
+      <c r="D104" s="11">
+        <v>45266</v>
+      </c>
+      <c r="E104" s="7">
+        <v>15250</v>
+      </c>
+      <c r="F104" s="10">
+        <v>15250</v>
+      </c>
+      <c r="G104" s="10">
+        <v>0</v>
+      </c>
+      <c r="H104" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C105" s="7">
+        <v>150</v>
+      </c>
+      <c r="D105" s="11">
+        <v>45349</v>
+      </c>
+      <c r="E105" s="7">
+        <v>10400</v>
+      </c>
+      <c r="F105" s="10">
+        <v>0</v>
+      </c>
+      <c r="G105" s="10">
+        <v>0</v>
+      </c>
+      <c r="H105" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C106" s="7">
+        <v>124</v>
+      </c>
+      <c r="D106" s="11">
+        <v>45271</v>
+      </c>
+      <c r="E106" s="7">
+        <v>14900</v>
+      </c>
+      <c r="F106" s="10">
+        <v>0</v>
+      </c>
+      <c r="G106" s="10">
+        <v>0</v>
+      </c>
+      <c r="H106" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C107" s="7">
+        <v>127</v>
+      </c>
+      <c r="D107" s="11">
+        <v>45285</v>
+      </c>
+      <c r="E107" s="7">
+        <v>19100</v>
+      </c>
+      <c r="F107" s="10">
+        <v>0</v>
+      </c>
+      <c r="G107" s="10">
+        <v>0</v>
+      </c>
+      <c r="H107" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C108" s="7">
+        <v>128</v>
+      </c>
+      <c r="D108" s="11">
+        <v>45286</v>
+      </c>
+      <c r="E108" s="7">
+        <v>18600</v>
+      </c>
+      <c r="F108" s="10">
+        <v>18600</v>
+      </c>
+      <c r="G108" s="10">
+        <v>0</v>
+      </c>
+      <c r="H108" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C109" s="7">
+        <v>129</v>
+      </c>
+      <c r="D109" s="11">
+        <v>45290</v>
+      </c>
+      <c r="E109" s="7">
+        <v>15400</v>
+      </c>
+      <c r="F109" s="10">
+        <v>15400</v>
+      </c>
+      <c r="G109" s="10">
+        <v>0</v>
+      </c>
+      <c r="H109" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A110" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C110" s="7">
+        <v>23</v>
+      </c>
+      <c r="D110" s="11">
+        <v>45422</v>
+      </c>
+      <c r="E110" s="7">
+        <v>8400</v>
+      </c>
+      <c r="F110" s="10">
+        <v>0</v>
+      </c>
+      <c r="G110" s="10">
+        <v>0</v>
+      </c>
+      <c r="H110" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C111" s="7">
+        <v>137</v>
+      </c>
+      <c r="D111" s="11">
+        <v>45314</v>
+      </c>
+      <c r="E111" s="7">
+        <v>18000</v>
+      </c>
+      <c r="F111" s="10">
+        <v>5000</v>
+      </c>
+      <c r="G111" s="10">
+        <v>0</v>
+      </c>
+      <c r="H111" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A112" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C112" s="7">
+        <v>141</v>
+      </c>
+      <c r="D112" s="11">
+        <v>45323</v>
+      </c>
+      <c r="E112" s="7">
+        <v>18600</v>
+      </c>
+      <c r="F112" s="10">
+        <v>18600</v>
+      </c>
+      <c r="G112" s="10">
+        <v>0</v>
+      </c>
+      <c r="H112" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A113" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C113" s="7">
+        <v>143</v>
+      </c>
+      <c r="D113" s="11">
+        <v>45325</v>
+      </c>
+      <c r="E113" s="7">
+        <v>15001</v>
+      </c>
+      <c r="F113" s="10">
+        <v>0</v>
+      </c>
+      <c r="G113" s="10">
+        <v>0</v>
+      </c>
+      <c r="H113" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A114" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C114" s="7">
+        <v>145</v>
+      </c>
+      <c r="D114" s="11">
+        <v>45337</v>
+      </c>
+      <c r="E114" s="7">
+        <v>5000</v>
+      </c>
+      <c r="F114" s="10">
+        <v>5000</v>
+      </c>
+      <c r="G114" s="10">
+        <v>0</v>
+      </c>
+      <c r="H114" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A115" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C115" s="7">
+        <v>156</v>
+      </c>
+      <c r="D115" s="11">
+        <v>45362</v>
+      </c>
+      <c r="E115" s="7">
+        <v>6600</v>
+      </c>
+      <c r="F115" s="10">
+        <v>6600</v>
+      </c>
+      <c r="G115" s="10">
+        <v>0</v>
+      </c>
+      <c r="H115" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A116" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C116" s="7">
+        <v>17</v>
+      </c>
+      <c r="D116" s="11">
+        <v>45411</v>
+      </c>
+      <c r="E116" s="7">
+        <v>4200</v>
+      </c>
+      <c r="F116" s="10">
+        <v>0</v>
+      </c>
+      <c r="G116" s="10">
+        <v>0</v>
+      </c>
+      <c r="H116" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A117" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C117" s="7">
+        <v>160</v>
+      </c>
+      <c r="D117" s="11">
+        <v>45364</v>
+      </c>
+      <c r="E117" s="7">
+        <v>11300</v>
+      </c>
+      <c r="F117" s="10">
+        <v>0</v>
+      </c>
+      <c r="G117" s="10">
+        <v>0</v>
+      </c>
+      <c r="H117" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C118" s="7">
+        <v>166</v>
+      </c>
+      <c r="D118" s="11">
+        <v>45366</v>
+      </c>
+      <c r="E118" s="7">
+        <v>3500</v>
+      </c>
+      <c r="F118" s="10">
+        <v>0</v>
+      </c>
+      <c r="G118" s="10">
+        <v>0</v>
+      </c>
+      <c r="H118" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A119" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C119" s="7">
+        <v>170</v>
+      </c>
+      <c r="D119" s="11">
+        <v>45369</v>
+      </c>
+      <c r="E119" s="7">
+        <v>10200</v>
+      </c>
+      <c r="F119" s="10">
+        <v>0</v>
+      </c>
+      <c r="G119" s="10">
+        <v>0</v>
+      </c>
+      <c r="H119" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A120" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C120" s="7">
+        <v>172</v>
+      </c>
+      <c r="D120" s="11">
+        <v>45371</v>
+      </c>
+      <c r="E120" s="7">
+        <v>19250</v>
+      </c>
+      <c r="F120" s="10">
+        <v>24000</v>
+      </c>
+      <c r="G120" s="10">
+        <v>0</v>
+      </c>
+      <c r="H120" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A121" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C121" s="7">
+        <v>6</v>
+      </c>
+      <c r="D121" s="11">
+        <v>45393</v>
+      </c>
+      <c r="E121" s="7">
+        <v>35000</v>
+      </c>
+      <c r="F121" s="10">
+        <v>0</v>
+      </c>
+      <c r="G121" s="10">
+        <v>0</v>
+      </c>
+      <c r="H121" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A122" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C122" s="32">
+        <v>9</v>
+      </c>
+      <c r="D122" s="4">
+        <v>45397</v>
+      </c>
+      <c r="E122" s="32">
+        <v>4750</v>
+      </c>
+      <c r="F122" s="10">
+        <v>0</v>
+      </c>
+      <c r="G122" s="10">
+        <v>0</v>
+      </c>
+      <c r="H122" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A123" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="B123" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C123" s="32">
+        <v>13</v>
+      </c>
+      <c r="D123" s="4">
+        <v>45404</v>
+      </c>
+      <c r="E123" s="32">
+        <v>9900</v>
+      </c>
+      <c r="F123" s="10">
+        <v>0</v>
+      </c>
+      <c r="G123" s="10">
+        <v>0</v>
+      </c>
+      <c r="H123" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A124" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B124" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C124" s="32">
+        <v>14</v>
+      </c>
+      <c r="D124" s="4">
+        <v>45411</v>
+      </c>
+      <c r="E124" s="32">
+        <v>7400</v>
+      </c>
+      <c r="F124" s="10">
+        <v>0</v>
+      </c>
+      <c r="G124" s="10">
+        <v>0</v>
+      </c>
+      <c r="H124" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A125" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="B125" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C125" s="32">
+        <v>20</v>
+      </c>
+      <c r="D125" s="4">
+        <v>45414</v>
+      </c>
+      <c r="E125" s="32">
+        <v>6450</v>
+      </c>
+      <c r="F125" s="10">
+        <v>0</v>
+      </c>
+      <c r="G125" s="10">
+        <v>0</v>
+      </c>
+      <c r="H125" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A126" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C126" s="17">
+        <v>51</v>
+      </c>
+      <c r="D126" s="11">
+        <v>45142</v>
+      </c>
+      <c r="E126" s="17">
+        <v>23250</v>
+      </c>
+      <c r="F126" s="10">
+        <v>23250</v>
+      </c>
+      <c r="G126" s="10">
+        <v>0</v>
+      </c>
+      <c r="H126" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C127" s="17">
+        <v>53</v>
+      </c>
+      <c r="D127" s="11">
+        <v>45145</v>
+      </c>
+      <c r="E127" s="17">
+        <v>9200</v>
+      </c>
+      <c r="F127" s="10">
+        <v>9200</v>
+      </c>
+      <c r="G127" s="10">
+        <v>0</v>
+      </c>
+      <c r="H127" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A128" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B128" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C104" s="17">
+      <c r="C128" s="17">
         <v>81</v>
       </c>
-      <c r="D104" s="11">
+      <c r="D128" s="11">
         <v>45191</v>
       </c>
-      <c r="E104" s="17">
+      <c r="E128" s="17">
         <v>25996</v>
       </c>
-      <c r="F104" s="10">
+      <c r="F128" s="10">
         <v>25996</v>
       </c>
-      <c r="G104" s="10">
-        <v>0</v>
-      </c>
-      <c r="H104" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E105">
-        <f>SUM(E2:E104)</f>
-        <v>1732397</v>
-      </c>
-      <c r="F105">
-        <f>SUM(F2:F104)</f>
-        <v>879372</v>
+      <c r="G128" s="10">
+        <v>0</v>
+      </c>
+      <c r="H128" s="10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Arcline_master_database.xlsx
+++ b/Arcline_master_database.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="172">
   <si>
     <t>Model</t>
   </si>
@@ -383,21 +383,6 @@
   </si>
   <si>
     <t>Amount_received</t>
-  </si>
-  <si>
-    <t>Chandre gowda</t>
-  </si>
-  <si>
-    <t>Rajkumar</t>
-  </si>
-  <si>
-    <t>Davangere</t>
-  </si>
-  <si>
-    <t>Srinivas</t>
-  </si>
-  <si>
-    <t>Nagarnhavi</t>
   </si>
   <si>
     <t>Discount</t>
@@ -1328,7 +1313,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C25" s="20">
         <v>24</v>
@@ -1339,7 +1324,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C26" s="20">
         <v>24</v>
@@ -1350,7 +1335,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C27" s="20">
         <v>4</v>
@@ -1361,7 +1346,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C28" s="20">
         <v>78</v>
@@ -1372,7 +1357,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C29" s="20">
         <v>28</v>
@@ -1383,7 +1368,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C30" s="20">
         <v>3</v>
@@ -1394,7 +1379,7 @@
         <v>7</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C31" s="20">
         <v>59</v>
@@ -1405,7 +1390,7 @@
         <v>7</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C32" s="20">
         <v>8</v>
@@ -1416,7 +1401,7 @@
         <v>7</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C33" s="20">
         <v>8</v>
@@ -1427,7 +1412,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C34" s="20">
         <v>16</v>
@@ -1438,7 +1423,7 @@
         <v>7</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C35" s="20">
         <v>9</v>
@@ -1449,7 +1434,7 @@
         <v>7</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C36" s="20">
         <v>16</v>
@@ -1460,7 +1445,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C37" s="20">
         <v>28</v>
@@ -1921,7 +1906,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C25" s="27">
         <v>949.9</v>
@@ -1939,7 +1924,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C26" s="27">
         <v>1050.2</v>
@@ -1957,7 +1942,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C27" s="27">
         <v>1298</v>
@@ -1975,7 +1960,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C28" s="27">
         <v>1121</v>
@@ -1993,7 +1978,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C29" s="27">
         <v>1121</v>
@@ -2011,7 +1996,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C30" s="27">
         <v>1121</v>
@@ -2029,7 +2014,7 @@
         <v>7</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C31" s="27">
         <v>1121</v>
@@ -2047,7 +2032,7 @@
         <v>7</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C32" s="27">
         <v>1121</v>
@@ -2065,7 +2050,7 @@
         <v>7</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C33" s="27">
         <v>1180</v>
@@ -2083,7 +2068,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C34" s="27">
         <v>1210</v>
@@ -2101,7 +2086,7 @@
         <v>7</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C35" s="27">
         <v>2065</v>
@@ -2119,7 +2104,7 @@
         <v>7</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C36" s="27">
         <v>2065</v>
@@ -2137,7 +2122,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C37" s="27">
         <v>1121</v>
@@ -2376,7 +2361,7 @@
         <v>45250</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C15" s="3">
         <v>150000</v>
@@ -2390,13 +2375,13 @@
         <v>45250</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C16" s="3">
         <v>106720.8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2404,7 +2389,7 @@
         <v>45229</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C17" s="3">
         <v>3540</v>
@@ -2418,7 +2403,7 @@
         <v>45230</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C18" s="3">
         <v>79743.22</v>
@@ -2432,13 +2417,13 @@
         <v>45250</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C19" s="3">
         <v>166899.20000000001</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2446,7 +2431,7 @@
         <v>45250</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C20" s="3">
         <v>1840.8</v>
@@ -2460,7 +2445,7 @@
         <v>45250</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C21" s="3">
         <v>45132.639999999999</v>
@@ -2474,13 +2459,13 @@
         <v>45313</v>
       </c>
       <c r="B22" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C22" s="22">
         <v>147382</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2488,13 +2473,13 @@
         <v>45314</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C23" s="22">
         <v>9322</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2506,8 +2491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85:F87"/>
+    <sheetView tabSelected="1" topLeftCell="B115" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126:H128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2544,10 +2529,10 @@
         <v>85</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5172,10 +5157,10 @@
     </row>
     <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C102" s="7">
         <v>114</v>
@@ -5198,10 +5183,10 @@
     </row>
     <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C103" s="7">
         <v>119</v>
@@ -5224,10 +5209,10 @@
     </row>
     <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C104" s="7">
         <v>120</v>
@@ -5250,10 +5235,10 @@
     </row>
     <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="15" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C105" s="7">
         <v>150</v>
@@ -5276,10 +5261,10 @@
     </row>
     <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C106" s="7">
         <v>124</v>
@@ -5302,10 +5287,10 @@
     </row>
     <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C107" s="7">
         <v>127</v>
@@ -5328,10 +5313,10 @@
     </row>
     <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="15" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C108" s="7">
         <v>128</v>
@@ -5354,10 +5339,10 @@
     </row>
     <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="15" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C109" s="7">
         <v>129</v>
@@ -5380,10 +5365,10 @@
     </row>
     <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="15" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C110" s="7">
         <v>23</v>
@@ -5406,10 +5391,10 @@
     </row>
     <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C111" s="7">
         <v>137</v>
@@ -5432,10 +5417,10 @@
     </row>
     <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B112" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="C112" s="7">
         <v>141</v>
@@ -5458,10 +5443,10 @@
     </row>
     <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B113" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="C113" s="7">
         <v>143</v>
@@ -5484,10 +5469,10 @@
     </row>
     <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C114" s="7">
         <v>145</v>
@@ -5510,10 +5495,10 @@
     </row>
     <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B115" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="C115" s="7">
         <v>156</v>
@@ -5536,10 +5521,10 @@
     </row>
     <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B116" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="C116" s="7">
         <v>17</v>
@@ -5562,10 +5547,10 @@
     </row>
     <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="15" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C117" s="7">
         <v>160</v>
@@ -5588,10 +5573,10 @@
     </row>
     <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="15" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C118" s="7">
         <v>166</v>
@@ -5614,10 +5599,10 @@
     </row>
     <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C119" s="7">
         <v>170</v>
@@ -5640,10 +5625,10 @@
     </row>
     <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="15" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C120" s="7">
         <v>172</v>
@@ -5666,10 +5651,10 @@
     </row>
     <row r="121" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="15" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C121" s="7">
         <v>6</v>
@@ -5692,10 +5677,10 @@
     </row>
     <row r="122" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="31" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C122" s="32">
         <v>9</v>
@@ -5718,7 +5703,7 @@
     </row>
     <row r="123" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="31" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B123" s="33" t="s">
         <v>90</v>
@@ -5744,10 +5729,10 @@
     </row>
     <row r="124" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="31" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B124" s="33" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C124" s="32">
         <v>14</v>
@@ -5770,10 +5755,10 @@
     </row>
     <row r="125" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="31" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B125" s="33" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C125" s="32">
         <v>20</v>
@@ -5795,82 +5780,34 @@
       </c>
     </row>
     <row r="126" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A126" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C126" s="17">
-        <v>51</v>
-      </c>
-      <c r="D126" s="11">
-        <v>45142</v>
-      </c>
-      <c r="E126" s="17">
-        <v>23250</v>
-      </c>
-      <c r="F126" s="10">
-        <v>23250</v>
-      </c>
-      <c r="G126" s="10">
-        <v>0</v>
-      </c>
-      <c r="H126" s="10">
-        <v>0</v>
-      </c>
+      <c r="A126" s="15"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="10"/>
     </row>
     <row r="127" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A127" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C127" s="17">
-        <v>53</v>
-      </c>
-      <c r="D127" s="11">
-        <v>45145</v>
-      </c>
-      <c r="E127" s="17">
-        <v>9200</v>
-      </c>
-      <c r="F127" s="10">
-        <v>9200</v>
-      </c>
-      <c r="G127" s="10">
-        <v>0</v>
-      </c>
-      <c r="H127" s="10">
-        <v>0</v>
-      </c>
+      <c r="A127" s="16"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="17"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
     </row>
     <row r="128" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A128" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C128" s="17">
-        <v>81</v>
-      </c>
-      <c r="D128" s="11">
-        <v>45191</v>
-      </c>
-      <c r="E128" s="17">
-        <v>25996</v>
-      </c>
-      <c r="F128" s="10">
-        <v>25996</v>
-      </c>
-      <c r="G128" s="10">
-        <v>0</v>
-      </c>
-      <c r="H128" s="10">
-        <v>0</v>
-      </c>
+      <c r="A128" s="15"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="17"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
